--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,21 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['22', '28']</t>
+  </si>
+  <si>
+    <t>['25', '79']</t>
+  </si>
+  <si>
+    <t>['36', '61']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['63', '76']</t>
+  </si>
+  <si>
     <t>['27', '68', '90+9']</t>
   </si>
   <si>
@@ -506,6 +521,9 @@
   </si>
   <si>
     <t>['39', '44', '63', '67', '76']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK66"/>
+  <dimension ref="A1:BK71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1111,7 +1129,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1201,7 +1219,7 @@
         <v>1.67</v>
       </c>
       <c r="AT2">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1493,7 +1511,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2153,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT7">
         <v>0.17</v>
@@ -2344,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT8">
         <v>0.2</v>
@@ -2639,7 +2657,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2726,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT10">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2830,7 +2848,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -2917,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT11">
         <v>2.5</v>
@@ -3021,7 +3039,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3212,7 +3230,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3493,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="AT14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU14">
         <v>2.32</v>
@@ -3875,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="AT16">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU16">
         <v>0.61</v>
@@ -3976,7 +3994,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4063,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4358,7 +4376,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -4549,7 +4567,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4827,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT21">
         <v>0.2</v>
@@ -5018,10 +5036,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU22">
         <v>1.55</v>
@@ -5122,7 +5140,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5313,7 +5331,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5400,7 +5418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS24">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT24">
         <v>0.17</v>
@@ -5504,7 +5522,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5594,7 +5612,7 @@
         <v>0.8</v>
       </c>
       <c r="AT25">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU25">
         <v>1.79</v>
@@ -5695,7 +5713,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -5782,7 +5800,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT26">
         <v>2.5</v>
@@ -5886,7 +5904,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6077,7 +6095,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6358,7 +6376,7 @@
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU29">
         <v>2.15</v>
@@ -6549,7 +6567,7 @@
         <v>1.6</v>
       </c>
       <c r="AT30">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU30">
         <v>1.39</v>
@@ -6650,7 +6668,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7032,7 +7050,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7119,10 +7137,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
+        <v>1.25</v>
+      </c>
+      <c r="AT33">
         <v>0.67</v>
-      </c>
-      <c r="AT33">
-        <v>0.8</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7223,7 +7241,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7313,7 +7331,7 @@
         <v>0.4</v>
       </c>
       <c r="AT34">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU34">
         <v>0.96</v>
@@ -7414,7 +7432,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7501,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT35">
         <v>1.75</v>
@@ -8265,10 +8283,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT39">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU39">
         <v>1.84</v>
@@ -8560,7 +8578,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8751,7 +8769,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -8838,7 +8856,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT42">
         <v>1.5</v>
@@ -9029,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT43">
         <v>0</v>
@@ -9133,7 +9151,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9324,7 +9342,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9414,7 +9432,7 @@
         <v>0.8</v>
       </c>
       <c r="AT45">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU45">
         <v>1.62</v>
@@ -9515,7 +9533,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9706,7 +9724,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9793,10 +9811,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT47">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU47">
         <v>1.2</v>
@@ -9987,7 +10005,7 @@
         <v>3</v>
       </c>
       <c r="AT48">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU48">
         <v>1.12</v>
@@ -10088,7 +10106,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10175,7 +10193,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT49">
         <v>2.4</v>
@@ -10279,7 +10297,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10470,7 +10488,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -10748,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT52">
         <v>0</v>
@@ -10939,10 +10957,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT53">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU53">
         <v>2.19</v>
@@ -11043,7 +11061,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11130,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT54">
         <v>1</v>
@@ -11234,7 +11252,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11616,7 +11634,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11703,10 +11721,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT57">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -11807,7 +11825,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -11998,7 +12016,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12189,7 +12207,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12571,7 +12589,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -12661,7 +12679,7 @@
         <v>2</v>
       </c>
       <c r="AT62">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU62">
         <v>1.84</v>
@@ -12762,7 +12780,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -12849,7 +12867,7 @@
         <v>2.25</v>
       </c>
       <c r="AS63">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT63">
         <v>2.4</v>
@@ -13043,7 +13061,7 @@
         <v>0.4</v>
       </c>
       <c r="AT64">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.07</v>
@@ -13144,7 +13162,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13335,7 +13353,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13477,6 +13495,961 @@
       </c>
       <c r="BK66">
         <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:63">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>3157356</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>127</v>
+      </c>
+      <c r="P67" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q67">
+        <v>5</v>
+      </c>
+      <c r="R67">
+        <v>4</v>
+      </c>
+      <c r="S67">
+        <v>9</v>
+      </c>
+      <c r="T67">
+        <v>1.67</v>
+      </c>
+      <c r="U67">
+        <v>2.5</v>
+      </c>
+      <c r="V67">
+        <v>11</v>
+      </c>
+      <c r="W67">
+        <v>1.33</v>
+      </c>
+      <c r="X67">
+        <v>3.25</v>
+      </c>
+      <c r="Y67">
+        <v>2.63</v>
+      </c>
+      <c r="Z67">
+        <v>1.44</v>
+      </c>
+      <c r="AA67">
+        <v>6.5</v>
+      </c>
+      <c r="AB67">
+        <v>1.11</v>
+      </c>
+      <c r="AC67">
+        <v>1.18</v>
+      </c>
+      <c r="AD67">
+        <v>6.25</v>
+      </c>
+      <c r="AE67">
+        <v>12</v>
+      </c>
+      <c r="AF67">
+        <v>1.02</v>
+      </c>
+      <c r="AG67">
+        <v>15</v>
+      </c>
+      <c r="AH67">
+        <v>1.22</v>
+      </c>
+      <c r="AI67">
+        <v>4.2</v>
+      </c>
+      <c r="AJ67">
+        <v>1.72</v>
+      </c>
+      <c r="AK67">
+        <v>2.02</v>
+      </c>
+      <c r="AL67">
+        <v>2.5</v>
+      </c>
+      <c r="AM67">
+        <v>1.5</v>
+      </c>
+      <c r="AN67">
+        <v>1.04</v>
+      </c>
+      <c r="AO67">
+        <v>1.13</v>
+      </c>
+      <c r="AP67">
+        <v>4</v>
+      </c>
+      <c r="AQ67">
+        <v>2</v>
+      </c>
+      <c r="AR67">
+        <v>0.8</v>
+      </c>
+      <c r="AS67">
+        <v>2.17</v>
+      </c>
+      <c r="AT67">
+        <v>0.67</v>
+      </c>
+      <c r="AU67">
+        <v>1.76</v>
+      </c>
+      <c r="AV67">
+        <v>1.12</v>
+      </c>
+      <c r="AW67">
+        <v>2.88</v>
+      </c>
+      <c r="AX67">
+        <v>1.97</v>
+      </c>
+      <c r="AY67">
+        <v>7</v>
+      </c>
+      <c r="AZ67">
+        <v>2.17</v>
+      </c>
+      <c r="BA67">
+        <v>1.4</v>
+      </c>
+      <c r="BB67">
+        <v>1.5</v>
+      </c>
+      <c r="BC67">
+        <v>1.87</v>
+      </c>
+      <c r="BD67">
+        <v>2.45</v>
+      </c>
+      <c r="BE67">
+        <v>4.1</v>
+      </c>
+      <c r="BF67">
+        <v>8</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>6</v>
+      </c>
+      <c r="BI67">
+        <v>11</v>
+      </c>
+      <c r="BJ67">
+        <v>14</v>
+      </c>
+      <c r="BK67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>3157355</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2">
+        <v>44864.47916666666</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>128</v>
+      </c>
+      <c r="P68" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <v>9</v>
+      </c>
+      <c r="S68">
+        <v>13</v>
+      </c>
+      <c r="T68">
+        <v>3.5</v>
+      </c>
+      <c r="U68">
+        <v>1.95</v>
+      </c>
+      <c r="V68">
+        <v>3.6</v>
+      </c>
+      <c r="W68">
+        <v>1.53</v>
+      </c>
+      <c r="X68">
+        <v>2.38</v>
+      </c>
+      <c r="Y68">
+        <v>3.75</v>
+      </c>
+      <c r="Z68">
+        <v>1.25</v>
+      </c>
+      <c r="AA68">
+        <v>11</v>
+      </c>
+      <c r="AB68">
+        <v>1.05</v>
+      </c>
+      <c r="AC68">
+        <v>2.58</v>
+      </c>
+      <c r="AD68">
+        <v>3.05</v>
+      </c>
+      <c r="AE68">
+        <v>2.47</v>
+      </c>
+      <c r="AF68">
+        <v>1.09</v>
+      </c>
+      <c r="AG68">
+        <v>7.5</v>
+      </c>
+      <c r="AH68">
+        <v>1.45</v>
+      </c>
+      <c r="AI68">
+        <v>2.75</v>
+      </c>
+      <c r="AJ68">
+        <v>2.42</v>
+      </c>
+      <c r="AK68">
+        <v>1.51</v>
+      </c>
+      <c r="AL68">
+        <v>2.05</v>
+      </c>
+      <c r="AM68">
+        <v>1.7</v>
+      </c>
+      <c r="AN68">
+        <v>1.44</v>
+      </c>
+      <c r="AO68">
+        <v>1.35</v>
+      </c>
+      <c r="AP68">
+        <v>1.43</v>
+      </c>
+      <c r="AQ68">
+        <v>0.67</v>
+      </c>
+      <c r="AR68">
+        <v>0.75</v>
+      </c>
+      <c r="AS68">
+        <v>1.25</v>
+      </c>
+      <c r="AT68">
+        <v>0.6</v>
+      </c>
+      <c r="AU68">
+        <v>1.03</v>
+      </c>
+      <c r="AV68">
+        <v>1.02</v>
+      </c>
+      <c r="AW68">
+        <v>2.05</v>
+      </c>
+      <c r="AX68">
+        <v>1.87</v>
+      </c>
+      <c r="AY68">
+        <v>7.2</v>
+      </c>
+      <c r="AZ68">
+        <v>2.46</v>
+      </c>
+      <c r="BA68">
+        <v>1.52</v>
+      </c>
+      <c r="BB68">
+        <v>1.95</v>
+      </c>
+      <c r="BC68">
+        <v>2.56</v>
+      </c>
+      <c r="BD68">
+        <v>3.48</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>4</v>
+      </c>
+      <c r="BG68">
+        <v>2</v>
+      </c>
+      <c r="BH68">
+        <v>10</v>
+      </c>
+      <c r="BI68">
+        <v>11</v>
+      </c>
+      <c r="BJ68">
+        <v>14</v>
+      </c>
+      <c r="BK68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>3157351</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="2">
+        <v>44864.60416666666</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>129</v>
+      </c>
+      <c r="P69" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q69">
+        <v>8</v>
+      </c>
+      <c r="R69">
+        <v>5</v>
+      </c>
+      <c r="S69">
+        <v>13</v>
+      </c>
+      <c r="T69">
+        <v>2.4</v>
+      </c>
+      <c r="U69">
+        <v>2.1</v>
+      </c>
+      <c r="V69">
+        <v>5.5</v>
+      </c>
+      <c r="W69">
+        <v>1.44</v>
+      </c>
+      <c r="X69">
+        <v>2.63</v>
+      </c>
+      <c r="Y69">
+        <v>3.4</v>
+      </c>
+      <c r="Z69">
+        <v>1.3</v>
+      </c>
+      <c r="AA69">
+        <v>10</v>
+      </c>
+      <c r="AB69">
+        <v>1.06</v>
+      </c>
+      <c r="AC69">
+        <v>2.01</v>
+      </c>
+      <c r="AD69">
+        <v>3.25</v>
+      </c>
+      <c r="AE69">
+        <v>3.2</v>
+      </c>
+      <c r="AF69">
+        <v>1.08</v>
+      </c>
+      <c r="AG69">
+        <v>8.5</v>
+      </c>
+      <c r="AH69">
+        <v>1.42</v>
+      </c>
+      <c r="AI69">
+        <v>2.9</v>
+      </c>
+      <c r="AJ69">
+        <v>2.19</v>
+      </c>
+      <c r="AK69">
+        <v>1.6</v>
+      </c>
+      <c r="AL69">
+        <v>2.05</v>
+      </c>
+      <c r="AM69">
+        <v>1.7</v>
+      </c>
+      <c r="AN69">
+        <v>1.19</v>
+      </c>
+      <c r="AO69">
+        <v>1.29</v>
+      </c>
+      <c r="AP69">
+        <v>1.98</v>
+      </c>
+      <c r="AQ69">
+        <v>2.25</v>
+      </c>
+      <c r="AR69">
+        <v>1.5</v>
+      </c>
+      <c r="AS69">
+        <v>2.4</v>
+      </c>
+      <c r="AT69">
+        <v>1.2</v>
+      </c>
+      <c r="AU69">
+        <v>2.5</v>
+      </c>
+      <c r="AV69">
+        <v>1.25</v>
+      </c>
+      <c r="AW69">
+        <v>3.75</v>
+      </c>
+      <c r="AX69">
+        <v>1.38</v>
+      </c>
+      <c r="AY69">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ69">
+        <v>4.12</v>
+      </c>
+      <c r="BA69">
+        <v>1.31</v>
+      </c>
+      <c r="BB69">
+        <v>1.59</v>
+      </c>
+      <c r="BC69">
+        <v>2.04</v>
+      </c>
+      <c r="BD69">
+        <v>2.69</v>
+      </c>
+      <c r="BE69">
+        <v>3.64</v>
+      </c>
+      <c r="BF69">
+        <v>8</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>9</v>
+      </c>
+      <c r="BI69">
+        <v>5</v>
+      </c>
+      <c r="BJ69">
+        <v>17</v>
+      </c>
+      <c r="BK69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>3157352</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>44864.64583333334</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" t="s">
+        <v>76</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>130</v>
+      </c>
+      <c r="P70" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q70">
+        <v>5</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>6</v>
+      </c>
+      <c r="T70">
+        <v>1.95</v>
+      </c>
+      <c r="U70">
+        <v>2.25</v>
+      </c>
+      <c r="V70">
+        <v>7.5</v>
+      </c>
+      <c r="W70">
+        <v>1.4</v>
+      </c>
+      <c r="X70">
+        <v>2.75</v>
+      </c>
+      <c r="Y70">
+        <v>3</v>
+      </c>
+      <c r="Z70">
+        <v>1.36</v>
+      </c>
+      <c r="AA70">
+        <v>8</v>
+      </c>
+      <c r="AB70">
+        <v>1.08</v>
+      </c>
+      <c r="AC70">
+        <v>1.39</v>
+      </c>
+      <c r="AD70">
+        <v>4.15</v>
+      </c>
+      <c r="AE70">
+        <v>7.13</v>
+      </c>
+      <c r="AF70">
+        <v>1.05</v>
+      </c>
+      <c r="AG70">
+        <v>11</v>
+      </c>
+      <c r="AH70">
+        <v>1.33</v>
+      </c>
+      <c r="AI70">
+        <v>3.4</v>
+      </c>
+      <c r="AJ70">
+        <v>1.92</v>
+      </c>
+      <c r="AK70">
+        <v>1.81</v>
+      </c>
+      <c r="AL70">
+        <v>2.25</v>
+      </c>
+      <c r="AM70">
+        <v>1.57</v>
+      </c>
+      <c r="AN70">
+        <v>1.09</v>
+      </c>
+      <c r="AO70">
+        <v>1.2</v>
+      </c>
+      <c r="AP70">
+        <v>2.8</v>
+      </c>
+      <c r="AQ70">
+        <v>2</v>
+      </c>
+      <c r="AR70">
+        <v>1</v>
+      </c>
+      <c r="AS70">
+        <v>1.83</v>
+      </c>
+      <c r="AT70">
+        <v>1</v>
+      </c>
+      <c r="AU70">
+        <v>1.46</v>
+      </c>
+      <c r="AV70">
+        <v>1.11</v>
+      </c>
+      <c r="AW70">
+        <v>2.57</v>
+      </c>
+      <c r="AX70">
+        <v>1.1</v>
+      </c>
+      <c r="AY70">
+        <v>13.5</v>
+      </c>
+      <c r="AZ70">
+        <v>10.5</v>
+      </c>
+      <c r="BA70">
+        <v>1.45</v>
+      </c>
+      <c r="BB70">
+        <v>1.83</v>
+      </c>
+      <c r="BC70">
+        <v>2.39</v>
+      </c>
+      <c r="BD70">
+        <v>3.28</v>
+      </c>
+      <c r="BE70">
+        <v>4.1</v>
+      </c>
+      <c r="BF70">
+        <v>3</v>
+      </c>
+      <c r="BG70">
+        <v>4</v>
+      </c>
+      <c r="BH70">
+        <v>19</v>
+      </c>
+      <c r="BI70">
+        <v>2</v>
+      </c>
+      <c r="BJ70">
+        <v>22</v>
+      </c>
+      <c r="BK70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>3157357</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="2">
+        <v>44865.54166666666</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>131</v>
+      </c>
+      <c r="P71" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q71">
+        <v>6</v>
+      </c>
+      <c r="R71">
+        <v>6</v>
+      </c>
+      <c r="S71">
+        <v>12</v>
+      </c>
+      <c r="T71">
+        <v>3.1</v>
+      </c>
+      <c r="U71">
+        <v>1.93</v>
+      </c>
+      <c r="V71">
+        <v>3.5</v>
+      </c>
+      <c r="W71">
+        <v>1.51</v>
+      </c>
+      <c r="X71">
+        <v>2.37</v>
+      </c>
+      <c r="Y71">
+        <v>3.4</v>
+      </c>
+      <c r="Z71">
+        <v>1.28</v>
+      </c>
+      <c r="AA71">
+        <v>9.5</v>
+      </c>
+      <c r="AB71">
+        <v>1.05</v>
+      </c>
+      <c r="AC71">
+        <v>2.6</v>
+      </c>
+      <c r="AD71">
+        <v>3</v>
+      </c>
+      <c r="AE71">
+        <v>2.7</v>
+      </c>
+      <c r="AF71">
+        <v>1.09</v>
+      </c>
+      <c r="AG71">
+        <v>6.75</v>
+      </c>
+      <c r="AH71">
+        <v>1.43</v>
+      </c>
+      <c r="AI71">
+        <v>2.6</v>
+      </c>
+      <c r="AJ71">
+        <v>2.4</v>
+      </c>
+      <c r="AK71">
+        <v>1.54</v>
+      </c>
+      <c r="AL71">
+        <v>1.98</v>
+      </c>
+      <c r="AM71">
+        <v>1.72</v>
+      </c>
+      <c r="AN71">
+        <v>1.39</v>
+      </c>
+      <c r="AO71">
+        <v>1.35</v>
+      </c>
+      <c r="AP71">
+        <v>1.51</v>
+      </c>
+      <c r="AQ71">
+        <v>1.25</v>
+      </c>
+      <c r="AR71">
+        <v>0.8</v>
+      </c>
+      <c r="AS71">
+        <v>1.6</v>
+      </c>
+      <c r="AT71">
+        <v>0.67</v>
+      </c>
+      <c r="AU71">
+        <v>1.71</v>
+      </c>
+      <c r="AV71">
+        <v>1.21</v>
+      </c>
+      <c r="AW71">
+        <v>2.92</v>
+      </c>
+      <c r="AX71">
+        <v>1.9</v>
+      </c>
+      <c r="AY71">
+        <v>5</v>
+      </c>
+      <c r="AZ71">
+        <v>2.15</v>
+      </c>
+      <c r="BA71">
+        <v>1.62</v>
+      </c>
+      <c r="BB71">
+        <v>2.1</v>
+      </c>
+      <c r="BC71">
+        <v>2.85</v>
+      </c>
+      <c r="BD71">
+        <v>4.04</v>
+      </c>
+      <c r="BE71">
+        <v>5.7</v>
+      </c>
+      <c r="BF71">
+        <v>5</v>
+      </c>
+      <c r="BG71">
+        <v>2</v>
+      </c>
+      <c r="BH71">
+        <v>7</v>
+      </c>
+      <c r="BI71">
+        <v>8</v>
+      </c>
+      <c r="BJ71">
+        <v>12</v>
+      </c>
+      <c r="BK71">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,39 @@
     <t>['63', '76']</t>
   </si>
   <si>
+    <t>['10', '39']</t>
+  </si>
+  <si>
+    <t>['8', '10']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['17', '33', '36', '58', '90+1']</t>
+  </si>
+  <si>
+    <t>['9', '12']</t>
+  </si>
+  <si>
+    <t>['6', '11', '60']</t>
+  </si>
+  <si>
+    <t>['47', '55']</t>
+  </si>
+  <si>
+    <t>['80', '90+4']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['28', '30', '62']</t>
+  </si>
+  <si>
+    <t>['74', '82']</t>
+  </si>
+  <si>
     <t>['27', '68', '90+9']</t>
   </si>
   <si>
@@ -524,6 +557,33 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['38', '56']</t>
+  </si>
+  <si>
+    <t>['56', '83']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['27', '34', '57']</t>
+  </si>
+  <si>
+    <t>['60', '79', '81', '90+3']</t>
+  </si>
+  <si>
+    <t>['7', '30', '90+7']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK71"/>
+  <dimension ref="A1:BK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1129,7 +1189,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1216,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1407,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1511,7 +1571,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1598,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT4">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1789,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT5">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1980,10 +2040,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2171,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2362,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2553,10 +2613,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT9">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2657,7 +2717,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2744,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT10">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2848,7 +2908,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -2935,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT11">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3039,7 +3099,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3126,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT12">
-        <v>0.75</v>
+        <v>1.17</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3230,7 +3290,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3317,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="AT13">
         <v>3</v>
@@ -3508,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>2.32</v>
@@ -3699,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3890,10 +3950,10 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT16">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU16">
         <v>0.61</v>
@@ -3994,7 +4054,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4081,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU17">
         <v>1.85</v>
@@ -4272,10 +4332,10 @@
         <v>0.5</v>
       </c>
       <c r="AS18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT18">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AU18">
         <v>1.27</v>
@@ -4376,7 +4436,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -4463,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AT19">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU19">
         <v>1.3</v>
@@ -4567,7 +4627,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4654,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU20">
         <v>1.54</v>
@@ -4845,10 +4905,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT21">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5036,10 +5096,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU22">
         <v>1.55</v>
@@ -5140,7 +5200,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5227,10 +5287,10 @@
         <v>0.5</v>
       </c>
       <c r="AS23">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5331,7 +5391,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5418,10 +5478,10 @@
         <v>0.33</v>
       </c>
       <c r="AS24">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT24">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AU24">
         <v>1.46</v>
@@ -5522,7 +5582,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5609,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT25">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU25">
         <v>1.79</v>
@@ -5713,7 +5773,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -5800,10 +5860,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT26">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AU26">
         <v>1.66</v>
@@ -5904,7 +5964,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -5991,10 +6051,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT27">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AU27">
         <v>1.22</v>
@@ -6095,7 +6155,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6182,10 +6242,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>0.75</v>
+        <v>1.17</v>
       </c>
       <c r="AU28">
         <v>0.66</v>
@@ -6373,10 +6433,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT29">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU29">
         <v>2.15</v>
@@ -6564,10 +6624,10 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AT30">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU30">
         <v>1.39</v>
@@ -6668,7 +6728,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -6755,10 +6815,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT31">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AU31">
         <v>1.01</v>
@@ -6946,10 +7006,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT32">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="AU32">
         <v>1.18</v>
@@ -7050,7 +7110,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7137,10 +7197,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7241,7 +7301,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7328,10 +7388,10 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="AT34">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU34">
         <v>0.96</v>
@@ -7432,7 +7492,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7519,10 +7579,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
+        <v>2</v>
+      </c>
+      <c r="AT35">
         <v>1.83</v>
-      </c>
-      <c r="AT35">
-        <v>1.75</v>
       </c>
       <c r="AU35">
         <v>1.46</v>
@@ -7710,10 +7770,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU36">
         <v>1.45</v>
@@ -7901,10 +7961,10 @@
         <v>0.25</v>
       </c>
       <c r="AS37">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT37">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AU37">
         <v>0.61</v>
@@ -8092,10 +8152,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU38">
         <v>1.24</v>
@@ -8283,10 +8343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT39">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU39">
         <v>1.84</v>
@@ -8474,10 +8534,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT40">
-        <v>0.75</v>
+        <v>1.17</v>
       </c>
       <c r="AU40">
         <v>1.35</v>
@@ -8578,7 +8638,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8665,7 +8725,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT41">
         <v>3</v>
@@ -8769,7 +8829,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -8856,10 +8916,10 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT42">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU42">
         <v>1.73</v>
@@ -9047,10 +9107,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT43">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU43">
         <v>1.82</v>
@@ -9151,7 +9211,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9238,10 +9298,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT44">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AU44">
         <v>0.77</v>
@@ -9342,7 +9402,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9429,10 +9489,10 @@
         <v>0.67</v>
       </c>
       <c r="AS45">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT45">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU45">
         <v>1.62</v>
@@ -9533,7 +9593,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9620,10 +9680,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="AT46">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AU46">
         <v>1.05</v>
@@ -9724,7 +9784,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9811,10 +9871,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT47">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU47">
         <v>1.2</v>
@@ -10002,10 +10062,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT48">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU48">
         <v>1.12</v>
@@ -10106,7 +10166,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10193,10 +10253,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT49">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AU49">
         <v>1.5</v>
@@ -10297,7 +10357,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10384,10 +10444,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AT50">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="AU50">
         <v>1.34</v>
@@ -10488,7 +10548,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -10575,10 +10635,10 @@
         <v>0.2</v>
       </c>
       <c r="AS51">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT51">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AU51">
         <v>1.3</v>
@@ -10766,10 +10826,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT52">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU52">
         <v>1.38</v>
@@ -10957,10 +11017,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU53">
         <v>2.19</v>
@@ -11061,7 +11121,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11148,10 +11208,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU54">
         <v>1.81</v>
@@ -11252,7 +11312,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11339,7 +11399,7 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT55">
         <v>3</v>
@@ -11530,10 +11590,10 @@
         <v>1.75</v>
       </c>
       <c r="AS56">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AT56">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU56">
         <v>1.22</v>
@@ -11634,7 +11694,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11721,10 +11781,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT57">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -11825,7 +11885,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -11912,10 +11972,10 @@
         <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AT58">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AU58">
         <v>1.42</v>
@@ -12016,7 +12076,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12103,10 +12163,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT59">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AU59">
         <v>0.83</v>
@@ -12207,7 +12267,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12294,10 +12354,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT60">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="AU60">
         <v>1.83</v>
@@ -12485,10 +12545,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT61">
-        <v>0.75</v>
+        <v>1.17</v>
       </c>
       <c r="AU61">
         <v>1.3</v>
@@ -12589,7 +12649,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -12676,10 +12736,10 @@
         <v>0.75</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT62">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU62">
         <v>1.84</v>
@@ -12780,7 +12840,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -12867,10 +12927,10 @@
         <v>2.25</v>
       </c>
       <c r="AS63">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT63">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AU63">
         <v>1.08</v>
@@ -13058,10 +13118,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="AT64">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU64">
         <v>1.07</v>
@@ -13162,7 +13222,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13249,10 +13309,10 @@
         <v>1.6</v>
       </c>
       <c r="AS65">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT65">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU65">
         <v>1.71</v>
@@ -13353,7 +13413,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13440,7 +13500,7 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT66">
         <v>3</v>
@@ -13631,10 +13691,10 @@
         <v>0.8</v>
       </c>
       <c r="AS67">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT67">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU67">
         <v>1.76</v>
@@ -13735,7 +13795,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13822,10 +13882,10 @@
         <v>0.75</v>
       </c>
       <c r="AS68">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT68">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU68">
         <v>1.03</v>
@@ -14013,10 +14073,10 @@
         <v>1.5</v>
       </c>
       <c r="AS69">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT69">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU69">
         <v>2.5</v>
@@ -14117,7 +14177,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14204,10 +14264,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU70">
         <v>1.46</v>
@@ -14395,10 +14455,10 @@
         <v>0.8</v>
       </c>
       <c r="AS71">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU71">
         <v>1.71</v>
@@ -14450,6 +14510,4017 @@
       </c>
       <c r="BK71">
         <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:63">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>3157364</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2">
+        <v>44870.44791666666</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" t="s">
+        <v>65</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>132</v>
+      </c>
+      <c r="P72" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q72">
+        <v>4</v>
+      </c>
+      <c r="R72">
+        <v>7</v>
+      </c>
+      <c r="S72">
+        <v>11</v>
+      </c>
+      <c r="T72">
+        <v>3.6</v>
+      </c>
+      <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
+        <v>3.5</v>
+      </c>
+      <c r="W72">
+        <v>1.53</v>
+      </c>
+      <c r="X72">
+        <v>2.38</v>
+      </c>
+      <c r="Y72">
+        <v>3.75</v>
+      </c>
+      <c r="Z72">
+        <v>1.25</v>
+      </c>
+      <c r="AA72">
+        <v>11</v>
+      </c>
+      <c r="AB72">
+        <v>1.05</v>
+      </c>
+      <c r="AC72">
+        <v>2.55</v>
+      </c>
+      <c r="AD72">
+        <v>3.2</v>
+      </c>
+      <c r="AE72">
+        <v>2.55</v>
+      </c>
+      <c r="AF72">
+        <v>1.09</v>
+      </c>
+      <c r="AG72">
+        <v>7.5</v>
+      </c>
+      <c r="AH72">
+        <v>1.47</v>
+      </c>
+      <c r="AI72">
+        <v>2.7</v>
+      </c>
+      <c r="AJ72">
+        <v>2.4</v>
+      </c>
+      <c r="AK72">
+        <v>1.5</v>
+      </c>
+      <c r="AL72">
+        <v>2.1</v>
+      </c>
+      <c r="AM72">
+        <v>1.67</v>
+      </c>
+      <c r="AN72">
+        <v>1.47</v>
+      </c>
+      <c r="AO72">
+        <v>1.3</v>
+      </c>
+      <c r="AP72">
+        <v>1.45</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>2.5</v>
+      </c>
+      <c r="AS72">
+        <v>0.83</v>
+      </c>
+      <c r="AT72">
+        <v>1.83</v>
+      </c>
+      <c r="AU72">
+        <v>1.03</v>
+      </c>
+      <c r="AV72">
+        <v>1.08</v>
+      </c>
+      <c r="AW72">
+        <v>2.11</v>
+      </c>
+      <c r="AX72">
+        <v>2.05</v>
+      </c>
+      <c r="AY72">
+        <v>7.3</v>
+      </c>
+      <c r="AZ72">
+        <v>2.16</v>
+      </c>
+      <c r="BA72">
+        <v>1.42</v>
+      </c>
+      <c r="BB72">
+        <v>1.8</v>
+      </c>
+      <c r="BC72">
+        <v>2.35</v>
+      </c>
+      <c r="BD72">
+        <v>3.3</v>
+      </c>
+      <c r="BE72">
+        <v>4.9</v>
+      </c>
+      <c r="BF72">
+        <v>7</v>
+      </c>
+      <c r="BG72">
+        <v>5</v>
+      </c>
+      <c r="BH72">
+        <v>9</v>
+      </c>
+      <c r="BI72">
+        <v>7</v>
+      </c>
+      <c r="BJ72">
+        <v>16</v>
+      </c>
+      <c r="BK72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>3157360</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2">
+        <v>44870.5625</v>
+      </c>
+      <c r="F73">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>81</v>
+      </c>
+      <c r="P73" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q73">
+        <v>6</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+      <c r="S73">
+        <v>10</v>
+      </c>
+      <c r="T73">
+        <v>2.75</v>
+      </c>
+      <c r="U73">
+        <v>2.05</v>
+      </c>
+      <c r="V73">
+        <v>4.33</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>2.63</v>
+      </c>
+      <c r="Y73">
+        <v>3.25</v>
+      </c>
+      <c r="Z73">
+        <v>1.33</v>
+      </c>
+      <c r="AA73">
+        <v>10</v>
+      </c>
+      <c r="AB73">
+        <v>1.06</v>
+      </c>
+      <c r="AC73">
+        <v>2.07</v>
+      </c>
+      <c r="AD73">
+        <v>3.28</v>
+      </c>
+      <c r="AE73">
+        <v>3.7</v>
+      </c>
+      <c r="AF73">
+        <v>1.07</v>
+      </c>
+      <c r="AG73">
+        <v>9</v>
+      </c>
+      <c r="AH73">
+        <v>1.36</v>
+      </c>
+      <c r="AI73">
+        <v>3.1</v>
+      </c>
+      <c r="AJ73">
+        <v>2.11</v>
+      </c>
+      <c r="AK73">
+        <v>1.73</v>
+      </c>
+      <c r="AL73">
+        <v>1.95</v>
+      </c>
+      <c r="AM73">
+        <v>1.8</v>
+      </c>
+      <c r="AN73">
+        <v>1.28</v>
+      </c>
+      <c r="AO73">
+        <v>1.31</v>
+      </c>
+      <c r="AP73">
+        <v>1.72</v>
+      </c>
+      <c r="AQ73">
+        <v>0.4</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>0.71</v>
+      </c>
+      <c r="AT73">
+        <v>0.43</v>
+      </c>
+      <c r="AU73">
+        <v>1.13</v>
+      </c>
+      <c r="AV73">
+        <v>0.96</v>
+      </c>
+      <c r="AW73">
+        <v>2.09</v>
+      </c>
+      <c r="AX73">
+        <v>1.84</v>
+      </c>
+      <c r="AY73">
+        <v>7.3</v>
+      </c>
+      <c r="AZ73">
+        <v>2.5</v>
+      </c>
+      <c r="BA73">
+        <v>1.47</v>
+      </c>
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>2.5</v>
+      </c>
+      <c r="BD73">
+        <v>3.6</v>
+      </c>
+      <c r="BE73">
+        <v>5.6</v>
+      </c>
+      <c r="BF73">
+        <v>3</v>
+      </c>
+      <c r="BG73">
+        <v>8</v>
+      </c>
+      <c r="BH73">
+        <v>14</v>
+      </c>
+      <c r="BI73">
+        <v>5</v>
+      </c>
+      <c r="BJ73">
+        <v>17</v>
+      </c>
+      <c r="BK73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>3157359</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2">
+        <v>44870.58333333334</v>
+      </c>
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>81</v>
+      </c>
+      <c r="P74" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>7</v>
+      </c>
+      <c r="S74">
+        <v>12</v>
+      </c>
+      <c r="T74">
+        <v>4</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>3</v>
+      </c>
+      <c r="W74">
+        <v>1.5</v>
+      </c>
+      <c r="X74">
+        <v>2.5</v>
+      </c>
+      <c r="Y74">
+        <v>3.4</v>
+      </c>
+      <c r="Z74">
+        <v>1.3</v>
+      </c>
+      <c r="AA74">
+        <v>10</v>
+      </c>
+      <c r="AB74">
+        <v>1.06</v>
+      </c>
+      <c r="AC74">
+        <v>2.81</v>
+      </c>
+      <c r="AD74">
+        <v>3.2</v>
+      </c>
+      <c r="AE74">
+        <v>2.55</v>
+      </c>
+      <c r="AF74">
+        <v>1.08</v>
+      </c>
+      <c r="AG74">
+        <v>8</v>
+      </c>
+      <c r="AH74">
+        <v>1.44</v>
+      </c>
+      <c r="AI74">
+        <v>2.75</v>
+      </c>
+      <c r="AJ74">
+        <v>2.11</v>
+      </c>
+      <c r="AK74">
+        <v>1.73</v>
+      </c>
+      <c r="AL74">
+        <v>2</v>
+      </c>
+      <c r="AM74">
+        <v>1.75</v>
+      </c>
+      <c r="AN74">
+        <v>1.65</v>
+      </c>
+      <c r="AO74">
+        <v>1.34</v>
+      </c>
+      <c r="AP74">
+        <v>1.29</v>
+      </c>
+      <c r="AQ74">
+        <v>1.6</v>
+      </c>
+      <c r="AR74">
+        <v>0.75</v>
+      </c>
+      <c r="AS74">
+        <v>1.71</v>
+      </c>
+      <c r="AT74">
+        <v>1.17</v>
+      </c>
+      <c r="AU74">
+        <v>1.36</v>
+      </c>
+      <c r="AV74">
+        <v>1.32</v>
+      </c>
+      <c r="AW74">
+        <v>2.68</v>
+      </c>
+      <c r="AX74">
+        <v>2.7</v>
+      </c>
+      <c r="AY74">
+        <v>7.4</v>
+      </c>
+      <c r="AZ74">
+        <v>1.74</v>
+      </c>
+      <c r="BA74">
+        <v>1.47</v>
+      </c>
+      <c r="BB74">
+        <v>1.95</v>
+      </c>
+      <c r="BC74">
+        <v>2.48</v>
+      </c>
+      <c r="BD74">
+        <v>3.45</v>
+      </c>
+      <c r="BE74">
+        <v>5.4</v>
+      </c>
+      <c r="BF74">
+        <v>3</v>
+      </c>
+      <c r="BG74">
+        <v>5</v>
+      </c>
+      <c r="BH74">
+        <v>5</v>
+      </c>
+      <c r="BI74">
+        <v>8</v>
+      </c>
+      <c r="BJ74">
+        <v>8</v>
+      </c>
+      <c r="BK74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>3157363</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>44870.66666666666</v>
+      </c>
+      <c r="F75">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>133</v>
+      </c>
+      <c r="P75" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q75">
+        <v>5</v>
+      </c>
+      <c r="R75">
+        <v>6</v>
+      </c>
+      <c r="S75">
+        <v>11</v>
+      </c>
+      <c r="T75">
+        <v>1.83</v>
+      </c>
+      <c r="U75">
+        <v>2.3</v>
+      </c>
+      <c r="V75">
+        <v>8.5</v>
+      </c>
+      <c r="W75">
+        <v>1.4</v>
+      </c>
+      <c r="X75">
+        <v>2.75</v>
+      </c>
+      <c r="Y75">
+        <v>2.75</v>
+      </c>
+      <c r="Z75">
+        <v>1.4</v>
+      </c>
+      <c r="AA75">
+        <v>8</v>
+      </c>
+      <c r="AB75">
+        <v>1.08</v>
+      </c>
+      <c r="AC75">
+        <v>1.34</v>
+      </c>
+      <c r="AD75">
+        <v>4.74</v>
+      </c>
+      <c r="AE75">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AF75">
+        <v>1.04</v>
+      </c>
+      <c r="AG75">
+        <v>12</v>
+      </c>
+      <c r="AH75">
+        <v>1.3</v>
+      </c>
+      <c r="AI75">
+        <v>3.5</v>
+      </c>
+      <c r="AJ75">
+        <v>1.85</v>
+      </c>
+      <c r="AK75">
+        <v>1.95</v>
+      </c>
+      <c r="AL75">
+        <v>2.25</v>
+      </c>
+      <c r="AM75">
+        <v>1.57</v>
+      </c>
+      <c r="AN75">
+        <v>1.05</v>
+      </c>
+      <c r="AO75">
+        <v>1.14</v>
+      </c>
+      <c r="AP75">
+        <v>3.25</v>
+      </c>
+      <c r="AQ75">
+        <v>2</v>
+      </c>
+      <c r="AR75">
+        <v>0.2</v>
+      </c>
+      <c r="AS75">
+        <v>2.29</v>
+      </c>
+      <c r="AT75">
+        <v>0.14</v>
+      </c>
+      <c r="AU75">
+        <v>1.94</v>
+      </c>
+      <c r="AV75">
+        <v>0.99</v>
+      </c>
+      <c r="AW75">
+        <v>2.93</v>
+      </c>
+      <c r="AX75">
+        <v>1.03</v>
+      </c>
+      <c r="AY75">
+        <v>18</v>
+      </c>
+      <c r="AZ75">
+        <v>17</v>
+      </c>
+      <c r="BA75">
+        <v>1.3</v>
+      </c>
+      <c r="BB75">
+        <v>1.57</v>
+      </c>
+      <c r="BC75">
+        <v>2</v>
+      </c>
+      <c r="BD75">
+        <v>2.7</v>
+      </c>
+      <c r="BE75">
+        <v>3.75</v>
+      </c>
+      <c r="BF75">
+        <v>6</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>8</v>
+      </c>
+      <c r="BI75">
+        <v>5</v>
+      </c>
+      <c r="BJ75">
+        <v>14</v>
+      </c>
+      <c r="BK75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>3157362</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F76">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s">
+        <v>78</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>81</v>
+      </c>
+      <c r="P76" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q76">
+        <v>4</v>
+      </c>
+      <c r="R76">
+        <v>11</v>
+      </c>
+      <c r="S76">
+        <v>15</v>
+      </c>
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
+        <v>2.1</v>
+      </c>
+      <c r="V76">
+        <v>5</v>
+      </c>
+      <c r="W76">
+        <v>1.44</v>
+      </c>
+      <c r="X76">
+        <v>2.63</v>
+      </c>
+      <c r="Y76">
+        <v>3.25</v>
+      </c>
+      <c r="Z76">
+        <v>1.33</v>
+      </c>
+      <c r="AA76">
+        <v>9</v>
+      </c>
+      <c r="AB76">
+        <v>1.07</v>
+      </c>
+      <c r="AC76">
+        <v>1.71</v>
+      </c>
+      <c r="AD76">
+        <v>3.23</v>
+      </c>
+      <c r="AE76">
+        <v>4.52</v>
+      </c>
+      <c r="AF76">
+        <v>1.04</v>
+      </c>
+      <c r="AG76">
+        <v>8</v>
+      </c>
+      <c r="AH76">
+        <v>1.32</v>
+      </c>
+      <c r="AI76">
+        <v>3.1</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>1.7</v>
+      </c>
+      <c r="AL76">
+        <v>1.95</v>
+      </c>
+      <c r="AM76">
+        <v>1.8</v>
+      </c>
+      <c r="AN76">
+        <v>1.18</v>
+      </c>
+      <c r="AO76">
+        <v>1.3</v>
+      </c>
+      <c r="AP76">
+        <v>2.05</v>
+      </c>
+      <c r="AQ76">
+        <v>0.75</v>
+      </c>
+      <c r="AR76">
+        <v>0.17</v>
+      </c>
+      <c r="AS76">
+        <v>0.67</v>
+      </c>
+      <c r="AT76">
+        <v>0.25</v>
+      </c>
+      <c r="AU76">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AV76">
+        <v>1.11</v>
+      </c>
+      <c r="AW76">
+        <v>1.92</v>
+      </c>
+      <c r="AX76">
+        <v>1.64</v>
+      </c>
+      <c r="AY76">
+        <v>7.7</v>
+      </c>
+      <c r="AZ76">
+        <v>2.95</v>
+      </c>
+      <c r="BA76">
+        <v>1.38</v>
+      </c>
+      <c r="BB76">
+        <v>1.72</v>
+      </c>
+      <c r="BC76">
+        <v>2.23</v>
+      </c>
+      <c r="BD76">
+        <v>3.1</v>
+      </c>
+      <c r="BE76">
+        <v>4.2</v>
+      </c>
+      <c r="BF76">
+        <v>2</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>11</v>
+      </c>
+      <c r="BI76">
+        <v>4</v>
+      </c>
+      <c r="BJ76">
+        <v>13</v>
+      </c>
+      <c r="BK76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>3157361</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44871.60416666666</v>
+      </c>
+      <c r="F77">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>69</v>
+      </c>
+      <c r="H77" t="s">
+        <v>71</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>101</v>
+      </c>
+      <c r="P77" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
+      <c r="R77">
+        <v>7</v>
+      </c>
+      <c r="S77">
+        <v>12</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>2.05</v>
+      </c>
+      <c r="V77">
+        <v>4</v>
+      </c>
+      <c r="W77">
+        <v>1.5</v>
+      </c>
+      <c r="X77">
+        <v>2.5</v>
+      </c>
+      <c r="Y77">
+        <v>3.4</v>
+      </c>
+      <c r="Z77">
+        <v>1.3</v>
+      </c>
+      <c r="AA77">
+        <v>10</v>
+      </c>
+      <c r="AB77">
+        <v>1.06</v>
+      </c>
+      <c r="AC77">
+        <v>2.33</v>
+      </c>
+      <c r="AD77">
+        <v>3.1</v>
+      </c>
+      <c r="AE77">
+        <v>3.05</v>
+      </c>
+      <c r="AF77">
+        <v>1.07</v>
+      </c>
+      <c r="AG77">
+        <v>7</v>
+      </c>
+      <c r="AH77">
+        <v>1.38</v>
+      </c>
+      <c r="AI77">
+        <v>2.8</v>
+      </c>
+      <c r="AJ77">
+        <v>2.4</v>
+      </c>
+      <c r="AK77">
+        <v>1.55</v>
+      </c>
+      <c r="AL77">
+        <v>1.95</v>
+      </c>
+      <c r="AM77">
+        <v>1.8</v>
+      </c>
+      <c r="AN77">
+        <v>1.35</v>
+      </c>
+      <c r="AO77">
+        <v>1.35</v>
+      </c>
+      <c r="AP77">
+        <v>1.62</v>
+      </c>
+      <c r="AQ77">
+        <v>3</v>
+      </c>
+      <c r="AR77">
+        <v>1.75</v>
+      </c>
+      <c r="AS77">
+        <v>2.75</v>
+      </c>
+      <c r="AT77">
+        <v>1.83</v>
+      </c>
+      <c r="AU77">
+        <v>1.34</v>
+      </c>
+      <c r="AV77">
+        <v>1.57</v>
+      </c>
+      <c r="AW77">
+        <v>2.91</v>
+      </c>
+      <c r="AX77">
+        <v>1.47</v>
+      </c>
+      <c r="AY77">
+        <v>8.1</v>
+      </c>
+      <c r="AZ77">
+        <v>3.6</v>
+      </c>
+      <c r="BA77">
+        <v>1.46</v>
+      </c>
+      <c r="BB77">
+        <v>1.83</v>
+      </c>
+      <c r="BC77">
+        <v>2.42</v>
+      </c>
+      <c r="BD77">
+        <v>3.28</v>
+      </c>
+      <c r="BE77">
+        <v>5.5</v>
+      </c>
+      <c r="BF77">
+        <v>5</v>
+      </c>
+      <c r="BG77">
+        <v>2</v>
+      </c>
+      <c r="BH77">
+        <v>4</v>
+      </c>
+      <c r="BI77">
+        <v>14</v>
+      </c>
+      <c r="BJ77">
+        <v>9</v>
+      </c>
+      <c r="BK77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>3157358</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>44871.64583333334</v>
+      </c>
+      <c r="F78">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s">
+        <v>74</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>134</v>
+      </c>
+      <c r="P78" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
+      <c r="R78">
+        <v>4</v>
+      </c>
+      <c r="S78">
+        <v>6</v>
+      </c>
+      <c r="T78">
+        <v>5</v>
+      </c>
+      <c r="U78">
+        <v>2.2</v>
+      </c>
+      <c r="V78">
+        <v>2.35</v>
+      </c>
+      <c r="W78">
+        <v>1.4</v>
+      </c>
+      <c r="X78">
+        <v>2.78</v>
+      </c>
+      <c r="Y78">
+        <v>2.91</v>
+      </c>
+      <c r="Z78">
+        <v>1.37</v>
+      </c>
+      <c r="AA78">
+        <v>7.4</v>
+      </c>
+      <c r="AB78">
+        <v>1.06</v>
+      </c>
+      <c r="AC78">
+        <v>5.8</v>
+      </c>
+      <c r="AD78">
+        <v>3.75</v>
+      </c>
+      <c r="AE78">
+        <v>1.56</v>
+      </c>
+      <c r="AF78">
+        <v>1.03</v>
+      </c>
+      <c r="AG78">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH78">
+        <v>1.32</v>
+      </c>
+      <c r="AI78">
+        <v>3.14</v>
+      </c>
+      <c r="AJ78">
+        <v>2</v>
+      </c>
+      <c r="AK78">
+        <v>1.78</v>
+      </c>
+      <c r="AL78">
+        <v>2.03</v>
+      </c>
+      <c r="AM78">
+        <v>1.76</v>
+      </c>
+      <c r="AN78">
+        <v>2.2</v>
+      </c>
+      <c r="AO78">
+        <v>1.22</v>
+      </c>
+      <c r="AP78">
+        <v>1.17</v>
+      </c>
+      <c r="AQ78">
+        <v>1.25</v>
+      </c>
+      <c r="AR78">
+        <v>2.4</v>
+      </c>
+      <c r="AS78">
+        <v>1.5</v>
+      </c>
+      <c r="AT78">
+        <v>2</v>
+      </c>
+      <c r="AU78">
+        <v>1.13</v>
+      </c>
+      <c r="AV78">
+        <v>1.45</v>
+      </c>
+      <c r="AW78">
+        <v>2.58</v>
+      </c>
+      <c r="AX78">
+        <v>3.86</v>
+      </c>
+      <c r="AY78">
+        <v>8.1</v>
+      </c>
+      <c r="AZ78">
+        <v>1.43</v>
+      </c>
+      <c r="BA78">
+        <v>1.51</v>
+      </c>
+      <c r="BB78">
+        <v>1.93</v>
+      </c>
+      <c r="BC78">
+        <v>2.56</v>
+      </c>
+      <c r="BD78">
+        <v>3.48</v>
+      </c>
+      <c r="BE78">
+        <v>5.7</v>
+      </c>
+      <c r="BF78">
+        <v>4</v>
+      </c>
+      <c r="BG78">
+        <v>2</v>
+      </c>
+      <c r="BH78">
+        <v>7</v>
+      </c>
+      <c r="BI78">
+        <v>22</v>
+      </c>
+      <c r="BJ78">
+        <v>11</v>
+      </c>
+      <c r="BK78">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>3157366</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>44873.625</v>
+      </c>
+      <c r="F79">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" t="s">
+        <v>67</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>5</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>5</v>
+      </c>
+      <c r="O79" t="s">
+        <v>135</v>
+      </c>
+      <c r="P79" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q79">
+        <v>8</v>
+      </c>
+      <c r="R79">
+        <v>3</v>
+      </c>
+      <c r="S79">
+        <v>11</v>
+      </c>
+      <c r="T79">
+        <v>2</v>
+      </c>
+      <c r="U79">
+        <v>2.2</v>
+      </c>
+      <c r="V79">
+        <v>8.5</v>
+      </c>
+      <c r="W79">
+        <v>1.44</v>
+      </c>
+      <c r="X79">
+        <v>2.63</v>
+      </c>
+      <c r="Y79">
+        <v>3.4</v>
+      </c>
+      <c r="Z79">
+        <v>1.3</v>
+      </c>
+      <c r="AA79">
+        <v>10</v>
+      </c>
+      <c r="AB79">
+        <v>1.06</v>
+      </c>
+      <c r="AC79">
+        <v>1.41</v>
+      </c>
+      <c r="AD79">
+        <v>4.21</v>
+      </c>
+      <c r="AE79">
+        <v>7.52</v>
+      </c>
+      <c r="AF79">
+        <v>1.08</v>
+      </c>
+      <c r="AG79">
+        <v>7.25</v>
+      </c>
+      <c r="AH79">
+        <v>1.4</v>
+      </c>
+      <c r="AI79">
+        <v>2.7</v>
+      </c>
+      <c r="AJ79">
+        <v>2.22</v>
+      </c>
+      <c r="AK79">
+        <v>1.61</v>
+      </c>
+      <c r="AL79">
+        <v>2.63</v>
+      </c>
+      <c r="AM79">
+        <v>1.44</v>
+      </c>
+      <c r="AN79">
+        <v>1.07</v>
+      </c>
+      <c r="AO79">
+        <v>1.22</v>
+      </c>
+      <c r="AP79">
+        <v>2.8</v>
+      </c>
+      <c r="AQ79">
+        <v>1.83</v>
+      </c>
+      <c r="AR79">
+        <v>0.67</v>
+      </c>
+      <c r="AS79">
+        <v>2</v>
+      </c>
+      <c r="AT79">
+        <v>0.57</v>
+      </c>
+      <c r="AU79">
+        <v>1.58</v>
+      </c>
+      <c r="AV79">
+        <v>1.09</v>
+      </c>
+      <c r="AW79">
+        <v>2.67</v>
+      </c>
+      <c r="AX79">
+        <v>1.13</v>
+      </c>
+      <c r="AY79">
+        <v>11</v>
+      </c>
+      <c r="AZ79">
+        <v>7.7</v>
+      </c>
+      <c r="BA79">
+        <v>1.46</v>
+      </c>
+      <c r="BB79">
+        <v>1.85</v>
+      </c>
+      <c r="BC79">
+        <v>2.36</v>
+      </c>
+      <c r="BD79">
+        <v>3.14</v>
+      </c>
+      <c r="BE79">
+        <v>3.8</v>
+      </c>
+      <c r="BF79">
+        <v>8</v>
+      </c>
+      <c r="BG79">
+        <v>7</v>
+      </c>
+      <c r="BH79">
+        <v>12</v>
+      </c>
+      <c r="BI79">
+        <v>4</v>
+      </c>
+      <c r="BJ79">
+        <v>20</v>
+      </c>
+      <c r="BK79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3157371</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44874.5</v>
+      </c>
+      <c r="F80">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>75</v>
+      </c>
+      <c r="H80" t="s">
+        <v>69</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>81</v>
+      </c>
+      <c r="P80" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>6</v>
+      </c>
+      <c r="S80">
+        <v>9</v>
+      </c>
+      <c r="T80">
+        <v>5.5</v>
+      </c>
+      <c r="U80">
+        <v>2.1</v>
+      </c>
+      <c r="V80">
+        <v>2.3</v>
+      </c>
+      <c r="W80">
+        <v>1.44</v>
+      </c>
+      <c r="X80">
+        <v>2.63</v>
+      </c>
+      <c r="Y80">
+        <v>3.25</v>
+      </c>
+      <c r="Z80">
+        <v>1.33</v>
+      </c>
+      <c r="AA80">
+        <v>9</v>
+      </c>
+      <c r="AB80">
+        <v>1.07</v>
+      </c>
+      <c r="AC80">
+        <v>4.55</v>
+      </c>
+      <c r="AD80">
+        <v>3.6</v>
+      </c>
+      <c r="AE80">
+        <v>1.72</v>
+      </c>
+      <c r="AF80">
+        <v>1.06</v>
+      </c>
+      <c r="AG80">
+        <v>9.5</v>
+      </c>
+      <c r="AH80">
+        <v>1.36</v>
+      </c>
+      <c r="AI80">
+        <v>3.2</v>
+      </c>
+      <c r="AJ80">
+        <v>2.01</v>
+      </c>
+      <c r="AK80">
+        <v>1.81</v>
+      </c>
+      <c r="AL80">
+        <v>2</v>
+      </c>
+      <c r="AM80">
+        <v>1.75</v>
+      </c>
+      <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>1.3</v>
+      </c>
+      <c r="AP80">
+        <v>1.18</v>
+      </c>
+      <c r="AQ80">
+        <v>0.8</v>
+      </c>
+      <c r="AR80">
+        <v>3</v>
+      </c>
+      <c r="AS80">
+        <v>0.67</v>
+      </c>
+      <c r="AT80">
+        <v>3</v>
+      </c>
+      <c r="AU80">
+        <v>0.92</v>
+      </c>
+      <c r="AV80">
+        <v>1.31</v>
+      </c>
+      <c r="AW80">
+        <v>2.23</v>
+      </c>
+      <c r="AX80">
+        <v>3.34</v>
+      </c>
+      <c r="AY80">
+        <v>8</v>
+      </c>
+      <c r="AZ80">
+        <v>1.45</v>
+      </c>
+      <c r="BA80">
+        <v>1.53</v>
+      </c>
+      <c r="BB80">
+        <v>1.98</v>
+      </c>
+      <c r="BC80">
+        <v>2.56</v>
+      </c>
+      <c r="BD80">
+        <v>3.48</v>
+      </c>
+      <c r="BE80">
+        <v>5.2</v>
+      </c>
+      <c r="BF80">
+        <v>2</v>
+      </c>
+      <c r="BG80">
+        <v>5</v>
+      </c>
+      <c r="BH80">
+        <v>4</v>
+      </c>
+      <c r="BI80">
+        <v>11</v>
+      </c>
+      <c r="BJ80">
+        <v>6</v>
+      </c>
+      <c r="BK80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>3157367</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>44874.54166666666</v>
+      </c>
+      <c r="F81">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>66</v>
+      </c>
+      <c r="H81" t="s">
+        <v>77</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>136</v>
+      </c>
+      <c r="P81" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>3</v>
+      </c>
+      <c r="S81">
+        <v>5</v>
+      </c>
+      <c r="T81">
+        <v>3.2</v>
+      </c>
+      <c r="U81">
+        <v>1.91</v>
+      </c>
+      <c r="V81">
+        <v>3.75</v>
+      </c>
+      <c r="W81">
+        <v>1.53</v>
+      </c>
+      <c r="X81">
+        <v>2.3</v>
+      </c>
+      <c r="Y81">
+        <v>3.4</v>
+      </c>
+      <c r="Z81">
+        <v>1.27</v>
+      </c>
+      <c r="AA81">
+        <v>9.75</v>
+      </c>
+      <c r="AB81">
+        <v>1.05</v>
+      </c>
+      <c r="AC81">
+        <v>2.44</v>
+      </c>
+      <c r="AD81">
+        <v>3.15</v>
+      </c>
+      <c r="AE81">
+        <v>2.83</v>
+      </c>
+      <c r="AF81">
+        <v>1.06</v>
+      </c>
+      <c r="AG81">
+        <v>6.65</v>
+      </c>
+      <c r="AH81">
+        <v>1.47</v>
+      </c>
+      <c r="AI81">
+        <v>2.53</v>
+      </c>
+      <c r="AJ81">
+        <v>2.41</v>
+      </c>
+      <c r="AK81">
+        <v>1.5</v>
+      </c>
+      <c r="AL81">
+        <v>2</v>
+      </c>
+      <c r="AM81">
+        <v>1.68</v>
+      </c>
+      <c r="AN81">
+        <v>1.4</v>
+      </c>
+      <c r="AO81">
+        <v>1.36</v>
+      </c>
+      <c r="AP81">
+        <v>1.49</v>
+      </c>
+      <c r="AQ81">
+        <v>1.5</v>
+      </c>
+      <c r="AR81">
+        <v>0.67</v>
+      </c>
+      <c r="AS81">
+        <v>1.71</v>
+      </c>
+      <c r="AT81">
+        <v>0.57</v>
+      </c>
+      <c r="AU81">
+        <v>1.28</v>
+      </c>
+      <c r="AV81">
+        <v>1.2</v>
+      </c>
+      <c r="AW81">
+        <v>2.48</v>
+      </c>
+      <c r="AX81">
+        <v>2</v>
+      </c>
+      <c r="AY81">
+        <v>7</v>
+      </c>
+      <c r="AZ81">
+        <v>2.1</v>
+      </c>
+      <c r="BA81">
+        <v>1.67</v>
+      </c>
+      <c r="BB81">
+        <v>2.13</v>
+      </c>
+      <c r="BC81">
+        <v>2.88</v>
+      </c>
+      <c r="BD81">
+        <v>4.2</v>
+      </c>
+      <c r="BE81">
+        <v>5.7</v>
+      </c>
+      <c r="BF81">
+        <v>6</v>
+      </c>
+      <c r="BG81">
+        <v>2</v>
+      </c>
+      <c r="BH81">
+        <v>5</v>
+      </c>
+      <c r="BI81">
+        <v>17</v>
+      </c>
+      <c r="BJ81">
+        <v>11</v>
+      </c>
+      <c r="BK81">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>3157365</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>44874.625</v>
+      </c>
+      <c r="F82">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s">
+        <v>76</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
+        <v>137</v>
+      </c>
+      <c r="P82" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q82">
+        <v>11</v>
+      </c>
+      <c r="R82">
+        <v>5</v>
+      </c>
+      <c r="S82">
+        <v>16</v>
+      </c>
+      <c r="T82">
+        <v>1.73</v>
+      </c>
+      <c r="U82">
+        <v>2.5</v>
+      </c>
+      <c r="V82">
+        <v>9.5</v>
+      </c>
+      <c r="W82">
+        <v>1.33</v>
+      </c>
+      <c r="X82">
+        <v>3.25</v>
+      </c>
+      <c r="Y82">
+        <v>2.5</v>
+      </c>
+      <c r="Z82">
+        <v>1.5</v>
+      </c>
+      <c r="AA82">
+        <v>6.5</v>
+      </c>
+      <c r="AB82">
+        <v>1.11</v>
+      </c>
+      <c r="AC82">
+        <v>1.25</v>
+      </c>
+      <c r="AD82">
+        <v>5.4</v>
+      </c>
+      <c r="AE82">
+        <v>10.5</v>
+      </c>
+      <c r="AF82">
+        <v>1.04</v>
+      </c>
+      <c r="AG82">
+        <v>10.5</v>
+      </c>
+      <c r="AH82">
+        <v>1.23</v>
+      </c>
+      <c r="AI82">
+        <v>3.75</v>
+      </c>
+      <c r="AJ82">
+        <v>1.73</v>
+      </c>
+      <c r="AK82">
+        <v>2.11</v>
+      </c>
+      <c r="AL82">
+        <v>2.25</v>
+      </c>
+      <c r="AM82">
+        <v>1.57</v>
+      </c>
+      <c r="AN82">
+        <v>1.04</v>
+      </c>
+      <c r="AO82">
+        <v>1.15</v>
+      </c>
+      <c r="AP82">
+        <v>3.7</v>
+      </c>
+      <c r="AQ82">
+        <v>2.4</v>
+      </c>
+      <c r="AR82">
+        <v>1</v>
+      </c>
+      <c r="AS82">
+        <v>2.5</v>
+      </c>
+      <c r="AT82">
+        <v>0.83</v>
+      </c>
+      <c r="AU82">
+        <v>2.41</v>
+      </c>
+      <c r="AV82">
+        <v>1.06</v>
+      </c>
+      <c r="AW82">
+        <v>3.47</v>
+      </c>
+      <c r="AX82">
+        <v>1.18</v>
+      </c>
+      <c r="AY82">
+        <v>11</v>
+      </c>
+      <c r="AZ82">
+        <v>6.15</v>
+      </c>
+      <c r="BA82">
+        <v>1.38</v>
+      </c>
+      <c r="BB82">
+        <v>1.69</v>
+      </c>
+      <c r="BC82">
+        <v>2.11</v>
+      </c>
+      <c r="BD82">
+        <v>2.78</v>
+      </c>
+      <c r="BE82">
+        <v>4</v>
+      </c>
+      <c r="BF82">
+        <v>4</v>
+      </c>
+      <c r="BG82">
+        <v>2</v>
+      </c>
+      <c r="BH82">
+        <v>21</v>
+      </c>
+      <c r="BI82">
+        <v>11</v>
+      </c>
+      <c r="BJ82">
+        <v>25</v>
+      </c>
+      <c r="BK82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>3157370</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>44874.625</v>
+      </c>
+      <c r="F83">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s">
+        <v>71</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>81</v>
+      </c>
+      <c r="P83" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q83">
+        <v>5</v>
+      </c>
+      <c r="R83">
+        <v>4</v>
+      </c>
+      <c r="S83">
+        <v>9</v>
+      </c>
+      <c r="T83">
+        <v>8.5</v>
+      </c>
+      <c r="U83">
+        <v>2.5</v>
+      </c>
+      <c r="V83">
+        <v>1.8</v>
+      </c>
+      <c r="W83">
+        <v>1.33</v>
+      </c>
+      <c r="X83">
+        <v>3.25</v>
+      </c>
+      <c r="Y83">
+        <v>2.5</v>
+      </c>
+      <c r="Z83">
+        <v>1.5</v>
+      </c>
+      <c r="AA83">
+        <v>6.5</v>
+      </c>
+      <c r="AB83">
+        <v>1.11</v>
+      </c>
+      <c r="AC83">
+        <v>8</v>
+      </c>
+      <c r="AD83">
+        <v>4.75</v>
+      </c>
+      <c r="AE83">
+        <v>1.34</v>
+      </c>
+      <c r="AF83">
+        <v>1.04</v>
+      </c>
+      <c r="AG83">
+        <v>10.5</v>
+      </c>
+      <c r="AH83">
+        <v>1.23</v>
+      </c>
+      <c r="AI83">
+        <v>3.75</v>
+      </c>
+      <c r="AJ83">
+        <v>1.86</v>
+      </c>
+      <c r="AK83">
+        <v>2</v>
+      </c>
+      <c r="AL83">
+        <v>2.1</v>
+      </c>
+      <c r="AM83">
+        <v>1.67</v>
+      </c>
+      <c r="AN83">
+        <v>3.4</v>
+      </c>
+      <c r="AO83">
+        <v>1.17</v>
+      </c>
+      <c r="AP83">
+        <v>1.05</v>
+      </c>
+      <c r="AQ83">
+        <v>1.25</v>
+      </c>
+      <c r="AR83">
+        <v>1.6</v>
+      </c>
+      <c r="AS83">
+        <v>1</v>
+      </c>
+      <c r="AT83">
+        <v>1.83</v>
+      </c>
+      <c r="AU83">
+        <v>1.12</v>
+      </c>
+      <c r="AV83">
+        <v>1.54</v>
+      </c>
+      <c r="AW83">
+        <v>2.66</v>
+      </c>
+      <c r="AX83">
+        <v>4.58</v>
+      </c>
+      <c r="AY83">
+        <v>9.5</v>
+      </c>
+      <c r="AZ83">
+        <v>1.3</v>
+      </c>
+      <c r="BA83">
+        <v>1.44</v>
+      </c>
+      <c r="BB83">
+        <v>1.8</v>
+      </c>
+      <c r="BC83">
+        <v>2.28</v>
+      </c>
+      <c r="BD83">
+        <v>3.04</v>
+      </c>
+      <c r="BE83">
+        <v>4.1</v>
+      </c>
+      <c r="BF83">
+        <v>2</v>
+      </c>
+      <c r="BG83">
+        <v>8</v>
+      </c>
+      <c r="BH83">
+        <v>9</v>
+      </c>
+      <c r="BI83">
+        <v>11</v>
+      </c>
+      <c r="BJ83">
+        <v>11</v>
+      </c>
+      <c r="BK83">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>3157368</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>44875.58333333334</v>
+      </c>
+      <c r="F84">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>65</v>
+      </c>
+      <c r="H84" t="s">
+        <v>73</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>138</v>
+      </c>
+      <c r="P84" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q84">
+        <v>9</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84">
+        <v>12</v>
+      </c>
+      <c r="T84">
+        <v>2.6</v>
+      </c>
+      <c r="U84">
+        <v>2.2</v>
+      </c>
+      <c r="V84">
+        <v>4.33</v>
+      </c>
+      <c r="W84">
+        <v>1.4</v>
+      </c>
+      <c r="X84">
+        <v>2.75</v>
+      </c>
+      <c r="Y84">
+        <v>2.75</v>
+      </c>
+      <c r="Z84">
+        <v>1.4</v>
+      </c>
+      <c r="AA84">
+        <v>8</v>
+      </c>
+      <c r="AB84">
+        <v>1.08</v>
+      </c>
+      <c r="AC84">
+        <v>1.47</v>
+      </c>
+      <c r="AD84">
+        <v>5.4</v>
+      </c>
+      <c r="AE84">
+        <v>1.64</v>
+      </c>
+      <c r="AF84">
+        <v>1.06</v>
+      </c>
+      <c r="AG84">
+        <v>9.5</v>
+      </c>
+      <c r="AH84">
+        <v>1.38</v>
+      </c>
+      <c r="AI84">
+        <v>3</v>
+      </c>
+      <c r="AJ84">
+        <v>2.12</v>
+      </c>
+      <c r="AK84">
+        <v>1.67</v>
+      </c>
+      <c r="AL84">
+        <v>1.8</v>
+      </c>
+      <c r="AM84">
+        <v>1.95</v>
+      </c>
+      <c r="AN84">
+        <v>1.2</v>
+      </c>
+      <c r="AO84">
+        <v>1.3</v>
+      </c>
+      <c r="AP84">
+        <v>1.95</v>
+      </c>
+      <c r="AQ84">
+        <v>1.67</v>
+      </c>
+      <c r="AR84">
+        <v>0.17</v>
+      </c>
+      <c r="AS84">
+        <v>1.86</v>
+      </c>
+      <c r="AT84">
+        <v>0.14</v>
+      </c>
+      <c r="AU84">
+        <v>1.34</v>
+      </c>
+      <c r="AV84">
+        <v>0.91</v>
+      </c>
+      <c r="AW84">
+        <v>2.25</v>
+      </c>
+      <c r="AX84">
+        <v>1.37</v>
+      </c>
+      <c r="AY84">
+        <v>8.6</v>
+      </c>
+      <c r="AZ84">
+        <v>4.15</v>
+      </c>
+      <c r="BA84">
+        <v>1.51</v>
+      </c>
+      <c r="BB84">
+        <v>1.82</v>
+      </c>
+      <c r="BC84">
+        <v>2.28</v>
+      </c>
+      <c r="BD84">
+        <v>3.18</v>
+      </c>
+      <c r="BE84">
+        <v>4.3</v>
+      </c>
+      <c r="BF84">
+        <v>5</v>
+      </c>
+      <c r="BG84">
+        <v>2</v>
+      </c>
+      <c r="BH84">
+        <v>9</v>
+      </c>
+      <c r="BI84">
+        <v>8</v>
+      </c>
+      <c r="BJ84">
+        <v>14</v>
+      </c>
+      <c r="BK84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>3157369</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>44875.6875</v>
+      </c>
+      <c r="F85">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s">
+        <v>68</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>81</v>
+      </c>
+      <c r="P85" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>6</v>
+      </c>
+      <c r="T85">
+        <v>5.5</v>
+      </c>
+      <c r="U85">
+        <v>2.1</v>
+      </c>
+      <c r="V85">
+        <v>2.38</v>
+      </c>
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>2.63</v>
+      </c>
+      <c r="Y85">
+        <v>3.25</v>
+      </c>
+      <c r="Z85">
+        <v>1.33</v>
+      </c>
+      <c r="AA85">
+        <v>9</v>
+      </c>
+      <c r="AB85">
+        <v>1.07</v>
+      </c>
+      <c r="AC85">
+        <v>9.08</v>
+      </c>
+      <c r="AD85">
+        <v>2.61</v>
+      </c>
+      <c r="AE85">
+        <v>1.18</v>
+      </c>
+      <c r="AF85">
+        <v>1.06</v>
+      </c>
+      <c r="AG85">
+        <v>10</v>
+      </c>
+      <c r="AH85">
+        <v>1.36</v>
+      </c>
+      <c r="AI85">
+        <v>3.2</v>
+      </c>
+      <c r="AJ85">
+        <v>2.05</v>
+      </c>
+      <c r="AK85">
+        <v>1.72</v>
+      </c>
+      <c r="AL85">
+        <v>2</v>
+      </c>
+      <c r="AM85">
+        <v>1.75</v>
+      </c>
+      <c r="AN85">
+        <v>2.15</v>
+      </c>
+      <c r="AO85">
+        <v>1.22</v>
+      </c>
+      <c r="AP85">
+        <v>1.17</v>
+      </c>
+      <c r="AQ85">
+        <v>0.8</v>
+      </c>
+      <c r="AR85">
+        <v>1.2</v>
+      </c>
+      <c r="AS85">
+        <v>0.67</v>
+      </c>
+      <c r="AT85">
+        <v>1.5</v>
+      </c>
+      <c r="AU85">
+        <v>1.74</v>
+      </c>
+      <c r="AV85">
+        <v>1.13</v>
+      </c>
+      <c r="AW85">
+        <v>2.87</v>
+      </c>
+      <c r="AX85">
+        <v>2.77</v>
+      </c>
+      <c r="AY85">
+        <v>8</v>
+      </c>
+      <c r="AZ85">
+        <v>1.64</v>
+      </c>
+      <c r="BA85">
+        <v>1.45</v>
+      </c>
+      <c r="BB85">
+        <v>1.83</v>
+      </c>
+      <c r="BC85">
+        <v>2.32</v>
+      </c>
+      <c r="BD85">
+        <v>3.08</v>
+      </c>
+      <c r="BE85">
+        <v>4.38</v>
+      </c>
+      <c r="BF85">
+        <v>2</v>
+      </c>
+      <c r="BG85">
+        <v>4</v>
+      </c>
+      <c r="BH85">
+        <v>4</v>
+      </c>
+      <c r="BI85">
+        <v>6</v>
+      </c>
+      <c r="BJ85">
+        <v>6</v>
+      </c>
+      <c r="BK85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>3157377</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F86">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>70</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>81</v>
+      </c>
+      <c r="P86" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>4</v>
+      </c>
+      <c r="S86">
+        <v>8</v>
+      </c>
+      <c r="T86">
+        <v>4.5</v>
+      </c>
+      <c r="U86">
+        <v>2</v>
+      </c>
+      <c r="V86">
+        <v>2.75</v>
+      </c>
+      <c r="W86">
+        <v>1.5</v>
+      </c>
+      <c r="X86">
+        <v>2.5</v>
+      </c>
+      <c r="Y86">
+        <v>3.4</v>
+      </c>
+      <c r="Z86">
+        <v>1.3</v>
+      </c>
+      <c r="AA86">
+        <v>10</v>
+      </c>
+      <c r="AB86">
+        <v>1.06</v>
+      </c>
+      <c r="AC86">
+        <v>3.85</v>
+      </c>
+      <c r="AD86">
+        <v>3.2</v>
+      </c>
+      <c r="AE86">
+        <v>1.93</v>
+      </c>
+      <c r="AF86">
+        <v>1.08</v>
+      </c>
+      <c r="AG86">
+        <v>8</v>
+      </c>
+      <c r="AH86">
+        <v>1.44</v>
+      </c>
+      <c r="AI86">
+        <v>2.8</v>
+      </c>
+      <c r="AJ86">
+        <v>2.23</v>
+      </c>
+      <c r="AK86">
+        <v>1.56</v>
+      </c>
+      <c r="AL86">
+        <v>2</v>
+      </c>
+      <c r="AM86">
+        <v>1.75</v>
+      </c>
+      <c r="AN86">
+        <v>1.78</v>
+      </c>
+      <c r="AO86">
+        <v>1.32</v>
+      </c>
+      <c r="AP86">
+        <v>1.26</v>
+      </c>
+      <c r="AQ86">
+        <v>1.6</v>
+      </c>
+      <c r="AR86">
+        <v>0.8</v>
+      </c>
+      <c r="AS86">
+        <v>1.33</v>
+      </c>
+      <c r="AT86">
+        <v>1.17</v>
+      </c>
+      <c r="AU86">
+        <v>1.64</v>
+      </c>
+      <c r="AV86">
+        <v>1.4</v>
+      </c>
+      <c r="AW86">
+        <v>3.04</v>
+      </c>
+      <c r="AX86">
+        <v>3.64</v>
+      </c>
+      <c r="AY86">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ86">
+        <v>1.46</v>
+      </c>
+      <c r="BA86">
+        <v>1.4</v>
+      </c>
+      <c r="BB86">
+        <v>1.74</v>
+      </c>
+      <c r="BC86">
+        <v>2.24</v>
+      </c>
+      <c r="BD86">
+        <v>2.98</v>
+      </c>
+      <c r="BE86">
+        <v>4.4</v>
+      </c>
+      <c r="BF86">
+        <v>7</v>
+      </c>
+      <c r="BG86">
+        <v>6</v>
+      </c>
+      <c r="BH86">
+        <v>5</v>
+      </c>
+      <c r="BI86">
+        <v>11</v>
+      </c>
+      <c r="BJ86">
+        <v>12</v>
+      </c>
+      <c r="BK86">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>3157375</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>44878.51041666666</v>
+      </c>
+      <c r="F87">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>69</v>
+      </c>
+      <c r="H87" t="s">
+        <v>66</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>139</v>
+      </c>
+      <c r="P87" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q87">
+        <v>6</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>6</v>
+      </c>
+      <c r="T87">
+        <v>1.95</v>
+      </c>
+      <c r="U87">
+        <v>2.25</v>
+      </c>
+      <c r="V87">
+        <v>8</v>
+      </c>
+      <c r="W87">
+        <v>1.4</v>
+      </c>
+      <c r="X87">
+        <v>2.75</v>
+      </c>
+      <c r="Y87">
+        <v>3</v>
+      </c>
+      <c r="Z87">
+        <v>1.36</v>
+      </c>
+      <c r="AA87">
+        <v>8</v>
+      </c>
+      <c r="AB87">
+        <v>1.08</v>
+      </c>
+      <c r="AC87">
+        <v>1.39</v>
+      </c>
+      <c r="AD87">
+        <v>4.44</v>
+      </c>
+      <c r="AE87">
+        <v>8.9</v>
+      </c>
+      <c r="AF87">
+        <v>1.05</v>
+      </c>
+      <c r="AG87">
+        <v>11</v>
+      </c>
+      <c r="AH87">
+        <v>1.33</v>
+      </c>
+      <c r="AI87">
+        <v>3.3</v>
+      </c>
+      <c r="AJ87">
+        <v>1.96</v>
+      </c>
+      <c r="AK87">
+        <v>1.72</v>
+      </c>
+      <c r="AL87">
+        <v>2.25</v>
+      </c>
+      <c r="AM87">
+        <v>1.57</v>
+      </c>
+      <c r="AN87">
+        <v>1.06</v>
+      </c>
+      <c r="AO87">
+        <v>1.2</v>
+      </c>
+      <c r="AP87">
+        <v>2.94</v>
+      </c>
+      <c r="AQ87">
+        <v>2.71</v>
+      </c>
+      <c r="AR87">
+        <v>0.6</v>
+      </c>
+      <c r="AS87">
+        <v>2.75</v>
+      </c>
+      <c r="AT87">
+        <v>0.5</v>
+      </c>
+      <c r="AU87">
+        <v>1.32</v>
+      </c>
+      <c r="AV87">
+        <v>1.09</v>
+      </c>
+      <c r="AW87">
+        <v>2.41</v>
+      </c>
+      <c r="AX87">
+        <v>1.21</v>
+      </c>
+      <c r="AY87">
+        <v>10</v>
+      </c>
+      <c r="AZ87">
+        <v>5.65</v>
+      </c>
+      <c r="BA87">
+        <v>1.58</v>
+      </c>
+      <c r="BB87">
+        <v>2.05</v>
+      </c>
+      <c r="BC87">
+        <v>2.85</v>
+      </c>
+      <c r="BD87">
+        <v>4.2</v>
+      </c>
+      <c r="BE87">
+        <v>4.7</v>
+      </c>
+      <c r="BF87">
+        <v>6</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>17</v>
+      </c>
+      <c r="BI87">
+        <v>5</v>
+      </c>
+      <c r="BJ87">
+        <v>23</v>
+      </c>
+      <c r="BK87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>3157378</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>44878.54166666666</v>
+      </c>
+      <c r="F88">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H88" t="s">
+        <v>75</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>140</v>
+      </c>
+      <c r="P88" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q88">
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <v>4</v>
+      </c>
+      <c r="S88">
+        <v>7</v>
+      </c>
+      <c r="T88">
+        <v>2.88</v>
+      </c>
+      <c r="U88">
+        <v>2.05</v>
+      </c>
+      <c r="V88">
+        <v>4</v>
+      </c>
+      <c r="W88">
+        <v>1.5</v>
+      </c>
+      <c r="X88">
+        <v>2.5</v>
+      </c>
+      <c r="Y88">
+        <v>3.4</v>
+      </c>
+      <c r="Z88">
+        <v>1.3</v>
+      </c>
+      <c r="AA88">
+        <v>10</v>
+      </c>
+      <c r="AB88">
+        <v>1.06</v>
+      </c>
+      <c r="AC88">
+        <v>2.19</v>
+      </c>
+      <c r="AD88">
+        <v>3.28</v>
+      </c>
+      <c r="AE88">
+        <v>3.46</v>
+      </c>
+      <c r="AF88">
+        <v>1.08</v>
+      </c>
+      <c r="AG88">
+        <v>8</v>
+      </c>
+      <c r="AH88">
+        <v>1.53</v>
+      </c>
+      <c r="AI88">
+        <v>2.45</v>
+      </c>
+      <c r="AJ88">
+        <v>2.48</v>
+      </c>
+      <c r="AK88">
+        <v>1.5</v>
+      </c>
+      <c r="AL88">
+        <v>1.95</v>
+      </c>
+      <c r="AM88">
+        <v>1.8</v>
+      </c>
+      <c r="AN88">
+        <v>1.31</v>
+      </c>
+      <c r="AO88">
+        <v>1.34</v>
+      </c>
+      <c r="AP88">
+        <v>1.66</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.5</v>
+      </c>
+      <c r="AS88">
+        <v>0.83</v>
+      </c>
+      <c r="AT88">
+        <v>1.71</v>
+      </c>
+      <c r="AU88">
+        <v>1.25</v>
+      </c>
+      <c r="AV88">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW88">
+        <v>2.19</v>
+      </c>
+      <c r="AX88">
+        <v>1.74</v>
+      </c>
+      <c r="AY88">
+        <v>7.5</v>
+      </c>
+      <c r="AZ88">
+        <v>2.69</v>
+      </c>
+      <c r="BA88">
+        <v>1.45</v>
+      </c>
+      <c r="BB88">
+        <v>1.81</v>
+      </c>
+      <c r="BC88">
+        <v>2.38</v>
+      </c>
+      <c r="BD88">
+        <v>3.2</v>
+      </c>
+      <c r="BE88">
+        <v>5.2</v>
+      </c>
+      <c r="BF88">
+        <v>2</v>
+      </c>
+      <c r="BG88">
+        <v>6</v>
+      </c>
+      <c r="BH88">
+        <v>11</v>
+      </c>
+      <c r="BI88">
+        <v>3</v>
+      </c>
+      <c r="BJ88">
+        <v>13</v>
+      </c>
+      <c r="BK88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>3157373</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>44878.60416666666</v>
+      </c>
+      <c r="F89">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>71</v>
+      </c>
+      <c r="H89" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89" t="s">
+        <v>81</v>
+      </c>
+      <c r="P89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q89">
+        <v>3</v>
+      </c>
+      <c r="R89">
+        <v>7</v>
+      </c>
+      <c r="S89">
+        <v>10</v>
+      </c>
+      <c r="T89">
+        <v>2.88</v>
+      </c>
+      <c r="U89">
+        <v>2.05</v>
+      </c>
+      <c r="V89">
+        <v>4</v>
+      </c>
+      <c r="W89">
+        <v>1.44</v>
+      </c>
+      <c r="X89">
+        <v>2.63</v>
+      </c>
+      <c r="Y89">
+        <v>3.25</v>
+      </c>
+      <c r="Z89">
+        <v>1.33</v>
+      </c>
+      <c r="AA89">
+        <v>10</v>
+      </c>
+      <c r="AB89">
+        <v>1.06</v>
+      </c>
+      <c r="AC89">
+        <v>2.24</v>
+      </c>
+      <c r="AD89">
+        <v>3.3</v>
+      </c>
+      <c r="AE89">
+        <v>3.26</v>
+      </c>
+      <c r="AF89">
+        <v>1.08</v>
+      </c>
+      <c r="AG89">
+        <v>9</v>
+      </c>
+      <c r="AH89">
+        <v>1.4</v>
+      </c>
+      <c r="AI89">
+        <v>3</v>
+      </c>
+      <c r="AJ89">
+        <v>2.1</v>
+      </c>
+      <c r="AK89">
+        <v>1.65</v>
+      </c>
+      <c r="AL89">
+        <v>1.95</v>
+      </c>
+      <c r="AM89">
+        <v>1.8</v>
+      </c>
+      <c r="AN89">
+        <v>1.35</v>
+      </c>
+      <c r="AO89">
+        <v>1.33</v>
+      </c>
+      <c r="AP89">
+        <v>1.62</v>
+      </c>
+      <c r="AQ89">
+        <v>2.17</v>
+      </c>
+      <c r="AR89">
+        <v>2.17</v>
+      </c>
+      <c r="AS89">
+        <v>2</v>
+      </c>
+      <c r="AT89">
+        <v>2</v>
+      </c>
+      <c r="AU89">
+        <v>1.75</v>
+      </c>
+      <c r="AV89">
+        <v>1.58</v>
+      </c>
+      <c r="AW89">
+        <v>3.33</v>
+      </c>
+      <c r="AX89">
+        <v>2.01</v>
+      </c>
+      <c r="AY89">
+        <v>7.4</v>
+      </c>
+      <c r="AZ89">
+        <v>2.2</v>
+      </c>
+      <c r="BA89">
+        <v>1.32</v>
+      </c>
+      <c r="BB89">
+        <v>1.62</v>
+      </c>
+      <c r="BC89">
+        <v>2.1</v>
+      </c>
+      <c r="BD89">
+        <v>2.77</v>
+      </c>
+      <c r="BE89">
+        <v>3.86</v>
+      </c>
+      <c r="BF89">
+        <v>2</v>
+      </c>
+      <c r="BG89">
+        <v>6</v>
+      </c>
+      <c r="BH89">
+        <v>10</v>
+      </c>
+      <c r="BI89">
+        <v>6</v>
+      </c>
+      <c r="BJ89">
+        <v>12</v>
+      </c>
+      <c r="BK89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>3157376</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>44878.6875</v>
+      </c>
+      <c r="F90">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>68</v>
+      </c>
+      <c r="H90" t="s">
+        <v>65</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" t="s">
+        <v>141</v>
+      </c>
+      <c r="P90" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q90">
+        <v>3</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>5</v>
+      </c>
+      <c r="T90">
+        <v>2.05</v>
+      </c>
+      <c r="U90">
+        <v>2.3</v>
+      </c>
+      <c r="V90">
+        <v>6.5</v>
+      </c>
+      <c r="W90">
+        <v>1.36</v>
+      </c>
+      <c r="X90">
+        <v>3</v>
+      </c>
+      <c r="Y90">
+        <v>2.63</v>
+      </c>
+      <c r="Z90">
+        <v>1.44</v>
+      </c>
+      <c r="AA90">
+        <v>7</v>
+      </c>
+      <c r="AB90">
+        <v>1.1</v>
+      </c>
+      <c r="AC90">
+        <v>1.48</v>
+      </c>
+      <c r="AD90">
+        <v>4.4</v>
+      </c>
+      <c r="AE90">
+        <v>6.45</v>
+      </c>
+      <c r="AF90">
+        <v>1.04</v>
+      </c>
+      <c r="AG90">
+        <v>12</v>
+      </c>
+      <c r="AH90">
+        <v>1.25</v>
+      </c>
+      <c r="AI90">
+        <v>3.75</v>
+      </c>
+      <c r="AJ90">
+        <v>1.77</v>
+      </c>
+      <c r="AK90">
+        <v>1.91</v>
+      </c>
+      <c r="AL90">
+        <v>1.95</v>
+      </c>
+      <c r="AM90">
+        <v>1.8</v>
+      </c>
+      <c r="AN90">
+        <v>1.1</v>
+      </c>
+      <c r="AO90">
+        <v>1.17</v>
+      </c>
+      <c r="AP90">
+        <v>2.65</v>
+      </c>
+      <c r="AQ90">
+        <v>2.17</v>
+      </c>
+      <c r="AR90">
+        <v>2.2</v>
+      </c>
+      <c r="AS90">
+        <v>2.29</v>
+      </c>
+      <c r="AT90">
+        <v>1.83</v>
+      </c>
+      <c r="AU90">
+        <v>1.91</v>
+      </c>
+      <c r="AV90">
+        <v>1.15</v>
+      </c>
+      <c r="AW90">
+        <v>3.06</v>
+      </c>
+      <c r="AX90">
+        <v>1.24</v>
+      </c>
+      <c r="AY90">
+        <v>10</v>
+      </c>
+      <c r="AZ90">
+        <v>5.7</v>
+      </c>
+      <c r="BA90">
+        <v>1.36</v>
+      </c>
+      <c r="BB90">
+        <v>1.66</v>
+      </c>
+      <c r="BC90">
+        <v>2.13</v>
+      </c>
+      <c r="BD90">
+        <v>2.79</v>
+      </c>
+      <c r="BE90">
+        <v>4</v>
+      </c>
+      <c r="BF90">
+        <v>5</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>5</v>
+      </c>
+      <c r="BK90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>3157372</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>44879.54166666666</v>
+      </c>
+      <c r="F91">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>108</v>
+      </c>
+      <c r="P91" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q91">
+        <v>5</v>
+      </c>
+      <c r="R91">
+        <v>4</v>
+      </c>
+      <c r="S91">
+        <v>9</v>
+      </c>
+      <c r="T91">
+        <v>2.53</v>
+      </c>
+      <c r="U91">
+        <v>1.98</v>
+      </c>
+      <c r="V91">
+        <v>5.55</v>
+      </c>
+      <c r="W91">
+        <v>1.47</v>
+      </c>
+      <c r="X91">
+        <v>2.6</v>
+      </c>
+      <c r="Y91">
+        <v>3.2</v>
+      </c>
+      <c r="Z91">
+        <v>1.33</v>
+      </c>
+      <c r="AA91">
+        <v>8.6</v>
+      </c>
+      <c r="AB91">
+        <v>1.06</v>
+      </c>
+      <c r="AC91">
+        <v>1.83</v>
+      </c>
+      <c r="AD91">
+        <v>3.1</v>
+      </c>
+      <c r="AE91">
+        <v>4.5</v>
+      </c>
+      <c r="AF91">
+        <v>1.06</v>
+      </c>
+      <c r="AG91">
+        <v>6.6</v>
+      </c>
+      <c r="AH91">
+        <v>1.5</v>
+      </c>
+      <c r="AI91">
+        <v>2.55</v>
+      </c>
+      <c r="AJ91">
+        <v>2.4</v>
+      </c>
+      <c r="AK91">
+        <v>1.53</v>
+      </c>
+      <c r="AL91">
+        <v>2.24</v>
+      </c>
+      <c r="AM91">
+        <v>1.62</v>
+      </c>
+      <c r="AN91">
+        <v>1.18</v>
+      </c>
+      <c r="AO91">
+        <v>1.32</v>
+      </c>
+      <c r="AP91">
+        <v>1.95</v>
+      </c>
+      <c r="AQ91">
+        <v>1.2</v>
+      </c>
+      <c r="AR91">
+        <v>0.5</v>
+      </c>
+      <c r="AS91">
+        <v>1.5</v>
+      </c>
+      <c r="AT91">
+        <v>0.43</v>
+      </c>
+      <c r="AU91">
+        <v>1.13</v>
+      </c>
+      <c r="AV91">
+        <v>1.07</v>
+      </c>
+      <c r="AW91">
+        <v>2.2</v>
+      </c>
+      <c r="AX91">
+        <v>1.51</v>
+      </c>
+      <c r="AY91">
+        <v>7.7</v>
+      </c>
+      <c r="AZ91">
+        <v>3.38</v>
+      </c>
+      <c r="BA91">
+        <v>1.6</v>
+      </c>
+      <c r="BB91">
+        <v>2.07</v>
+      </c>
+      <c r="BC91">
+        <v>2.85</v>
+      </c>
+      <c r="BD91">
+        <v>3.98</v>
+      </c>
+      <c r="BE91">
+        <v>5.9</v>
+      </c>
+      <c r="BF91">
+        <v>4</v>
+      </c>
+      <c r="BG91">
+        <v>5</v>
+      </c>
+      <c r="BH91">
+        <v>9</v>
+      </c>
+      <c r="BI91">
+        <v>7</v>
+      </c>
+      <c r="BJ91">
+        <v>13</v>
+      </c>
+      <c r="BK91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>3157374</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44879.60416666666</v>
+      </c>
+      <c r="F92">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>76</v>
+      </c>
+      <c r="H92" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>142</v>
+      </c>
+      <c r="P92" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q92">
+        <v>5</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>6</v>
+      </c>
+      <c r="T92">
+        <v>2.63</v>
+      </c>
+      <c r="U92">
+        <v>2.05</v>
+      </c>
+      <c r="V92">
+        <v>4.75</v>
+      </c>
+      <c r="W92">
+        <v>1.5</v>
+      </c>
+      <c r="X92">
+        <v>2.5</v>
+      </c>
+      <c r="Y92">
+        <v>3.4</v>
+      </c>
+      <c r="Z92">
+        <v>1.3</v>
+      </c>
+      <c r="AA92">
+        <v>10</v>
+      </c>
+      <c r="AB92">
+        <v>1.06</v>
+      </c>
+      <c r="AC92">
+        <v>2</v>
+      </c>
+      <c r="AD92">
+        <v>3</v>
+      </c>
+      <c r="AE92">
+        <v>3.85</v>
+      </c>
+      <c r="AF92">
+        <v>1.08</v>
+      </c>
+      <c r="AG92">
+        <v>8</v>
+      </c>
+      <c r="AH92">
+        <v>1.44</v>
+      </c>
+      <c r="AI92">
+        <v>2.8</v>
+      </c>
+      <c r="AJ92">
+        <v>2.38</v>
+      </c>
+      <c r="AK92">
+        <v>1.53</v>
+      </c>
+      <c r="AL92">
+        <v>2.05</v>
+      </c>
+      <c r="AM92">
+        <v>1.7</v>
+      </c>
+      <c r="AN92">
+        <v>1.22</v>
+      </c>
+      <c r="AO92">
+        <v>1.28</v>
+      </c>
+      <c r="AP92">
+        <v>1.9</v>
+      </c>
+      <c r="AQ92">
+        <v>0.33</v>
+      </c>
+      <c r="AR92">
+        <v>0.29</v>
+      </c>
+      <c r="AS92">
+        <v>0.71</v>
+      </c>
+      <c r="AT92">
+        <v>0.25</v>
+      </c>
+      <c r="AU92">
+        <v>1.23</v>
+      </c>
+      <c r="AV92">
+        <v>1.03</v>
+      </c>
+      <c r="AW92">
+        <v>2.26</v>
+      </c>
+      <c r="AX92">
+        <v>1.52</v>
+      </c>
+      <c r="AY92">
+        <v>7.9</v>
+      </c>
+      <c r="AZ92">
+        <v>3.3</v>
+      </c>
+      <c r="BA92">
+        <v>1.44</v>
+      </c>
+      <c r="BB92">
+        <v>1.81</v>
+      </c>
+      <c r="BC92">
+        <v>2.38</v>
+      </c>
+      <c r="BD92">
+        <v>3.18</v>
+      </c>
+      <c r="BE92">
+        <v>4.3</v>
+      </c>
+      <c r="BF92">
+        <v>3</v>
+      </c>
+      <c r="BG92">
+        <v>2</v>
+      </c>
+      <c r="BH92">
+        <v>6</v>
+      </c>
+      <c r="BI92">
+        <v>2</v>
+      </c>
+      <c r="BJ92">
+        <v>9</v>
+      </c>
+      <c r="BK92">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK92"/>
+  <dimension ref="A1:BK97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT9" t="n">
         <v>0.25</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.67</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.71</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT21" t="n">
         <v>0.14</v>
@@ -5366,7 +5366,7 @@
         <v>0.33</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT24" t="n">
         <v>0.25</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5</v>
@@ -5775,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU26" t="n">
         <v>1.66</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU28" t="n">
         <v>0.66</v>
@@ -6384,7 +6384,7 @@
         <v>2.29</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6587,7 +6587,7 @@
         <v>1.71</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU30" t="n">
         <v>1.39</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT38" t="n">
         <v>0.83</v>
@@ -8617,7 +8617,7 @@
         <v>1.86</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -8820,7 +8820,7 @@
         <v>2.29</v>
       </c>
       <c r="AT41" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AU41" t="n">
         <v>1.96</v>
@@ -9020,7 +9020,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT42" t="n">
         <v>1.71</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT43" t="n">
         <v>0.43</v>
@@ -9429,7 +9429,7 @@
         <v>0.67</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU44" t="n">
         <v>0.77</v>
@@ -9629,10 +9629,10 @@
         <v>0.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1.62</v>
@@ -9835,7 +9835,7 @@
         <v>0.71</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU46" t="n">
         <v>1.05</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT53" t="n">
         <v>0.5</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT54" t="n">
         <v>0.83</v>
@@ -11662,7 +11662,7 @@
         <v>0.83</v>
       </c>
       <c r="AT55" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AU55" t="n">
         <v>1.21</v>
@@ -11862,7 +11862,7 @@
         <v>1.75</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT56" t="n">
         <v>1.71</v>
@@ -12271,7 +12271,7 @@
         <v>1.71</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU58" t="n">
         <v>1.42</v>
@@ -12474,7 +12474,7 @@
         <v>0.67</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU59" t="n">
         <v>0.83</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT60" t="n">
         <v>0.14</v>
@@ -12880,7 +12880,7 @@
         <v>2.75</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU61" t="n">
         <v>1.3</v>
@@ -13489,7 +13489,7 @@
         <v>0.71</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.07</v>
@@ -13689,7 +13689,7 @@
         <v>1.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT65" t="n">
         <v>1.71</v>
@@ -13895,7 +13895,7 @@
         <v>1.86</v>
       </c>
       <c r="AT66" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.41</v>
@@ -14098,7 +14098,7 @@
         <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -14501,7 +14501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT69" t="n">
         <v>1.5</v>
@@ -14907,7 +14907,7 @@
         <v>0.8</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT71" t="n">
         <v>0.57</v>
@@ -15113,7 +15113,7 @@
         <v>0.83</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU72" t="n">
         <v>1.03</v>
@@ -15519,7 +15519,7 @@
         <v>1.71</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU74" t="n">
         <v>1.36</v>
@@ -16128,7 +16128,7 @@
         <v>2.75</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU77" t="n">
         <v>1.34</v>
@@ -16328,7 +16328,7 @@
         <v>2.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT78" t="n">
         <v>2</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16737,7 +16737,7 @@
         <v>0.67</v>
       </c>
       <c r="AT80" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AU80" t="n">
         <v>0.92</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT82" t="n">
         <v>0.83</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU83" t="n">
         <v>1.12</v>
@@ -17749,7 +17749,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT85" t="n">
         <v>1.5</v>
@@ -17952,10 +17952,10 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18767,7 +18767,7 @@
         <v>2.29</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU90" t="n">
         <v>1.91</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT91" t="n">
         <v>0.43</v>
@@ -19225,6 +19225,1021 @@
       </c>
       <c r="BK92" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3157382</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44916.41666666666</v>
+      </c>
+      <c r="F93" t="n">
+        <v>14</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>7</v>
+      </c>
+      <c r="T93" t="n">
+        <v>5</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3157379</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44916.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>14</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['67', '88', '90+4']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V94" t="n">
+        <v>13</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3157380</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44916.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>14</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>7</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3157385</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>44916.625</v>
+      </c>
+      <c r="F96" t="n">
+        <v>14</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>4</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['64', '76']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['33', '45']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>6</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>8</v>
+      </c>
+      <c r="T96" t="n">
+        <v>7</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3157381</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>44916.6875</v>
+      </c>
+      <c r="F97" t="n">
+        <v>14</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>9</v>
+      </c>
+      <c r="T97" t="n">
+        <v>7</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT12" t="n">
         <v>1.14</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT13" t="n">
         <v>2.67</v>
@@ -3339,7 +3339,7 @@
         <v>2.29</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU14" t="n">
         <v>2.32</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU22" t="n">
         <v>1.55</v>
@@ -5163,7 +5163,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT23" t="n">
         <v>1.71</v>
@@ -5572,7 +5572,7 @@
         <v>0.71</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU25" t="n">
         <v>1.79</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT31" t="n">
         <v>2</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU34" t="n">
         <v>0.96</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU39" t="n">
         <v>1.84</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT44" t="n">
         <v>1.71</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT46" t="n">
         <v>1.71</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU47" t="n">
         <v>1.2</v>
@@ -11256,7 +11256,7 @@
         <v>2.57</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU53" t="n">
         <v>2.19</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT59" t="n">
         <v>1.71</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT64" t="n">
         <v>0.5</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU68" t="n">
         <v>1.03</v>
@@ -14504,7 +14504,7 @@
         <v>2.57</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -15313,7 +15313,7 @@
         <v>0</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT73" t="n">
         <v>0.43</v>
@@ -15922,7 +15922,7 @@
         <v>0.17</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT76" t="n">
         <v>0.25</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT80" t="n">
         <v>2.67</v>
@@ -17752,7 +17752,7 @@
         <v>0.71</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -18158,7 +18158,7 @@
         <v>2.75</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU87" t="n">
         <v>1.32</v>
@@ -19170,7 +19170,7 @@
         <v>0.29</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT92" t="n">
         <v>0.25</v>
@@ -20240,6 +20240,412 @@
       </c>
       <c r="BK97" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3157383</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>44917.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>14</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>7</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>7</v>
+      </c>
+      <c r="T98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3157384</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>44917.60416666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>14</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['45+5', '86']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>6</v>
+      </c>
+      <c r="T99" t="n">
+        <v>5</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK99"/>
+  <dimension ref="A1:BK104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.83</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT8" t="n">
         <v>0.14</v>
@@ -3745,7 +3745,7 @@
         <v>0.83</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0.61</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU17" t="n">
         <v>1.85</v>
@@ -4148,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT18" t="n">
         <v>0.25</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT19" t="n">
         <v>1.71</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU20" t="n">
         <v>1.54</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU22" t="n">
         <v>1.55</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT26" t="n">
         <v>1.71</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT27" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU27" t="n">
         <v>1.22</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT30" t="n">
         <v>0.5</v>
@@ -6790,7 +6790,7 @@
         <v>0.57</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU31" t="n">
         <v>1.01</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT32" t="n">
         <v>0.14</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         <v>0.63</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU34" t="n">
         <v>0.96</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU36" t="n">
         <v>1.45</v>
@@ -8211,7 +8211,7 @@
         <v>1.43</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU38" t="n">
         <v>1.24</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT39" t="n">
         <v>0.86</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT40" t="n">
         <v>1.14</v>
@@ -9226,7 +9226,7 @@
         <v>2.57</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU43" t="n">
         <v>1.82</v>
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU47" t="n">
         <v>1.2</v>
@@ -10238,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.12</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU49" t="n">
         <v>1.5</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT50" t="n">
         <v>0.14</v>
@@ -10847,7 +10847,7 @@
         <v>0.2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT51" t="n">
         <v>0.25</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11459,7 +11459,7 @@
         <v>1.29</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12268,7 +12268,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT58" t="n">
         <v>1.71</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT61" t="n">
         <v>1.14</v>
@@ -13083,7 +13083,7 @@
         <v>2.29</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU62" t="n">
         <v>1.84</v>
@@ -13283,10 +13283,10 @@
         <v>2.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT63" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU63" t="n">
         <v>1.08</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT66" t="n">
         <v>2.67</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT67" t="n">
         <v>0.5</v>
@@ -14298,7 +14298,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT68" t="n">
         <v>0.86</v>
@@ -14504,7 +14504,7 @@
         <v>2.57</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14707,7 +14707,7 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU70" t="n">
         <v>1.46</v>
@@ -14910,7 +14910,7 @@
         <v>1.29</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU71" t="n">
         <v>1.71</v>
@@ -15316,7 +15316,7 @@
         <v>0.63</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU73" t="n">
         <v>1.13</v>
@@ -15516,7 +15516,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT74" t="n">
         <v>1.14</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT77" t="n">
         <v>1.71</v>
@@ -16331,7 +16331,7 @@
         <v>1.43</v>
       </c>
       <c r="AT78" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16937,10 +16937,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.28</v>
@@ -17143,7 +17143,7 @@
         <v>2.57</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU82" t="n">
         <v>2.41</v>
@@ -17343,7 +17343,7 @@
         <v>1.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT83" t="n">
         <v>1.71</v>
@@ -17546,7 +17546,7 @@
         <v>0.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT84" t="n">
         <v>0.14</v>
@@ -17752,7 +17752,7 @@
         <v>0.71</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -18155,7 +18155,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT87" t="n">
         <v>0.86</v>
@@ -18561,10 +18561,10 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT89" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU89" t="n">
         <v>1.75</v>
@@ -18970,7 +18970,7 @@
         <v>1.43</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU91" t="n">
         <v>1.13</v>
@@ -19373,7 +19373,7 @@
         <v>1.17</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT93" t="n">
         <v>1.14</v>
@@ -20594,7 +20594,7 @@
         <v>0.57</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU99" t="n">
         <v>0.89</v>
@@ -20646,6 +20646,1021 @@
       </c>
       <c r="BK99" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3157389</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>44923.5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>15</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>8</v>
+      </c>
+      <c r="T100" t="n">
+        <v>3</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>4</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3157390</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>44923.54166666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>15</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>5</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>5</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['4', '35', '68', '84', '90+1']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>6</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>6</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V101" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3157388</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>44923.60416666666</v>
+      </c>
+      <c r="F102" t="n">
+        <v>15</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="n">
+        <v>4</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['16', '30', '35', '67']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>8</v>
+      </c>
+      <c r="R102" t="n">
+        <v>8</v>
+      </c>
+      <c r="S102" t="n">
+        <v>16</v>
+      </c>
+      <c r="T102" t="n">
+        <v>6</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3157387</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>44923.625</v>
+      </c>
+      <c r="F103" t="n">
+        <v>15</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>11</v>
+      </c>
+      <c r="S103" t="n">
+        <v>14</v>
+      </c>
+      <c r="T103" t="n">
+        <v>5</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3157391</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>44923.6875</v>
+      </c>
+      <c r="F104" t="n">
+        <v>15</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>13</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>13</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V104" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK104"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT4" t="n">
         <v>2.13</v>
@@ -1512,7 +1512,7 @@
         <v>2.29</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT7" t="n">
         <v>0.25</v>
@@ -2121,7 +2121,7 @@
         <v>2.13</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5</v>
@@ -4354,7 +4354,7 @@
         <v>1.63</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU19" t="n">
         <v>1.3</v>
@@ -4760,7 +4760,7 @@
         <v>2.57</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT22" t="n">
         <v>1.63</v>
@@ -5166,7 +5166,7 @@
         <v>0.63</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -6993,7 +6993,7 @@
         <v>2.56</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT35" t="n">
         <v>1.71</v>
@@ -8005,7 +8005,7 @@
         <v>0.25</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT37" t="n">
         <v>0.25</v>
@@ -9023,7 +9023,7 @@
         <v>1.29</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.73</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT49" t="n">
         <v>2.13</v>
@@ -10647,7 +10647,7 @@
         <v>1.63</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU50" t="n">
         <v>1.34</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT52" t="n">
         <v>0.38</v>
@@ -11659,7 +11659,7 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT55" t="n">
         <v>2.67</v>
@@ -11865,7 +11865,7 @@
         <v>1.43</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.22</v>
@@ -12677,7 +12677,7 @@
         <v>0.71</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU60" t="n">
         <v>1.83</v>
@@ -13692,7 +13692,7 @@
         <v>0.71</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU65" t="n">
         <v>1.71</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT70" t="n">
         <v>0.86</v>
@@ -15110,7 +15110,7 @@
         <v>2.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT72" t="n">
         <v>1.71</v>
@@ -15722,7 +15722,7 @@
         <v>2.29</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU75" t="n">
         <v>1.94</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT79" t="n">
         <v>0.5</v>
@@ -17549,7 +17549,7 @@
         <v>1.63</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU84" t="n">
         <v>1.34</v>
@@ -18358,10 +18358,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU88" t="n">
         <v>1.25</v>
@@ -21661,6 +21661,412 @@
       </c>
       <c r="BK104" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3157386</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>44924.54166666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>15</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>6</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2</v>
+      </c>
+      <c r="S105" t="n">
+        <v>8</v>
+      </c>
+      <c r="T105" t="n">
+        <v>2</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V105" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3157393</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>44924.5625</v>
+      </c>
+      <c r="F106" t="n">
+        <v>15</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -21848,22 +21848,22 @@
         <v>4.1</v>
       </c>
       <c r="BF105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG105" t="n">
         <v>0</v>
       </c>
       <c r="BH105" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BI105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ105" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BK105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
@@ -21928,13 +21928,13 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R106" t="n">
         <v>2</v>
       </c>
       <c r="S106" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T106" t="n">
         <v>2.88</v>
@@ -22051,22 +22051,22 @@
         <v>4.5</v>
       </c>
       <c r="BF106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG106" t="n">
         <v>3</v>
       </c>
-      <c r="BG106" t="n">
-        <v>2</v>
-      </c>
       <c r="BH106" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BI106" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ106" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BK106" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>0.86</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT9" t="n">
         <v>0.25</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT10" t="n">
         <v>0.5</v>
@@ -2730,7 +2730,7 @@
         <v>2.57</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.43</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT23" t="n">
         <v>1.5</v>
@@ -5366,7 +5366,7 @@
         <v>0.33</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>0.25</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT25" t="n">
         <v>0.86</v>
@@ -5775,7 +5775,7 @@
         <v>2.13</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU26" t="n">
         <v>1.66</v>
@@ -5978,7 +5978,7 @@
         <v>2.56</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU27" t="n">
         <v>1.22</v>
@@ -6790,7 +6790,7 @@
         <v>0.57</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU31" t="n">
         <v>1.01</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT34" t="n">
         <v>1.63</v>
@@ -7602,7 +7602,7 @@
         <v>2.13</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -8820,7 +8820,7 @@
         <v>2.29</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU41" t="n">
         <v>1.96</v>
@@ -9020,7 +9020,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>1.5</v>
@@ -9429,7 +9429,7 @@
         <v>0.57</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU44" t="n">
         <v>0.77</v>
@@ -9629,7 +9629,7 @@
         <v>0.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT45" t="n">
         <v>0.5</v>
@@ -9832,10 +9832,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU46" t="n">
         <v>1.05</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT47" t="n">
         <v>1.63</v>
@@ -10444,7 +10444,7 @@
         <v>2.13</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU49" t="n">
         <v>1.5</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT54" t="n">
         <v>0.86</v>
@@ -11662,7 +11662,7 @@
         <v>0.86</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU55" t="n">
         <v>1.21</v>
@@ -12271,7 +12271,7 @@
         <v>1.63</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU58" t="n">
         <v>1.42</v>
@@ -12474,7 +12474,7 @@
         <v>0.57</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU59" t="n">
         <v>0.83</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT60" t="n">
         <v>0.25</v>
@@ -13283,10 +13283,10 @@
         <v>2.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU63" t="n">
         <v>1.08</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT64" t="n">
         <v>0.5</v>
@@ -13689,7 +13689,7 @@
         <v>1.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT65" t="n">
         <v>1.5</v>
@@ -13895,7 +13895,7 @@
         <v>1.63</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU66" t="n">
         <v>1.41</v>
@@ -14298,7 +14298,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT68" t="n">
         <v>0.86</v>
@@ -14907,7 +14907,7 @@
         <v>0.8</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT71" t="n">
         <v>0.5</v>
@@ -15113,7 +15113,7 @@
         <v>0.86</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU72" t="n">
         <v>1.03</v>
@@ -15313,7 +15313,7 @@
         <v>0</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT73" t="n">
         <v>0.38</v>
@@ -16128,7 +16128,7 @@
         <v>2.56</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU77" t="n">
         <v>1.34</v>
@@ -16331,7 +16331,7 @@
         <v>1.43</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16737,7 +16737,7 @@
         <v>0.57</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU80" t="n">
         <v>0.92</v>
@@ -17343,10 +17343,10 @@
         <v>1.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU83" t="n">
         <v>1.12</v>
@@ -17749,7 +17749,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT85" t="n">
         <v>1.63</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT86" t="n">
         <v>1.14</v>
@@ -18564,7 +18564,7 @@
         <v>2.13</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU89" t="n">
         <v>1.75</v>
@@ -18767,7 +18767,7 @@
         <v>2.29</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU90" t="n">
         <v>1.91</v>
@@ -19170,7 +19170,7 @@
         <v>0.29</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT92" t="n">
         <v>0.25</v>
@@ -19373,7 +19373,7 @@
         <v>1.17</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT93" t="n">
         <v>1.14</v>
@@ -19782,7 +19782,7 @@
         <v>1.43</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU95" t="n">
         <v>1.21</v>
@@ -19982,10 +19982,10 @@
         <v>1.83</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU96" t="n">
         <v>1.6</v>
@@ -20185,10 +20185,10 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU97" t="n">
         <v>1.58</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT98" t="n">
         <v>0.86</v>
@@ -20794,7 +20794,7 @@
         <v>0.43</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT100" t="n">
         <v>0.38</v>
@@ -21203,7 +21203,7 @@
         <v>1.63</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -22067,6 +22067,818 @@
       </c>
       <c r="BK106" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3157396</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>44929.47916666666</v>
+      </c>
+      <c r="F107" t="n">
+        <v>16</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>8</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>9</v>
+      </c>
+      <c r="T107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3157234</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>44929.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>16</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>9</v>
+      </c>
+      <c r="T108" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V108" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3157400</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>44929.625</v>
+      </c>
+      <c r="F109" t="n">
+        <v>16</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['9', '32']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>6</v>
+      </c>
+      <c r="S109" t="n">
+        <v>6</v>
+      </c>
+      <c r="T109" t="n">
+        <v>9</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3157395</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>44929.6875</v>
+      </c>
+      <c r="F110" t="n">
+        <v>16</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['34', '40']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" t="n">
+        <v>8</v>
+      </c>
+      <c r="S110" t="n">
+        <v>9</v>
+      </c>
+      <c r="T110" t="n">
+        <v>11</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK110"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT5" t="n">
         <v>1.5</v>
@@ -2527,7 +2527,7 @@
         <v>1.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>2.32</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT15" t="n">
         <v>1.88</v>
@@ -5572,7 +5572,7 @@
         <v>0.63</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU25" t="n">
         <v>1.79</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>0.66</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6587,7 +6587,7 @@
         <v>1.63</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU30" t="n">
         <v>1.39</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT31" t="n">
         <v>1.89</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT38" t="n">
         <v>0.86</v>
@@ -8414,7 +8414,7 @@
         <v>2.13</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>1.84</v>
@@ -8617,7 +8617,7 @@
         <v>1.63</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT41" t="n">
         <v>2.71</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT44" t="n">
         <v>1.63</v>
@@ -9632,7 +9632,7 @@
         <v>0.63</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU45" t="n">
         <v>1.62</v>
@@ -11256,7 +11256,7 @@
         <v>2.57</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU53" t="n">
         <v>2.19</v>
@@ -11862,7 +11862,7 @@
         <v>1.75</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT56" t="n">
         <v>1.5</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT59" t="n">
         <v>1.88</v>
@@ -12880,7 +12880,7 @@
         <v>2.56</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU61" t="n">
         <v>1.3</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT62" t="n">
         <v>0.5</v>
@@ -13489,7 +13489,7 @@
         <v>0.67</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU64" t="n">
         <v>1.07</v>
@@ -14098,7 +14098,7 @@
         <v>2.13</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -14301,7 +14301,7 @@
         <v>1.13</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU68" t="n">
         <v>1.03</v>
@@ -15519,7 +15519,7 @@
         <v>1.63</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>1.36</v>
@@ -15719,7 +15719,7 @@
         <v>0.2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT75" t="n">
         <v>0.25</v>
@@ -15922,7 +15922,7 @@
         <v>0.17</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT76" t="n">
         <v>0.25</v>
@@ -16328,7 +16328,7 @@
         <v>2.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT78" t="n">
         <v>1.89</v>
@@ -16534,7 +16534,7 @@
         <v>2.13</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT80" t="n">
         <v>2.71</v>
@@ -17955,7 +17955,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18158,7 +18158,7 @@
         <v>2.56</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU87" t="n">
         <v>1.32</v>
@@ -18764,7 +18764,7 @@
         <v>2.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT90" t="n">
         <v>1.63</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT91" t="n">
         <v>0.38</v>
@@ -19376,7 +19376,7 @@
         <v>1.13</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.08</v>
@@ -19579,7 +19579,7 @@
         <v>2.57</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU94" t="n">
         <v>2.39</v>
@@ -19779,7 +19779,7 @@
         <v>1.83</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT95" t="n">
         <v>1.63</v>
@@ -20391,7 +20391,7 @@
         <v>0.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU98" t="n">
         <v>1.21</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT99" t="n">
         <v>1.63</v>
@@ -22879,6 +22879,615 @@
       </c>
       <c r="BK110" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3157394</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>44930.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>16</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3</v>
+      </c>
+      <c r="L111" t="n">
+        <v>3</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['18', '24', '31']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V111" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3157398</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>44930.54166666666</v>
+      </c>
+      <c r="F112" t="n">
+        <v>16</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['46', '74']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>8</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2</v>
+      </c>
+      <c r="S112" t="n">
+        <v>10</v>
+      </c>
+      <c r="T112" t="n">
+        <v>3</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V112" t="n">
+        <v>4</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3157399</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>44930.625</v>
+      </c>
+      <c r="F113" t="n">
+        <v>16</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>9</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2</v>
+      </c>
+      <c r="S113" t="n">
+        <v>11</v>
+      </c>
+      <c r="T113" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V113" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X113" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT4" t="n">
         <v>1.89</v>
@@ -2121,7 +2121,7 @@
         <v>2.13</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5</v>
@@ -4760,7 +4760,7 @@
         <v>2.57</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -4963,7 +4963,7 @@
         <v>2.13</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU22" t="n">
         <v>1.55</v>
@@ -6993,7 +6993,7 @@
         <v>2.56</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7399,7 +7399,7 @@
         <v>0.67</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU34" t="n">
         <v>0.96</v>
@@ -8005,7 +8005,7 @@
         <v>0.25</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT37" t="n">
         <v>0.25</v>
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU47" t="n">
         <v>1.2</v>
@@ -10647,7 +10647,7 @@
         <v>1.63</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU50" t="n">
         <v>1.34</v>
@@ -11659,7 +11659,7 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT55" t="n">
         <v>2.71</v>
@@ -12068,7 +12068,7 @@
         <v>2.13</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12677,7 +12677,7 @@
         <v>0.63</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU60" t="n">
         <v>1.83</v>
@@ -13283,7 +13283,7 @@
         <v>2.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
         <v>1.89</v>
@@ -14298,7 +14298,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
         <v>0.75</v>
@@ -14504,7 +14504,7 @@
         <v>2.57</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -15110,7 +15110,7 @@
         <v>2.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT72" t="n">
         <v>1.63</v>
@@ -15722,7 +15722,7 @@
         <v>2.38</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU75" t="n">
         <v>1.94</v>
@@ -17343,7 +17343,7 @@
         <v>1.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT83" t="n">
         <v>1.88</v>
@@ -17549,7 +17549,7 @@
         <v>1.63</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU84" t="n">
         <v>1.34</v>
@@ -17752,7 +17752,7 @@
         <v>0.63</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT88" t="n">
         <v>1.5</v>
@@ -19373,7 +19373,7 @@
         <v>1.17</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>0.88</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU99" t="n">
         <v>0.89</v>
@@ -20794,7 +20794,7 @@
         <v>0.43</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT100" t="n">
         <v>0.38</v>
@@ -21406,7 +21406,7 @@
         <v>1.63</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU103" t="n">
         <v>1.3</v>
@@ -22012,10 +22012,10 @@
         <v>0.14</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU106" t="n">
         <v>1.25</v>
@@ -22418,7 +22418,7 @@
         <v>2.67</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT108" t="n">
         <v>2.71</v>
@@ -23488,6 +23488,412 @@
       </c>
       <c r="BK113" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3157405</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>44933.52083333334</v>
+      </c>
+      <c r="F114" t="n">
+        <v>17</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['45', '65', '69']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>2</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>7</v>
+      </c>
+      <c r="T114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3157407</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>44933.60416666666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>17</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['13', '27', '58']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>4</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>9</v>
+      </c>
+      <c r="T115" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.56</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT7" t="n">
         <v>0.25</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT11" t="n">
         <v>1.63</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>0.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.63</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU16" t="n">
         <v>0.61</v>
@@ -3948,7 +3948,7 @@
         <v>2.13</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU17" t="n">
         <v>1.85</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT19" t="n">
         <v>1.5</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU20" t="n">
         <v>1.54</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5600000000000001</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT22" t="n">
         <v>1.78</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT30" t="n">
         <v>0.44</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT31" t="n">
         <v>1.89</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU36" t="n">
         <v>1.45</v>
@@ -8211,7 +8211,7 @@
         <v>1.63</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU38" t="n">
         <v>1.24</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -8820,7 +8820,7 @@
         <v>2.38</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU41" t="n">
         <v>1.96</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU43" t="n">
         <v>1.82</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT44" t="n">
         <v>1.63</v>
@@ -9835,7 +9835,7 @@
         <v>0.67</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU46" t="n">
         <v>1.05</v>
@@ -10241,7 +10241,7 @@
         <v>2.56</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU48" t="n">
         <v>1.12</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT49" t="n">
         <v>1.89</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT50" t="n">
         <v>0.5600000000000001</v>
@@ -10847,7 +10847,7 @@
         <v>0.2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT51" t="n">
         <v>0.25</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT53" t="n">
         <v>0.75</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -11662,7 +11662,7 @@
         <v>0.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU55" t="n">
         <v>1.21</v>
@@ -12268,7 +12268,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT58" t="n">
         <v>1.63</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>0.83</v>
@@ -13083,7 +13083,7 @@
         <v>2.38</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU62" t="n">
         <v>1.84</v>
@@ -13892,10 +13892,10 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU66" t="n">
         <v>1.41</v>
@@ -14501,7 +14501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT69" t="n">
         <v>1.78</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU70" t="n">
         <v>1.46</v>
@@ -14910,7 +14910,7 @@
         <v>1.5</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU71" t="n">
         <v>1.71</v>
@@ -15316,7 +15316,7 @@
         <v>0.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU73" t="n">
         <v>1.13</v>
@@ -15516,7 +15516,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
@@ -15922,7 +15922,7 @@
         <v>0.17</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT76" t="n">
         <v>0.25</v>
@@ -16128,7 +16128,7 @@
         <v>2.56</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU77" t="n">
         <v>1.34</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT79" t="n">
         <v>0.44</v>
@@ -16734,10 +16734,10 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU80" t="n">
         <v>0.92</v>
@@ -16937,10 +16937,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU81" t="n">
         <v>1.28</v>
@@ -17140,10 +17140,10 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU82" t="n">
         <v>2.41</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU83" t="n">
         <v>1.12</v>
@@ -17546,7 +17546,7 @@
         <v>0.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5600000000000001</v>
@@ -18970,7 +18970,7 @@
         <v>1.63</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU91" t="n">
         <v>1.13</v>
@@ -19576,7 +19576,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT94" t="n">
         <v>0.44</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU96" t="n">
         <v>1.6</v>
@@ -20188,7 +20188,7 @@
         <v>0.63</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU97" t="n">
         <v>1.58</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT99" t="n">
         <v>1.78</v>
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU100" t="n">
         <v>1.09</v>
@@ -21000,7 +21000,7 @@
         <v>2.13</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -21200,7 +21200,7 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT102" t="n">
         <v>1.89</v>
@@ -21403,7 +21403,7 @@
         <v>1.71</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT103" t="n">
         <v>1.78</v>
@@ -21609,7 +21609,7 @@
         <v>2.56</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -21809,7 +21809,7 @@
         <v>1.71</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT105" t="n">
         <v>1.5</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AU108" t="n">
         <v>1.16</v>
@@ -22827,7 +22827,7 @@
         <v>0.63</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -23230,7 +23230,7 @@
         <v>0.86</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT112" t="n">
         <v>0.75</v>
@@ -23894,6 +23894,1021 @@
       </c>
       <c r="BK115" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3157404</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>44934.45833333334</v>
+      </c>
+      <c r="F116" t="n">
+        <v>17</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['7', '22', '45', '75']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>7</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2</v>
+      </c>
+      <c r="S116" t="n">
+        <v>9</v>
+      </c>
+      <c r="T116" t="n">
+        <v>7</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X116" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3157403</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>44934.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>17</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['4', '59']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4</v>
+      </c>
+      <c r="S117" t="n">
+        <v>9</v>
+      </c>
+      <c r="T117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V117" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3157402</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>44934.58333333334</v>
+      </c>
+      <c r="F118" t="n">
+        <v>17</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>3</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['19', '32', '89']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>4</v>
+      </c>
+      <c r="R118" t="n">
+        <v>8</v>
+      </c>
+      <c r="S118" t="n">
+        <v>12</v>
+      </c>
+      <c r="T118" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V118" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X118" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3157401</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>44934.60416666666</v>
+      </c>
+      <c r="F119" t="n">
+        <v>17</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>8</v>
+      </c>
+      <c r="R119" t="n">
+        <v>4</v>
+      </c>
+      <c r="S119" t="n">
+        <v>12</v>
+      </c>
+      <c r="T119" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2</v>
+      </c>
+      <c r="V119" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3157406</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>44935.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>17</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>4</v>
+      </c>
+      <c r="N120" t="n">
+        <v>4</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['27', '52', '73', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>5</v>
+      </c>
+      <c r="S120" t="n">
+        <v>5</v>
+      </c>
+      <c r="T120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2</v>
+      </c>
+      <c r="V120" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT4" t="n">
         <v>1.89</v>
@@ -3339,7 +3339,7 @@
         <v>2.38</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU14" t="n">
         <v>2.32</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT16" t="n">
         <v>0.44</v>
@@ -5572,7 +5572,7 @@
         <v>0.63</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU25" t="n">
         <v>1.79</v>
@@ -8005,7 +8005,7 @@
         <v>0.25</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT37" t="n">
         <v>0.25</v>
@@ -8414,7 +8414,7 @@
         <v>2.13</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU39" t="n">
         <v>1.84</v>
@@ -11256,7 +11256,7 @@
         <v>2.63</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU53" t="n">
         <v>2.19</v>
@@ -11659,7 +11659,7 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT55" t="n">
         <v>2.38</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU68" t="n">
         <v>1.03</v>
@@ -15110,7 +15110,7 @@
         <v>2.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT72" t="n">
         <v>1.63</v>
@@ -18158,7 +18158,7 @@
         <v>2.56</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU87" t="n">
         <v>1.32</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT88" t="n">
         <v>1.5</v>
@@ -20391,7 +20391,7 @@
         <v>0.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU98" t="n">
         <v>1.21</v>
@@ -22012,7 +22012,7 @@
         <v>0.14</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT106" t="n">
         <v>0.5600000000000001</v>
@@ -23233,7 +23233,7 @@
         <v>0.78</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU112" t="n">
         <v>0.91</v>
@@ -23839,7 +23839,7 @@
         <v>1.63</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT115" t="n">
         <v>1.78</v>
@@ -24909,6 +24909,209 @@
       </c>
       <c r="BK120" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3157414</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>44940.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>18</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>4</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2</v>
+      </c>
+      <c r="S121" t="n">
+        <v>6</v>
+      </c>
+      <c r="T121" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.78</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT5" t="n">
         <v>1.5</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT14" t="n">
         <v>0.78</v>
@@ -4557,7 +4557,7 @@
         <v>1.44</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU20" t="n">
         <v>1.54</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT29" t="n">
         <v>0.44</v>
@@ -8211,7 +8211,7 @@
         <v>1.63</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU38" t="n">
         <v>1.24</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT41" t="n">
         <v>2.38</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT62" t="n">
         <v>0.44</v>
@@ -14707,7 +14707,7 @@
         <v>2.22</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU70" t="n">
         <v>1.46</v>
@@ -15719,7 +15719,7 @@
         <v>0.2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT75" t="n">
         <v>0.5600000000000001</v>
@@ -17143,7 +17143,7 @@
         <v>2.63</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU82" t="n">
         <v>2.41</v>
@@ -18764,7 +18764,7 @@
         <v>2.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT90" t="n">
         <v>1.63</v>
@@ -21609,7 +21609,7 @@
         <v>2.56</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -23433,7 +23433,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -24857,7 +24857,7 @@
         <v>0.78</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU120" t="n">
         <v>1.05</v>
@@ -25096,22 +25096,225 @@
         <v>4.7</v>
       </c>
       <c r="BF121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3157412</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>44940.625</v>
+      </c>
+      <c r="F122" t="n">
+        <v>18</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>5</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
+      <c r="S122" t="n">
+        <v>5</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V122" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X122" t="n">
         <v>3</v>
       </c>
-      <c r="BG121" t="n">
+      <c r="Y122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI122" t="n">
         <v>5</v>
       </c>
-      <c r="BH121" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI121" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ121" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK121" t="n">
-        <v>8</v>
+      <c r="BJ122" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.22</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.22</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5600000000000001</v>
@@ -2324,7 +2324,7 @@
         <v>0.63</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
         <v>0.44</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT11" t="n">
         <v>1.63</v>
@@ -2933,7 +2933,7 @@
         <v>0.78</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT15" t="n">
         <v>2</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT17" t="n">
         <v>0.33</v>
@@ -4151,7 +4151,7 @@
         <v>2.56</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU18" t="n">
         <v>1.27</v>
@@ -4354,7 +4354,7 @@
         <v>1.78</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU19" t="n">
         <v>1.3</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5600000000000001</v>
@@ -5166,7 +5166,7 @@
         <v>0.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -5366,10 +5366,10 @@
         <v>0.33</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.46</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT26" t="n">
         <v>1.63</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU28" t="n">
         <v>0.66</v>
@@ -8008,7 +8008,7 @@
         <v>0.78</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU37" t="n">
         <v>0.61</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT38" t="n">
         <v>1.11</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT39" t="n">
         <v>0.78</v>
@@ -8617,7 +8617,7 @@
         <v>1.44</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -8820,7 +8820,7 @@
         <v>2.22</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU41" t="n">
         <v>1.96</v>
@@ -9020,10 +9020,10 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU42" t="n">
         <v>1.73</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT43" t="n">
         <v>0.33</v>
@@ -10850,7 +10850,7 @@
         <v>1.44</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.3</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT53" t="n">
         <v>0.78</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT54" t="n">
         <v>1.11</v>
@@ -11662,7 +11662,7 @@
         <v>0.78</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU55" t="n">
         <v>1.21</v>
@@ -11862,10 +11862,10 @@
         <v>1.75</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU56" t="n">
         <v>1.22</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT57" t="n">
         <v>1.78</v>
@@ -12880,7 +12880,7 @@
         <v>2.56</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU61" t="n">
         <v>1.3</v>
@@ -13692,7 +13692,7 @@
         <v>0.63</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU65" t="n">
         <v>1.71</v>
@@ -13895,7 +13895,7 @@
         <v>1.44</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU66" t="n">
         <v>1.41</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT67" t="n">
         <v>0.44</v>
@@ -14501,7 +14501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT69" t="n">
         <v>1.78</v>
@@ -14907,7 +14907,7 @@
         <v>0.8</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT71" t="n">
         <v>0.44</v>
@@ -15519,7 +15519,7 @@
         <v>1.78</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU74" t="n">
         <v>1.36</v>
@@ -15925,7 +15925,7 @@
         <v>0.78</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU76" t="n">
         <v>0.8100000000000001</v>
@@ -16328,7 +16328,7 @@
         <v>2.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT78" t="n">
         <v>1.89</v>
@@ -16737,7 +16737,7 @@
         <v>0.78</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU80" t="n">
         <v>0.92</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT82" t="n">
         <v>1.11</v>
@@ -17952,10 +17952,10 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18361,7 +18361,7 @@
         <v>0.78</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU88" t="n">
         <v>1.25</v>
@@ -18561,7 +18561,7 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT89" t="n">
         <v>1.89</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT91" t="n">
         <v>0.33</v>
@@ -19173,7 +19173,7 @@
         <v>0.67</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU92" t="n">
         <v>1.23</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU93" t="n">
         <v>1.08</v>
@@ -19576,7 +19576,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT94" t="n">
         <v>0.44</v>
@@ -19779,7 +19779,7 @@
         <v>1.83</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT95" t="n">
         <v>1.63</v>
@@ -19982,7 +19982,7 @@
         <v>1.83</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT96" t="n">
         <v>2</v>
@@ -20188,7 +20188,7 @@
         <v>0.63</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU97" t="n">
         <v>1.58</v>
@@ -20997,7 +20997,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT101" t="n">
         <v>0.44</v>
@@ -21812,7 +21812,7 @@
         <v>2.22</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU105" t="n">
         <v>1.67</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU108" t="n">
         <v>1.16</v>
@@ -22621,7 +22621,7 @@
         <v>2.13</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT109" t="n">
         <v>1.89</v>
@@ -23027,7 +23027,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT111" t="n">
         <v>0.44</v>
@@ -23436,7 +23436,7 @@
         <v>2.22</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU113" t="n">
         <v>1.91</v>
@@ -24651,10 +24651,10 @@
         <v>2.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU119" t="n">
         <v>2.36</v>
@@ -25315,6 +25315,818 @@
       </c>
       <c r="BK122" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3157408</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>44941.45833333334</v>
+      </c>
+      <c r="F123" t="n">
+        <v>18</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>3</v>
+      </c>
+      <c r="L123" t="n">
+        <v>4</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="n">
+        <v>5</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['13', '35', '51', '55']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>8</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2</v>
+      </c>
+      <c r="S123" t="n">
+        <v>10</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V123" t="n">
+        <v>15</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3157409</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>44941.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>18</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>5</v>
+      </c>
+      <c r="R124" t="n">
+        <v>5</v>
+      </c>
+      <c r="S124" t="n">
+        <v>10</v>
+      </c>
+      <c r="T124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2</v>
+      </c>
+      <c r="V124" t="n">
+        <v>6</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X124" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3157411</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>44941.60416666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>18</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>4</v>
+      </c>
+      <c r="R125" t="n">
+        <v>3</v>
+      </c>
+      <c r="S125" t="n">
+        <v>7</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V125" t="n">
+        <v>8</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3157413</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>44941.64583333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>18</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>3</v>
+      </c>
+      <c r="R126" t="n">
+        <v>9</v>
+      </c>
+      <c r="S126" t="n">
+        <v>12</v>
+      </c>
+      <c r="T126" t="n">
+        <v>7</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT9" t="n">
         <v>0.33</v>
@@ -2730,7 +2730,7 @@
         <v>2.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT25" t="n">
         <v>0.78</v>
@@ -5775,7 +5775,7 @@
         <v>2.22</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU26" t="n">
         <v>1.66</v>
@@ -9429,7 +9429,7 @@
         <v>0.78</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU44" t="n">
         <v>0.77</v>
@@ -9629,7 +9629,7 @@
         <v>0.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT45" t="n">
         <v>0.44</v>
@@ -12271,7 +12271,7 @@
         <v>1.78</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU58" t="n">
         <v>1.42</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT60" t="n">
         <v>0.5600000000000001</v>
@@ -13689,7 +13689,7 @@
         <v>1.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT65" t="n">
         <v>1.33</v>
@@ -15113,7 +15113,7 @@
         <v>0.78</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU72" t="n">
         <v>1.03</v>
@@ -17749,7 +17749,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT85" t="n">
         <v>1.78</v>
@@ -18767,7 +18767,7 @@
         <v>2.22</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU90" t="n">
         <v>1.91</v>
@@ -19782,7 +19782,7 @@
         <v>1.56</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU95" t="n">
         <v>1.21</v>
@@ -20185,7 +20185,7 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT97" t="n">
         <v>2.44</v>
@@ -22218,7 +22218,7 @@
         <v>0.67</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU107" t="n">
         <v>1.4</v>
@@ -22824,7 +22824,7 @@
         <v>1.71</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT110" t="n">
         <v>2</v>
@@ -26127,6 +26127,209 @@
       </c>
       <c r="BK126" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3157410</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>44942.60416666666</v>
+      </c>
+      <c r="F127" t="n">
+        <v>18</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>4</v>
+      </c>
+      <c r="R127" t="n">
+        <v>7</v>
+      </c>
+      <c r="S127" t="n">
+        <v>11</v>
+      </c>
+      <c r="T127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>2.22</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT12" t="n">
         <v>0.89</v>
@@ -4760,7 +4760,7 @@
         <v>2.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT31" t="n">
         <v>1.89</v>
@@ -6993,7 +6993,7 @@
         <v>2.56</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT44" t="n">
         <v>1.78</v>
@@ -10647,7 +10647,7 @@
         <v>1.78</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU50" t="n">
         <v>1.34</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT59" t="n">
         <v>2</v>
@@ -12677,7 +12677,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU60" t="n">
         <v>1.83</v>
@@ -15722,7 +15722,7 @@
         <v>2.22</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU75" t="n">
         <v>1.94</v>
@@ -15922,7 +15922,7 @@
         <v>0.17</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT76" t="n">
         <v>0.33</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT80" t="n">
         <v>2.44</v>
@@ -17549,7 +17549,7 @@
         <v>1.44</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU84" t="n">
         <v>1.34</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT99" t="n">
         <v>1.78</v>
@@ -22015,7 +22015,7 @@
         <v>0.78</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU106" t="n">
         <v>1.25</v>
@@ -23230,7 +23230,7 @@
         <v>0.86</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT112" t="n">
         <v>0.78</v>
@@ -23639,7 +23639,7 @@
         <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU114" t="n">
         <v>1.17</v>
@@ -24854,7 +24854,7 @@
         <v>0.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT120" t="n">
         <v>1.11</v>
@@ -26330,6 +26330,209 @@
       </c>
       <c r="BK127" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3157421</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>44946.64583333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>19</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>1</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1</v>
+      </c>
+      <c r="S128" t="n">
+        <v>2</v>
+      </c>
+      <c r="T128" t="n">
+        <v>3</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V128" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK128"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.44</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.78</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT7" t="n">
         <v>0.33</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0.33</v>
@@ -2730,7 +2730,7 @@
         <v>2.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT13" t="n">
         <v>2.44</v>
@@ -3745,7 +3745,7 @@
         <v>0.78</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU16" t="n">
         <v>0.61</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT22" t="n">
         <v>1.78</v>
@@ -5163,7 +5163,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT23" t="n">
         <v>1.33</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT25" t="n">
         <v>0.78</v>
@@ -5775,7 +5775,7 @@
         <v>2.22</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU26" t="n">
         <v>1.66</v>
@@ -5978,7 +5978,7 @@
         <v>2.56</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU27" t="n">
         <v>1.22</v>
@@ -6790,7 +6790,7 @@
         <v>0.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU31" t="n">
         <v>1.01</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT34" t="n">
         <v>1.78</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT35" t="n">
         <v>2</v>
@@ -9429,7 +9429,7 @@
         <v>0.8</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU44" t="n">
         <v>0.77</v>
@@ -9629,7 +9629,7 @@
         <v>0.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT45" t="n">
         <v>0.44</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT46" t="n">
         <v>2</v>
@@ -10241,7 +10241,7 @@
         <v>2.56</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU48" t="n">
         <v>1.12</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU49" t="n">
         <v>1.5</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT52" t="n">
         <v>0.33</v>
@@ -12271,7 +12271,7 @@
         <v>1.78</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU58" t="n">
         <v>1.42</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT60" t="n">
         <v>0.6</v>
@@ -13083,7 +13083,7 @@
         <v>2.22</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU62" t="n">
         <v>1.84</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.08</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT64" t="n">
         <v>0.44</v>
@@ -13689,7 +13689,7 @@
         <v>1.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT65" t="n">
         <v>1.33</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT70" t="n">
         <v>1.11</v>
@@ -14910,7 +14910,7 @@
         <v>1.33</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU71" t="n">
         <v>1.71</v>
@@ -15113,7 +15113,7 @@
         <v>0.78</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU72" t="n">
         <v>1.03</v>
@@ -15313,7 +15313,7 @@
         <v>0</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT73" t="n">
         <v>0.33</v>
@@ -16331,7 +16331,7 @@
         <v>1.56</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT79" t="n">
         <v>0.44</v>
@@ -16940,7 +16940,7 @@
         <v>1.78</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU81" t="n">
         <v>1.28</v>
@@ -17749,7 +17749,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT85" t="n">
         <v>1.78</v>
@@ -18564,7 +18564,7 @@
         <v>2.22</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.75</v>
@@ -18767,7 +18767,7 @@
         <v>2.22</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU90" t="n">
         <v>1.91</v>
@@ -19170,7 +19170,7 @@
         <v>0.29</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT92" t="n">
         <v>0.33</v>
@@ -19782,7 +19782,7 @@
         <v>1.56</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU95" t="n">
         <v>1.21</v>
@@ -20185,7 +20185,7 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT97" t="n">
         <v>2.44</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT98" t="n">
         <v>0.78</v>
@@ -21000,7 +21000,7 @@
         <v>2.22</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -21203,7 +21203,7 @@
         <v>1.44</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21809,7 +21809,7 @@
         <v>1.71</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT105" t="n">
         <v>1.33</v>
@@ -22215,10 +22215,10 @@
         <v>1.71</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU107" t="n">
         <v>1.4</v>
@@ -22624,7 +22624,7 @@
         <v>1.33</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU109" t="n">
         <v>1.54</v>
@@ -22824,7 +22824,7 @@
         <v>1.71</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT110" t="n">
         <v>2</v>
@@ -24448,10 +24448,10 @@
         <v>0.5</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU118" t="n">
         <v>1.78</v>
@@ -26275,10 +26275,10 @@
         <v>1.63</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26533,6 +26533,615 @@
       </c>
       <c r="BK128" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3157419</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>19</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>5</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1</v>
+      </c>
+      <c r="S129" t="n">
+        <v>6</v>
+      </c>
+      <c r="T129" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3157415</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>44947.625</v>
+      </c>
+      <c r="F130" t="n">
+        <v>19</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>3</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['47', '60', '74']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>6</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1</v>
+      </c>
+      <c r="S130" t="n">
+        <v>7</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V130" t="n">
+        <v>7</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3157417</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44948.45833333334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>19</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2</v>
+      </c>
+      <c r="N131" t="n">
+        <v>3</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['82', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>10</v>
+      </c>
+      <c r="S131" t="n">
+        <v>10</v>
+      </c>
+      <c r="T131" t="n">
+        <v>11</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V131" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT3" t="n">
         <v>1.11</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT6" t="n">
         <v>0.33</v>
@@ -2527,7 +2527,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.56</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT18" t="n">
         <v>0.33</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT19" t="n">
         <v>1.33</v>
@@ -4963,7 +4963,7 @@
         <v>2.3</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU22" t="n">
         <v>1.55</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT27" t="n">
         <v>2</v>
@@ -6384,7 +6384,7 @@
         <v>2.22</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6584,10 +6584,10 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU30" t="n">
         <v>1.39</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT32" t="n">
         <v>0.6</v>
@@ -7399,7 +7399,7 @@
         <v>0.9</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU34" t="n">
         <v>0.96</v>
@@ -7602,7 +7602,7 @@
         <v>2.3</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -9632,7 +9632,7 @@
         <v>0.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1.62</v>
@@ -9835,7 +9835,7 @@
         <v>0.9</v>
       </c>
       <c r="AT46" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU46" t="n">
         <v>1.05</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU47" t="n">
         <v>1.2</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT48" t="n">
         <v>0.4</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT50" t="n">
         <v>0.6</v>
@@ -12068,7 +12068,7 @@
         <v>2.22</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12268,7 +12268,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT58" t="n">
         <v>1.6</v>
@@ -12474,7 +12474,7 @@
         <v>0.8</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU59" t="n">
         <v>0.83</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT61" t="n">
         <v>0.89</v>
@@ -13489,7 +13489,7 @@
         <v>0.9</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.07</v>
@@ -14098,7 +14098,7 @@
         <v>2.22</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -14504,7 +14504,7 @@
         <v>2.67</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -15516,7 +15516,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT74" t="n">
         <v>0.89</v>
@@ -16125,10 +16125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT77" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU77" t="n">
         <v>1.34</v>
@@ -16534,7 +16534,7 @@
         <v>2.3</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT81" t="n">
         <v>0.4</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU83" t="n">
         <v>1.12</v>
@@ -17752,7 +17752,7 @@
         <v>0.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -18155,7 +18155,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT87" t="n">
         <v>0.78</v>
@@ -19579,7 +19579,7 @@
         <v>2.67</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU94" t="n">
         <v>2.39</v>
@@ -19985,7 +19985,7 @@
         <v>1.33</v>
       </c>
       <c r="AT96" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU96" t="n">
         <v>1.6</v>
@@ -20594,7 +20594,7 @@
         <v>0.8</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU99" t="n">
         <v>0.89</v>
@@ -21403,10 +21403,10 @@
         <v>1.71</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU103" t="n">
         <v>1.3</v>
@@ -21606,7 +21606,7 @@
         <v>0.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT104" t="n">
         <v>1.11</v>
@@ -22827,7 +22827,7 @@
         <v>0.5</v>
       </c>
       <c r="AT110" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -23030,7 +23030,7 @@
         <v>1.56</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.31</v>
@@ -23842,7 +23842,7 @@
         <v>0.78</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU115" t="n">
         <v>1.22</v>
@@ -24045,7 +24045,7 @@
         <v>1.44</v>
       </c>
       <c r="AT116" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU116" t="n">
         <v>1.31</v>
@@ -24245,7 +24245,7 @@
         <v>0.38</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT117" t="n">
         <v>0.33</v>
@@ -27142,6 +27142,615 @@
       </c>
       <c r="BK131" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3157418</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>44948.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>19</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>8</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2</v>
+      </c>
+      <c r="S132" t="n">
+        <v>10</v>
+      </c>
+      <c r="T132" t="n">
+        <v>3</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V132" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3157420</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44948.60416666666</v>
+      </c>
+      <c r="F133" t="n">
+        <v>19</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>3</v>
+      </c>
+      <c r="N133" t="n">
+        <v>3</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['44', '46', '52']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>3</v>
+      </c>
+      <c r="S133" t="n">
+        <v>3</v>
+      </c>
+      <c r="T133" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V133" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3157416</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44948.64583333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>19</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>3</v>
+      </c>
+      <c r="R134" t="n">
+        <v>4</v>
+      </c>
+      <c r="S134" t="n">
+        <v>7</v>
+      </c>
+      <c r="T134" t="n">
+        <v>7</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V134" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK134"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT2" t="n">
         <v>0.4</v>
@@ -1512,7 +1512,7 @@
         <v>2.22</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT10" t="n">
         <v>0.5</v>
@@ -3339,7 +3339,7 @@
         <v>2.22</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU14" t="n">
         <v>2.32</v>
@@ -4354,7 +4354,7 @@
         <v>1.7</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU19" t="n">
         <v>1.3</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT20" t="n">
         <v>1.11</v>
@@ -5166,7 +5166,7 @@
         <v>0.9</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -5366,7 +5366,7 @@
         <v>0.33</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT24" t="n">
         <v>0.33</v>
@@ -5572,7 +5572,7 @@
         <v>0.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU25" t="n">
         <v>1.79</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT36" t="n">
         <v>0.33</v>
@@ -8414,7 +8414,7 @@
         <v>2.22</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU39" t="n">
         <v>1.84</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT40" t="n">
         <v>0.89</v>
@@ -9020,10 +9020,10 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.73</v>
@@ -10847,7 +10847,7 @@
         <v>0.2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT51" t="n">
         <v>0.33</v>
@@ -11256,7 +11256,7 @@
         <v>2.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU53" t="n">
         <v>2.19</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT54" t="n">
         <v>1.11</v>
@@ -11865,7 +11865,7 @@
         <v>1.56</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.22</v>
@@ -13692,7 +13692,7 @@
         <v>0.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU65" t="n">
         <v>1.71</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT66" t="n">
         <v>2.44</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU68" t="n">
         <v>1.03</v>
@@ -14907,7 +14907,7 @@
         <v>0.8</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT71" t="n">
         <v>0.4</v>
@@ -17546,7 +17546,7 @@
         <v>0.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT84" t="n">
         <v>0.6</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT86" t="n">
         <v>0.89</v>
@@ -18158,7 +18158,7 @@
         <v>2.3</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU87" t="n">
         <v>1.32</v>
@@ -18361,7 +18361,7 @@
         <v>0.78</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU88" t="n">
         <v>1.25</v>
@@ -19982,7 +19982,7 @@
         <v>1.83</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT96" t="n">
         <v>1.9</v>
@@ -20391,7 +20391,7 @@
         <v>0.9</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU98" t="n">
         <v>1.21</v>
@@ -21200,7 +21200,7 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT102" t="n">
         <v>2</v>
@@ -21812,7 +21812,7 @@
         <v>2.3</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.67</v>
@@ -22621,7 +22621,7 @@
         <v>2.13</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT109" t="n">
         <v>2</v>
@@ -23233,7 +23233,7 @@
         <v>0.8</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU112" t="n">
         <v>0.91</v>
@@ -24042,7 +24042,7 @@
         <v>1.88</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT116" t="n">
         <v>1.9</v>
@@ -25060,7 +25060,7 @@
         <v>0.78</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU121" t="n">
         <v>1.12</v>
@@ -25466,7 +25466,7 @@
         <v>2.67</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU123" t="n">
         <v>2.27</v>
@@ -26072,7 +26072,7 @@
         <v>2.38</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT126" t="n">
         <v>2.44</v>
@@ -27751,6 +27751,412 @@
       </c>
       <c r="BK134" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3157424</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>44954.60416666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>20</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L135" t="n">
+        <v>2</v>
+      </c>
+      <c r="M135" t="n">
+        <v>3</v>
+      </c>
+      <c r="N135" t="n">
+        <v>5</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['18', '90+6']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['39', '68', '73']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>3</v>
+      </c>
+      <c r="R135" t="n">
+        <v>3</v>
+      </c>
+      <c r="S135" t="n">
+        <v>6</v>
+      </c>
+      <c r="T135" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V135" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X135" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3157427</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>44954.625</v>
+      </c>
+      <c r="F136" t="n">
+        <v>20</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>6</v>
+      </c>
+      <c r="R136" t="n">
+        <v>7</v>
+      </c>
+      <c r="S136" t="n">
+        <v>13</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V136" t="n">
+        <v>4</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.7</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT8" t="n">
         <v>0.6</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT17" t="n">
         <v>0.33</v>
@@ -4557,7 +4557,7 @@
         <v>1.3</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>1.54</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT26" t="n">
         <v>1.6</v>
@@ -8211,7 +8211,7 @@
         <v>1.56</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.24</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT39" t="n">
         <v>0.8</v>
@@ -11459,7 +11459,7 @@
         <v>1.3</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT57" t="n">
         <v>1.9</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT67" t="n">
         <v>0.5</v>
@@ -14707,7 +14707,7 @@
         <v>2.3</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU70" t="n">
         <v>1.46</v>
@@ -17143,7 +17143,7 @@
         <v>2.67</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>2.41</v>
@@ -18561,7 +18561,7 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT89" t="n">
         <v>2</v>
@@ -20997,7 +20997,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT101" t="n">
         <v>0.4</v>
@@ -21609,7 +21609,7 @@
         <v>2.3</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -24857,7 +24857,7 @@
         <v>0.8</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU120" t="n">
         <v>1.05</v>
@@ -25263,7 +25263,7 @@
         <v>2.22</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>1.85</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT125" t="n">
         <v>0.89</v>
@@ -28157,6 +28157,209 @@
       </c>
       <c r="BK136" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3157425</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44955.45833333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>3</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['40', '76']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>9</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1</v>
+      </c>
+      <c r="S137" t="n">
+        <v>10</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V137" t="n">
+        <v>12</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X137" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT11" t="n">
         <v>1.6</v>
@@ -2933,7 +2933,7 @@
         <v>0.8</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT21" t="n">
         <v>0.6</v>
@@ -6181,7 +6181,7 @@
         <v>1.56</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU28" t="n">
         <v>0.66</v>
@@ -8617,7 +8617,7 @@
         <v>1.3</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT43" t="n">
         <v>0.33</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT53" t="n">
         <v>0.8</v>
@@ -12880,7 +12880,7 @@
         <v>2.3</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU61" t="n">
         <v>1.3</v>
@@ -14501,7 +14501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT69" t="n">
         <v>1.9</v>
@@ -15519,7 +15519,7 @@
         <v>1.7</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU74" t="n">
         <v>1.36</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17955,7 +17955,7 @@
         <v>1.3</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU93" t="n">
         <v>1.08</v>
@@ -19576,7 +19576,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT94" t="n">
         <v>0.5</v>
@@ -23436,7 +23436,7 @@
         <v>2.22</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU113" t="n">
         <v>1.91</v>
@@ -24651,7 +24651,7 @@
         <v>2.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT119" t="n">
         <v>2.44</v>
@@ -25463,7 +25463,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT123" t="n">
         <v>1.5</v>
@@ -25872,7 +25872,7 @@
         <v>2.3</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU125" t="n">
         <v>1.68</v>
@@ -28360,6 +28360,209 @@
       </c>
       <c r="BK137" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3157422</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>44955.60416666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>20</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>3</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>3</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['18', '76', '89']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>3</v>
+      </c>
+      <c r="R138" t="n">
+        <v>4</v>
+      </c>
+      <c r="S138" t="n">
+        <v>7</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V138" t="n">
+        <v>7</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK138"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT4" t="n">
         <v>2</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT5" t="n">
         <v>1.5</v>
@@ -1715,7 +1715,7 @@
         <v>2.3</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.3</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.9</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT14" t="n">
         <v>0.8</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT15" t="n">
         <v>1.9</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT16" t="n">
         <v>0.4</v>
@@ -3948,7 +3948,7 @@
         <v>2.3</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU17" t="n">
         <v>1.85</v>
@@ -4151,7 +4151,7 @@
         <v>2.3</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU18" t="n">
         <v>1.27</v>
@@ -5369,7 +5369,7 @@
         <v>1.3</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU24" t="n">
         <v>1.46</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT28" t="n">
         <v>0.8</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT29" t="n">
         <v>0.5</v>
@@ -7805,7 +7805,7 @@
         <v>1.3</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU36" t="n">
         <v>1.45</v>
@@ -8005,10 +8005,10 @@
         <v>0.25</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU37" t="n">
         <v>0.61</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU41" t="n">
         <v>1.96</v>
@@ -9226,7 +9226,7 @@
         <v>2.7</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU43" t="n">
         <v>1.82</v>
@@ -10850,7 +10850,7 @@
         <v>1.3</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU51" t="n">
         <v>1.3</v>
@@ -11053,7 +11053,7 @@
         <v>2.3</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11659,10 +11659,10 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU55" t="n">
         <v>1.21</v>
@@ -11862,7 +11862,7 @@
         <v>1.75</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT56" t="n">
         <v>1.5</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT62" t="n">
         <v>0.4</v>
@@ -13895,7 +13895,7 @@
         <v>1.3</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU66" t="n">
         <v>1.41</v>
@@ -15110,7 +15110,7 @@
         <v>2.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT72" t="n">
         <v>1.6</v>
@@ -15316,7 +15316,7 @@
         <v>0.9</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU73" t="n">
         <v>1.13</v>
@@ -15719,7 +15719,7 @@
         <v>0.2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT75" t="n">
         <v>0.6</v>
@@ -15925,7 +15925,7 @@
         <v>0.8</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU76" t="n">
         <v>0.8100000000000001</v>
@@ -16328,7 +16328,7 @@
         <v>2.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT78" t="n">
         <v>2</v>
@@ -16737,7 +16737,7 @@
         <v>0.8</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU80" t="n">
         <v>0.92</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT88" t="n">
         <v>1.5</v>
@@ -18764,7 +18764,7 @@
         <v>2.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT90" t="n">
         <v>1.6</v>
@@ -18967,10 +18967,10 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU91" t="n">
         <v>1.13</v>
@@ -19173,7 +19173,7 @@
         <v>0.9</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU92" t="n">
         <v>1.23</v>
@@ -19779,7 +19779,7 @@
         <v>1.83</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT95" t="n">
         <v>1.6</v>
@@ -20188,7 +20188,7 @@
         <v>0.5</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU97" t="n">
         <v>1.58</v>
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU100" t="n">
         <v>1.09</v>
@@ -22012,7 +22012,7 @@
         <v>0.14</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT106" t="n">
         <v>0.6</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU108" t="n">
         <v>1.16</v>
@@ -23027,7 +23027,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT111" t="n">
         <v>0.5</v>
@@ -23433,7 +23433,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT113" t="n">
         <v>0.8</v>
@@ -23839,7 +23839,7 @@
         <v>1.63</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT115" t="n">
         <v>1.9</v>
@@ -24248,7 +24248,7 @@
         <v>1.7</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU117" t="n">
         <v>1.26</v>
@@ -24654,7 +24654,7 @@
         <v>2.7</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU119" t="n">
         <v>2.36</v>
@@ -25057,7 +25057,7 @@
         <v>0.75</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT121" t="n">
         <v>0.8</v>
@@ -25260,7 +25260,7 @@
         <v>1.13</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25666,10 +25666,10 @@
         <v>0.25</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU124" t="n">
         <v>1.33</v>
@@ -26075,7 +26075,7 @@
         <v>1.3</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AU126" t="n">
         <v>1.41</v>
@@ -28563,6 +28563,615 @@
       </c>
       <c r="BK138" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3157426</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44956.54166666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>20</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>5</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['10', '45+4', '61']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['15', '66']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>7</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2</v>
+      </c>
+      <c r="S139" t="n">
+        <v>9</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V139" t="n">
+        <v>11</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3157428</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44956.60416666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>20</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['18', '44']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>7</v>
+      </c>
+      <c r="R140" t="n">
+        <v>5</v>
+      </c>
+      <c r="S140" t="n">
+        <v>12</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V140" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3157423</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44956.66666666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>20</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>4</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2</v>
+      </c>
+      <c r="S141" t="n">
+        <v>6</v>
+      </c>
+      <c r="T141" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U141" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V141" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>2.3</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT9" t="n">
         <v>0.3</v>
@@ -2933,7 +2933,7 @@
         <v>0.8</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT13" t="n">
         <v>2.2</v>
@@ -4760,7 +4760,7 @@
         <v>2.7</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -5163,7 +5163,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT23" t="n">
         <v>1.5</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT25" t="n">
         <v>0.8</v>
@@ -6181,7 +6181,7 @@
         <v>1.7</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU28" t="n">
         <v>0.66</v>
@@ -6993,7 +6993,7 @@
         <v>2.3</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT34" t="n">
         <v>1.9</v>
@@ -8617,7 +8617,7 @@
         <v>1.3</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -9629,7 +9629,7 @@
         <v>0.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT45" t="n">
         <v>0.5</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT46" t="n">
         <v>1.9</v>
@@ -10647,7 +10647,7 @@
         <v>1.7</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU50" t="n">
         <v>1.34</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU60" t="n">
         <v>1.83</v>
@@ -12880,7 +12880,7 @@
         <v>2.3</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU61" t="n">
         <v>1.3</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT64" t="n">
         <v>0.5</v>
@@ -13689,7 +13689,7 @@
         <v>1.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT65" t="n">
         <v>1.5</v>
@@ -15313,7 +15313,7 @@
         <v>0</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT73" t="n">
         <v>0.6</v>
@@ -15519,7 +15519,7 @@
         <v>1.7</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU74" t="n">
         <v>1.36</v>
@@ -15722,7 +15722,7 @@
         <v>2.3</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU75" t="n">
         <v>1.94</v>
@@ -17549,7 +17549,7 @@
         <v>1.3</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU84" t="n">
         <v>1.34</v>
@@ -17749,7 +17749,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT85" t="n">
         <v>1.9</v>
@@ -17955,7 +17955,7 @@
         <v>1.3</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -19170,7 +19170,7 @@
         <v>0.29</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT92" t="n">
         <v>0.3</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU93" t="n">
         <v>1.08</v>
@@ -20185,7 +20185,7 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT97" t="n">
         <v>2.2</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT98" t="n">
         <v>0.8</v>
@@ -22015,7 +22015,7 @@
         <v>0.7</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU106" t="n">
         <v>1.25</v>
@@ -22215,7 +22215,7 @@
         <v>1.71</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT107" t="n">
         <v>1.6</v>
@@ -22824,7 +22824,7 @@
         <v>1.71</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT110" t="n">
         <v>1.9</v>
@@ -23436,7 +23436,7 @@
         <v>2.3</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU113" t="n">
         <v>1.91</v>
@@ -23639,7 +23639,7 @@
         <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU114" t="n">
         <v>1.17</v>
@@ -25872,7 +25872,7 @@
         <v>2.3</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU125" t="n">
         <v>1.68</v>
@@ -26275,7 +26275,7 @@
         <v>1.63</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT127" t="n">
         <v>1.6</v>
@@ -26481,7 +26481,7 @@
         <v>0.8</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU128" t="n">
         <v>1</v>
@@ -26681,7 +26681,7 @@
         <v>0.44</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT129" t="n">
         <v>0.4</v>
@@ -27087,7 +27087,7 @@
         <v>1.89</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT131" t="n">
         <v>2</v>
@@ -28511,7 +28511,7 @@
         <v>2.7</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU138" t="n">
         <v>2.35</v>
@@ -29172,6 +29172,412 @@
       </c>
       <c r="BK141" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3157432</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>21</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>10</v>
+      </c>
+      <c r="R142" t="n">
+        <v>4</v>
+      </c>
+      <c r="S142" t="n">
+        <v>14</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V142" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3157430</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44961.58333333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" t="n">
+        <v>7</v>
+      </c>
+      <c r="S143" t="n">
+        <v>9</v>
+      </c>
+      <c r="T143" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.3</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT5" t="n">
         <v>1.5</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT6" t="n">
         <v>0.6</v>
@@ -2527,7 +2527,7 @@
         <v>1.3</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT12" t="n">
         <v>0.73</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT14" t="n">
         <v>0.8</v>
@@ -3542,7 +3542,7 @@
         <v>1.7</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.7</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU16" t="n">
         <v>0.61</v>
@@ -4148,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT18" t="n">
         <v>0.3</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT27" t="n">
         <v>2</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6587,7 +6587,7 @@
         <v>1.7</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU30" t="n">
         <v>1.39</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT31" t="n">
         <v>2</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT32" t="n">
         <v>0.64</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>2.3</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT41" t="n">
         <v>2.2</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT44" t="n">
         <v>1.6</v>
@@ -9632,7 +9632,7 @@
         <v>0.73</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU45" t="n">
         <v>1.62</v>
@@ -9835,7 +9835,7 @@
         <v>0.91</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU46" t="n">
         <v>1.05</v>
@@ -10238,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU48" t="n">
         <v>1.12</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU59" t="n">
         <v>0.83</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT61" t="n">
         <v>0.73</v>
@@ -13080,10 +13080,10 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU62" t="n">
         <v>1.84</v>
@@ -13489,7 +13489,7 @@
         <v>0.91</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU64" t="n">
         <v>1.07</v>
@@ -14098,7 +14098,7 @@
         <v>2.3</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -14910,7 +14910,7 @@
         <v>1.3</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU71" t="n">
         <v>1.71</v>
@@ -15719,7 +15719,7 @@
         <v>0.2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT75" t="n">
         <v>0.64</v>
@@ -15922,7 +15922,7 @@
         <v>0.17</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT76" t="n">
         <v>0.3</v>
@@ -16125,10 +16125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU77" t="n">
         <v>1.34</v>
@@ -16534,7 +16534,7 @@
         <v>2.3</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT80" t="n">
         <v>2.2</v>
@@ -16940,7 +16940,7 @@
         <v>1.7</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU81" t="n">
         <v>1.28</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU83" t="n">
         <v>1.12</v>
@@ -18155,7 +18155,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT87" t="n">
         <v>0.8</v>
@@ -18764,7 +18764,7 @@
         <v>2.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT90" t="n">
         <v>1.6</v>
@@ -19579,7 +19579,7 @@
         <v>2.7</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU94" t="n">
         <v>2.39</v>
@@ -19985,7 +19985,7 @@
         <v>1.3</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU96" t="n">
         <v>1.6</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT99" t="n">
         <v>1.9</v>
@@ -21000,7 +21000,7 @@
         <v>2.3</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -21606,7 +21606,7 @@
         <v>0.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT104" t="n">
         <v>1</v>
@@ -22827,7 +22827,7 @@
         <v>0.73</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -23030,7 +23030,7 @@
         <v>1.7</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU111" t="n">
         <v>1.31</v>
@@ -23230,7 +23230,7 @@
         <v>0.86</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT112" t="n">
         <v>0.8</v>
@@ -23433,7 +23433,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT113" t="n">
         <v>0.73</v>
@@ -24045,7 +24045,7 @@
         <v>1.3</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU116" t="n">
         <v>1.31</v>
@@ -24451,7 +24451,7 @@
         <v>2.3</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU118" t="n">
         <v>1.78</v>
@@ -24854,7 +24854,7 @@
         <v>0.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT120" t="n">
         <v>1</v>
@@ -25260,7 +25260,7 @@
         <v>1.13</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -26478,7 +26478,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT128" t="n">
         <v>0.64</v>
@@ -26684,7 +26684,7 @@
         <v>0.91</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU129" t="n">
         <v>1.49</v>
@@ -27293,7 +27293,7 @@
         <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU132" t="n">
         <v>1.18</v>
@@ -27493,7 +27493,7 @@
         <v>1.78</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT133" t="n">
         <v>1.9</v>
@@ -27699,7 +27699,7 @@
         <v>1.7</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU134" t="n">
         <v>1.33</v>
@@ -28711,7 +28711,7 @@
         <v>0.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT139" t="n">
         <v>0.3</v>
@@ -29578,6 +29578,615 @@
       </c>
       <c r="BK143" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3157433</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44962.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['14', '90+2']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>7</v>
+      </c>
+      <c r="R144" t="n">
+        <v>7</v>
+      </c>
+      <c r="S144" t="n">
+        <v>14</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V144" t="n">
+        <v>10</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3157434</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44962.625</v>
+      </c>
+      <c r="F145" t="n">
+        <v>21</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R145" t="n">
+        <v>3</v>
+      </c>
+      <c r="S145" t="n">
+        <v>4</v>
+      </c>
+      <c r="T145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3157435</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44962.64583333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>21</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1</v>
+      </c>
+      <c r="S146" t="n">
+        <v>2</v>
+      </c>
+      <c r="T146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>2.7</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>2.3</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU26" t="n">
         <v>1.66</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT33" t="n">
         <v>0.45</v>
@@ -9429,7 +9429,7 @@
         <v>0.82</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU44" t="n">
         <v>0.77</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT47" t="n">
         <v>1.9</v>
@@ -12271,7 +12271,7 @@
         <v>1.7</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU58" t="n">
         <v>1.42</v>
@@ -13283,7 +13283,7 @@
         <v>2.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT63" t="n">
         <v>2</v>
@@ -14298,7 +14298,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT68" t="n">
         <v>0.8</v>
@@ -15113,7 +15113,7 @@
         <v>0.7</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU72" t="n">
         <v>1.03</v>
@@ -17343,7 +17343,7 @@
         <v>1.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT83" t="n">
         <v>1.82</v>
@@ -18767,7 +18767,7 @@
         <v>2.18</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU90" t="n">
         <v>1.91</v>
@@ -19373,7 +19373,7 @@
         <v>1.17</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT93" t="n">
         <v>0.73</v>
@@ -19782,7 +19782,7 @@
         <v>1.7</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU95" t="n">
         <v>1.21</v>
@@ -20794,7 +20794,7 @@
         <v>0.43</v>
       </c>
       <c r="AS100" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT100" t="n">
         <v>0.6</v>
@@ -22218,7 +22218,7 @@
         <v>0.91</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU107" t="n">
         <v>1.4</v>
@@ -22418,7 +22418,7 @@
         <v>2.67</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT108" t="n">
         <v>2.2</v>
@@ -23636,7 +23636,7 @@
         <v>0.25</v>
       </c>
       <c r="AS114" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT114" t="n">
         <v>0.64</v>
@@ -26278,7 +26278,7 @@
         <v>0.73</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26887,7 +26887,7 @@
         <v>2.3</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU130" t="n">
         <v>1.71</v>
@@ -27290,7 +27290,7 @@
         <v>0.44</v>
       </c>
       <c r="AS132" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT132" t="n">
         <v>0.45</v>
@@ -30187,6 +30187,209 @@
       </c>
       <c r="BK146" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3157431</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44963.45833333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>21</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>3</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['61', '68', '90']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>4</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1</v>
+      </c>
+      <c r="S147" t="n">
+        <v>5</v>
+      </c>
+      <c r="T147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,9 @@
     <t>['14', '90+2']</t>
   </si>
   <si>
+    <t>['56', '90+2']</t>
+  </si>
+  <si>
     <t>['27', '68', '90+9']</t>
   </si>
   <si>
@@ -722,6 +725,9 @@
   </si>
   <si>
     <t>['61', '68', '90']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK147"/>
+  <dimension ref="A1:BK149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1333,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1414,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT2">
         <v>0.45</v>
@@ -1709,7 +1715,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2181,7 +2187,7 @@
         <v>2.36</v>
       </c>
       <c r="AT6">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2855,7 +2861,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2942,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT10">
         <v>0.45</v>
@@ -3046,7 +3052,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3237,7 +3243,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3428,7 +3434,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3709,7 +3715,7 @@
         <v>2.18</v>
       </c>
       <c r="AT14">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU14">
         <v>2.32</v>
@@ -4192,7 +4198,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4282,7 +4288,7 @@
         <v>2.3</v>
       </c>
       <c r="AT17">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU17">
         <v>1.85</v>
@@ -4574,7 +4580,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -4765,7 +4771,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4852,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -5338,7 +5344,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5616,7 +5622,7 @@
         <v>0.33</v>
       </c>
       <c r="AS24">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT24">
         <v>0.3</v>
@@ -5720,7 +5726,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5810,7 +5816,7 @@
         <v>0.73</v>
       </c>
       <c r="AT25">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU25">
         <v>1.79</v>
@@ -5911,7 +5917,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6102,7 +6108,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6293,7 +6299,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6866,7 +6872,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7248,7 +7254,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7439,7 +7445,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7630,7 +7636,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7908,10 +7914,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT36">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU36">
         <v>1.45</v>
@@ -8484,7 +8490,7 @@
         <v>2.3</v>
       </c>
       <c r="AT39">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU39">
         <v>1.84</v>
@@ -8672,7 +8678,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT40">
         <v>0.73</v>
@@ -8776,7 +8782,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8967,7 +8973,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9054,7 +9060,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT42">
         <v>1.5</v>
@@ -9248,7 +9254,7 @@
         <v>2.7</v>
       </c>
       <c r="AT43">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU43">
         <v>1.82</v>
@@ -9349,7 +9355,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9540,7 +9546,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9731,7 +9737,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9922,7 +9928,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10304,7 +10310,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10495,7 +10501,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10686,7 +10692,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -10773,7 +10779,7 @@
         <v>0.2</v>
       </c>
       <c r="AS51">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT51">
         <v>0.3</v>
@@ -10967,7 +10973,7 @@
         <v>2.3</v>
       </c>
       <c r="AT52">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU52">
         <v>1.38</v>
@@ -11158,7 +11164,7 @@
         <v>2.7</v>
       </c>
       <c r="AT53">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU53">
         <v>2.19</v>
@@ -11259,7 +11265,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11346,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT54">
         <v>1</v>
@@ -11450,7 +11456,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11832,7 +11838,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12023,7 +12029,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12214,7 +12220,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12405,7 +12411,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12787,7 +12793,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -12978,7 +12984,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13360,7 +13366,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13551,7 +13557,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13638,7 +13644,7 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT66">
         <v>2.2</v>
@@ -13933,7 +13939,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14023,7 +14029,7 @@
         <v>0.91</v>
       </c>
       <c r="AT68">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU68">
         <v>1.03</v>
@@ -14315,7 +14321,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14593,7 +14599,7 @@
         <v>0.8</v>
       </c>
       <c r="AS71">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT71">
         <v>0.45</v>
@@ -14697,7 +14703,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14888,7 +14894,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14978,7 +14984,7 @@
         <v>0.91</v>
       </c>
       <c r="AT73">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU73">
         <v>1.13</v>
@@ -16225,7 +16231,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17076,7 +17082,7 @@
         <v>0.17</v>
       </c>
       <c r="AS84">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT84">
         <v>0.64</v>
@@ -17180,7 +17186,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17371,7 +17377,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17458,7 +17464,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT86">
         <v>0.73</v>
@@ -17652,7 +17658,7 @@
         <v>2.36</v>
       </c>
       <c r="AT87">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU87">
         <v>1.32</v>
@@ -17753,7 +17759,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18416,7 +18422,7 @@
         <v>1.7</v>
       </c>
       <c r="AT91">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU91">
         <v>1.13</v>
@@ -18517,7 +18523,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19281,7 +19287,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19368,7 +19374,7 @@
         <v>1.83</v>
       </c>
       <c r="AS96">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT96">
         <v>1.82</v>
@@ -19472,7 +19478,7 @@
         <v>126</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19753,7 +19759,7 @@
         <v>0.91</v>
       </c>
       <c r="AT98">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU98">
         <v>1.21</v>
@@ -19854,7 +19860,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20135,7 +20141,7 @@
         <v>0.91</v>
       </c>
       <c r="AT100">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU100">
         <v>1.09</v>
@@ -20427,7 +20433,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20514,7 +20520,7 @@
         <v>2</v>
       </c>
       <c r="AS102">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT102">
         <v>2</v>
@@ -20618,7 +20624,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21191,7 +21197,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21573,7 +21579,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21764,7 +21770,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -21851,7 +21857,7 @@
         <v>2.13</v>
       </c>
       <c r="AS109">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT109">
         <v>2</v>
@@ -21955,7 +21961,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22427,7 +22433,7 @@
         <v>0.82</v>
       </c>
       <c r="AT112">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU112">
         <v>0.91</v>
@@ -22719,7 +22725,7 @@
         <v>155</v>
       </c>
       <c r="P114" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22910,7 +22916,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23101,7 +23107,7 @@
         <v>81</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23188,7 +23194,7 @@
         <v>1.88</v>
       </c>
       <c r="AS116">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT116">
         <v>1.82</v>
@@ -23382,7 +23388,7 @@
         <v>1.7</v>
       </c>
       <c r="AT117">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU117">
         <v>1.26</v>
@@ -23865,7 +23871,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -24056,7 +24062,7 @@
         <v>112</v>
       </c>
       <c r="P121" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24146,7 +24152,7 @@
         <v>0.7</v>
       </c>
       <c r="AT121">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU121">
         <v>1.12</v>
@@ -25011,7 +25017,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25098,7 +25104,7 @@
         <v>2.38</v>
       </c>
       <c r="AS126">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT126">
         <v>2.2</v>
@@ -25202,7 +25208,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25393,7 +25399,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25966,7 +25972,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -26348,7 +26354,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -26539,7 +26545,7 @@
         <v>163</v>
       </c>
       <c r="P134" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26730,7 +26736,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26817,7 +26823,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT135">
         <v>1.5</v>
@@ -27008,10 +27014,10 @@
         <v>0.78</v>
       </c>
       <c r="AS136">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT136">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU136">
         <v>1.34</v>
@@ -27112,7 +27118,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27494,7 +27500,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27685,7 +27691,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27775,7 +27781,7 @@
         <v>0.7</v>
       </c>
       <c r="AT140">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU140">
         <v>1.13</v>
@@ -29022,7 +29028,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29164,6 +29170,388 @@
       </c>
       <c r="BK147">
         <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>3157441</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44968.625</v>
+      </c>
+      <c r="F148">
+        <v>22</v>
+      </c>
+      <c r="G148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H148" t="s">
+        <v>72</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148" t="s">
+        <v>81</v>
+      </c>
+      <c r="P148" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q148">
+        <v>1</v>
+      </c>
+      <c r="R148">
+        <v>4</v>
+      </c>
+      <c r="S148">
+        <v>5</v>
+      </c>
+      <c r="T148">
+        <v>2.6</v>
+      </c>
+      <c r="U148">
+        <v>2</v>
+      </c>
+      <c r="V148">
+        <v>4.2</v>
+      </c>
+      <c r="W148">
+        <v>1.46</v>
+      </c>
+      <c r="X148">
+        <v>2.5</v>
+      </c>
+      <c r="Y148">
+        <v>3.1</v>
+      </c>
+      <c r="Z148">
+        <v>1.32</v>
+      </c>
+      <c r="AA148">
+        <v>8.5</v>
+      </c>
+      <c r="AB148">
+        <v>1.06</v>
+      </c>
+      <c r="AC148">
+        <v>1.98</v>
+      </c>
+      <c r="AD148">
+        <v>3.25</v>
+      </c>
+      <c r="AE148">
+        <v>3.75</v>
+      </c>
+      <c r="AF148">
+        <v>1.07</v>
+      </c>
+      <c r="AG148">
+        <v>8.5</v>
+      </c>
+      <c r="AH148">
+        <v>1.42</v>
+      </c>
+      <c r="AI148">
+        <v>2.85</v>
+      </c>
+      <c r="AJ148">
+        <v>2.16</v>
+      </c>
+      <c r="AK148">
+        <v>1.62</v>
+      </c>
+      <c r="AL148">
+        <v>1.95</v>
+      </c>
+      <c r="AM148">
+        <v>1.73</v>
+      </c>
+      <c r="AN148">
+        <v>1.25</v>
+      </c>
+      <c r="AO148">
+        <v>1.31</v>
+      </c>
+      <c r="AP148">
+        <v>1.8</v>
+      </c>
+      <c r="AQ148">
+        <v>1.3</v>
+      </c>
+      <c r="AR148">
+        <v>0.6</v>
+      </c>
+      <c r="AS148">
+        <v>1.27</v>
+      </c>
+      <c r="AT148">
+        <v>0.64</v>
+      </c>
+      <c r="AU148">
+        <v>1.34</v>
+      </c>
+      <c r="AV148">
+        <v>1.04</v>
+      </c>
+      <c r="AW148">
+        <v>2.38</v>
+      </c>
+      <c r="AX148">
+        <v>1.75</v>
+      </c>
+      <c r="AY148">
+        <v>7.5</v>
+      </c>
+      <c r="AZ148">
+        <v>2.53</v>
+      </c>
+      <c r="BA148">
+        <v>1.46</v>
+      </c>
+      <c r="BB148">
+        <v>1.85</v>
+      </c>
+      <c r="BC148">
+        <v>2.4</v>
+      </c>
+      <c r="BD148">
+        <v>3.28</v>
+      </c>
+      <c r="BE148">
+        <v>4.1</v>
+      </c>
+      <c r="BF148">
+        <v>2</v>
+      </c>
+      <c r="BG148">
+        <v>5</v>
+      </c>
+      <c r="BH148">
+        <v>14</v>
+      </c>
+      <c r="BI148">
+        <v>7</v>
+      </c>
+      <c r="BJ148">
+        <v>16</v>
+      </c>
+      <c r="BK148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>3157439</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F149">
+        <v>22</v>
+      </c>
+      <c r="G149" t="s">
+        <v>65</v>
+      </c>
+      <c r="H149" t="s">
+        <v>66</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>170</v>
+      </c>
+      <c r="P149" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>5</v>
+      </c>
+      <c r="S149">
+        <v>8</v>
+      </c>
+      <c r="T149">
+        <v>2.8</v>
+      </c>
+      <c r="U149">
+        <v>2</v>
+      </c>
+      <c r="V149">
+        <v>3.6</v>
+      </c>
+      <c r="W149">
+        <v>1.43</v>
+      </c>
+      <c r="X149">
+        <v>2.6</v>
+      </c>
+      <c r="Y149">
+        <v>3</v>
+      </c>
+      <c r="Z149">
+        <v>1.33</v>
+      </c>
+      <c r="AA149">
+        <v>8.25</v>
+      </c>
+      <c r="AB149">
+        <v>1.06</v>
+      </c>
+      <c r="AC149">
+        <v>2.2</v>
+      </c>
+      <c r="AD149">
+        <v>3.2</v>
+      </c>
+      <c r="AE149">
+        <v>3.15</v>
+      </c>
+      <c r="AF149">
+        <v>1.06</v>
+      </c>
+      <c r="AG149">
+        <v>9.5</v>
+      </c>
+      <c r="AH149">
+        <v>1.35</v>
+      </c>
+      <c r="AI149">
+        <v>3.2</v>
+      </c>
+      <c r="AJ149">
+        <v>2.07</v>
+      </c>
+      <c r="AK149">
+        <v>1.67</v>
+      </c>
+      <c r="AL149">
+        <v>1.87</v>
+      </c>
+      <c r="AM149">
+        <v>1.82</v>
+      </c>
+      <c r="AN149">
+        <v>1.34</v>
+      </c>
+      <c r="AO149">
+        <v>1.31</v>
+      </c>
+      <c r="AP149">
+        <v>1.63</v>
+      </c>
+      <c r="AQ149">
+        <v>1.3</v>
+      </c>
+      <c r="AR149">
+        <v>0.8</v>
+      </c>
+      <c r="AS149">
+        <v>1.45</v>
+      </c>
+      <c r="AT149">
+        <v>0.73</v>
+      </c>
+      <c r="AU149">
+        <v>1.3</v>
+      </c>
+      <c r="AV149">
+        <v>1.03</v>
+      </c>
+      <c r="AW149">
+        <v>2.33</v>
+      </c>
+      <c r="AX149">
+        <v>1.56</v>
+      </c>
+      <c r="AY149">
+        <v>8</v>
+      </c>
+      <c r="AZ149">
+        <v>3.04</v>
+      </c>
+      <c r="BA149">
+        <v>1.35</v>
+      </c>
+      <c r="BB149">
+        <v>1.66</v>
+      </c>
+      <c r="BC149">
+        <v>2.09</v>
+      </c>
+      <c r="BD149">
+        <v>2.79</v>
+      </c>
+      <c r="BE149">
+        <v>3.5</v>
+      </c>
+      <c r="BF149">
+        <v>4</v>
+      </c>
+      <c r="BG149">
+        <v>2</v>
+      </c>
+      <c r="BH149">
+        <v>6</v>
+      </c>
+      <c r="BI149">
+        <v>8</v>
+      </c>
+      <c r="BJ149">
+        <v>10</v>
+      </c>
+      <c r="BK149">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,9 @@
     <t>['56', '90+2']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['27', '68', '90+9']</t>
   </si>
   <si>
@@ -728,6 +731,9 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['36', '86']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK149"/>
+  <dimension ref="A1:BK150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1339,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1715,7 +1721,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2375,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT7">
         <v>0.3</v>
@@ -2861,7 +2867,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3052,7 +3058,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3243,7 +3249,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3434,7 +3440,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3524,7 +3530,7 @@
         <v>0.91</v>
       </c>
       <c r="AT13">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4198,7 +4204,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4580,7 +4586,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -4771,7 +4777,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5240,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT22">
         <v>1.9</v>
@@ -5344,7 +5350,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5726,7 +5732,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5917,7 +5923,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6108,7 +6114,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6299,7 +6305,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6872,7 +6878,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7254,7 +7260,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7445,7 +7451,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7636,7 +7642,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7723,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT35">
         <v>1.82</v>
@@ -8782,7 +8788,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8872,7 +8878,7 @@
         <v>2.18</v>
       </c>
       <c r="AT41">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU41">
         <v>1.96</v>
@@ -8973,7 +8979,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9355,7 +9361,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9546,7 +9552,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9737,7 +9743,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9928,7 +9934,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10310,7 +10316,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10397,7 +10403,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT49">
         <v>2</v>
@@ -10501,7 +10507,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10692,7 +10698,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -10970,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT52">
         <v>0.64</v>
@@ -11265,7 +11271,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11456,7 +11462,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11546,7 +11552,7 @@
         <v>0.7</v>
       </c>
       <c r="AT55">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU55">
         <v>1.21</v>
@@ -11838,7 +11844,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12029,7 +12035,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12220,7 +12226,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12411,7 +12417,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12793,7 +12799,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -12984,7 +12990,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13366,7 +13372,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13557,7 +13563,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13647,7 +13653,7 @@
         <v>1.45</v>
       </c>
       <c r="AT66">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13939,7 +13945,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14321,7 +14327,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14408,7 +14414,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -14703,7 +14709,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14894,7 +14900,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -16127,7 +16133,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT79">
         <v>0.45</v>
@@ -16231,7 +16237,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16321,7 +16327,7 @@
         <v>0.82</v>
       </c>
       <c r="AT80">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU80">
         <v>0.92</v>
@@ -17186,7 +17192,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17377,7 +17383,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17759,7 +17765,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18523,7 +18529,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19287,7 +19293,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19478,7 +19484,7 @@
         <v>126</v>
       </c>
       <c r="P97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19568,7 +19574,7 @@
         <v>0.73</v>
       </c>
       <c r="AT97">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU97">
         <v>1.58</v>
@@ -19860,7 +19866,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20433,7 +20439,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20624,7 +20630,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21093,7 +21099,7 @@
         <v>1.71</v>
       </c>
       <c r="AS105">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT105">
         <v>1.5</v>
@@ -21197,7 +21203,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21579,7 +21585,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21669,7 +21675,7 @@
         <v>0.91</v>
       </c>
       <c r="AT108">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU108">
         <v>1.16</v>
@@ -21770,7 +21776,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -21961,7 +21967,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22725,7 +22731,7 @@
         <v>155</v>
       </c>
       <c r="P114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22916,7 +22922,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23107,7 +23113,7 @@
         <v>81</v>
       </c>
       <c r="P116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23576,7 +23582,7 @@
         <v>0.5</v>
       </c>
       <c r="AS118">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT118">
         <v>0.45</v>
@@ -23770,7 +23776,7 @@
         <v>2.7</v>
       </c>
       <c r="AT119">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU119">
         <v>2.36</v>
@@ -23871,7 +23877,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -24062,7 +24068,7 @@
         <v>112</v>
       </c>
       <c r="P121" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -25017,7 +25023,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25107,7 +25113,7 @@
         <v>1.27</v>
       </c>
       <c r="AT126">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU126">
         <v>1.41</v>
@@ -25208,7 +25214,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25399,7 +25405,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25868,7 +25874,7 @@
         <v>1.78</v>
       </c>
       <c r="AS130">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT130">
         <v>1.73</v>
@@ -25972,7 +25978,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -26354,7 +26360,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -26545,7 +26551,7 @@
         <v>163</v>
       </c>
       <c r="P134" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26736,7 +26742,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27118,7 +27124,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27500,7 +27506,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27691,7 +27697,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27972,7 +27978,7 @@
         <v>1.7</v>
       </c>
       <c r="AT141">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AU141">
         <v>1.3</v>
@@ -29028,7 +29034,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29410,7 +29416,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29551,6 +29557,197 @@
         <v>10</v>
       </c>
       <c r="BK149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>3157437</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44969.625</v>
+      </c>
+      <c r="F150">
+        <v>22</v>
+      </c>
+      <c r="G150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>69</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>171</v>
+      </c>
+      <c r="P150" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q150">
+        <v>4</v>
+      </c>
+      <c r="R150">
+        <v>5</v>
+      </c>
+      <c r="S150">
+        <v>9</v>
+      </c>
+      <c r="T150">
+        <v>3.3</v>
+      </c>
+      <c r="U150">
+        <v>1.8</v>
+      </c>
+      <c r="V150">
+        <v>3.8</v>
+      </c>
+      <c r="W150">
+        <v>1.62</v>
+      </c>
+      <c r="X150">
+        <v>2.1</v>
+      </c>
+      <c r="Y150">
+        <v>4</v>
+      </c>
+      <c r="Z150">
+        <v>1.21</v>
+      </c>
+      <c r="AA150">
+        <v>12</v>
+      </c>
+      <c r="AB150">
+        <v>1.03</v>
+      </c>
+      <c r="AC150">
+        <v>2.6</v>
+      </c>
+      <c r="AD150">
+        <v>2.96</v>
+      </c>
+      <c r="AE150">
+        <v>3.04</v>
+      </c>
+      <c r="AF150">
+        <v>1.14</v>
+      </c>
+      <c r="AG150">
+        <v>6</v>
+      </c>
+      <c r="AH150">
+        <v>1.57</v>
+      </c>
+      <c r="AI150">
+        <v>2.38</v>
+      </c>
+      <c r="AJ150">
+        <v>2.42</v>
+      </c>
+      <c r="AK150">
+        <v>1.51</v>
+      </c>
+      <c r="AL150">
+        <v>2.25</v>
+      </c>
+      <c r="AM150">
+        <v>1.55</v>
+      </c>
+      <c r="AN150">
+        <v>1.36</v>
+      </c>
+      <c r="AO150">
+        <v>1.38</v>
+      </c>
+      <c r="AP150">
+        <v>1.5</v>
+      </c>
+      <c r="AQ150">
+        <v>2.3</v>
+      </c>
+      <c r="AR150">
+        <v>2.2</v>
+      </c>
+      <c r="AS150">
+        <v>2.09</v>
+      </c>
+      <c r="AT150">
+        <v>2.27</v>
+      </c>
+      <c r="AU150">
+        <v>1.72</v>
+      </c>
+      <c r="AV150">
+        <v>1.3</v>
+      </c>
+      <c r="AW150">
+        <v>3.02</v>
+      </c>
+      <c r="AX150">
+        <v>1.9</v>
+      </c>
+      <c r="AY150">
+        <v>7</v>
+      </c>
+      <c r="AZ150">
+        <v>2.34</v>
+      </c>
+      <c r="BA150">
+        <v>1.5</v>
+      </c>
+      <c r="BB150">
+        <v>1.92</v>
+      </c>
+      <c r="BC150">
+        <v>2.54</v>
+      </c>
+      <c r="BD150">
+        <v>3.56</v>
+      </c>
+      <c r="BE150">
+        <v>4.7</v>
+      </c>
+      <c r="BF150">
+        <v>2</v>
+      </c>
+      <c r="BG150">
+        <v>3</v>
+      </c>
+      <c r="BH150">
+        <v>8</v>
+      </c>
+      <c r="BI150">
+        <v>7</v>
+      </c>
+      <c r="BJ150">
+        <v>10</v>
+      </c>
+      <c r="BK150">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,18 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['90', '90+4']</t>
+  </si>
+  <si>
+    <t>['37', '45+3', '84']</t>
+  </si>
+  <si>
+    <t>['9', '45', '61', '67', '75', '90']</t>
+  </si>
+  <si>
     <t>['27', '68', '90+9']</t>
   </si>
   <si>
@@ -703,9 +715,6 @@
     <t>['27', '52', '73', '90+3']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -734,6 +743,12 @@
   </si>
   <si>
     <t>['36', '86']</t>
+  </si>
+  <si>
+    <t>['8', '43', '61', '84']</t>
+  </si>
+  <si>
+    <t>['6', '82']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK150"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1354,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1620,7 +1635,7 @@
         <v>1.7</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1721,7 +1736,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1808,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT4">
         <v>2</v>
@@ -2002,7 +2017,7 @@
         <v>2.18</v>
       </c>
       <c r="AT5">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2384,7 +2399,7 @@
         <v>2.09</v>
       </c>
       <c r="AT7">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2572,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT8">
         <v>0.64</v>
@@ -2766,7 +2781,7 @@
         <v>0.73</v>
       </c>
       <c r="AT9">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2867,7 +2882,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3058,7 +3073,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3145,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT11">
         <v>1.73</v>
@@ -3249,7 +3264,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3440,7 +3455,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3909,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT15">
         <v>1.82</v>
@@ -4100,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT16">
         <v>0.45</v>
@@ -4204,7 +4219,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4291,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT17">
         <v>0.64</v>
@@ -4485,7 +4500,7 @@
         <v>2.36</v>
       </c>
       <c r="AT18">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU18">
         <v>1.27</v>
@@ -4586,7 +4601,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -4676,7 +4691,7 @@
         <v>1.7</v>
       </c>
       <c r="AT19">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU19">
         <v>1.3</v>
@@ -4777,7 +4792,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4867,7 +4882,7 @@
         <v>1.45</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU20">
         <v>1.54</v>
@@ -5055,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT21">
         <v>0.64</v>
@@ -5249,7 +5264,7 @@
         <v>2.09</v>
       </c>
       <c r="AT22">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU22">
         <v>1.55</v>
@@ -5350,7 +5365,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5440,7 +5455,7 @@
         <v>0.91</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5631,7 +5646,7 @@
         <v>1.27</v>
       </c>
       <c r="AT24">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU24">
         <v>1.46</v>
@@ -5732,7 +5747,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5923,7 +5938,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6010,7 +6025,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT26">
         <v>1.73</v>
@@ -6114,7 +6129,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6305,7 +6320,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6392,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT28">
         <v>0.73</v>
@@ -6878,7 +6893,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7260,7 +7275,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7451,7 +7466,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7541,7 +7556,7 @@
         <v>0.91</v>
       </c>
       <c r="AT34">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU34">
         <v>0.96</v>
@@ -7642,7 +7657,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8111,10 +8126,10 @@
         <v>0.25</v>
       </c>
       <c r="AS37">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT37">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU37">
         <v>0.61</v>
@@ -8302,10 +8317,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU38">
         <v>1.24</v>
@@ -8493,7 +8508,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT39">
         <v>0.73</v>
@@ -8788,7 +8803,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8979,7 +8994,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9069,7 +9084,7 @@
         <v>1.27</v>
       </c>
       <c r="AT42">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU42">
         <v>1.73</v>
@@ -9257,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT43">
         <v>0.64</v>
@@ -9361,7 +9376,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9552,7 +9567,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9743,7 +9758,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9934,7 +9949,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10024,7 +10039,7 @@
         <v>0.91</v>
       </c>
       <c r="AT47">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU47">
         <v>1.2</v>
@@ -10316,7 +10331,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10507,7 +10522,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10698,7 +10713,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -10788,7 +10803,7 @@
         <v>1.45</v>
       </c>
       <c r="AT51">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU51">
         <v>1.3</v>
@@ -11167,7 +11182,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT53">
         <v>0.73</v>
@@ -11271,7 +11286,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11361,7 +11376,7 @@
         <v>1.27</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU54">
         <v>1.81</v>
@@ -11462,7 +11477,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11549,7 +11564,7 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT55">
         <v>2.27</v>
@@ -11740,10 +11755,10 @@
         <v>1.75</v>
       </c>
       <c r="AS56">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT56">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU56">
         <v>1.22</v>
@@ -11844,7 +11859,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11931,10 +11946,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT57">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -12035,7 +12050,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12226,7 +12241,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12417,7 +12432,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12799,7 +12814,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -12990,7 +13005,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13372,7 +13387,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13462,7 +13477,7 @@
         <v>0.73</v>
       </c>
       <c r="AT65">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU65">
         <v>1.71</v>
@@ -13563,7 +13578,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13841,7 +13856,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT67">
         <v>0.45</v>
@@ -13945,7 +13960,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14223,10 +14238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS69">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT69">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU69">
         <v>2.5</v>
@@ -14327,7 +14342,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14417,7 +14432,7 @@
         <v>2.09</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU70">
         <v>1.46</v>
@@ -14709,7 +14724,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14796,7 +14811,7 @@
         <v>2.5</v>
       </c>
       <c r="AS72">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT72">
         <v>1.73</v>
@@ -14900,7 +14915,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15563,7 +15578,7 @@
         <v>0.82</v>
       </c>
       <c r="AT76">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU76">
         <v>0.8100000000000001</v>
@@ -15942,7 +15957,7 @@
         <v>2.4</v>
       </c>
       <c r="AS78">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT78">
         <v>2</v>
@@ -16237,7 +16252,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16706,10 +16721,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU82">
         <v>2.41</v>
@@ -17192,7 +17207,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17282,7 +17297,7 @@
         <v>0.73</v>
       </c>
       <c r="AT85">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU85">
         <v>1.74</v>
@@ -17383,7 +17398,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17765,7 +17780,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17852,10 +17867,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT88">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU88">
         <v>1.25</v>
@@ -18043,7 +18058,7 @@
         <v>2.17</v>
       </c>
       <c r="AS89">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT89">
         <v>2</v>
@@ -18425,7 +18440,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT91">
         <v>0.64</v>
@@ -18529,7 +18544,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18619,7 +18634,7 @@
         <v>0.91</v>
       </c>
       <c r="AT92">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU92">
         <v>1.23</v>
@@ -18998,7 +19013,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT94">
         <v>0.45</v>
@@ -19189,7 +19204,7 @@
         <v>1.83</v>
       </c>
       <c r="AS95">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT95">
         <v>1.73</v>
@@ -19293,7 +19308,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19484,7 +19499,7 @@
         <v>126</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19866,7 +19881,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -19956,7 +19971,7 @@
         <v>0.82</v>
       </c>
       <c r="AT99">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU99">
         <v>0.89</v>
@@ -20335,7 +20350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT101">
         <v>0.45</v>
@@ -20439,7 +20454,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20630,7 +20645,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20720,7 +20735,7 @@
         <v>1.7</v>
       </c>
       <c r="AT103">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU103">
         <v>1.3</v>
@@ -20911,7 +20926,7 @@
         <v>2.36</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU104">
         <v>1.47</v>
@@ -21102,7 +21117,7 @@
         <v>2.09</v>
       </c>
       <c r="AT105">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU105">
         <v>1.67</v>
@@ -21203,7 +21218,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21290,7 +21305,7 @@
         <v>0.14</v>
       </c>
       <c r="AS106">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT106">
         <v>0.64</v>
@@ -21585,7 +21600,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21776,7 +21791,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -21967,7 +21982,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22245,7 +22260,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT111">
         <v>0.45</v>
@@ -22731,7 +22746,7 @@
         <v>155</v>
       </c>
       <c r="P114" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22922,7 +22937,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23009,10 +23024,10 @@
         <v>1.63</v>
       </c>
       <c r="AS115">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT115">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU115">
         <v>1.22</v>
@@ -23113,7 +23128,7 @@
         <v>81</v>
       </c>
       <c r="P116" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23773,7 +23788,7 @@
         <v>2.71</v>
       </c>
       <c r="AS119">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT119">
         <v>2.27</v>
@@ -23877,7 +23892,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -23967,7 +23982,7 @@
         <v>0.82</v>
       </c>
       <c r="AT120">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU120">
         <v>1.05</v>
@@ -24068,7 +24083,7 @@
         <v>112</v>
       </c>
       <c r="P121" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24155,7 +24170,7 @@
         <v>0.75</v>
       </c>
       <c r="AS121">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT121">
         <v>0.73</v>
@@ -24349,7 +24364,7 @@
         <v>2.18</v>
       </c>
       <c r="AT122">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU122">
         <v>1.85</v>
@@ -24537,10 +24552,10 @@
         <v>1.5</v>
       </c>
       <c r="AS123">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT123">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU123">
         <v>2.27</v>
@@ -24728,10 +24743,10 @@
         <v>0.25</v>
       </c>
       <c r="AS124">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT124">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU124">
         <v>1.33</v>
@@ -24919,7 +24934,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT125">
         <v>0.73</v>
@@ -25023,7 +25038,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25214,7 +25229,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25405,7 +25420,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25978,7 +25993,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -26360,7 +26375,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -26450,7 +26465,7 @@
         <v>2.36</v>
       </c>
       <c r="AT133">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU133">
         <v>1.57</v>
@@ -26551,7 +26566,7 @@
         <v>163</v>
       </c>
       <c r="P134" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26742,7 +26757,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26832,7 +26847,7 @@
         <v>1.45</v>
       </c>
       <c r="AT135">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU135">
         <v>1.3</v>
@@ -27124,7 +27139,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27211,10 +27226,10 @@
         <v>1.11</v>
       </c>
       <c r="AS137">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT137">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU137">
         <v>1.69</v>
@@ -27402,7 +27417,7 @@
         <v>0.89</v>
       </c>
       <c r="AS138">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT138">
         <v>0.73</v>
@@ -27506,7 +27521,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27596,7 +27611,7 @@
         <v>2.18</v>
       </c>
       <c r="AT139">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU139">
         <v>1.98</v>
@@ -27697,7 +27712,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27784,7 +27799,7 @@
         <v>0.33</v>
       </c>
       <c r="AS140">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT140">
         <v>0.64</v>
@@ -27975,7 +27990,7 @@
         <v>2.44</v>
       </c>
       <c r="AS141">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT141">
         <v>2.27</v>
@@ -29034,7 +29049,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29416,7 +29431,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29607,7 +29622,7 @@
         <v>171</v>
       </c>
       <c r="P150" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29749,6 +29764,770 @@
       </c>
       <c r="BK150">
         <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>3157442</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44970.5</v>
+      </c>
+      <c r="F151">
+        <v>22</v>
+      </c>
+      <c r="G151" t="s">
+        <v>67</v>
+      </c>
+      <c r="H151" t="s">
+        <v>76</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>4</v>
+      </c>
+      <c r="N151">
+        <v>5</v>
+      </c>
+      <c r="O151" t="s">
+        <v>172</v>
+      </c>
+      <c r="P151" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q151">
+        <v>6</v>
+      </c>
+      <c r="R151">
+        <v>5</v>
+      </c>
+      <c r="S151">
+        <v>11</v>
+      </c>
+      <c r="T151">
+        <v>3.5</v>
+      </c>
+      <c r="U151">
+        <v>1.95</v>
+      </c>
+      <c r="V151">
+        <v>3.5</v>
+      </c>
+      <c r="W151">
+        <v>1.53</v>
+      </c>
+      <c r="X151">
+        <v>2.38</v>
+      </c>
+      <c r="Y151">
+        <v>3.5</v>
+      </c>
+      <c r="Z151">
+        <v>1.29</v>
+      </c>
+      <c r="AA151">
+        <v>11</v>
+      </c>
+      <c r="AB151">
+        <v>1.05</v>
+      </c>
+      <c r="AC151">
+        <v>2.6</v>
+      </c>
+      <c r="AD151">
+        <v>3</v>
+      </c>
+      <c r="AE151">
+        <v>2.75</v>
+      </c>
+      <c r="AF151">
+        <v>1.09</v>
+      </c>
+      <c r="AG151">
+        <v>7.5</v>
+      </c>
+      <c r="AH151">
+        <v>1.5</v>
+      </c>
+      <c r="AI151">
+        <v>2.55</v>
+      </c>
+      <c r="AJ151">
+        <v>2.44</v>
+      </c>
+      <c r="AK151">
+        <v>1.49</v>
+      </c>
+      <c r="AL151">
+        <v>2</v>
+      </c>
+      <c r="AM151">
+        <v>1.75</v>
+      </c>
+      <c r="AN151">
+        <v>1.43</v>
+      </c>
+      <c r="AO151">
+        <v>1.35</v>
+      </c>
+      <c r="AP151">
+        <v>1.44</v>
+      </c>
+      <c r="AQ151">
+        <v>0.7</v>
+      </c>
+      <c r="AR151">
+        <v>1</v>
+      </c>
+      <c r="AS151">
+        <v>0.64</v>
+      </c>
+      <c r="AT151">
+        <v>1.18</v>
+      </c>
+      <c r="AU151">
+        <v>1.16</v>
+      </c>
+      <c r="AV151">
+        <v>1.01</v>
+      </c>
+      <c r="AW151">
+        <v>2.17</v>
+      </c>
+      <c r="AX151">
+        <v>2.05</v>
+      </c>
+      <c r="AY151">
+        <v>6.95</v>
+      </c>
+      <c r="AZ151">
+        <v>2.11</v>
+      </c>
+      <c r="BA151">
+        <v>1.5</v>
+      </c>
+      <c r="BB151">
+        <v>1.9</v>
+      </c>
+      <c r="BC151">
+        <v>2.54</v>
+      </c>
+      <c r="BD151">
+        <v>3.48</v>
+      </c>
+      <c r="BE151">
+        <v>5</v>
+      </c>
+      <c r="BF151">
+        <v>6</v>
+      </c>
+      <c r="BG151">
+        <v>7</v>
+      </c>
+      <c r="BH151">
+        <v>8</v>
+      </c>
+      <c r="BI151">
+        <v>8</v>
+      </c>
+      <c r="BJ151">
+        <v>14</v>
+      </c>
+      <c r="BK151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>3157438</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44970.54166666666</v>
+      </c>
+      <c r="F152">
+        <v>22</v>
+      </c>
+      <c r="G152" t="s">
+        <v>77</v>
+      </c>
+      <c r="H152" t="s">
+        <v>68</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>173</v>
+      </c>
+      <c r="P152" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q152">
+        <v>2</v>
+      </c>
+      <c r="R152">
+        <v>9</v>
+      </c>
+      <c r="S152">
+        <v>11</v>
+      </c>
+      <c r="T152">
+        <v>5.5</v>
+      </c>
+      <c r="U152">
+        <v>2</v>
+      </c>
+      <c r="V152">
+        <v>2.5</v>
+      </c>
+      <c r="W152">
+        <v>1.53</v>
+      </c>
+      <c r="X152">
+        <v>2.38</v>
+      </c>
+      <c r="Y152">
+        <v>3.5</v>
+      </c>
+      <c r="Z152">
+        <v>1.29</v>
+      </c>
+      <c r="AA152">
+        <v>11</v>
+      </c>
+      <c r="AB152">
+        <v>1.05</v>
+      </c>
+      <c r="AC152">
+        <v>4.33</v>
+      </c>
+      <c r="AD152">
+        <v>3.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.8</v>
+      </c>
+      <c r="AF152">
+        <v>1.09</v>
+      </c>
+      <c r="AG152">
+        <v>8</v>
+      </c>
+      <c r="AH152">
+        <v>1.5</v>
+      </c>
+      <c r="AI152">
+        <v>2.55</v>
+      </c>
+      <c r="AJ152">
+        <v>2.25</v>
+      </c>
+      <c r="AK152">
+        <v>1.57</v>
+      </c>
+      <c r="AL152">
+        <v>2.2</v>
+      </c>
+      <c r="AM152">
+        <v>1.62</v>
+      </c>
+      <c r="AN152">
+        <v>1.93</v>
+      </c>
+      <c r="AO152">
+        <v>1.3</v>
+      </c>
+      <c r="AP152">
+        <v>1.2</v>
+      </c>
+      <c r="AQ152">
+        <v>1.7</v>
+      </c>
+      <c r="AR152">
+        <v>1.9</v>
+      </c>
+      <c r="AS152">
+        <v>1.64</v>
+      </c>
+      <c r="AT152">
+        <v>1.82</v>
+      </c>
+      <c r="AU152">
+        <v>1.25</v>
+      </c>
+      <c r="AV152">
+        <v>1.39</v>
+      </c>
+      <c r="AW152">
+        <v>2.64</v>
+      </c>
+      <c r="AX152">
+        <v>3.06</v>
+      </c>
+      <c r="AY152">
+        <v>7.4</v>
+      </c>
+      <c r="AZ152">
+        <v>1.58</v>
+      </c>
+      <c r="BA152">
+        <v>1.51</v>
+      </c>
+      <c r="BB152">
+        <v>1.92</v>
+      </c>
+      <c r="BC152">
+        <v>2.57</v>
+      </c>
+      <c r="BD152">
+        <v>3.56</v>
+      </c>
+      <c r="BE152">
+        <v>5.1</v>
+      </c>
+      <c r="BF152">
+        <v>5</v>
+      </c>
+      <c r="BG152">
+        <v>7</v>
+      </c>
+      <c r="BH152">
+        <v>5</v>
+      </c>
+      <c r="BI152">
+        <v>8</v>
+      </c>
+      <c r="BJ152">
+        <v>10</v>
+      </c>
+      <c r="BK152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>3157436</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44970.5625</v>
+      </c>
+      <c r="F153">
+        <v>22</v>
+      </c>
+      <c r="G153" t="s">
+        <v>74</v>
+      </c>
+      <c r="H153" t="s">
+        <v>78</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>3</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>174</v>
+      </c>
+      <c r="P153" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q153">
+        <v>6</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>8</v>
+      </c>
+      <c r="T153">
+        <v>1.5</v>
+      </c>
+      <c r="U153">
+        <v>2.88</v>
+      </c>
+      <c r="V153">
+        <v>17</v>
+      </c>
+      <c r="W153">
+        <v>1.29</v>
+      </c>
+      <c r="X153">
+        <v>3.5</v>
+      </c>
+      <c r="Y153">
+        <v>2.25</v>
+      </c>
+      <c r="Z153">
+        <v>1.57</v>
+      </c>
+      <c r="AA153">
+        <v>5.5</v>
+      </c>
+      <c r="AB153">
+        <v>1.14</v>
+      </c>
+      <c r="AC153">
+        <v>1.11</v>
+      </c>
+      <c r="AD153">
+        <v>7.87</v>
+      </c>
+      <c r="AE153">
+        <v>19.71</v>
+      </c>
+      <c r="AF153">
+        <v>1.01</v>
+      </c>
+      <c r="AG153">
+        <v>19</v>
+      </c>
+      <c r="AH153">
+        <v>1.18</v>
+      </c>
+      <c r="AI153">
+        <v>5</v>
+      </c>
+      <c r="AJ153">
+        <v>1.62</v>
+      </c>
+      <c r="AK153">
+        <v>2.12</v>
+      </c>
+      <c r="AL153">
+        <v>3</v>
+      </c>
+      <c r="AM153">
+        <v>1.36</v>
+      </c>
+      <c r="AN153">
+        <v>1.01</v>
+      </c>
+      <c r="AO153">
+        <v>1.07</v>
+      </c>
+      <c r="AP153">
+        <v>6</v>
+      </c>
+      <c r="AQ153">
+        <v>2.7</v>
+      </c>
+      <c r="AR153">
+        <v>0.3</v>
+      </c>
+      <c r="AS153">
+        <v>2.73</v>
+      </c>
+      <c r="AT153">
+        <v>0.27</v>
+      </c>
+      <c r="AU153">
+        <v>2.31</v>
+      </c>
+      <c r="AV153">
+        <v>1</v>
+      </c>
+      <c r="AW153">
+        <v>3.31</v>
+      </c>
+      <c r="AX153">
+        <v>1.08</v>
+      </c>
+      <c r="AY153">
+        <v>13</v>
+      </c>
+      <c r="AZ153">
+        <v>9.5</v>
+      </c>
+      <c r="BA153">
+        <v>1.24</v>
+      </c>
+      <c r="BB153">
+        <v>1.46</v>
+      </c>
+      <c r="BC153">
+        <v>1.84</v>
+      </c>
+      <c r="BD153">
+        <v>2.38</v>
+      </c>
+      <c r="BE153">
+        <v>3.2</v>
+      </c>
+      <c r="BF153">
+        <v>6</v>
+      </c>
+      <c r="BG153">
+        <v>3</v>
+      </c>
+      <c r="BH153">
+        <v>13</v>
+      </c>
+      <c r="BI153">
+        <v>1</v>
+      </c>
+      <c r="BJ153">
+        <v>19</v>
+      </c>
+      <c r="BK153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>3157440</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44970.66666666666</v>
+      </c>
+      <c r="F154">
+        <v>22</v>
+      </c>
+      <c r="G154" t="s">
+        <v>71</v>
+      </c>
+      <c r="H154" t="s">
+        <v>75</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>6</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>7</v>
+      </c>
+      <c r="O154" t="s">
+        <v>175</v>
+      </c>
+      <c r="P154" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>6</v>
+      </c>
+      <c r="S154">
+        <v>9</v>
+      </c>
+      <c r="T154">
+        <v>1.53</v>
+      </c>
+      <c r="U154">
+        <v>2.75</v>
+      </c>
+      <c r="V154">
+        <v>15</v>
+      </c>
+      <c r="W154">
+        <v>1.29</v>
+      </c>
+      <c r="X154">
+        <v>3.5</v>
+      </c>
+      <c r="Y154">
+        <v>2.38</v>
+      </c>
+      <c r="Z154">
+        <v>1.53</v>
+      </c>
+      <c r="AA154">
+        <v>5.5</v>
+      </c>
+      <c r="AB154">
+        <v>1.14</v>
+      </c>
+      <c r="AC154">
+        <v>1.1</v>
+      </c>
+      <c r="AD154">
+        <v>8.34</v>
+      </c>
+      <c r="AE154">
+        <v>19.64</v>
+      </c>
+      <c r="AF154">
+        <v>1.02</v>
+      </c>
+      <c r="AG154">
+        <v>17</v>
+      </c>
+      <c r="AH154">
+        <v>1.18</v>
+      </c>
+      <c r="AI154">
+        <v>4.75</v>
+      </c>
+      <c r="AJ154">
+        <v>1.77</v>
+      </c>
+      <c r="AK154">
+        <v>1.91</v>
+      </c>
+      <c r="AL154">
+        <v>2.63</v>
+      </c>
+      <c r="AM154">
+        <v>1.44</v>
+      </c>
+      <c r="AN154">
+        <v>1.02</v>
+      </c>
+      <c r="AO154">
+        <v>1.08</v>
+      </c>
+      <c r="AP154">
+        <v>5.25</v>
+      </c>
+      <c r="AQ154">
+        <v>2.3</v>
+      </c>
+      <c r="AR154">
+        <v>1.5</v>
+      </c>
+      <c r="AS154">
+        <v>2.36</v>
+      </c>
+      <c r="AT154">
+        <v>1.36</v>
+      </c>
+      <c r="AU154">
+        <v>1.8</v>
+      </c>
+      <c r="AV154">
+        <v>0.91</v>
+      </c>
+      <c r="AW154">
+        <v>2.71</v>
+      </c>
+      <c r="AX154">
+        <v>1.15</v>
+      </c>
+      <c r="AY154">
+        <v>12</v>
+      </c>
+      <c r="AZ154">
+        <v>7</v>
+      </c>
+      <c r="BA154">
+        <v>1.39</v>
+      </c>
+      <c r="BB154">
+        <v>1.72</v>
+      </c>
+      <c r="BC154">
+        <v>2.15</v>
+      </c>
+      <c r="BD154">
+        <v>2.91</v>
+      </c>
+      <c r="BE154">
+        <v>4</v>
+      </c>
+      <c r="BF154">
+        <v>8</v>
+      </c>
+      <c r="BG154">
+        <v>2</v>
+      </c>
+      <c r="BH154">
+        <v>7</v>
+      </c>
+      <c r="BI154">
+        <v>2</v>
+      </c>
+      <c r="BJ154">
+        <v>15</v>
+      </c>
+      <c r="BK154">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,21 @@
     <t>['9', '45', '61', '67', '75', '90']</t>
   </si>
   <si>
+    <t>['59', '69']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['14', '62']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
     <t>['27', '68', '90+9']</t>
   </si>
   <si>
@@ -563,9 +578,6 @@
   </si>
   <si>
     <t>['49']</t>
-  </si>
-  <si>
-    <t>['33']</t>
   </si>
   <si>
     <t>['5']</t>
@@ -691,9 +703,6 @@
     <t>['23']</t>
   </si>
   <si>
-    <t>['74']</t>
-  </si>
-  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -749,6 +758,12 @@
   </si>
   <si>
     <t>['6', '82']</t>
+  </si>
+  <si>
+    <t>['44', '60', '86']</t>
+  </si>
+  <si>
+    <t>['10', '30', '90']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1369,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1632,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT3">
         <v>1.18</v>
@@ -1736,7 +1751,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1823,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT4">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2014,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT5">
         <v>1.36</v>
@@ -2205,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT6">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2399,7 +2414,7 @@
         <v>2.09</v>
       </c>
       <c r="AT7">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2590,7 +2605,7 @@
         <v>2.36</v>
       </c>
       <c r="AT8">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2781,7 +2796,7 @@
         <v>0.73</v>
       </c>
       <c r="AT9">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2882,7 +2897,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3073,7 +3088,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3163,7 +3178,7 @@
         <v>2.73</v>
       </c>
       <c r="AT11">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3264,7 +3279,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3351,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3455,7 +3470,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3542,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT13">
         <v>2.27</v>
@@ -3733,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT14">
         <v>0.73</v>
@@ -3924,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4115,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT16">
         <v>0.45</v>
@@ -4219,7 +4234,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4309,7 +4324,7 @@
         <v>2.36</v>
       </c>
       <c r="AT17">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU17">
         <v>1.85</v>
@@ -4497,10 +4512,10 @@
         <v>0.5</v>
       </c>
       <c r="AS18">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT18">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU18">
         <v>1.27</v>
@@ -4601,7 +4616,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -4688,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT19">
         <v>1.36</v>
@@ -4792,7 +4807,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5073,7 +5088,7 @@
         <v>2.73</v>
       </c>
       <c r="AT21">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5365,7 +5380,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5452,7 +5467,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT23">
         <v>1.36</v>
@@ -5646,7 +5661,7 @@
         <v>1.27</v>
       </c>
       <c r="AT24">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU24">
         <v>1.46</v>
@@ -5747,7 +5762,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5938,7 +5953,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6028,7 +6043,7 @@
         <v>2.36</v>
       </c>
       <c r="AT26">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU26">
         <v>1.66</v>
@@ -6129,7 +6144,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6216,10 +6231,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT27">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU27">
         <v>1.22</v>
@@ -6320,7 +6335,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6407,10 +6422,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT28">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU28">
         <v>0.66</v>
@@ -6598,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT29">
         <v>0.45</v>
@@ -6789,7 +6804,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT30">
         <v>0.45</v>
@@ -6893,7 +6908,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -6980,10 +6995,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU31">
         <v>1.01</v>
@@ -7171,10 +7186,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT32">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU32">
         <v>1.18</v>
@@ -7275,7 +7290,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7466,7 +7481,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7553,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT34">
         <v>1.82</v>
@@ -7657,7 +7672,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7747,7 +7762,7 @@
         <v>2.09</v>
       </c>
       <c r="AT35">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU35">
         <v>1.46</v>
@@ -7938,7 +7953,7 @@
         <v>1.45</v>
       </c>
       <c r="AT36">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU36">
         <v>1.45</v>
@@ -8126,10 +8141,10 @@
         <v>0.25</v>
       </c>
       <c r="AS37">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT37">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU37">
         <v>0.61</v>
@@ -8317,7 +8332,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT38">
         <v>1.18</v>
@@ -8702,7 +8717,7 @@
         <v>1.45</v>
       </c>
       <c r="AT40">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU40">
         <v>1.35</v>
@@ -8803,7 +8818,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8890,7 +8905,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT41">
         <v>2.27</v>
@@ -8994,7 +9009,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9275,7 +9290,7 @@
         <v>2.73</v>
       </c>
       <c r="AT43">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU43">
         <v>1.82</v>
@@ -9376,7 +9391,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9463,10 +9478,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT44">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU44">
         <v>0.77</v>
@@ -9567,7 +9582,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9758,7 +9773,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9845,10 +9860,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT46">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU46">
         <v>1.05</v>
@@ -9949,7 +9964,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10227,7 +10242,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT48">
         <v>0.45</v>
@@ -10331,7 +10346,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10421,7 +10436,7 @@
         <v>2.09</v>
       </c>
       <c r="AT49">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU49">
         <v>1.5</v>
@@ -10522,7 +10537,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10609,10 +10624,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT50">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU50">
         <v>1.34</v>
@@ -10713,7 +10728,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -10803,7 +10818,7 @@
         <v>1.45</v>
       </c>
       <c r="AT51">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU51">
         <v>1.3</v>
@@ -10994,7 +11009,7 @@
         <v>2.09</v>
       </c>
       <c r="AT52">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU52">
         <v>1.38</v>
@@ -11286,7 +11301,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11477,7 +11492,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11564,7 +11579,7 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT55">
         <v>2.27</v>
@@ -11755,7 +11770,7 @@
         <v>1.75</v>
       </c>
       <c r="AS56">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT56">
         <v>1.36</v>
@@ -11859,7 +11874,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12050,7 +12065,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12137,10 +12152,10 @@
         <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT58">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU58">
         <v>1.42</v>
@@ -12241,7 +12256,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12328,10 +12343,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT59">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU59">
         <v>0.83</v>
@@ -12432,7 +12447,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12522,7 +12537,7 @@
         <v>0.73</v>
       </c>
       <c r="AT60">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU60">
         <v>1.83</v>
@@ -12710,10 +12725,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT61">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU61">
         <v>1.3</v>
@@ -12814,7 +12829,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -12901,7 +12916,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT62">
         <v>0.45</v>
@@ -13005,7 +13020,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13095,7 +13110,7 @@
         <v>0.91</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU63">
         <v>1.08</v>
@@ -13283,7 +13298,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT64">
         <v>0.45</v>
@@ -13387,7 +13402,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13578,7 +13593,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13960,7 +13975,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14342,7 +14357,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14724,7 +14739,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14811,10 +14826,10 @@
         <v>2.5</v>
       </c>
       <c r="AS72">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT72">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU72">
         <v>1.03</v>
@@ -14915,7 +14930,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15002,10 +15017,10 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT73">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU73">
         <v>1.13</v>
@@ -15193,10 +15208,10 @@
         <v>0.75</v>
       </c>
       <c r="AS74">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT74">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU74">
         <v>1.36</v>
@@ -15384,10 +15399,10 @@
         <v>0.2</v>
       </c>
       <c r="AS75">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT75">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU75">
         <v>1.94</v>
@@ -15575,10 +15590,10 @@
         <v>0.17</v>
       </c>
       <c r="AS76">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT76">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU76">
         <v>0.8100000000000001</v>
@@ -15766,10 +15781,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT77">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU77">
         <v>1.34</v>
@@ -15957,10 +15972,10 @@
         <v>2.4</v>
       </c>
       <c r="AS78">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT78">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU78">
         <v>1.13</v>
@@ -16252,7 +16267,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16339,7 +16354,7 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT80">
         <v>2.27</v>
@@ -16530,7 +16545,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT81">
         <v>0.45</v>
@@ -16915,7 +16930,7 @@
         <v>0.91</v>
       </c>
       <c r="AT83">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU83">
         <v>1.12</v>
@@ -17106,7 +17121,7 @@
         <v>1.45</v>
       </c>
       <c r="AT84">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU84">
         <v>1.34</v>
@@ -17207,7 +17222,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17398,7 +17413,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17488,7 +17503,7 @@
         <v>1.27</v>
       </c>
       <c r="AT86">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU86">
         <v>1.64</v>
@@ -17676,7 +17691,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT87">
         <v>0.73</v>
@@ -17780,7 +17795,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17867,7 +17882,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT88">
         <v>1.36</v>
@@ -18061,7 +18076,7 @@
         <v>2.36</v>
       </c>
       <c r="AT89">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU89">
         <v>1.75</v>
@@ -18249,10 +18264,10 @@
         <v>2.2</v>
       </c>
       <c r="AS90">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT90">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU90">
         <v>1.91</v>
@@ -18440,10 +18455,10 @@
         <v>0.5</v>
       </c>
       <c r="AS91">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT91">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU91">
         <v>1.13</v>
@@ -18544,7 +18559,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18631,10 +18646,10 @@
         <v>0.29</v>
       </c>
       <c r="AS92">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT92">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU92">
         <v>1.23</v>
@@ -18825,7 +18840,7 @@
         <v>0.91</v>
       </c>
       <c r="AT93">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU93">
         <v>1.08</v>
@@ -19204,10 +19219,10 @@
         <v>1.83</v>
       </c>
       <c r="AS95">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT95">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU95">
         <v>1.21</v>
@@ -19308,7 +19323,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19398,7 +19413,7 @@
         <v>1.27</v>
       </c>
       <c r="AT96">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU96">
         <v>1.6</v>
@@ -19499,7 +19514,7 @@
         <v>126</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19777,7 +19792,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT98">
         <v>0.73</v>
@@ -19881,7 +19896,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -19968,7 +19983,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT99">
         <v>1.82</v>
@@ -20162,7 +20177,7 @@
         <v>0.91</v>
       </c>
       <c r="AT100">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU100">
         <v>1.09</v>
@@ -20454,7 +20469,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20544,7 +20559,7 @@
         <v>1.45</v>
       </c>
       <c r="AT102">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU102">
         <v>1.38</v>
@@ -20645,7 +20660,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20732,7 +20747,7 @@
         <v>1.71</v>
       </c>
       <c r="AS103">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT103">
         <v>1.82</v>
@@ -20923,7 +20938,7 @@
         <v>0.83</v>
       </c>
       <c r="AS104">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT104">
         <v>1.18</v>
@@ -21218,7 +21233,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21305,10 +21320,10 @@
         <v>0.14</v>
       </c>
       <c r="AS106">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT106">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU106">
         <v>1.25</v>
@@ -21496,10 +21511,10 @@
         <v>1.71</v>
       </c>
       <c r="AS107">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT107">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU107">
         <v>1.4</v>
@@ -21600,7 +21615,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21791,7 +21806,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -21881,7 +21896,7 @@
         <v>1.27</v>
       </c>
       <c r="AT109">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU109">
         <v>1.54</v>
@@ -21982,7 +21997,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22072,7 +22087,7 @@
         <v>0.73</v>
       </c>
       <c r="AT110">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU110">
         <v>1.5</v>
@@ -22260,7 +22275,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT111">
         <v>0.45</v>
@@ -22451,7 +22466,7 @@
         <v>0.86</v>
       </c>
       <c r="AS112">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT112">
         <v>0.73</v>
@@ -22642,10 +22657,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT113">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU113">
         <v>1.91</v>
@@ -22746,7 +22761,7 @@
         <v>155</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22836,7 +22851,7 @@
         <v>0.91</v>
       </c>
       <c r="AT114">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU114">
         <v>1.17</v>
@@ -22937,7 +22952,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23024,7 +23039,7 @@
         <v>1.63</v>
       </c>
       <c r="AS115">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT115">
         <v>1.82</v>
@@ -23128,7 +23143,7 @@
         <v>81</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23218,7 +23233,7 @@
         <v>1.45</v>
       </c>
       <c r="AT116">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU116">
         <v>1.31</v>
@@ -23406,10 +23421,10 @@
         <v>0.38</v>
       </c>
       <c r="AS117">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT117">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU117">
         <v>1.26</v>
@@ -23892,7 +23907,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -23979,7 +23994,7 @@
         <v>0.86</v>
       </c>
       <c r="AS120">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT120">
         <v>1.18</v>
@@ -24083,7 +24098,7 @@
         <v>112</v>
       </c>
       <c r="P121" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24170,7 +24185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS121">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT121">
         <v>0.73</v>
@@ -24361,7 +24376,7 @@
         <v>1.13</v>
       </c>
       <c r="AS122">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT122">
         <v>1.18</v>
@@ -24743,10 +24758,10 @@
         <v>0.25</v>
       </c>
       <c r="AS124">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT124">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU124">
         <v>1.33</v>
@@ -24937,7 +24952,7 @@
         <v>2.36</v>
       </c>
       <c r="AT125">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU125">
         <v>1.68</v>
@@ -25229,7 +25244,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25319,7 +25334,7 @@
         <v>0.73</v>
       </c>
       <c r="AT127">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU127">
         <v>1.35</v>
@@ -25420,7 +25435,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25507,10 +25522,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS128">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT128">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU128">
         <v>1</v>
@@ -25698,7 +25713,7 @@
         <v>0.44</v>
       </c>
       <c r="AS129">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT129">
         <v>0.45</v>
@@ -25892,7 +25907,7 @@
         <v>2.09</v>
       </c>
       <c r="AT130">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU130">
         <v>1.71</v>
@@ -25993,7 +26008,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -26083,7 +26098,7 @@
         <v>0.73</v>
       </c>
       <c r="AT131">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU131">
         <v>1.37</v>
@@ -26375,7 +26390,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -26462,7 +26477,7 @@
         <v>1.78</v>
       </c>
       <c r="AS133">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT133">
         <v>1.82</v>
@@ -26566,7 +26581,7 @@
         <v>163</v>
       </c>
       <c r="P134" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26653,10 +26668,10 @@
         <v>2</v>
       </c>
       <c r="AS134">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT134">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU134">
         <v>1.33</v>
@@ -26757,7 +26772,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27139,7 +27154,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27420,7 +27435,7 @@
         <v>2.73</v>
       </c>
       <c r="AT138">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU138">
         <v>2.35</v>
@@ -27521,7 +27536,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27608,10 +27623,10 @@
         <v>0.33</v>
       </c>
       <c r="AS139">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT139">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU139">
         <v>1.98</v>
@@ -27712,7 +27727,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27799,10 +27814,10 @@
         <v>0.33</v>
       </c>
       <c r="AS140">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT140">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU140">
         <v>1.13</v>
@@ -27990,7 +28005,7 @@
         <v>2.44</v>
       </c>
       <c r="AS141">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT141">
         <v>2.27</v>
@@ -28181,10 +28196,10 @@
         <v>0.6</v>
       </c>
       <c r="AS142">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT142">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU142">
         <v>1.47</v>
@@ -28375,7 +28390,7 @@
         <v>0.73</v>
       </c>
       <c r="AT143">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU143">
         <v>1.34</v>
@@ -28563,7 +28578,7 @@
         <v>0.5</v>
       </c>
       <c r="AS144">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT144">
         <v>0.45</v>
@@ -28754,7 +28769,7 @@
         <v>0.4</v>
       </c>
       <c r="AS145">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT145">
         <v>0.45</v>
@@ -28945,10 +28960,10 @@
         <v>1.9</v>
       </c>
       <c r="AS146">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT146">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU146">
         <v>1.96</v>
@@ -29049,7 +29064,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29139,7 +29154,7 @@
         <v>0.91</v>
       </c>
       <c r="AT147">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU147">
         <v>1.21</v>
@@ -29330,7 +29345,7 @@
         <v>1.27</v>
       </c>
       <c r="AT148">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU148">
         <v>1.34</v>
@@ -29431,7 +29446,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29622,7 +29637,7 @@
         <v>171</v>
       </c>
       <c r="P150" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29813,7 +29828,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -29900,7 +29915,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT151">
         <v>1.18</v>
@@ -30004,7 +30019,7 @@
         <v>173</v>
       </c>
       <c r="P152" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30091,7 +30106,7 @@
         <v>1.9</v>
       </c>
       <c r="AS152">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT152">
         <v>1.82</v>
@@ -30285,7 +30300,7 @@
         <v>2.73</v>
       </c>
       <c r="AT153">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU153">
         <v>2.31</v>
@@ -30528,6 +30543,1343 @@
       </c>
       <c r="BK154">
         <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>3157446</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F155">
+        <v>23</v>
+      </c>
+      <c r="G155" t="s">
+        <v>69</v>
+      </c>
+      <c r="H155" t="s">
+        <v>65</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>176</v>
+      </c>
+      <c r="P155" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q155">
+        <v>13</v>
+      </c>
+      <c r="R155">
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <v>13</v>
+      </c>
+      <c r="T155">
+        <v>1.91</v>
+      </c>
+      <c r="U155">
+        <v>2.25</v>
+      </c>
+      <c r="V155">
+        <v>8.5</v>
+      </c>
+      <c r="W155">
+        <v>1.4</v>
+      </c>
+      <c r="X155">
+        <v>2.75</v>
+      </c>
+      <c r="Y155">
+        <v>3</v>
+      </c>
+      <c r="Z155">
+        <v>1.36</v>
+      </c>
+      <c r="AA155">
+        <v>9</v>
+      </c>
+      <c r="AB155">
+        <v>1.07</v>
+      </c>
+      <c r="AC155">
+        <v>1.35</v>
+      </c>
+      <c r="AD155">
+        <v>4.35</v>
+      </c>
+      <c r="AE155">
+        <v>8</v>
+      </c>
+      <c r="AF155">
+        <v>1.05</v>
+      </c>
+      <c r="AG155">
+        <v>10</v>
+      </c>
+      <c r="AH155">
+        <v>1.33</v>
+      </c>
+      <c r="AI155">
+        <v>3.25</v>
+      </c>
+      <c r="AJ155">
+        <v>2</v>
+      </c>
+      <c r="AK155">
+        <v>1.75</v>
+      </c>
+      <c r="AL155">
+        <v>2.5</v>
+      </c>
+      <c r="AM155">
+        <v>1.5</v>
+      </c>
+      <c r="AN155">
+        <v>1.07</v>
+      </c>
+      <c r="AO155">
+        <v>1.18</v>
+      </c>
+      <c r="AP155">
+        <v>3</v>
+      </c>
+      <c r="AQ155">
+        <v>2.36</v>
+      </c>
+      <c r="AR155">
+        <v>1.73</v>
+      </c>
+      <c r="AS155">
+        <v>2.42</v>
+      </c>
+      <c r="AT155">
+        <v>1.58</v>
+      </c>
+      <c r="AU155">
+        <v>1.57</v>
+      </c>
+      <c r="AV155">
+        <v>1.2</v>
+      </c>
+      <c r="AW155">
+        <v>2.77</v>
+      </c>
+      <c r="AX155">
+        <v>1.26</v>
+      </c>
+      <c r="AY155">
+        <v>9.5</v>
+      </c>
+      <c r="AZ155">
+        <v>4.88</v>
+      </c>
+      <c r="BA155">
+        <v>1.41</v>
+      </c>
+      <c r="BB155">
+        <v>1.8</v>
+      </c>
+      <c r="BC155">
+        <v>2.35</v>
+      </c>
+      <c r="BD155">
+        <v>3.25</v>
+      </c>
+      <c r="BE155">
+        <v>4.1</v>
+      </c>
+      <c r="BF155">
+        <v>9</v>
+      </c>
+      <c r="BG155">
+        <v>2</v>
+      </c>
+      <c r="BH155">
+        <v>16</v>
+      </c>
+      <c r="BI155">
+        <v>0</v>
+      </c>
+      <c r="BJ155">
+        <v>25</v>
+      </c>
+      <c r="BK155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>3157443</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44975.625</v>
+      </c>
+      <c r="F156">
+        <v>23</v>
+      </c>
+      <c r="G156" t="s">
+        <v>77</v>
+      </c>
+      <c r="H156" t="s">
+        <v>73</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>177</v>
+      </c>
+      <c r="P156" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>3</v>
+      </c>
+      <c r="S156">
+        <v>3</v>
+      </c>
+      <c r="T156">
+        <v>2.75</v>
+      </c>
+      <c r="U156">
+        <v>1.95</v>
+      </c>
+      <c r="V156">
+        <v>4.75</v>
+      </c>
+      <c r="W156">
+        <v>1.53</v>
+      </c>
+      <c r="X156">
+        <v>2.38</v>
+      </c>
+      <c r="Y156">
+        <v>3.75</v>
+      </c>
+      <c r="Z156">
+        <v>1.25</v>
+      </c>
+      <c r="AA156">
+        <v>11</v>
+      </c>
+      <c r="AB156">
+        <v>1.05</v>
+      </c>
+      <c r="AC156">
+        <v>2.08</v>
+      </c>
+      <c r="AD156">
+        <v>3.3</v>
+      </c>
+      <c r="AE156">
+        <v>3.66</v>
+      </c>
+      <c r="AF156">
+        <v>1.1</v>
+      </c>
+      <c r="AG156">
+        <v>7</v>
+      </c>
+      <c r="AH156">
+        <v>1.47</v>
+      </c>
+      <c r="AI156">
+        <v>2.7</v>
+      </c>
+      <c r="AJ156">
+        <v>2.5</v>
+      </c>
+      <c r="AK156">
+        <v>1.5</v>
+      </c>
+      <c r="AL156">
+        <v>2.05</v>
+      </c>
+      <c r="AM156">
+        <v>1.7</v>
+      </c>
+      <c r="AN156">
+        <v>1.26</v>
+      </c>
+      <c r="AO156">
+        <v>1.32</v>
+      </c>
+      <c r="AP156">
+        <v>1.75</v>
+      </c>
+      <c r="AQ156">
+        <v>1.64</v>
+      </c>
+      <c r="AR156">
+        <v>0.64</v>
+      </c>
+      <c r="AS156">
+        <v>1.58</v>
+      </c>
+      <c r="AT156">
+        <v>0.67</v>
+      </c>
+      <c r="AU156">
+        <v>1.25</v>
+      </c>
+      <c r="AV156">
+        <v>0.97</v>
+      </c>
+      <c r="AW156">
+        <v>2.22</v>
+      </c>
+      <c r="AX156">
+        <v>1.51</v>
+      </c>
+      <c r="AY156">
+        <v>8</v>
+      </c>
+      <c r="AZ156">
+        <v>3.24</v>
+      </c>
+      <c r="BA156">
+        <v>1.44</v>
+      </c>
+      <c r="BB156">
+        <v>1.9</v>
+      </c>
+      <c r="BC156">
+        <v>2.45</v>
+      </c>
+      <c r="BD156">
+        <v>3.4</v>
+      </c>
+      <c r="BE156">
+        <v>4.4</v>
+      </c>
+      <c r="BF156">
+        <v>3</v>
+      </c>
+      <c r="BG156">
+        <v>2</v>
+      </c>
+      <c r="BH156">
+        <v>3</v>
+      </c>
+      <c r="BI156">
+        <v>5</v>
+      </c>
+      <c r="BJ156">
+        <v>6</v>
+      </c>
+      <c r="BK156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>3157449</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F157">
+        <v>23</v>
+      </c>
+      <c r="G157" t="s">
+        <v>67</v>
+      </c>
+      <c r="H157" t="s">
+        <v>71</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>3</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>81</v>
+      </c>
+      <c r="P157" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q157">
+        <v>5</v>
+      </c>
+      <c r="R157">
+        <v>4</v>
+      </c>
+      <c r="S157">
+        <v>9</v>
+      </c>
+      <c r="T157">
+        <v>12</v>
+      </c>
+      <c r="U157">
+        <v>2.4</v>
+      </c>
+      <c r="V157">
+        <v>1.73</v>
+      </c>
+      <c r="W157">
+        <v>1.36</v>
+      </c>
+      <c r="X157">
+        <v>3</v>
+      </c>
+      <c r="Y157">
+        <v>2.75</v>
+      </c>
+      <c r="Z157">
+        <v>1.4</v>
+      </c>
+      <c r="AA157">
+        <v>7</v>
+      </c>
+      <c r="AB157">
+        <v>1.1</v>
+      </c>
+      <c r="AC157">
+        <v>9.4</v>
+      </c>
+      <c r="AD157">
+        <v>5</v>
+      </c>
+      <c r="AE157">
+        <v>1.33</v>
+      </c>
+      <c r="AF157">
+        <v>1.04</v>
+      </c>
+      <c r="AG157">
+        <v>11</v>
+      </c>
+      <c r="AH157">
+        <v>1.3</v>
+      </c>
+      <c r="AI157">
+        <v>3.5</v>
+      </c>
+      <c r="AJ157">
+        <v>1.75</v>
+      </c>
+      <c r="AK157">
+        <v>1.91</v>
+      </c>
+      <c r="AL157">
+        <v>2.63</v>
+      </c>
+      <c r="AM157">
+        <v>1.44</v>
+      </c>
+      <c r="AN157">
+        <v>3.6</v>
+      </c>
+      <c r="AO157">
+        <v>1.14</v>
+      </c>
+      <c r="AP157">
+        <v>1.05</v>
+      </c>
+      <c r="AQ157">
+        <v>0.64</v>
+      </c>
+      <c r="AR157">
+        <v>1.82</v>
+      </c>
+      <c r="AS157">
+        <v>0.58</v>
+      </c>
+      <c r="AT157">
+        <v>1.92</v>
+      </c>
+      <c r="AU157">
+        <v>1.22</v>
+      </c>
+      <c r="AV157">
+        <v>1.69</v>
+      </c>
+      <c r="AW157">
+        <v>2.91</v>
+      </c>
+      <c r="AX157">
+        <v>6.55</v>
+      </c>
+      <c r="AY157">
+        <v>11</v>
+      </c>
+      <c r="AZ157">
+        <v>1.18</v>
+      </c>
+      <c r="BA157">
+        <v>1.46</v>
+      </c>
+      <c r="BB157">
+        <v>1.88</v>
+      </c>
+      <c r="BC157">
+        <v>2.45</v>
+      </c>
+      <c r="BD157">
+        <v>3.5</v>
+      </c>
+      <c r="BE157">
+        <v>4.9</v>
+      </c>
+      <c r="BF157">
+        <v>3</v>
+      </c>
+      <c r="BG157">
+        <v>9</v>
+      </c>
+      <c r="BH157">
+        <v>4</v>
+      </c>
+      <c r="BI157">
+        <v>8</v>
+      </c>
+      <c r="BJ157">
+        <v>7</v>
+      </c>
+      <c r="BK157">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>3157447</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44976.60416666666</v>
+      </c>
+      <c r="F158">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s">
+        <v>75</v>
+      </c>
+      <c r="H158" t="s">
+        <v>72</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>178</v>
+      </c>
+      <c r="P158" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q158">
+        <v>2</v>
+      </c>
+      <c r="R158">
+        <v>7</v>
+      </c>
+      <c r="S158">
+        <v>9</v>
+      </c>
+      <c r="T158">
+        <v>2.88</v>
+      </c>
+      <c r="U158">
+        <v>1.95</v>
+      </c>
+      <c r="V158">
+        <v>4.33</v>
+      </c>
+      <c r="W158">
+        <v>1.53</v>
+      </c>
+      <c r="X158">
+        <v>2.38</v>
+      </c>
+      <c r="Y158">
+        <v>3.75</v>
+      </c>
+      <c r="Z158">
+        <v>1.25</v>
+      </c>
+      <c r="AA158">
+        <v>11</v>
+      </c>
+      <c r="AB158">
+        <v>1.05</v>
+      </c>
+      <c r="AC158">
+        <v>2.06</v>
+      </c>
+      <c r="AD158">
+        <v>3.2</v>
+      </c>
+      <c r="AE158">
+        <v>3.1</v>
+      </c>
+      <c r="AF158">
+        <v>1.1</v>
+      </c>
+      <c r="AG158">
+        <v>7</v>
+      </c>
+      <c r="AH158">
+        <v>1.47</v>
+      </c>
+      <c r="AI158">
+        <v>2.7</v>
+      </c>
+      <c r="AJ158">
+        <v>2.48</v>
+      </c>
+      <c r="AK158">
+        <v>1.5</v>
+      </c>
+      <c r="AL158">
+        <v>2.05</v>
+      </c>
+      <c r="AM158">
+        <v>1.7</v>
+      </c>
+      <c r="AN158">
+        <v>1.28</v>
+      </c>
+      <c r="AO158">
+        <v>1.35</v>
+      </c>
+      <c r="AP158">
+        <v>1.66</v>
+      </c>
+      <c r="AQ158">
+        <v>0.82</v>
+      </c>
+      <c r="AR158">
+        <v>0.64</v>
+      </c>
+      <c r="AS158">
+        <v>1</v>
+      </c>
+      <c r="AT158">
+        <v>0.58</v>
+      </c>
+      <c r="AU158">
+        <v>1.01</v>
+      </c>
+      <c r="AV158">
+        <v>1.07</v>
+      </c>
+      <c r="AW158">
+        <v>2.08</v>
+      </c>
+      <c r="AX158">
+        <v>1.82</v>
+      </c>
+      <c r="AY158">
+        <v>7.5</v>
+      </c>
+      <c r="AZ158">
+        <v>2.4</v>
+      </c>
+      <c r="BA158">
+        <v>1.49</v>
+      </c>
+      <c r="BB158">
+        <v>2</v>
+      </c>
+      <c r="BC158">
+        <v>2.55</v>
+      </c>
+      <c r="BD158">
+        <v>3.7</v>
+      </c>
+      <c r="BE158">
+        <v>5.4</v>
+      </c>
+      <c r="BF158">
+        <v>4</v>
+      </c>
+      <c r="BG158">
+        <v>3</v>
+      </c>
+      <c r="BH158">
+        <v>5</v>
+      </c>
+      <c r="BI158">
+        <v>5</v>
+      </c>
+      <c r="BJ158">
+        <v>9</v>
+      </c>
+      <c r="BK158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>3157448</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44976.64583333334</v>
+      </c>
+      <c r="F159">
+        <v>23</v>
+      </c>
+      <c r="G159" t="s">
+        <v>68</v>
+      </c>
+      <c r="H159" t="s">
+        <v>74</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>179</v>
+      </c>
+      <c r="P159" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q159">
+        <v>4</v>
+      </c>
+      <c r="R159">
+        <v>9</v>
+      </c>
+      <c r="S159">
+        <v>13</v>
+      </c>
+      <c r="T159">
+        <v>3.5</v>
+      </c>
+      <c r="U159">
+        <v>1.95</v>
+      </c>
+      <c r="V159">
+        <v>3.6</v>
+      </c>
+      <c r="W159">
+        <v>1.53</v>
+      </c>
+      <c r="X159">
+        <v>2.38</v>
+      </c>
+      <c r="Y159">
+        <v>3.75</v>
+      </c>
+      <c r="Z159">
+        <v>1.25</v>
+      </c>
+      <c r="AA159">
+        <v>11</v>
+      </c>
+      <c r="AB159">
+        <v>1.05</v>
+      </c>
+      <c r="AC159">
+        <v>2.29</v>
+      </c>
+      <c r="AD159">
+        <v>3.1</v>
+      </c>
+      <c r="AE159">
+        <v>2.76</v>
+      </c>
+      <c r="AF159">
+        <v>1.09</v>
+      </c>
+      <c r="AG159">
+        <v>7.5</v>
+      </c>
+      <c r="AH159">
+        <v>1.45</v>
+      </c>
+      <c r="AI159">
+        <v>2.7</v>
+      </c>
+      <c r="AJ159">
+        <v>2.55</v>
+      </c>
+      <c r="AK159">
+        <v>1.47</v>
+      </c>
+      <c r="AL159">
+        <v>2.05</v>
+      </c>
+      <c r="AM159">
+        <v>1.7</v>
+      </c>
+      <c r="AN159">
+        <v>1.41</v>
+      </c>
+      <c r="AO159">
+        <v>1.33</v>
+      </c>
+      <c r="AP159">
+        <v>1.5</v>
+      </c>
+      <c r="AQ159">
+        <v>2.18</v>
+      </c>
+      <c r="AR159">
+        <v>2</v>
+      </c>
+      <c r="AS159">
+        <v>2.25</v>
+      </c>
+      <c r="AT159">
+        <v>1.82</v>
+      </c>
+      <c r="AU159">
+        <v>2</v>
+      </c>
+      <c r="AV159">
+        <v>1.65</v>
+      </c>
+      <c r="AW159">
+        <v>3.65</v>
+      </c>
+      <c r="AX159">
+        <v>2</v>
+      </c>
+      <c r="AY159">
+        <v>7.5</v>
+      </c>
+      <c r="AZ159">
+        <v>2.1</v>
+      </c>
+      <c r="BA159">
+        <v>1.38</v>
+      </c>
+      <c r="BB159">
+        <v>1.7</v>
+      </c>
+      <c r="BC159">
+        <v>2.25</v>
+      </c>
+      <c r="BD159">
+        <v>3.1</v>
+      </c>
+      <c r="BE159">
+        <v>4</v>
+      </c>
+      <c r="BF159">
+        <v>3</v>
+      </c>
+      <c r="BG159">
+        <v>2</v>
+      </c>
+      <c r="BH159">
+        <v>1</v>
+      </c>
+      <c r="BI159">
+        <v>9</v>
+      </c>
+      <c r="BJ159">
+        <v>4</v>
+      </c>
+      <c r="BK159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>3157444</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44977.54166666666</v>
+      </c>
+      <c r="F160">
+        <v>23</v>
+      </c>
+      <c r="G160" t="s">
+        <v>66</v>
+      </c>
+      <c r="H160" t="s">
+        <v>78</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>180</v>
+      </c>
+      <c r="P160" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q160">
+        <v>4</v>
+      </c>
+      <c r="R160">
+        <v>3</v>
+      </c>
+      <c r="S160">
+        <v>7</v>
+      </c>
+      <c r="T160">
+        <v>2.5</v>
+      </c>
+      <c r="U160">
+        <v>2.05</v>
+      </c>
+      <c r="V160">
+        <v>5.5</v>
+      </c>
+      <c r="W160">
+        <v>1.5</v>
+      </c>
+      <c r="X160">
+        <v>2.5</v>
+      </c>
+      <c r="Y160">
+        <v>3.4</v>
+      </c>
+      <c r="Z160">
+        <v>1.3</v>
+      </c>
+      <c r="AA160">
+        <v>10</v>
+      </c>
+      <c r="AB160">
+        <v>1.06</v>
+      </c>
+      <c r="AC160">
+        <v>1.7</v>
+      </c>
+      <c r="AD160">
+        <v>3.35</v>
+      </c>
+      <c r="AE160">
+        <v>5</v>
+      </c>
+      <c r="AF160">
+        <v>1.09</v>
+      </c>
+      <c r="AG160">
+        <v>7.5</v>
+      </c>
+      <c r="AH160">
+        <v>1.45</v>
+      </c>
+      <c r="AI160">
+        <v>2.7</v>
+      </c>
+      <c r="AJ160">
+        <v>2.4</v>
+      </c>
+      <c r="AK160">
+        <v>1.54</v>
+      </c>
+      <c r="AL160">
+        <v>2.05</v>
+      </c>
+      <c r="AM160">
+        <v>1.7</v>
+      </c>
+      <c r="AN160">
+        <v>1.17</v>
+      </c>
+      <c r="AO160">
+        <v>1.25</v>
+      </c>
+      <c r="AP160">
+        <v>2.05</v>
+      </c>
+      <c r="AQ160">
+        <v>1.7</v>
+      </c>
+      <c r="AR160">
+        <v>0.27</v>
+      </c>
+      <c r="AS160">
+        <v>1.82</v>
+      </c>
+      <c r="AT160">
+        <v>0.25</v>
+      </c>
+      <c r="AU160">
+        <v>1.32</v>
+      </c>
+      <c r="AV160">
+        <v>0.96</v>
+      </c>
+      <c r="AW160">
+        <v>2.28</v>
+      </c>
+      <c r="AX160">
+        <v>1.69</v>
+      </c>
+      <c r="AY160">
+        <v>8</v>
+      </c>
+      <c r="AZ160">
+        <v>2.63</v>
+      </c>
+      <c r="BA160">
+        <v>1.34</v>
+      </c>
+      <c r="BB160">
+        <v>1.63</v>
+      </c>
+      <c r="BC160">
+        <v>2.1</v>
+      </c>
+      <c r="BD160">
+        <v>2.9</v>
+      </c>
+      <c r="BE160">
+        <v>4.5</v>
+      </c>
+      <c r="BF160">
+        <v>7</v>
+      </c>
+      <c r="BG160">
+        <v>4</v>
+      </c>
+      <c r="BH160">
+        <v>9</v>
+      </c>
+      <c r="BI160">
+        <v>3</v>
+      </c>
+      <c r="BJ160">
+        <v>16</v>
+      </c>
+      <c r="BK160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>3157445</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>44977.60416666666</v>
+      </c>
+      <c r="F161">
+        <v>23</v>
+      </c>
+      <c r="G161" t="s">
+        <v>76</v>
+      </c>
+      <c r="H161" t="s">
+        <v>70</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>3</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>81</v>
+      </c>
+      <c r="P161" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q161">
+        <v>4</v>
+      </c>
+      <c r="R161">
+        <v>4</v>
+      </c>
+      <c r="S161">
+        <v>8</v>
+      </c>
+      <c r="T161">
+        <v>3.6</v>
+      </c>
+      <c r="U161">
+        <v>2</v>
+      </c>
+      <c r="V161">
+        <v>3.25</v>
+      </c>
+      <c r="W161">
+        <v>1.5</v>
+      </c>
+      <c r="X161">
+        <v>2.5</v>
+      </c>
+      <c r="Y161">
+        <v>3.4</v>
+      </c>
+      <c r="Z161">
+        <v>1.3</v>
+      </c>
+      <c r="AA161">
+        <v>10</v>
+      </c>
+      <c r="AB161">
+        <v>1.06</v>
+      </c>
+      <c r="AC161">
+        <v>2.88</v>
+      </c>
+      <c r="AD161">
+        <v>3.2</v>
+      </c>
+      <c r="AE161">
+        <v>2.6</v>
+      </c>
+      <c r="AF161">
+        <v>1.08</v>
+      </c>
+      <c r="AG161">
+        <v>8.5</v>
+      </c>
+      <c r="AH161">
+        <v>1.42</v>
+      </c>
+      <c r="AI161">
+        <v>2.8</v>
+      </c>
+      <c r="AJ161">
+        <v>2.25</v>
+      </c>
+      <c r="AK161">
+        <v>1.62</v>
+      </c>
+      <c r="AL161">
+        <v>1.95</v>
+      </c>
+      <c r="AM161">
+        <v>1.8</v>
+      </c>
+      <c r="AN161">
+        <v>1.51</v>
+      </c>
+      <c r="AO161">
+        <v>1.34</v>
+      </c>
+      <c r="AP161">
+        <v>1.4</v>
+      </c>
+      <c r="AQ161">
+        <v>0.91</v>
+      </c>
+      <c r="AR161">
+        <v>0.73</v>
+      </c>
+      <c r="AS161">
+        <v>0.83</v>
+      </c>
+      <c r="AT161">
+        <v>0.92</v>
+      </c>
+      <c r="AU161">
+        <v>1.53</v>
+      </c>
+      <c r="AV161">
+        <v>1.33</v>
+      </c>
+      <c r="AW161">
+        <v>2.86</v>
+      </c>
+      <c r="AX161">
+        <v>2.2</v>
+      </c>
+      <c r="AY161">
+        <v>7.5</v>
+      </c>
+      <c r="AZ161">
+        <v>1.91</v>
+      </c>
+      <c r="BA161">
+        <v>1.46</v>
+      </c>
+      <c r="BB161">
+        <v>1.88</v>
+      </c>
+      <c r="BC161">
+        <v>2.45</v>
+      </c>
+      <c r="BD161">
+        <v>3.5</v>
+      </c>
+      <c r="BE161">
+        <v>4.4</v>
+      </c>
+      <c r="BF161">
+        <v>3</v>
+      </c>
+      <c r="BG161">
+        <v>10</v>
+      </c>
+      <c r="BH161">
+        <v>5</v>
+      </c>
+      <c r="BI161">
+        <v>6</v>
+      </c>
+      <c r="BJ161">
+        <v>8</v>
+      </c>
+      <c r="BK161">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['85']</t>
   </si>
   <si>
     <t>['27', '68', '90+9']</t>
@@ -1125,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1372,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1456,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT2">
         <v>0.45</v>
@@ -1751,7 +1754,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2897,7 +2900,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2987,7 +2990,7 @@
         <v>1.27</v>
       </c>
       <c r="AT10">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3088,7 +3091,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3279,7 +3282,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3470,7 +3473,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -4234,7 +4237,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4807,7 +4810,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4894,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT20">
         <v>1.18</v>
@@ -5380,7 +5383,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5762,7 +5765,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5953,7 +5956,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6144,7 +6147,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6335,7 +6338,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6616,7 +6619,7 @@
         <v>2.25</v>
       </c>
       <c r="AT29">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU29">
         <v>2.15</v>
@@ -6807,7 +6810,7 @@
         <v>1.82</v>
       </c>
       <c r="AT30">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU30">
         <v>1.39</v>
@@ -6908,7 +6911,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7290,7 +7293,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7481,7 +7484,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7672,7 +7675,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7950,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT36">
         <v>0.58</v>
@@ -8714,7 +8717,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT40">
         <v>0.92</v>
@@ -8818,7 +8821,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9009,7 +9012,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9391,7 +9394,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9582,7 +9585,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9672,7 +9675,7 @@
         <v>0.73</v>
       </c>
       <c r="AT45">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU45">
         <v>1.62</v>
@@ -9773,7 +9776,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9964,7 +9967,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10346,7 +10349,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10537,7 +10540,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10728,7 +10731,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -10815,7 +10818,7 @@
         <v>0.2</v>
       </c>
       <c r="AS51">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT51">
         <v>0.25</v>
@@ -11301,7 +11304,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11492,7 +11495,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11874,7 +11877,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12065,7 +12068,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12256,7 +12259,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12447,7 +12450,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12829,7 +12832,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13020,7 +13023,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13301,7 +13304,7 @@
         <v>0.83</v>
       </c>
       <c r="AT64">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU64">
         <v>1.07</v>
@@ -13402,7 +13405,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13593,7 +13596,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13680,7 +13683,7 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT66">
         <v>2.27</v>
@@ -13874,7 +13877,7 @@
         <v>2.36</v>
       </c>
       <c r="AT67">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU67">
         <v>1.76</v>
@@ -13975,7 +13978,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14357,7 +14360,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14739,7 +14742,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14930,7 +14933,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -16166,7 +16169,7 @@
         <v>2.09</v>
       </c>
       <c r="AT79">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU79">
         <v>1.58</v>
@@ -16267,7 +16270,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17118,7 +17121,7 @@
         <v>0.17</v>
       </c>
       <c r="AS84">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT84">
         <v>0.67</v>
@@ -17222,7 +17225,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17413,7 +17416,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17795,7 +17798,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18559,7 +18562,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19031,7 +19034,7 @@
         <v>2.73</v>
       </c>
       <c r="AT94">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU94">
         <v>2.39</v>
@@ -19323,7 +19326,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19514,7 +19517,7 @@
         <v>126</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19896,7 +19899,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20469,7 +20472,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20556,7 +20559,7 @@
         <v>2</v>
       </c>
       <c r="AS102">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT102">
         <v>1.82</v>
@@ -20660,7 +20663,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21615,7 +21618,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21806,7 +21809,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -21997,7 +22000,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22278,7 +22281,7 @@
         <v>1.58</v>
       </c>
       <c r="AT111">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU111">
         <v>1.31</v>
@@ -22761,7 +22764,7 @@
         <v>155</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22952,7 +22955,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23143,7 +23146,7 @@
         <v>81</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23230,7 +23233,7 @@
         <v>1.88</v>
       </c>
       <c r="AS116">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT116">
         <v>1.92</v>
@@ -23907,7 +23910,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -24098,7 +24101,7 @@
         <v>112</v>
       </c>
       <c r="P121" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -25244,7 +25247,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25435,7 +25438,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -26008,7 +26011,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -26289,7 +26292,7 @@
         <v>0.91</v>
       </c>
       <c r="AT132">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU132">
         <v>1.18</v>
@@ -26390,7 +26393,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -26581,7 +26584,7 @@
         <v>163</v>
       </c>
       <c r="P134" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26772,7 +26775,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26859,7 +26862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT135">
         <v>1.36</v>
@@ -27154,7 +27157,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27536,7 +27539,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27727,7 +27730,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28581,7 +28584,7 @@
         <v>2.42</v>
       </c>
       <c r="AT144">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU144">
         <v>1.51</v>
@@ -29064,7 +29067,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29446,7 +29449,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29533,7 +29536,7 @@
         <v>0.8</v>
       </c>
       <c r="AS149">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT149">
         <v>0.73</v>
@@ -29637,7 +29640,7 @@
         <v>171</v>
       </c>
       <c r="P150" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29828,7 +29831,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30019,7 +30022,7 @@
         <v>173</v>
       </c>
       <c r="P152" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30974,7 +30977,7 @@
         <v>81</v>
       </c>
       <c r="P157" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q157">
         <v>5</v>
@@ -31738,7 +31741,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -31880,6 +31883,197 @@
       </c>
       <c r="BK161">
         <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>3157452</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>44981.625</v>
+      </c>
+      <c r="F162">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s">
+        <v>65</v>
+      </c>
+      <c r="H162" t="s">
+        <v>67</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>181</v>
+      </c>
+      <c r="P162" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q162">
+        <v>3</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>5</v>
+      </c>
+      <c r="T162">
+        <v>2.1</v>
+      </c>
+      <c r="U162">
+        <v>2.2</v>
+      </c>
+      <c r="V162">
+        <v>7</v>
+      </c>
+      <c r="W162">
+        <v>1.44</v>
+      </c>
+      <c r="X162">
+        <v>2.63</v>
+      </c>
+      <c r="Y162">
+        <v>3.25</v>
+      </c>
+      <c r="Z162">
+        <v>1.33</v>
+      </c>
+      <c r="AA162">
+        <v>9</v>
+      </c>
+      <c r="AB162">
+        <v>1.07</v>
+      </c>
+      <c r="AC162">
+        <v>1.45</v>
+      </c>
+      <c r="AD162">
+        <v>4.15</v>
+      </c>
+      <c r="AE162">
+        <v>6.8</v>
+      </c>
+      <c r="AF162">
+        <v>1.05</v>
+      </c>
+      <c r="AG162">
+        <v>10</v>
+      </c>
+      <c r="AH162">
+        <v>1.36</v>
+      </c>
+      <c r="AI162">
+        <v>3.1</v>
+      </c>
+      <c r="AJ162">
+        <v>1.86</v>
+      </c>
+      <c r="AK162">
+        <v>1.69</v>
+      </c>
+      <c r="AL162">
+        <v>2.2</v>
+      </c>
+      <c r="AM162">
+        <v>1.62</v>
+      </c>
+      <c r="AN162">
+        <v>1.1</v>
+      </c>
+      <c r="AO162">
+        <v>1.21</v>
+      </c>
+      <c r="AP162">
+        <v>2.6</v>
+      </c>
+      <c r="AQ162">
+        <v>1.45</v>
+      </c>
+      <c r="AR162">
+        <v>0.45</v>
+      </c>
+      <c r="AS162">
+        <v>1.42</v>
+      </c>
+      <c r="AT162">
+        <v>0.5</v>
+      </c>
+      <c r="AU162">
+        <v>1.29</v>
+      </c>
+      <c r="AV162">
+        <v>1.06</v>
+      </c>
+      <c r="AW162">
+        <v>2.35</v>
+      </c>
+      <c r="AX162">
+        <v>1.19</v>
+      </c>
+      <c r="AY162">
+        <v>10</v>
+      </c>
+      <c r="AZ162">
+        <v>5.7</v>
+      </c>
+      <c r="BA162">
+        <v>1.38</v>
+      </c>
+      <c r="BB162">
+        <v>1.7</v>
+      </c>
+      <c r="BC162">
+        <v>2.2</v>
+      </c>
+      <c r="BD162">
+        <v>3.1</v>
+      </c>
+      <c r="BE162">
+        <v>3.8</v>
+      </c>
+      <c r="BF162">
+        <v>5</v>
+      </c>
+      <c r="BG162">
+        <v>4</v>
+      </c>
+      <c r="BH162">
+        <v>6</v>
+      </c>
+      <c r="BI162">
+        <v>7</v>
+      </c>
+      <c r="BJ162">
+        <v>11</v>
+      </c>
+      <c r="BK162">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['32', '76']</t>
   </si>
   <si>
     <t>['27', '68', '90+9']</t>
@@ -1128,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1375,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1462,7 +1465,7 @@
         <v>1.42</v>
       </c>
       <c r="AT2">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1754,7 +1757,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2605,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT8">
         <v>0.67</v>
@@ -2900,7 +2903,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2987,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT10">
         <v>0.5</v>
@@ -3091,7 +3094,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3178,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT11">
         <v>1.58</v>
@@ -3282,7 +3285,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3473,7 +3476,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3563,7 +3566,7 @@
         <v>0.83</v>
       </c>
       <c r="AT13">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4136,7 +4139,7 @@
         <v>0.58</v>
       </c>
       <c r="AT16">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU16">
         <v>0.61</v>
@@ -4237,7 +4240,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4324,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT17">
         <v>0.58</v>
@@ -4810,7 +4813,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5088,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT21">
         <v>0.67</v>
@@ -5282,7 +5285,7 @@
         <v>2.09</v>
       </c>
       <c r="AT22">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU22">
         <v>1.55</v>
@@ -5383,7 +5386,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5661,7 +5664,7 @@
         <v>0.33</v>
       </c>
       <c r="AS24">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT24">
         <v>0.25</v>
@@ -5765,7 +5768,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5956,7 +5959,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6043,7 +6046,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT26">
         <v>1.58</v>
@@ -6147,7 +6150,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6338,7 +6341,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6911,7 +6914,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7293,7 +7296,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7383,7 +7386,7 @@
         <v>0.91</v>
       </c>
       <c r="AT33">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7484,7 +7487,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7574,7 +7577,7 @@
         <v>0.83</v>
       </c>
       <c r="AT34">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU34">
         <v>0.96</v>
@@ -7675,7 +7678,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8526,7 +8529,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT39">
         <v>0.73</v>
@@ -8821,7 +8824,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8911,7 +8914,7 @@
         <v>2.25</v>
       </c>
       <c r="AT41">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU41">
         <v>1.96</v>
@@ -9012,7 +9015,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9099,7 +9102,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT42">
         <v>1.36</v>
@@ -9290,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT43">
         <v>0.58</v>
@@ -9394,7 +9397,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9585,7 +9588,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9776,7 +9779,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9967,7 +9970,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10057,7 +10060,7 @@
         <v>0.91</v>
       </c>
       <c r="AT47">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU47">
         <v>1.2</v>
@@ -10248,7 +10251,7 @@
         <v>2.42</v>
       </c>
       <c r="AT48">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU48">
         <v>1.12</v>
@@ -10349,7 +10352,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10540,7 +10543,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10731,7 +10734,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -11200,7 +11203,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT53">
         <v>0.73</v>
@@ -11304,7 +11307,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11391,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT54">
         <v>1.18</v>
@@ -11495,7 +11498,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11585,7 +11588,7 @@
         <v>0.58</v>
       </c>
       <c r="AT55">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU55">
         <v>1.21</v>
@@ -11877,7 +11880,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11964,10 +11967,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT57">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -12068,7 +12071,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12259,7 +12262,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12450,7 +12453,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12832,7 +12835,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -12922,7 +12925,7 @@
         <v>2.25</v>
       </c>
       <c r="AT62">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU62">
         <v>1.84</v>
@@ -13023,7 +13026,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13405,7 +13408,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13596,7 +13599,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13686,7 +13689,7 @@
         <v>1.42</v>
       </c>
       <c r="AT66">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13874,7 +13877,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT67">
         <v>0.5</v>
@@ -13978,7 +13981,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14256,10 +14259,10 @@
         <v>1.5</v>
       </c>
       <c r="AS69">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT69">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU69">
         <v>2.5</v>
@@ -14360,7 +14363,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14638,10 +14641,10 @@
         <v>0.8</v>
       </c>
       <c r="AS71">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU71">
         <v>1.71</v>
@@ -14742,7 +14745,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14933,7 +14936,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -16270,7 +16273,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16360,7 +16363,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU80">
         <v>0.92</v>
@@ -16551,7 +16554,7 @@
         <v>1.82</v>
       </c>
       <c r="AT81">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU81">
         <v>1.28</v>
@@ -16739,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT82">
         <v>1.18</v>
@@ -17225,7 +17228,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17315,7 +17318,7 @@
         <v>0.73</v>
       </c>
       <c r="AT85">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU85">
         <v>1.74</v>
@@ -17416,7 +17419,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17503,7 +17506,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT86">
         <v>0.92</v>
@@ -17798,7 +17801,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18076,7 +18079,7 @@
         <v>2.17</v>
       </c>
       <c r="AS89">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT89">
         <v>1.82</v>
@@ -18562,7 +18565,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19031,7 +19034,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT94">
         <v>0.5</v>
@@ -19326,7 +19329,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19413,7 +19416,7 @@
         <v>1.83</v>
       </c>
       <c r="AS96">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT96">
         <v>1.92</v>
@@ -19517,7 +19520,7 @@
         <v>126</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19607,7 +19610,7 @@
         <v>0.73</v>
       </c>
       <c r="AT97">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU97">
         <v>1.58</v>
@@ -19899,7 +19902,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -19989,7 +19992,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU99">
         <v>0.89</v>
@@ -20368,10 +20371,10 @@
         <v>0.57</v>
       </c>
       <c r="AS101">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT101">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU101">
         <v>1.65</v>
@@ -20472,7 +20475,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20663,7 +20666,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20753,7 +20756,7 @@
         <v>1.82</v>
       </c>
       <c r="AT103">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU103">
         <v>1.3</v>
@@ -21618,7 +21621,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21708,7 +21711,7 @@
         <v>0.91</v>
       </c>
       <c r="AT108">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU108">
         <v>1.16</v>
@@ -21809,7 +21812,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -21896,7 +21899,7 @@
         <v>2.13</v>
       </c>
       <c r="AS109">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT109">
         <v>1.82</v>
@@ -22000,7 +22003,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22764,7 +22767,7 @@
         <v>155</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22955,7 +22958,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23045,7 +23048,7 @@
         <v>0.58</v>
       </c>
       <c r="AT115">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU115">
         <v>1.22</v>
@@ -23146,7 +23149,7 @@
         <v>81</v>
       </c>
       <c r="P116" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23618,7 +23621,7 @@
         <v>2.09</v>
       </c>
       <c r="AT118">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU118">
         <v>1.78</v>
@@ -23806,10 +23809,10 @@
         <v>2.71</v>
       </c>
       <c r="AS119">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT119">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU119">
         <v>2.36</v>
@@ -23910,7 +23913,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -24101,7 +24104,7 @@
         <v>112</v>
       </c>
       <c r="P121" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24570,7 +24573,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT123">
         <v>1.36</v>
@@ -24952,7 +24955,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT125">
         <v>0.92</v>
@@ -25143,10 +25146,10 @@
         <v>2.38</v>
       </c>
       <c r="AS126">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT126">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU126">
         <v>1.41</v>
@@ -25247,7 +25250,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25438,7 +25441,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25719,7 +25722,7 @@
         <v>0.83</v>
       </c>
       <c r="AT129">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU129">
         <v>1.49</v>
@@ -26011,7 +26014,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -26393,7 +26396,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -26483,7 +26486,7 @@
         <v>2.42</v>
       </c>
       <c r="AT133">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU133">
         <v>1.57</v>
@@ -26584,7 +26587,7 @@
         <v>163</v>
       </c>
       <c r="P134" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26775,7 +26778,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27053,7 +27056,7 @@
         <v>0.78</v>
       </c>
       <c r="AS136">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT136">
         <v>0.73</v>
@@ -27157,7 +27160,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27244,7 +27247,7 @@
         <v>1.11</v>
       </c>
       <c r="AS137">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT137">
         <v>1.18</v>
@@ -27435,7 +27438,7 @@
         <v>0.89</v>
       </c>
       <c r="AS138">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT138">
         <v>0.92</v>
@@ -27539,7 +27542,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27730,7 +27733,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28011,7 +28014,7 @@
         <v>1.58</v>
       </c>
       <c r="AT141">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU141">
         <v>1.3</v>
@@ -28775,7 +28778,7 @@
         <v>1</v>
       </c>
       <c r="AT145">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU145">
         <v>1.03</v>
@@ -29067,7 +29070,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29345,7 +29348,7 @@
         <v>0.6</v>
       </c>
       <c r="AS148">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT148">
         <v>0.58</v>
@@ -29449,7 +29452,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29640,7 +29643,7 @@
         <v>171</v>
       </c>
       <c r="P150" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29730,7 +29733,7 @@
         <v>2.09</v>
       </c>
       <c r="AT150">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AU150">
         <v>1.72</v>
@@ -29831,7 +29834,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30022,7 +30025,7 @@
         <v>173</v>
       </c>
       <c r="P152" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30112,7 +30115,7 @@
         <v>1.58</v>
       </c>
       <c r="AT152">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU152">
         <v>1.25</v>
@@ -30300,7 +30303,7 @@
         <v>0.3</v>
       </c>
       <c r="AS153">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT153">
         <v>0.25</v>
@@ -30491,7 +30494,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT154">
         <v>1.36</v>
@@ -30977,7 +30980,7 @@
         <v>81</v>
       </c>
       <c r="P157" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q157">
         <v>5</v>
@@ -31741,7 +31744,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -32074,6 +32077,579 @@
       </c>
       <c r="BK162">
         <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>3157450</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>44982.52083333334</v>
+      </c>
+      <c r="F163">
+        <v>24</v>
+      </c>
+      <c r="G163" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" t="s">
+        <v>77</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>182</v>
+      </c>
+      <c r="P163" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q163">
+        <v>12</v>
+      </c>
+      <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>12</v>
+      </c>
+      <c r="T163">
+        <v>1.62</v>
+      </c>
+      <c r="U163">
+        <v>2.5</v>
+      </c>
+      <c r="V163">
+        <v>13</v>
+      </c>
+      <c r="W163">
+        <v>1.36</v>
+      </c>
+      <c r="X163">
+        <v>3</v>
+      </c>
+      <c r="Y163">
+        <v>2.63</v>
+      </c>
+      <c r="Z163">
+        <v>1.44</v>
+      </c>
+      <c r="AA163">
+        <v>7</v>
+      </c>
+      <c r="AB163">
+        <v>1.1</v>
+      </c>
+      <c r="AC163">
+        <v>1.18</v>
+      </c>
+      <c r="AD163">
+        <v>6</v>
+      </c>
+      <c r="AE163">
+        <v>17</v>
+      </c>
+      <c r="AF163">
+        <v>1.03</v>
+      </c>
+      <c r="AG163">
+        <v>13</v>
+      </c>
+      <c r="AH163">
+        <v>1.25</v>
+      </c>
+      <c r="AI163">
+        <v>3.75</v>
+      </c>
+      <c r="AJ163">
+        <v>1.78</v>
+      </c>
+      <c r="AK163">
+        <v>2</v>
+      </c>
+      <c r="AL163">
+        <v>3</v>
+      </c>
+      <c r="AM163">
+        <v>1.36</v>
+      </c>
+      <c r="AN163">
+        <v>1.03</v>
+      </c>
+      <c r="AO163">
+        <v>1.12</v>
+      </c>
+      <c r="AP163">
+        <v>4.33</v>
+      </c>
+      <c r="AQ163">
+        <v>2.73</v>
+      </c>
+      <c r="AR163">
+        <v>0.45</v>
+      </c>
+      <c r="AS163">
+        <v>2.75</v>
+      </c>
+      <c r="AT163">
+        <v>0.42</v>
+      </c>
+      <c r="AU163">
+        <v>2.31</v>
+      </c>
+      <c r="AV163">
+        <v>1.15</v>
+      </c>
+      <c r="AW163">
+        <v>3.46</v>
+      </c>
+      <c r="AX163">
+        <v>1.18</v>
+      </c>
+      <c r="AY163">
+        <v>11</v>
+      </c>
+      <c r="AZ163">
+        <v>6.55</v>
+      </c>
+      <c r="BA163">
+        <v>1.47</v>
+      </c>
+      <c r="BB163">
+        <v>1.9</v>
+      </c>
+      <c r="BC163">
+        <v>2.48</v>
+      </c>
+      <c r="BD163">
+        <v>3.45</v>
+      </c>
+      <c r="BE163">
+        <v>4.5</v>
+      </c>
+      <c r="BF163">
+        <v>10</v>
+      </c>
+      <c r="BG163">
+        <v>0</v>
+      </c>
+      <c r="BH163">
+        <v>18</v>
+      </c>
+      <c r="BI163">
+        <v>0</v>
+      </c>
+      <c r="BJ163">
+        <v>28</v>
+      </c>
+      <c r="BK163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>3157456</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44982.58333333334</v>
+      </c>
+      <c r="F164">
+        <v>24</v>
+      </c>
+      <c r="G164" t="s">
+        <v>73</v>
+      </c>
+      <c r="H164" t="s">
+        <v>68</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" t="s">
+        <v>81</v>
+      </c>
+      <c r="P164" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q164">
+        <v>2</v>
+      </c>
+      <c r="R164">
+        <v>7</v>
+      </c>
+      <c r="S164">
+        <v>9</v>
+      </c>
+      <c r="T164">
+        <v>7</v>
+      </c>
+      <c r="U164">
+        <v>2.2</v>
+      </c>
+      <c r="V164">
+        <v>2.1</v>
+      </c>
+      <c r="W164">
+        <v>1.44</v>
+      </c>
+      <c r="X164">
+        <v>2.63</v>
+      </c>
+      <c r="Y164">
+        <v>3.25</v>
+      </c>
+      <c r="Z164">
+        <v>1.33</v>
+      </c>
+      <c r="AA164">
+        <v>9</v>
+      </c>
+      <c r="AB164">
+        <v>1.07</v>
+      </c>
+      <c r="AC164">
+        <v>7.25</v>
+      </c>
+      <c r="AD164">
+        <v>3.9</v>
+      </c>
+      <c r="AE164">
+        <v>1.53</v>
+      </c>
+      <c r="AF164">
+        <v>1.03</v>
+      </c>
+      <c r="AG164">
+        <v>8</v>
+      </c>
+      <c r="AH164">
+        <v>1.34</v>
+      </c>
+      <c r="AI164">
+        <v>2.88</v>
+      </c>
+      <c r="AJ164">
+        <v>1.81</v>
+      </c>
+      <c r="AK164">
+        <v>1.73</v>
+      </c>
+      <c r="AL164">
+        <v>2.2</v>
+      </c>
+      <c r="AM164">
+        <v>1.62</v>
+      </c>
+      <c r="AN164">
+        <v>2.45</v>
+      </c>
+      <c r="AO164">
+        <v>1.23</v>
+      </c>
+      <c r="AP164">
+        <v>1.12</v>
+      </c>
+      <c r="AQ164">
+        <v>1.27</v>
+      </c>
+      <c r="AR164">
+        <v>1.82</v>
+      </c>
+      <c r="AS164">
+        <v>1.25</v>
+      </c>
+      <c r="AT164">
+        <v>1.75</v>
+      </c>
+      <c r="AU164">
+        <v>1.36</v>
+      </c>
+      <c r="AV164">
+        <v>1.43</v>
+      </c>
+      <c r="AW164">
+        <v>2.79</v>
+      </c>
+      <c r="AX164">
+        <v>3.58</v>
+      </c>
+      <c r="AY164">
+        <v>8.5</v>
+      </c>
+      <c r="AZ164">
+        <v>1.41</v>
+      </c>
+      <c r="BA164">
+        <v>1.38</v>
+      </c>
+      <c r="BB164">
+        <v>1.72</v>
+      </c>
+      <c r="BC164">
+        <v>2.25</v>
+      </c>
+      <c r="BD164">
+        <v>3.1</v>
+      </c>
+      <c r="BE164">
+        <v>4.3</v>
+      </c>
+      <c r="BF164">
+        <v>3</v>
+      </c>
+      <c r="BG164">
+        <v>5</v>
+      </c>
+      <c r="BH164">
+        <v>3</v>
+      </c>
+      <c r="BI164">
+        <v>8</v>
+      </c>
+      <c r="BJ164">
+        <v>6</v>
+      </c>
+      <c r="BK164">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>3157455</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>44982.64583333334</v>
+      </c>
+      <c r="F165">
+        <v>24</v>
+      </c>
+      <c r="G165" t="s">
+        <v>71</v>
+      </c>
+      <c r="H165" t="s">
+        <v>69</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165" t="s">
+        <v>81</v>
+      </c>
+      <c r="P165" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q165">
+        <v>7</v>
+      </c>
+      <c r="R165">
+        <v>1</v>
+      </c>
+      <c r="S165">
+        <v>8</v>
+      </c>
+      <c r="T165">
+        <v>2.63</v>
+      </c>
+      <c r="U165">
+        <v>2</v>
+      </c>
+      <c r="V165">
+        <v>5</v>
+      </c>
+      <c r="W165">
+        <v>1.53</v>
+      </c>
+      <c r="X165">
+        <v>2.38</v>
+      </c>
+      <c r="Y165">
+        <v>3.5</v>
+      </c>
+      <c r="Z165">
+        <v>1.29</v>
+      </c>
+      <c r="AA165">
+        <v>11</v>
+      </c>
+      <c r="AB165">
+        <v>1.05</v>
+      </c>
+      <c r="AC165">
+        <v>1.9</v>
+      </c>
+      <c r="AD165">
+        <v>3.35</v>
+      </c>
+      <c r="AE165">
+        <v>4.5</v>
+      </c>
+      <c r="AF165">
+        <v>1.1</v>
+      </c>
+      <c r="AG165">
+        <v>7.5</v>
+      </c>
+      <c r="AH165">
+        <v>1.53</v>
+      </c>
+      <c r="AI165">
+        <v>2.45</v>
+      </c>
+      <c r="AJ165">
+        <v>2.19</v>
+      </c>
+      <c r="AK165">
+        <v>1.58</v>
+      </c>
+      <c r="AL165">
+        <v>2.2</v>
+      </c>
+      <c r="AM165">
+        <v>1.62</v>
+      </c>
+      <c r="AN165">
+        <v>1.22</v>
+      </c>
+      <c r="AO165">
+        <v>1.32</v>
+      </c>
+      <c r="AP165">
+        <v>1.83</v>
+      </c>
+      <c r="AQ165">
+        <v>2.36</v>
+      </c>
+      <c r="AR165">
+        <v>2.27</v>
+      </c>
+      <c r="AS165">
+        <v>2.25</v>
+      </c>
+      <c r="AT165">
+        <v>2.17</v>
+      </c>
+      <c r="AU165">
+        <v>1.79</v>
+      </c>
+      <c r="AV165">
+        <v>1.29</v>
+      </c>
+      <c r="AW165">
+        <v>3.08</v>
+      </c>
+      <c r="AX165">
+        <v>1.85</v>
+      </c>
+      <c r="AY165">
+        <v>7.5</v>
+      </c>
+      <c r="AZ165">
+        <v>2.33</v>
+      </c>
+      <c r="BA165">
+        <v>1.47</v>
+      </c>
+      <c r="BB165">
+        <v>1.85</v>
+      </c>
+      <c r="BC165">
+        <v>2.48</v>
+      </c>
+      <c r="BD165">
+        <v>3.45</v>
+      </c>
+      <c r="BE165">
+        <v>4.5</v>
+      </c>
+      <c r="BF165">
+        <v>8</v>
+      </c>
+      <c r="BG165">
+        <v>0</v>
+      </c>
+      <c r="BH165">
+        <v>10</v>
+      </c>
+      <c r="BI165">
+        <v>8</v>
+      </c>
+      <c r="BJ165">
+        <v>18</v>
+      </c>
+      <c r="BK165">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,9 @@
     <t>['32', '76']</t>
   </si>
   <si>
+    <t>['8', '27']</t>
+  </si>
+  <si>
     <t>['27', '68', '90+9']</t>
   </si>
   <si>
@@ -770,6 +773,9 @@
   </si>
   <si>
     <t>['10', '30', '90']</t>
+  </si>
+  <si>
+    <t>['83', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK165"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1381,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1656,7 +1662,7 @@
         <v>1.82</v>
       </c>
       <c r="AT3">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1757,7 +1763,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2038,7 +2044,7 @@
         <v>2.25</v>
       </c>
       <c r="AT5">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2417,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT7">
         <v>0.25</v>
@@ -2799,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT9">
         <v>0.25</v>
@@ -2903,7 +2909,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3094,7 +3100,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3285,7 +3291,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3476,7 +3482,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3757,7 +3763,7 @@
         <v>2.25</v>
       </c>
       <c r="AT14">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU14">
         <v>2.32</v>
@@ -4240,7 +4246,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4712,7 +4718,7 @@
         <v>1.82</v>
       </c>
       <c r="AT19">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU19">
         <v>1.3</v>
@@ -4813,7 +4819,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4903,7 +4909,7 @@
         <v>1.42</v>
       </c>
       <c r="AT20">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU20">
         <v>1.54</v>
@@ -5282,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT22">
         <v>1.75</v>
@@ -5386,7 +5392,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5476,7 +5482,7 @@
         <v>0.83</v>
       </c>
       <c r="AT23">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5768,7 +5774,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5855,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT25">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU25">
         <v>1.79</v>
@@ -5959,7 +5965,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6150,7 +6156,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6341,7 +6347,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6914,7 +6920,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7296,7 +7302,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7383,7 +7389,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT33">
         <v>0.42</v>
@@ -7487,7 +7493,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7678,7 +7684,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7765,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT35">
         <v>1.92</v>
@@ -8341,7 +8347,7 @@
         <v>1.58</v>
       </c>
       <c r="AT38">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU38">
         <v>1.24</v>
@@ -8532,7 +8538,7 @@
         <v>2.25</v>
       </c>
       <c r="AT39">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU39">
         <v>1.84</v>
@@ -8824,7 +8830,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9015,7 +9021,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9105,7 +9111,7 @@
         <v>1.25</v>
       </c>
       <c r="AT42">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU42">
         <v>1.73</v>
@@ -9397,7 +9403,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9588,7 +9594,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9675,7 +9681,7 @@
         <v>0.67</v>
       </c>
       <c r="AS45">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT45">
         <v>0.5</v>
@@ -9779,7 +9785,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9970,7 +9976,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10057,7 +10063,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT47">
         <v>1.75</v>
@@ -10352,7 +10358,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10439,7 +10445,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT49">
         <v>1.82</v>
@@ -10543,7 +10549,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10734,7 +10740,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -11012,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT52">
         <v>0.58</v>
@@ -11206,7 +11212,7 @@
         <v>2.75</v>
       </c>
       <c r="AT53">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU53">
         <v>2.19</v>
@@ -11307,7 +11313,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11397,7 +11403,7 @@
         <v>1.25</v>
       </c>
       <c r="AT54">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU54">
         <v>1.81</v>
@@ -11498,7 +11504,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11779,7 +11785,7 @@
         <v>1.58</v>
       </c>
       <c r="AT56">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU56">
         <v>1.22</v>
@@ -11880,7 +11886,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12071,7 +12077,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12262,7 +12268,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12453,7 +12459,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12540,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT60">
         <v>0.67</v>
@@ -12835,7 +12841,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13026,7 +13032,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13113,7 +13119,7 @@
         <v>2.25</v>
       </c>
       <c r="AS63">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT63">
         <v>1.82</v>
@@ -13408,7 +13414,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13495,10 +13501,10 @@
         <v>1.6</v>
       </c>
       <c r="AS65">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT65">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU65">
         <v>1.71</v>
@@ -13599,7 +13605,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13981,7 +13987,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14068,10 +14074,10 @@
         <v>0.75</v>
       </c>
       <c r="AS68">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT68">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU68">
         <v>1.03</v>
@@ -14363,7 +14369,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14450,10 +14456,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT70">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU70">
         <v>1.46</v>
@@ -14745,7 +14751,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14936,7 +14942,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -16169,7 +16175,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT79">
         <v>0.5</v>
@@ -16273,7 +16279,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16745,7 +16751,7 @@
         <v>2.75</v>
       </c>
       <c r="AT82">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU82">
         <v>2.41</v>
@@ -16933,7 +16939,7 @@
         <v>1.6</v>
       </c>
       <c r="AS83">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT83">
         <v>1.92</v>
@@ -17228,7 +17234,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17315,7 +17321,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT85">
         <v>1.75</v>
@@ -17419,7 +17425,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17700,7 +17706,7 @@
         <v>2.42</v>
       </c>
       <c r="AT87">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU87">
         <v>1.32</v>
@@ -17801,7 +17807,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17891,7 +17897,7 @@
         <v>0.58</v>
       </c>
       <c r="AT88">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU88">
         <v>1.25</v>
@@ -18565,7 +18571,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18843,7 +18849,7 @@
         <v>1.17</v>
       </c>
       <c r="AS93">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT93">
         <v>0.92</v>
@@ -19329,7 +19335,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19520,7 +19526,7 @@
         <v>126</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19607,7 +19613,7 @@
         <v>3</v>
       </c>
       <c r="AS97">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT97">
         <v>2.17</v>
@@ -19801,7 +19807,7 @@
         <v>0.83</v>
       </c>
       <c r="AT98">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU98">
         <v>1.21</v>
@@ -19902,7 +19908,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20180,7 +20186,7 @@
         <v>0.43</v>
       </c>
       <c r="AS100">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT100">
         <v>0.58</v>
@@ -20475,7 +20481,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20666,7 +20672,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20947,7 +20953,7 @@
         <v>2.42</v>
       </c>
       <c r="AT104">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU104">
         <v>1.47</v>
@@ -21135,10 +21141,10 @@
         <v>1.71</v>
       </c>
       <c r="AS105">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT105">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU105">
         <v>1.67</v>
@@ -21621,7 +21627,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21708,7 +21714,7 @@
         <v>2.67</v>
       </c>
       <c r="AS108">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT108">
         <v>2.17</v>
@@ -21812,7 +21818,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -22003,7 +22009,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22090,7 +22096,7 @@
         <v>1.71</v>
       </c>
       <c r="AS110">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT110">
         <v>1.92</v>
@@ -22475,7 +22481,7 @@
         <v>1</v>
       </c>
       <c r="AT112">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU112">
         <v>0.91</v>
@@ -22767,7 +22773,7 @@
         <v>155</v>
       </c>
       <c r="P114" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22854,7 +22860,7 @@
         <v>0.25</v>
       </c>
       <c r="AS114">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT114">
         <v>0.67</v>
@@ -22958,7 +22964,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23149,7 +23155,7 @@
         <v>81</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23618,7 +23624,7 @@
         <v>0.5</v>
       </c>
       <c r="AS118">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT118">
         <v>0.42</v>
@@ -23913,7 +23919,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -24003,7 +24009,7 @@
         <v>1</v>
       </c>
       <c r="AT120">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU120">
         <v>1.05</v>
@@ -24104,7 +24110,7 @@
         <v>112</v>
       </c>
       <c r="P121" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24194,7 +24200,7 @@
         <v>0.58</v>
       </c>
       <c r="AT121">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU121">
         <v>1.12</v>
@@ -24385,7 +24391,7 @@
         <v>2.25</v>
       </c>
       <c r="AT122">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU122">
         <v>1.85</v>
@@ -24576,7 +24582,7 @@
         <v>2.75</v>
       </c>
       <c r="AT123">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU123">
         <v>2.27</v>
@@ -25250,7 +25256,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25337,7 +25343,7 @@
         <v>1.63</v>
       </c>
       <c r="AS127">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT127">
         <v>1.58</v>
@@ -25441,7 +25447,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25910,7 +25916,7 @@
         <v>1.78</v>
       </c>
       <c r="AS130">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT130">
         <v>1.58</v>
@@ -26014,7 +26020,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -26101,7 +26107,7 @@
         <v>1.89</v>
       </c>
       <c r="AS131">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT131">
         <v>1.82</v>
@@ -26292,7 +26298,7 @@
         <v>0.44</v>
       </c>
       <c r="AS132">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT132">
         <v>0.5</v>
@@ -26396,7 +26402,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -26587,7 +26593,7 @@
         <v>163</v>
       </c>
       <c r="P134" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26778,7 +26784,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26868,7 +26874,7 @@
         <v>1.42</v>
       </c>
       <c r="AT135">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU135">
         <v>1.3</v>
@@ -27059,7 +27065,7 @@
         <v>1.25</v>
       </c>
       <c r="AT136">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU136">
         <v>1.34</v>
@@ -27160,7 +27166,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27250,7 +27256,7 @@
         <v>2.25</v>
       </c>
       <c r="AT137">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU137">
         <v>1.69</v>
@@ -27542,7 +27548,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27733,7 +27739,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28393,7 +28399,7 @@
         <v>0.8</v>
       </c>
       <c r="AS143">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT143">
         <v>0.92</v>
@@ -29070,7 +29076,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29157,7 +29163,7 @@
         <v>1.6</v>
       </c>
       <c r="AS147">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT147">
         <v>1.58</v>
@@ -29452,7 +29458,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29542,7 +29548,7 @@
         <v>1.42</v>
       </c>
       <c r="AT149">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU149">
         <v>1.3</v>
@@ -29643,7 +29649,7 @@
         <v>171</v>
       </c>
       <c r="P150" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29730,7 +29736,7 @@
         <v>2.2</v>
       </c>
       <c r="AS150">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT150">
         <v>2.17</v>
@@ -29834,7 +29840,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -29924,7 +29930,7 @@
         <v>0.58</v>
       </c>
       <c r="AT151">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU151">
         <v>1.16</v>
@@ -30025,7 +30031,7 @@
         <v>173</v>
       </c>
       <c r="P152" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30497,7 +30503,7 @@
         <v>2.25</v>
       </c>
       <c r="AT154">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU154">
         <v>1.8</v>
@@ -30980,7 +30986,7 @@
         <v>81</v>
       </c>
       <c r="P157" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q157">
         <v>5</v>
@@ -31744,7 +31750,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -32650,6 +32656,579 @@
       </c>
       <c r="BK165">
         <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>3157453</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F166">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s">
+        <v>72</v>
+      </c>
+      <c r="H166" t="s">
+        <v>76</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166" t="s">
+        <v>81</v>
+      </c>
+      <c r="P166" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q166">
+        <v>3</v>
+      </c>
+      <c r="R166">
+        <v>5</v>
+      </c>
+      <c r="S166">
+        <v>8</v>
+      </c>
+      <c r="T166">
+        <v>3.6</v>
+      </c>
+      <c r="U166">
+        <v>2</v>
+      </c>
+      <c r="V166">
+        <v>3.25</v>
+      </c>
+      <c r="W166">
+        <v>1.5</v>
+      </c>
+      <c r="X166">
+        <v>2.5</v>
+      </c>
+      <c r="Y166">
+        <v>3.4</v>
+      </c>
+      <c r="Z166">
+        <v>1.3</v>
+      </c>
+      <c r="AA166">
+        <v>10</v>
+      </c>
+      <c r="AB166">
+        <v>1.06</v>
+      </c>
+      <c r="AC166">
+        <v>2.7</v>
+      </c>
+      <c r="AD166">
+        <v>3</v>
+      </c>
+      <c r="AE166">
+        <v>2.75</v>
+      </c>
+      <c r="AF166">
+        <v>1.08</v>
+      </c>
+      <c r="AG166">
+        <v>8</v>
+      </c>
+      <c r="AH166">
+        <v>1.42</v>
+      </c>
+      <c r="AI166">
+        <v>2.8</v>
+      </c>
+      <c r="AJ166">
+        <v>2.25</v>
+      </c>
+      <c r="AK166">
+        <v>1.58</v>
+      </c>
+      <c r="AL166">
+        <v>1.95</v>
+      </c>
+      <c r="AM166">
+        <v>1.8</v>
+      </c>
+      <c r="AN166">
+        <v>1.46</v>
+      </c>
+      <c r="AO166">
+        <v>1.32</v>
+      </c>
+      <c r="AP166">
+        <v>1.46</v>
+      </c>
+      <c r="AQ166">
+        <v>0.73</v>
+      </c>
+      <c r="AR166">
+        <v>1.18</v>
+      </c>
+      <c r="AS166">
+        <v>0.67</v>
+      </c>
+      <c r="AT166">
+        <v>1.33</v>
+      </c>
+      <c r="AU166">
+        <v>1.3</v>
+      </c>
+      <c r="AV166">
+        <v>1.08</v>
+      </c>
+      <c r="AW166">
+        <v>2.38</v>
+      </c>
+      <c r="AX166">
+        <v>1.91</v>
+      </c>
+      <c r="AY166">
+        <v>7.5</v>
+      </c>
+      <c r="AZ166">
+        <v>2.2</v>
+      </c>
+      <c r="BA166">
+        <v>1.46</v>
+      </c>
+      <c r="BB166">
+        <v>1.9</v>
+      </c>
+      <c r="BC166">
+        <v>2.45</v>
+      </c>
+      <c r="BD166">
+        <v>3.5</v>
+      </c>
+      <c r="BE166">
+        <v>4.5</v>
+      </c>
+      <c r="BF166">
+        <v>5</v>
+      </c>
+      <c r="BG166">
+        <v>5</v>
+      </c>
+      <c r="BH166">
+        <v>8</v>
+      </c>
+      <c r="BI166">
+        <v>6</v>
+      </c>
+      <c r="BJ166">
+        <v>13</v>
+      </c>
+      <c r="BK166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>3157454</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F167">
+        <v>24</v>
+      </c>
+      <c r="G167" t="s">
+        <v>78</v>
+      </c>
+      <c r="H167" t="s">
+        <v>75</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>81</v>
+      </c>
+      <c r="P167" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q167">
+        <v>4</v>
+      </c>
+      <c r="R167">
+        <v>3</v>
+      </c>
+      <c r="S167">
+        <v>7</v>
+      </c>
+      <c r="T167">
+        <v>3.1</v>
+      </c>
+      <c r="U167">
+        <v>1.95</v>
+      </c>
+      <c r="V167">
+        <v>4</v>
+      </c>
+      <c r="W167">
+        <v>1.53</v>
+      </c>
+      <c r="X167">
+        <v>2.38</v>
+      </c>
+      <c r="Y167">
+        <v>3.75</v>
+      </c>
+      <c r="Z167">
+        <v>1.25</v>
+      </c>
+      <c r="AA167">
+        <v>11</v>
+      </c>
+      <c r="AB167">
+        <v>1.05</v>
+      </c>
+      <c r="AC167">
+        <v>2.55</v>
+      </c>
+      <c r="AD167">
+        <v>3.1</v>
+      </c>
+      <c r="AE167">
+        <v>2.75</v>
+      </c>
+      <c r="AF167">
+        <v>1.08</v>
+      </c>
+      <c r="AG167">
+        <v>6.5</v>
+      </c>
+      <c r="AH167">
+        <v>1.44</v>
+      </c>
+      <c r="AI167">
+        <v>2.6</v>
+      </c>
+      <c r="AJ167">
+        <v>2.3</v>
+      </c>
+      <c r="AK167">
+        <v>1.58</v>
+      </c>
+      <c r="AL167">
+        <v>2.05</v>
+      </c>
+      <c r="AM167">
+        <v>1.7</v>
+      </c>
+      <c r="AN167">
+        <v>1.35</v>
+      </c>
+      <c r="AO167">
+        <v>1.33</v>
+      </c>
+      <c r="AP167">
+        <v>1.58</v>
+      </c>
+      <c r="AQ167">
+        <v>0.91</v>
+      </c>
+      <c r="AR167">
+        <v>1.36</v>
+      </c>
+      <c r="AS167">
+        <v>0.92</v>
+      </c>
+      <c r="AT167">
+        <v>1.33</v>
+      </c>
+      <c r="AU167">
+        <v>1.2</v>
+      </c>
+      <c r="AV167">
+        <v>0.87</v>
+      </c>
+      <c r="AW167">
+        <v>2.07</v>
+      </c>
+      <c r="AX167">
+        <v>1.82</v>
+      </c>
+      <c r="AY167">
+        <v>7.5</v>
+      </c>
+      <c r="AZ167">
+        <v>2.42</v>
+      </c>
+      <c r="BA167">
+        <v>1.46</v>
+      </c>
+      <c r="BB167">
+        <v>1.88</v>
+      </c>
+      <c r="BC167">
+        <v>2.45</v>
+      </c>
+      <c r="BD167">
+        <v>3.5</v>
+      </c>
+      <c r="BE167">
+        <v>4.5</v>
+      </c>
+      <c r="BF167">
+        <v>5</v>
+      </c>
+      <c r="BG167">
+        <v>2</v>
+      </c>
+      <c r="BH167">
+        <v>4</v>
+      </c>
+      <c r="BI167">
+        <v>3</v>
+      </c>
+      <c r="BJ167">
+        <v>9</v>
+      </c>
+      <c r="BK167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>3157451</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>44983.60416666666</v>
+      </c>
+      <c r="F168">
+        <v>24</v>
+      </c>
+      <c r="G168" t="s">
+        <v>70</v>
+      </c>
+      <c r="H168" t="s">
+        <v>66</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>183</v>
+      </c>
+      <c r="P168" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q168">
+        <v>3</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>5</v>
+      </c>
+      <c r="T168">
+        <v>2.1</v>
+      </c>
+      <c r="U168">
+        <v>2.1</v>
+      </c>
+      <c r="V168">
+        <v>7</v>
+      </c>
+      <c r="W168">
+        <v>1.44</v>
+      </c>
+      <c r="X168">
+        <v>2.63</v>
+      </c>
+      <c r="Y168">
+        <v>3.25</v>
+      </c>
+      <c r="Z168">
+        <v>1.33</v>
+      </c>
+      <c r="AA168">
+        <v>10</v>
+      </c>
+      <c r="AB168">
+        <v>1.06</v>
+      </c>
+      <c r="AC168">
+        <v>1.75</v>
+      </c>
+      <c r="AD168">
+        <v>3.4</v>
+      </c>
+      <c r="AE168">
+        <v>5.25</v>
+      </c>
+      <c r="AF168">
+        <v>1.08</v>
+      </c>
+      <c r="AG168">
+        <v>8</v>
+      </c>
+      <c r="AH168">
+        <v>1.4</v>
+      </c>
+      <c r="AI168">
+        <v>2.95</v>
+      </c>
+      <c r="AJ168">
+        <v>2.25</v>
+      </c>
+      <c r="AK168">
+        <v>1.53</v>
+      </c>
+      <c r="AL168">
+        <v>2.25</v>
+      </c>
+      <c r="AM168">
+        <v>1.57</v>
+      </c>
+      <c r="AN168">
+        <v>1.11</v>
+      </c>
+      <c r="AO168">
+        <v>1.24</v>
+      </c>
+      <c r="AP168">
+        <v>2.45</v>
+      </c>
+      <c r="AQ168">
+        <v>2.09</v>
+      </c>
+      <c r="AR168">
+        <v>0.73</v>
+      </c>
+      <c r="AS168">
+        <v>2.17</v>
+      </c>
+      <c r="AT168">
+        <v>0.67</v>
+      </c>
+      <c r="AU168">
+        <v>1.65</v>
+      </c>
+      <c r="AV168">
+        <v>1.02</v>
+      </c>
+      <c r="AW168">
+        <v>2.67</v>
+      </c>
+      <c r="AX168">
+        <v>1.31</v>
+      </c>
+      <c r="AY168">
+        <v>9</v>
+      </c>
+      <c r="AZ168">
+        <v>4.42</v>
+      </c>
+      <c r="BA168">
+        <v>1.41</v>
+      </c>
+      <c r="BB168">
+        <v>1.75</v>
+      </c>
+      <c r="BC168">
+        <v>2.35</v>
+      </c>
+      <c r="BD168">
+        <v>3.25</v>
+      </c>
+      <c r="BE168">
+        <v>4.3</v>
+      </c>
+      <c r="BF168">
+        <v>8</v>
+      </c>
+      <c r="BG168">
+        <v>3</v>
+      </c>
+      <c r="BH168">
+        <v>11</v>
+      </c>
+      <c r="BI168">
+        <v>8</v>
+      </c>
+      <c r="BJ168">
+        <v>19</v>
+      </c>
+      <c r="BK168">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,18 @@
     <t>['8', '27']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['2', '38', '49', '58', '86', '88']</t>
+  </si>
+  <si>
+    <t>['15', '26']</t>
+  </si>
+  <si>
+    <t>['2', '24', '28', '30', '54', '90+1']</t>
+  </si>
+  <si>
     <t>['27', '68', '90+9']</t>
   </si>
   <si>
@@ -715,9 +727,6 @@
     <t>['35']</t>
   </si>
   <si>
-    <t>['51']</t>
-  </si>
-  <si>
     <t>['34', '40']</t>
   </si>
   <si>
@@ -776,6 +785,18 @@
   </si>
   <si>
     <t>['83', '90+2']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['43', '49', '62']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1402,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1763,7 +1784,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1850,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT4">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2041,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT5">
         <v>1.33</v>
@@ -2235,7 +2256,7 @@
         <v>2.42</v>
       </c>
       <c r="AT6">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2426,7 +2447,7 @@
         <v>2.17</v>
       </c>
       <c r="AT7">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2614,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT8">
         <v>0.67</v>
@@ -2808,7 +2829,7 @@
         <v>0.67</v>
       </c>
       <c r="AT9">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2909,7 +2930,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2996,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT10">
         <v>0.5</v>
@@ -3100,7 +3121,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3190,7 +3211,7 @@
         <v>2.75</v>
       </c>
       <c r="AT11">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3291,7 +3312,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3381,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3482,7 +3503,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3569,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT13">
         <v>2.17</v>
@@ -3760,10 +3781,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT14">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU14">
         <v>2.32</v>
@@ -3951,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT15">
         <v>1.92</v>
@@ -4142,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT16">
         <v>0.42</v>
@@ -4246,7 +4267,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4333,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT17">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU17">
         <v>1.85</v>
@@ -4527,7 +4548,7 @@
         <v>2.42</v>
       </c>
       <c r="AT18">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU18">
         <v>1.27</v>
@@ -4819,7 +4840,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5392,7 +5413,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5479,7 +5500,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT23">
         <v>1.33</v>
@@ -5670,10 +5691,10 @@
         <v>0.33</v>
       </c>
       <c r="AS24">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT24">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU24">
         <v>1.46</v>
@@ -5774,7 +5795,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5864,7 +5885,7 @@
         <v>0.67</v>
       </c>
       <c r="AT25">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU25">
         <v>1.79</v>
@@ -5965,7 +5986,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6052,10 +6073,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT26">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU26">
         <v>1.66</v>
@@ -6156,7 +6177,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6246,7 +6267,7 @@
         <v>2.42</v>
       </c>
       <c r="AT27">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU27">
         <v>1.22</v>
@@ -6347,7 +6368,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6434,10 +6455,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT28">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU28">
         <v>0.66</v>
@@ -6625,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT29">
         <v>0.5</v>
@@ -6920,7 +6941,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7010,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU31">
         <v>1.01</v>
@@ -7302,7 +7323,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7493,7 +7514,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7580,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT34">
         <v>1.75</v>
@@ -7684,7 +7705,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7965,7 +7986,7 @@
         <v>1.42</v>
       </c>
       <c r="AT36">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU36">
         <v>1.45</v>
@@ -8153,10 +8174,10 @@
         <v>0.25</v>
       </c>
       <c r="AS37">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT37">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU37">
         <v>0.61</v>
@@ -8344,7 +8365,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT38">
         <v>1.33</v>
@@ -8535,10 +8556,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT39">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU39">
         <v>1.84</v>
@@ -8729,7 +8750,7 @@
         <v>1.42</v>
       </c>
       <c r="AT40">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU40">
         <v>1.35</v>
@@ -8830,7 +8851,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8917,7 +8938,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT41">
         <v>2.17</v>
@@ -9021,7 +9042,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9108,7 +9129,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT42">
         <v>1.33</v>
@@ -9302,7 +9323,7 @@
         <v>2.75</v>
       </c>
       <c r="AT43">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU43">
         <v>1.82</v>
@@ -9403,7 +9424,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9493,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU44">
         <v>0.77</v>
@@ -9594,7 +9615,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9785,7 +9806,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9872,7 +9893,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT46">
         <v>1.92</v>
@@ -9976,7 +9997,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10358,7 +10379,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10448,7 +10469,7 @@
         <v>2.17</v>
       </c>
       <c r="AT49">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU49">
         <v>1.5</v>
@@ -10549,7 +10570,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10740,7 +10761,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -10830,7 +10851,7 @@
         <v>1.42</v>
       </c>
       <c r="AT51">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU51">
         <v>1.3</v>
@@ -11021,7 +11042,7 @@
         <v>2.17</v>
       </c>
       <c r="AT52">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU52">
         <v>1.38</v>
@@ -11212,7 +11233,7 @@
         <v>2.75</v>
       </c>
       <c r="AT53">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU53">
         <v>2.19</v>
@@ -11313,7 +11334,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11400,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT54">
         <v>1.33</v>
@@ -11504,7 +11525,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11591,7 +11612,7 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT55">
         <v>2.17</v>
@@ -11782,7 +11803,7 @@
         <v>1.75</v>
       </c>
       <c r="AS56">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT56">
         <v>1.33</v>
@@ -11886,7 +11907,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11973,7 +11994,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT57">
         <v>1.75</v>
@@ -12077,7 +12098,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12167,7 +12188,7 @@
         <v>1.82</v>
       </c>
       <c r="AT58">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU58">
         <v>1.42</v>
@@ -12268,7 +12289,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12459,7 +12480,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12740,7 +12761,7 @@
         <v>2.42</v>
       </c>
       <c r="AT61">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU61">
         <v>1.3</v>
@@ -12841,7 +12862,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -12928,7 +12949,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT62">
         <v>0.42</v>
@@ -13032,7 +13053,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13122,7 +13143,7 @@
         <v>0.92</v>
       </c>
       <c r="AT63">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU63">
         <v>1.08</v>
@@ -13310,7 +13331,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT64">
         <v>0.5</v>
@@ -13414,7 +13435,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13605,7 +13626,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13883,7 +13904,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT67">
         <v>0.5</v>
@@ -13987,7 +14008,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14077,7 +14098,7 @@
         <v>0.92</v>
       </c>
       <c r="AT68">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU68">
         <v>1.03</v>
@@ -14369,7 +14390,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14647,7 +14668,7 @@
         <v>0.8</v>
       </c>
       <c r="AS71">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT71">
         <v>0.42</v>
@@ -14751,7 +14772,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14838,10 +14859,10 @@
         <v>2.5</v>
       </c>
       <c r="AS72">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT72">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU72">
         <v>1.03</v>
@@ -14942,7 +14963,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15029,10 +15050,10 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT73">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU73">
         <v>1.13</v>
@@ -15223,7 +15244,7 @@
         <v>1.82</v>
       </c>
       <c r="AT74">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU74">
         <v>1.36</v>
@@ -15411,7 +15432,7 @@
         <v>0.2</v>
       </c>
       <c r="AS75">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT75">
         <v>0.67</v>
@@ -15605,7 +15626,7 @@
         <v>1</v>
       </c>
       <c r="AT76">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU76">
         <v>0.8100000000000001</v>
@@ -15984,10 +16005,10 @@
         <v>2.4</v>
       </c>
       <c r="AS78">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT78">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU78">
         <v>1.13</v>
@@ -16279,7 +16300,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17234,7 +17255,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17425,7 +17446,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17512,10 +17533,10 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT86">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU86">
         <v>1.64</v>
@@ -17706,7 +17727,7 @@
         <v>2.42</v>
       </c>
       <c r="AT87">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU87">
         <v>1.32</v>
@@ -17807,7 +17828,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17894,7 +17915,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT88">
         <v>1.33</v>
@@ -18085,10 +18106,10 @@
         <v>2.17</v>
       </c>
       <c r="AS89">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT89">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU89">
         <v>1.75</v>
@@ -18276,10 +18297,10 @@
         <v>2.2</v>
       </c>
       <c r="AS90">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT90">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU90">
         <v>1.91</v>
@@ -18467,10 +18488,10 @@
         <v>0.5</v>
       </c>
       <c r="AS91">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT91">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU91">
         <v>1.13</v>
@@ -18571,7 +18592,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18658,10 +18679,10 @@
         <v>0.29</v>
       </c>
       <c r="AS92">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT92">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU92">
         <v>1.23</v>
@@ -18852,7 +18873,7 @@
         <v>0.92</v>
       </c>
       <c r="AT93">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU93">
         <v>1.08</v>
@@ -19231,10 +19252,10 @@
         <v>1.83</v>
       </c>
       <c r="AS95">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT95">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU95">
         <v>1.21</v>
@@ -19335,7 +19356,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19422,7 +19443,7 @@
         <v>1.83</v>
       </c>
       <c r="AS96">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT96">
         <v>1.92</v>
@@ -19526,7 +19547,7 @@
         <v>126</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19804,10 +19825,10 @@
         <v>0.5</v>
       </c>
       <c r="AS98">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT98">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU98">
         <v>1.21</v>
@@ -19908,7 +19929,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20189,7 +20210,7 @@
         <v>0.92</v>
       </c>
       <c r="AT100">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU100">
         <v>1.09</v>
@@ -20377,7 +20398,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT101">
         <v>0.42</v>
@@ -20481,7 +20502,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20571,7 +20592,7 @@
         <v>1.42</v>
       </c>
       <c r="AT102">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU102">
         <v>1.38</v>
@@ -20672,7 +20693,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21332,7 +21353,7 @@
         <v>0.14</v>
       </c>
       <c r="AS106">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT106">
         <v>0.67</v>
@@ -21523,10 +21544,10 @@
         <v>1.71</v>
       </c>
       <c r="AS107">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT107">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU107">
         <v>1.4</v>
@@ -21627,7 +21648,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21818,7 +21839,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -21905,10 +21926,10 @@
         <v>2.13</v>
       </c>
       <c r="AS109">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT109">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU109">
         <v>1.54</v>
@@ -22009,7 +22030,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22287,7 +22308,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT111">
         <v>0.5</v>
@@ -22481,7 +22502,7 @@
         <v>1</v>
       </c>
       <c r="AT112">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU112">
         <v>0.91</v>
@@ -22669,10 +22690,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT113">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU113">
         <v>1.91</v>
@@ -22773,7 +22794,7 @@
         <v>155</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22964,7 +22985,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23051,7 +23072,7 @@
         <v>1.63</v>
       </c>
       <c r="AS115">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT115">
         <v>1.75</v>
@@ -23155,7 +23176,7 @@
         <v>81</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23436,7 +23457,7 @@
         <v>1.82</v>
       </c>
       <c r="AT117">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU117">
         <v>1.26</v>
@@ -23919,7 +23940,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -24110,7 +24131,7 @@
         <v>112</v>
       </c>
       <c r="P121" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24197,10 +24218,10 @@
         <v>0.75</v>
       </c>
       <c r="AS121">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT121">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU121">
         <v>1.12</v>
@@ -24388,7 +24409,7 @@
         <v>1.13</v>
       </c>
       <c r="AS122">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT122">
         <v>1.33</v>
@@ -24770,10 +24791,10 @@
         <v>0.25</v>
       </c>
       <c r="AS124">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT124">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU124">
         <v>1.33</v>
@@ -24961,10 +24982,10 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT125">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU125">
         <v>1.68</v>
@@ -25152,7 +25173,7 @@
         <v>2.38</v>
       </c>
       <c r="AS126">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT126">
         <v>2.17</v>
@@ -25256,7 +25277,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25346,7 +25367,7 @@
         <v>0.67</v>
       </c>
       <c r="AT127">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU127">
         <v>1.35</v>
@@ -25447,7 +25468,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25725,7 +25746,7 @@
         <v>0.44</v>
       </c>
       <c r="AS129">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT129">
         <v>0.42</v>
@@ -25919,7 +25940,7 @@
         <v>2.17</v>
       </c>
       <c r="AT130">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU130">
         <v>1.71</v>
@@ -26020,7 +26041,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -26110,7 +26131,7 @@
         <v>0.67</v>
       </c>
       <c r="AT131">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU131">
         <v>1.37</v>
@@ -26402,7 +26423,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -26593,7 +26614,7 @@
         <v>163</v>
       </c>
       <c r="P134" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26784,7 +26805,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27062,10 +27083,10 @@
         <v>0.78</v>
       </c>
       <c r="AS136">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT136">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU136">
         <v>1.34</v>
@@ -27166,7 +27187,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27253,7 +27274,7 @@
         <v>1.11</v>
       </c>
       <c r="AS137">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT137">
         <v>1.33</v>
@@ -27447,7 +27468,7 @@
         <v>2.75</v>
       </c>
       <c r="AT138">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU138">
         <v>2.35</v>
@@ -27548,7 +27569,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27635,10 +27656,10 @@
         <v>0.33</v>
       </c>
       <c r="AS139">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT139">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU139">
         <v>1.98</v>
@@ -27739,7 +27760,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27826,10 +27847,10 @@
         <v>0.33</v>
       </c>
       <c r="AS140">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT140">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU140">
         <v>1.13</v>
@@ -28017,7 +28038,7 @@
         <v>2.44</v>
       </c>
       <c r="AS141">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT141">
         <v>2.17</v>
@@ -28208,7 +28229,7 @@
         <v>0.6</v>
       </c>
       <c r="AS142">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT142">
         <v>0.67</v>
@@ -28402,7 +28423,7 @@
         <v>0.67</v>
       </c>
       <c r="AT143">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU143">
         <v>1.34</v>
@@ -28972,7 +28993,7 @@
         <v>1.9</v>
       </c>
       <c r="AS146">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT146">
         <v>1.92</v>
@@ -29076,7 +29097,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29166,7 +29187,7 @@
         <v>0.92</v>
       </c>
       <c r="AT147">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU147">
         <v>1.21</v>
@@ -29354,10 +29375,10 @@
         <v>0.6</v>
       </c>
       <c r="AS148">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT148">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU148">
         <v>1.34</v>
@@ -29458,7 +29479,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29548,7 +29569,7 @@
         <v>1.42</v>
       </c>
       <c r="AT149">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU149">
         <v>1.3</v>
@@ -29649,7 +29670,7 @@
         <v>171</v>
       </c>
       <c r="P150" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29840,7 +29861,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -29927,7 +29948,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT151">
         <v>1.33</v>
@@ -30031,7 +30052,7 @@
         <v>173</v>
       </c>
       <c r="P152" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30118,7 +30139,7 @@
         <v>1.9</v>
       </c>
       <c r="AS152">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT152">
         <v>1.75</v>
@@ -30312,7 +30333,7 @@
         <v>2.75</v>
       </c>
       <c r="AT153">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU153">
         <v>2.31</v>
@@ -30500,7 +30521,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT154">
         <v>1.33</v>
@@ -30694,7 +30715,7 @@
         <v>2.42</v>
       </c>
       <c r="AT155">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU155">
         <v>1.57</v>
@@ -30882,7 +30903,7 @@
         <v>0.64</v>
       </c>
       <c r="AS156">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT156">
         <v>0.67</v>
@@ -30986,7 +31007,7 @@
         <v>81</v>
       </c>
       <c r="P157" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q157">
         <v>5</v>
@@ -31073,7 +31094,7 @@
         <v>1.82</v>
       </c>
       <c r="AS157">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT157">
         <v>1.92</v>
@@ -31267,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="AT158">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU158">
         <v>1.01</v>
@@ -31455,10 +31476,10 @@
         <v>2</v>
       </c>
       <c r="AS159">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT159">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU159">
         <v>2</v>
@@ -31649,7 +31670,7 @@
         <v>1.82</v>
       </c>
       <c r="AT160">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AU160">
         <v>1.32</v>
@@ -31750,7 +31771,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -31837,10 +31858,10 @@
         <v>0.73</v>
       </c>
       <c r="AS161">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT161">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU161">
         <v>1.53</v>
@@ -32410,7 +32431,7 @@
         <v>1.82</v>
       </c>
       <c r="AS164">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT164">
         <v>1.75</v>
@@ -32601,7 +32622,7 @@
         <v>2.27</v>
       </c>
       <c r="AS165">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT165">
         <v>2.17</v>
@@ -32705,7 +32726,7 @@
         <v>81</v>
       </c>
       <c r="P166" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -33177,7 +33198,7 @@
         <v>2.17</v>
       </c>
       <c r="AT168">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU168">
         <v>1.65</v>
@@ -33229,6 +33250,1152 @@
       </c>
       <c r="BK168">
         <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>3157457</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>44989.625</v>
+      </c>
+      <c r="F169">
+        <v>25</v>
+      </c>
+      <c r="G169" t="s">
+        <v>77</v>
+      </c>
+      <c r="H169" t="s">
+        <v>66</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>184</v>
+      </c>
+      <c r="P169" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q169">
+        <v>5</v>
+      </c>
+      <c r="R169">
+        <v>6</v>
+      </c>
+      <c r="S169">
+        <v>11</v>
+      </c>
+      <c r="T169">
+        <v>3</v>
+      </c>
+      <c r="U169">
+        <v>2</v>
+      </c>
+      <c r="V169">
+        <v>4</v>
+      </c>
+      <c r="W169">
+        <v>1.5</v>
+      </c>
+      <c r="X169">
+        <v>2.5</v>
+      </c>
+      <c r="Y169">
+        <v>3.5</v>
+      </c>
+      <c r="Z169">
+        <v>1.29</v>
+      </c>
+      <c r="AA169">
+        <v>10</v>
+      </c>
+      <c r="AB169">
+        <v>1.06</v>
+      </c>
+      <c r="AC169">
+        <v>2.2</v>
+      </c>
+      <c r="AD169">
+        <v>3.05</v>
+      </c>
+      <c r="AE169">
+        <v>3.7</v>
+      </c>
+      <c r="AF169">
+        <v>1.08</v>
+      </c>
+      <c r="AG169">
+        <v>7</v>
+      </c>
+      <c r="AH169">
+        <v>1.36</v>
+      </c>
+      <c r="AI169">
+        <v>3</v>
+      </c>
+      <c r="AJ169">
+        <v>2.38</v>
+      </c>
+      <c r="AK169">
+        <v>1.49</v>
+      </c>
+      <c r="AL169">
+        <v>1.95</v>
+      </c>
+      <c r="AM169">
+        <v>1.8</v>
+      </c>
+      <c r="AN169">
+        <v>1.3</v>
+      </c>
+      <c r="AO169">
+        <v>1.33</v>
+      </c>
+      <c r="AP169">
+        <v>1.71</v>
+      </c>
+      <c r="AQ169">
+        <v>1.58</v>
+      </c>
+      <c r="AR169">
+        <v>0.67</v>
+      </c>
+      <c r="AS169">
+        <v>1.54</v>
+      </c>
+      <c r="AT169">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU169">
+        <v>1.22</v>
+      </c>
+      <c r="AV169">
+        <v>1.03</v>
+      </c>
+      <c r="AW169">
+        <v>2.25</v>
+      </c>
+      <c r="AX169">
+        <v>1.64</v>
+      </c>
+      <c r="AY169">
+        <v>7.5</v>
+      </c>
+      <c r="AZ169">
+        <v>2.78</v>
+      </c>
+      <c r="BA169">
+        <v>1.47</v>
+      </c>
+      <c r="BB169">
+        <v>1.95</v>
+      </c>
+      <c r="BC169">
+        <v>2.48</v>
+      </c>
+      <c r="BD169">
+        <v>3.45</v>
+      </c>
+      <c r="BE169">
+        <v>4.7</v>
+      </c>
+      <c r="BF169">
+        <v>3</v>
+      </c>
+      <c r="BG169">
+        <v>5</v>
+      </c>
+      <c r="BH169">
+        <v>7</v>
+      </c>
+      <c r="BI169">
+        <v>5</v>
+      </c>
+      <c r="BJ169">
+        <v>10</v>
+      </c>
+      <c r="BK169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>3157458</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F170">
+        <v>25</v>
+      </c>
+      <c r="G170" t="s">
+        <v>71</v>
+      </c>
+      <c r="H170" t="s">
+        <v>78</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>6</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>6</v>
+      </c>
+      <c r="O170" t="s">
+        <v>185</v>
+      </c>
+      <c r="P170" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q170">
+        <v>7</v>
+      </c>
+      <c r="R170">
+        <v>1</v>
+      </c>
+      <c r="S170">
+        <v>8</v>
+      </c>
+      <c r="T170">
+        <v>1.5</v>
+      </c>
+      <c r="U170">
+        <v>2.88</v>
+      </c>
+      <c r="V170">
+        <v>15</v>
+      </c>
+      <c r="W170">
+        <v>1.29</v>
+      </c>
+      <c r="X170">
+        <v>3.5</v>
+      </c>
+      <c r="Y170">
+        <v>2.38</v>
+      </c>
+      <c r="Z170">
+        <v>1.53</v>
+      </c>
+      <c r="AA170">
+        <v>5.5</v>
+      </c>
+      <c r="AB170">
+        <v>1.14</v>
+      </c>
+      <c r="AC170">
+        <v>1.08</v>
+      </c>
+      <c r="AD170">
+        <v>7.61</v>
+      </c>
+      <c r="AE170">
+        <v>16.18</v>
+      </c>
+      <c r="AF170">
+        <v>1.01</v>
+      </c>
+      <c r="AG170">
+        <v>19</v>
+      </c>
+      <c r="AH170">
+        <v>1.18</v>
+      </c>
+      <c r="AI170">
+        <v>4.33</v>
+      </c>
+      <c r="AJ170">
+        <v>1.57</v>
+      </c>
+      <c r="AK170">
+        <v>2.2</v>
+      </c>
+      <c r="AL170">
+        <v>2.75</v>
+      </c>
+      <c r="AM170">
+        <v>1.4</v>
+      </c>
+      <c r="AN170">
+        <v>1.01</v>
+      </c>
+      <c r="AO170">
+        <v>1.06</v>
+      </c>
+      <c r="AP170">
+        <v>4.18</v>
+      </c>
+      <c r="AQ170">
+        <v>2.25</v>
+      </c>
+      <c r="AR170">
+        <v>0.25</v>
+      </c>
+      <c r="AS170">
+        <v>2.31</v>
+      </c>
+      <c r="AT170">
+        <v>0.23</v>
+      </c>
+      <c r="AU170">
+        <v>1.82</v>
+      </c>
+      <c r="AV170">
+        <v>0.96</v>
+      </c>
+      <c r="AW170">
+        <v>2.78</v>
+      </c>
+      <c r="AX170">
+        <v>1.1</v>
+      </c>
+      <c r="AY170">
+        <v>12</v>
+      </c>
+      <c r="AZ170">
+        <v>9.5</v>
+      </c>
+      <c r="BA170">
+        <v>1.35</v>
+      </c>
+      <c r="BB170">
+        <v>1.66</v>
+      </c>
+      <c r="BC170">
+        <v>2.12</v>
+      </c>
+      <c r="BD170">
+        <v>2.84</v>
+      </c>
+      <c r="BE170">
+        <v>3.6</v>
+      </c>
+      <c r="BF170">
+        <v>10</v>
+      </c>
+      <c r="BG170">
+        <v>3</v>
+      </c>
+      <c r="BH170">
+        <v>5</v>
+      </c>
+      <c r="BI170">
+        <v>2</v>
+      </c>
+      <c r="BJ170">
+        <v>15</v>
+      </c>
+      <c r="BK170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>3157462</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>44990.5</v>
+      </c>
+      <c r="F171">
+        <v>25</v>
+      </c>
+      <c r="G171" t="s">
+        <v>73</v>
+      </c>
+      <c r="H171" t="s">
+        <v>65</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>81</v>
+      </c>
+      <c r="P171" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q171">
+        <v>6</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>6</v>
+      </c>
+      <c r="T171">
+        <v>3.2</v>
+      </c>
+      <c r="U171">
+        <v>2</v>
+      </c>
+      <c r="V171">
+        <v>3.75</v>
+      </c>
+      <c r="W171">
+        <v>1.5</v>
+      </c>
+      <c r="X171">
+        <v>2.5</v>
+      </c>
+      <c r="Y171">
+        <v>3.5</v>
+      </c>
+      <c r="Z171">
+        <v>1.29</v>
+      </c>
+      <c r="AA171">
+        <v>10</v>
+      </c>
+      <c r="AB171">
+        <v>1.06</v>
+      </c>
+      <c r="AC171">
+        <v>2.18</v>
+      </c>
+      <c r="AD171">
+        <v>3.08</v>
+      </c>
+      <c r="AE171">
+        <v>3.03</v>
+      </c>
+      <c r="AF171">
+        <v>1.07</v>
+      </c>
+      <c r="AG171">
+        <v>9.5</v>
+      </c>
+      <c r="AH171">
+        <v>1.4</v>
+      </c>
+      <c r="AI171">
+        <v>2.9</v>
+      </c>
+      <c r="AJ171">
+        <v>2.14</v>
+      </c>
+      <c r="AK171">
+        <v>1.6</v>
+      </c>
+      <c r="AL171">
+        <v>1.95</v>
+      </c>
+      <c r="AM171">
+        <v>1.8</v>
+      </c>
+      <c r="AN171">
+        <v>1.39</v>
+      </c>
+      <c r="AO171">
+        <v>1.29</v>
+      </c>
+      <c r="AP171">
+        <v>1.48</v>
+      </c>
+      <c r="AQ171">
+        <v>1.25</v>
+      </c>
+      <c r="AR171">
+        <v>1.58</v>
+      </c>
+      <c r="AS171">
+        <v>1.15</v>
+      </c>
+      <c r="AT171">
+        <v>1.69</v>
+      </c>
+      <c r="AU171">
+        <v>1.31</v>
+      </c>
+      <c r="AV171">
+        <v>1.13</v>
+      </c>
+      <c r="AW171">
+        <v>2.44</v>
+      </c>
+      <c r="AX171">
+        <v>2.02</v>
+      </c>
+      <c r="AY171">
+        <v>7.1</v>
+      </c>
+      <c r="AZ171">
+        <v>2.13</v>
+      </c>
+      <c r="BA171">
+        <v>1.38</v>
+      </c>
+      <c r="BB171">
+        <v>1.71</v>
+      </c>
+      <c r="BC171">
+        <v>2.19</v>
+      </c>
+      <c r="BD171">
+        <v>2.98</v>
+      </c>
+      <c r="BE171">
+        <v>4.3</v>
+      </c>
+      <c r="BF171">
+        <v>4</v>
+      </c>
+      <c r="BG171">
+        <v>3</v>
+      </c>
+      <c r="BH171">
+        <v>11</v>
+      </c>
+      <c r="BI171">
+        <v>2</v>
+      </c>
+      <c r="BJ171">
+        <v>15</v>
+      </c>
+      <c r="BK171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>3157463</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>44990.52083333334</v>
+      </c>
+      <c r="F172">
+        <v>25</v>
+      </c>
+      <c r="G172" t="s">
+        <v>67</v>
+      </c>
+      <c r="H172" t="s">
+        <v>70</v>
+      </c>
+      <c r="I172">
+        <v>2</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>3</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>186</v>
+      </c>
+      <c r="P172" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q172">
+        <v>3</v>
+      </c>
+      <c r="R172">
+        <v>7</v>
+      </c>
+      <c r="S172">
+        <v>10</v>
+      </c>
+      <c r="T172">
+        <v>5</v>
+      </c>
+      <c r="U172">
+        <v>2.2</v>
+      </c>
+      <c r="V172">
+        <v>2.4</v>
+      </c>
+      <c r="W172">
+        <v>1.4</v>
+      </c>
+      <c r="X172">
+        <v>2.75</v>
+      </c>
+      <c r="Y172">
+        <v>3</v>
+      </c>
+      <c r="Z172">
+        <v>1.36</v>
+      </c>
+      <c r="AA172">
+        <v>8</v>
+      </c>
+      <c r="AB172">
+        <v>1.08</v>
+      </c>
+      <c r="AC172">
+        <v>4.51</v>
+      </c>
+      <c r="AD172">
+        <v>3.42</v>
+      </c>
+      <c r="AE172">
+        <v>1.66</v>
+      </c>
+      <c r="AF172">
+        <v>1.05</v>
+      </c>
+      <c r="AG172">
+        <v>10</v>
+      </c>
+      <c r="AH172">
+        <v>1.33</v>
+      </c>
+      <c r="AI172">
+        <v>3.25</v>
+      </c>
+      <c r="AJ172">
+        <v>1.83</v>
+      </c>
+      <c r="AK172">
+        <v>1.83</v>
+      </c>
+      <c r="AL172">
+        <v>1.91</v>
+      </c>
+      <c r="AM172">
+        <v>1.91</v>
+      </c>
+      <c r="AN172">
+        <v>2</v>
+      </c>
+      <c r="AO172">
+        <v>1.25</v>
+      </c>
+      <c r="AP172">
+        <v>1.22</v>
+      </c>
+      <c r="AQ172">
+        <v>0.58</v>
+      </c>
+      <c r="AR172">
+        <v>0.92</v>
+      </c>
+      <c r="AS172">
+        <v>0.77</v>
+      </c>
+      <c r="AT172">
+        <v>0.85</v>
+      </c>
+      <c r="AU172">
+        <v>1.19</v>
+      </c>
+      <c r="AV172">
+        <v>1.38</v>
+      </c>
+      <c r="AW172">
+        <v>2.57</v>
+      </c>
+      <c r="AX172">
+        <v>4.26</v>
+      </c>
+      <c r="AY172">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ172">
+        <v>1.35</v>
+      </c>
+      <c r="BA172">
+        <v>1.45</v>
+      </c>
+      <c r="BB172">
+        <v>1.83</v>
+      </c>
+      <c r="BC172">
+        <v>2.4</v>
+      </c>
+      <c r="BD172">
+        <v>3.34</v>
+      </c>
+      <c r="BE172">
+        <v>4.5</v>
+      </c>
+      <c r="BF172">
+        <v>5</v>
+      </c>
+      <c r="BG172">
+        <v>7</v>
+      </c>
+      <c r="BH172">
+        <v>1</v>
+      </c>
+      <c r="BI172">
+        <v>4</v>
+      </c>
+      <c r="BJ172">
+        <v>6</v>
+      </c>
+      <c r="BK172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>3157459</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44990.60416666666</v>
+      </c>
+      <c r="F173">
+        <v>25</v>
+      </c>
+      <c r="G173" t="s">
+        <v>76</v>
+      </c>
+      <c r="H173" t="s">
+        <v>74</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>3</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>81</v>
+      </c>
+      <c r="P173" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q173">
+        <v>5</v>
+      </c>
+      <c r="R173">
+        <v>5</v>
+      </c>
+      <c r="S173">
+        <v>10</v>
+      </c>
+      <c r="T173">
+        <v>8</v>
+      </c>
+      <c r="U173">
+        <v>2.3</v>
+      </c>
+      <c r="V173">
+        <v>1.95</v>
+      </c>
+      <c r="W173">
+        <v>1.4</v>
+      </c>
+      <c r="X173">
+        <v>2.75</v>
+      </c>
+      <c r="Y173">
+        <v>2.75</v>
+      </c>
+      <c r="Z173">
+        <v>1.4</v>
+      </c>
+      <c r="AA173">
+        <v>8</v>
+      </c>
+      <c r="AB173">
+        <v>1.08</v>
+      </c>
+      <c r="AC173">
+        <v>8.5</v>
+      </c>
+      <c r="AD173">
+        <v>4.1</v>
+      </c>
+      <c r="AE173">
+        <v>1.37</v>
+      </c>
+      <c r="AF173">
+        <v>1.05</v>
+      </c>
+      <c r="AG173">
+        <v>11</v>
+      </c>
+      <c r="AH173">
+        <v>1.3</v>
+      </c>
+      <c r="AI173">
+        <v>3.4</v>
+      </c>
+      <c r="AJ173">
+        <v>2.02</v>
+      </c>
+      <c r="AK173">
+        <v>1.72</v>
+      </c>
+      <c r="AL173">
+        <v>2.2</v>
+      </c>
+      <c r="AM173">
+        <v>1.62</v>
+      </c>
+      <c r="AN173">
+        <v>2.55</v>
+      </c>
+      <c r="AO173">
+        <v>1.15</v>
+      </c>
+      <c r="AP173">
+        <v>1.09</v>
+      </c>
+      <c r="AQ173">
+        <v>0.83</v>
+      </c>
+      <c r="AR173">
+        <v>1.82</v>
+      </c>
+      <c r="AS173">
+        <v>0.77</v>
+      </c>
+      <c r="AT173">
+        <v>1.92</v>
+      </c>
+      <c r="AU173">
+        <v>1.51</v>
+      </c>
+      <c r="AV173">
+        <v>1.62</v>
+      </c>
+      <c r="AW173">
+        <v>3.13</v>
+      </c>
+      <c r="AX173">
+        <v>6.95</v>
+      </c>
+      <c r="AY173">
+        <v>10.5</v>
+      </c>
+      <c r="AZ173">
+        <v>1.17</v>
+      </c>
+      <c r="BA173">
+        <v>1.43</v>
+      </c>
+      <c r="BB173">
+        <v>1.8</v>
+      </c>
+      <c r="BC173">
+        <v>2.34</v>
+      </c>
+      <c r="BD173">
+        <v>3.28</v>
+      </c>
+      <c r="BE173">
+        <v>3.6</v>
+      </c>
+      <c r="BF173">
+        <v>5</v>
+      </c>
+      <c r="BG173">
+        <v>6</v>
+      </c>
+      <c r="BH173">
+        <v>5</v>
+      </c>
+      <c r="BI173">
+        <v>6</v>
+      </c>
+      <c r="BJ173">
+        <v>10</v>
+      </c>
+      <c r="BK173">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>3157461</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44990.64583333334</v>
+      </c>
+      <c r="F174">
+        <v>25</v>
+      </c>
+      <c r="G174" t="s">
+        <v>68</v>
+      </c>
+      <c r="H174" t="s">
+        <v>72</v>
+      </c>
+      <c r="I174">
+        <v>4</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>4</v>
+      </c>
+      <c r="L174">
+        <v>6</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>6</v>
+      </c>
+      <c r="O174" t="s">
+        <v>187</v>
+      </c>
+      <c r="P174" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q174">
+        <v>9</v>
+      </c>
+      <c r="R174">
+        <v>4</v>
+      </c>
+      <c r="S174">
+        <v>13</v>
+      </c>
+      <c r="T174">
+        <v>1.73</v>
+      </c>
+      <c r="U174">
+        <v>2.5</v>
+      </c>
+      <c r="V174">
+        <v>11</v>
+      </c>
+      <c r="W174">
+        <v>1.36</v>
+      </c>
+      <c r="X174">
+        <v>3</v>
+      </c>
+      <c r="Y174">
+        <v>2.63</v>
+      </c>
+      <c r="Z174">
+        <v>1.44</v>
+      </c>
+      <c r="AA174">
+        <v>7</v>
+      </c>
+      <c r="AB174">
+        <v>1.1</v>
+      </c>
+      <c r="AC174">
+        <v>1.18</v>
+      </c>
+      <c r="AD174">
+        <v>6</v>
+      </c>
+      <c r="AE174">
+        <v>14</v>
+      </c>
+      <c r="AF174">
+        <v>1.03</v>
+      </c>
+      <c r="AG174">
+        <v>13</v>
+      </c>
+      <c r="AH174">
+        <v>1.25</v>
+      </c>
+      <c r="AI174">
+        <v>3.75</v>
+      </c>
+      <c r="AJ174">
+        <v>1.8</v>
+      </c>
+      <c r="AK174">
+        <v>1.95</v>
+      </c>
+      <c r="AL174">
+        <v>2.63</v>
+      </c>
+      <c r="AM174">
+        <v>1.44</v>
+      </c>
+      <c r="AN174">
+        <v>1</v>
+      </c>
+      <c r="AO174">
+        <v>1.09</v>
+      </c>
+      <c r="AP174">
+        <v>4.5</v>
+      </c>
+      <c r="AQ174">
+        <v>2.25</v>
+      </c>
+      <c r="AR174">
+        <v>0.58</v>
+      </c>
+      <c r="AS174">
+        <v>2.31</v>
+      </c>
+      <c r="AT174">
+        <v>0.54</v>
+      </c>
+      <c r="AU174">
+        <v>1.89</v>
+      </c>
+      <c r="AV174">
+        <v>1.06</v>
+      </c>
+      <c r="AW174">
+        <v>2.95</v>
+      </c>
+      <c r="AX174">
+        <v>1.03</v>
+      </c>
+      <c r="AY174">
+        <v>16</v>
+      </c>
+      <c r="AZ174">
+        <v>17</v>
+      </c>
+      <c r="BA174">
+        <v>1.46</v>
+      </c>
+      <c r="BB174">
+        <v>1.85</v>
+      </c>
+      <c r="BC174">
+        <v>2.42</v>
+      </c>
+      <c r="BD174">
+        <v>3.42</v>
+      </c>
+      <c r="BE174">
+        <v>4.5</v>
+      </c>
+      <c r="BF174">
+        <v>8</v>
+      </c>
+      <c r="BG174">
+        <v>0</v>
+      </c>
+      <c r="BH174">
+        <v>4</v>
+      </c>
+      <c r="BI174">
+        <v>4</v>
+      </c>
+      <c r="BJ174">
+        <v>12</v>
+      </c>
+      <c r="BK174">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>['2', '24', '28', '30', '54', '90+1']</t>
+  </si>
+  <si>
+    <t>['62', '84']</t>
   </si>
   <si>
     <t>['27', '68', '90+9']</t>
@@ -1158,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK174"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1405,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1784,7 +1787,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2065,7 +2068,7 @@
         <v>2.31</v>
       </c>
       <c r="AT5">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2253,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT6">
         <v>0.54</v>
@@ -2930,7 +2933,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3121,7 +3124,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3312,7 +3315,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3503,7 +3506,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -4267,7 +4270,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4545,7 +4548,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT18">
         <v>0.23</v>
@@ -4739,7 +4742,7 @@
         <v>1.82</v>
       </c>
       <c r="AT19">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU19">
         <v>1.3</v>
@@ -4840,7 +4843,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5413,7 +5416,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5503,7 +5506,7 @@
         <v>0.77</v>
       </c>
       <c r="AT23">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5795,7 +5798,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5986,7 +5989,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6177,7 +6180,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6264,7 +6267,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT27">
         <v>1.92</v>
@@ -6368,7 +6371,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6941,7 +6944,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7219,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT32">
         <v>0.67</v>
@@ -7323,7 +7326,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7514,7 +7517,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7705,7 +7708,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8851,7 +8854,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9042,7 +9045,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9132,7 +9135,7 @@
         <v>1.15</v>
       </c>
       <c r="AT42">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU42">
         <v>1.73</v>
@@ -9424,7 +9427,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9615,7 +9618,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9806,7 +9809,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9997,7 +10000,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10275,7 +10278,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT48">
         <v>0.42</v>
@@ -10379,7 +10382,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10570,7 +10573,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10761,7 +10764,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -11334,7 +11337,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11525,7 +11528,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11806,7 +11809,7 @@
         <v>1.54</v>
       </c>
       <c r="AT56">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU56">
         <v>1.22</v>
@@ -11907,7 +11910,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12098,7 +12101,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12289,7 +12292,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12480,7 +12483,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12758,7 +12761,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT61">
         <v>0.85</v>
@@ -12862,7 +12865,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13053,7 +13056,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13435,7 +13438,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13525,7 +13528,7 @@
         <v>0.67</v>
       </c>
       <c r="AT65">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU65">
         <v>1.71</v>
@@ -13626,7 +13629,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14008,7 +14011,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14390,7 +14393,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14772,7 +14775,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14963,7 +14966,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15814,7 +15817,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT77">
         <v>1.92</v>
@@ -16300,7 +16303,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17255,7 +17258,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17446,7 +17449,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17724,7 +17727,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT87">
         <v>0.6899999999999999</v>
@@ -17828,7 +17831,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17918,7 +17921,7 @@
         <v>0.77</v>
       </c>
       <c r="AT88">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU88">
         <v>1.25</v>
@@ -18592,7 +18595,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19356,7 +19359,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19547,7 +19550,7 @@
         <v>126</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19929,7 +19932,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20502,7 +20505,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20693,7 +20696,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20971,7 +20974,7 @@
         <v>0.83</v>
       </c>
       <c r="AS104">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT104">
         <v>1.33</v>
@@ -21165,7 +21168,7 @@
         <v>2.17</v>
       </c>
       <c r="AT105">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU105">
         <v>1.67</v>
@@ -21648,7 +21651,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -22030,7 +22033,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22794,7 +22797,7 @@
         <v>155</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22985,7 +22988,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23176,7 +23179,7 @@
         <v>81</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23940,7 +23943,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -24131,7 +24134,7 @@
         <v>112</v>
       </c>
       <c r="P121" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24603,7 +24606,7 @@
         <v>2.75</v>
       </c>
       <c r="AT123">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU123">
         <v>2.27</v>
@@ -25277,7 +25280,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25468,7 +25471,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -26041,7 +26044,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -26423,7 +26426,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -26510,7 +26513,7 @@
         <v>1.78</v>
       </c>
       <c r="AS133">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT133">
         <v>1.75</v>
@@ -26614,7 +26617,7 @@
         <v>163</v>
       </c>
       <c r="P134" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26805,7 +26808,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26895,7 +26898,7 @@
         <v>1.42</v>
       </c>
       <c r="AT135">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU135">
         <v>1.3</v>
@@ -27187,7 +27190,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27569,7 +27572,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27760,7 +27763,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28611,7 +28614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS144">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT144">
         <v>0.5</v>
@@ -29097,7 +29100,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29479,7 +29482,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29670,7 +29673,7 @@
         <v>171</v>
       </c>
       <c r="P150" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29861,7 +29864,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30052,7 +30055,7 @@
         <v>173</v>
       </c>
       <c r="P152" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30524,7 +30527,7 @@
         <v>2.31</v>
       </c>
       <c r="AT154">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU154">
         <v>1.8</v>
@@ -30712,7 +30715,7 @@
         <v>1.73</v>
       </c>
       <c r="AS155">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT155">
         <v>1.69</v>
@@ -31007,7 +31010,7 @@
         <v>81</v>
       </c>
       <c r="P157" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q157">
         <v>5</v>
@@ -31771,7 +31774,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -32726,7 +32729,7 @@
         <v>81</v>
       </c>
       <c r="P166" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -33007,7 +33010,7 @@
         <v>0.92</v>
       </c>
       <c r="AT167">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU167">
         <v>1.2</v>
@@ -33299,7 +33302,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33681,7 +33684,7 @@
         <v>81</v>
       </c>
       <c r="P171" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33872,7 +33875,7 @@
         <v>186</v>
       </c>
       <c r="P172" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34063,7 +34066,7 @@
         <v>81</v>
       </c>
       <c r="P173" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34395,6 +34398,197 @@
         <v>12</v>
       </c>
       <c r="BK174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>3157460</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44991.60416666666</v>
+      </c>
+      <c r="F175">
+        <v>25</v>
+      </c>
+      <c r="G175" t="s">
+        <v>69</v>
+      </c>
+      <c r="H175" t="s">
+        <v>75</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>188</v>
+      </c>
+      <c r="P175" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q175">
+        <v>8</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="S175">
+        <v>9</v>
+      </c>
+      <c r="T175">
+        <v>1.73</v>
+      </c>
+      <c r="U175">
+        <v>2.4</v>
+      </c>
+      <c r="V175">
+        <v>13</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>2.75</v>
+      </c>
+      <c r="Y175">
+        <v>3</v>
+      </c>
+      <c r="Z175">
+        <v>1.36</v>
+      </c>
+      <c r="AA175">
+        <v>8</v>
+      </c>
+      <c r="AB175">
+        <v>1.08</v>
+      </c>
+      <c r="AC175">
+        <v>1.25</v>
+      </c>
+      <c r="AD175">
+        <v>5.1</v>
+      </c>
+      <c r="AE175">
+        <v>11.5</v>
+      </c>
+      <c r="AF175">
+        <v>1.04</v>
+      </c>
+      <c r="AG175">
+        <v>11</v>
+      </c>
+      <c r="AH175">
+        <v>1.3</v>
+      </c>
+      <c r="AI175">
+        <v>3.4</v>
+      </c>
+      <c r="AJ175">
+        <v>2.04</v>
+      </c>
+      <c r="AK175">
+        <v>1.82</v>
+      </c>
+      <c r="AL175">
+        <v>3</v>
+      </c>
+      <c r="AM175">
+        <v>1.36</v>
+      </c>
+      <c r="AN175">
+        <v>1.04</v>
+      </c>
+      <c r="AO175">
+        <v>1.14</v>
+      </c>
+      <c r="AP175">
+        <v>3.8</v>
+      </c>
+      <c r="AQ175">
+        <v>2.42</v>
+      </c>
+      <c r="AR175">
+        <v>1.33</v>
+      </c>
+      <c r="AS175">
+        <v>2.46</v>
+      </c>
+      <c r="AT175">
+        <v>1.23</v>
+      </c>
+      <c r="AU175">
+        <v>1.67</v>
+      </c>
+      <c r="AV175">
+        <v>0.86</v>
+      </c>
+      <c r="AW175">
+        <v>2.53</v>
+      </c>
+      <c r="AX175">
+        <v>1.01</v>
+      </c>
+      <c r="AY175">
+        <v>17</v>
+      </c>
+      <c r="AZ175">
+        <v>19</v>
+      </c>
+      <c r="BA175">
+        <v>1.47</v>
+      </c>
+      <c r="BB175">
+        <v>1.85</v>
+      </c>
+      <c r="BC175">
+        <v>2.48</v>
+      </c>
+      <c r="BD175">
+        <v>3.45</v>
+      </c>
+      <c r="BE175">
+        <v>4.3</v>
+      </c>
+      <c r="BF175">
+        <v>8</v>
+      </c>
+      <c r="BG175">
+        <v>2</v>
+      </c>
+      <c r="BH175">
+        <v>9</v>
+      </c>
+      <c r="BI175">
+        <v>2</v>
+      </c>
+      <c r="BJ175">
+        <v>17</v>
+      </c>
+      <c r="BK175">
         <v>4</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1161,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK175"/>
+  <dimension ref="A1:BK176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT3">
         <v>1.33</v>
@@ -1877,7 +1877,7 @@
         <v>0.77</v>
       </c>
       <c r="AT4">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT19">
         <v>1.23</v>
@@ -6270,7 +6270,7 @@
         <v>2.46</v>
       </c>
       <c r="AT27">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU27">
         <v>1.22</v>
@@ -6840,7 +6840,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT30">
         <v>0.5</v>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU31">
         <v>1.01</v>
@@ -10472,7 +10472,7 @@
         <v>2.17</v>
       </c>
       <c r="AT49">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU49">
         <v>1.5</v>
@@ -10660,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT50">
         <v>0.67</v>
@@ -12188,7 +12188,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT58">
         <v>1.69</v>
@@ -13146,7 +13146,7 @@
         <v>0.92</v>
       </c>
       <c r="AT63">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU63">
         <v>1.08</v>
@@ -15244,7 +15244,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT74">
         <v>0.85</v>
@@ -16011,7 +16011,7 @@
         <v>1.54</v>
       </c>
       <c r="AT78">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU78">
         <v>1.13</v>
@@ -16581,7 +16581,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT81">
         <v>0.42</v>
@@ -18112,7 +18112,7 @@
         <v>2.31</v>
       </c>
       <c r="AT89">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU89">
         <v>1.75</v>
@@ -20595,7 +20595,7 @@
         <v>1.42</v>
       </c>
       <c r="AT102">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU102">
         <v>1.38</v>
@@ -20783,7 +20783,7 @@
         <v>1.71</v>
       </c>
       <c r="AS103">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT103">
         <v>1.75</v>
@@ -21932,7 +21932,7 @@
         <v>1.15</v>
       </c>
       <c r="AT109">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU109">
         <v>1.54</v>
@@ -23457,7 +23457,7 @@
         <v>0.38</v>
       </c>
       <c r="AS117">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT117">
         <v>0.54</v>
@@ -26134,7 +26134,7 @@
         <v>0.67</v>
       </c>
       <c r="AT131">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU131">
         <v>1.37</v>
@@ -26704,7 +26704,7 @@
         <v>2</v>
       </c>
       <c r="AS134">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT134">
         <v>1.92</v>
@@ -31482,7 +31482,7 @@
         <v>2.31</v>
       </c>
       <c r="AT159">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU159">
         <v>2</v>
@@ -31670,7 +31670,7 @@
         <v>0.27</v>
       </c>
       <c r="AS160">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT160">
         <v>0.23</v>
@@ -34156,7 +34156,7 @@
         <v>0.77</v>
       </c>
       <c r="AT173">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU173">
         <v>1.51</v>
@@ -34590,6 +34590,197 @@
       </c>
       <c r="BK175">
         <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>3157429</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44993.52083333334</v>
+      </c>
+      <c r="F176">
+        <v>21</v>
+      </c>
+      <c r="G176" t="s">
+        <v>66</v>
+      </c>
+      <c r="H176" t="s">
+        <v>74</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>81</v>
+      </c>
+      <c r="P176" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q176">
+        <v>1</v>
+      </c>
+      <c r="R176">
+        <v>7</v>
+      </c>
+      <c r="S176">
+        <v>8</v>
+      </c>
+      <c r="T176">
+        <v>6.5</v>
+      </c>
+      <c r="U176">
+        <v>2.3</v>
+      </c>
+      <c r="V176">
+        <v>2.05</v>
+      </c>
+      <c r="W176">
+        <v>1.36</v>
+      </c>
+      <c r="X176">
+        <v>3</v>
+      </c>
+      <c r="Y176">
+        <v>2.75</v>
+      </c>
+      <c r="Z176">
+        <v>1.4</v>
+      </c>
+      <c r="AA176">
+        <v>7</v>
+      </c>
+      <c r="AB176">
+        <v>1.1</v>
+      </c>
+      <c r="AC176">
+        <v>7.76</v>
+      </c>
+      <c r="AD176">
+        <v>4.36</v>
+      </c>
+      <c r="AE176">
+        <v>1.32</v>
+      </c>
+      <c r="AF176">
+        <v>1.04</v>
+      </c>
+      <c r="AG176">
+        <v>11</v>
+      </c>
+      <c r="AH176">
+        <v>1.28</v>
+      </c>
+      <c r="AI176">
+        <v>3.6</v>
+      </c>
+      <c r="AJ176">
+        <v>1.76</v>
+      </c>
+      <c r="AK176">
+        <v>1.92</v>
+      </c>
+      <c r="AL176">
+        <v>2</v>
+      </c>
+      <c r="AM176">
+        <v>1.75</v>
+      </c>
+      <c r="AN176">
+        <v>2.65</v>
+      </c>
+      <c r="AO176">
+        <v>1.18</v>
+      </c>
+      <c r="AP176">
+        <v>1.09</v>
+      </c>
+      <c r="AQ176">
+        <v>1.82</v>
+      </c>
+      <c r="AR176">
+        <v>1.92</v>
+      </c>
+      <c r="AS176">
+        <v>1.67</v>
+      </c>
+      <c r="AT176">
+        <v>2</v>
+      </c>
+      <c r="AU176">
+        <v>1.37</v>
+      </c>
+      <c r="AV176">
+        <v>1.62</v>
+      </c>
+      <c r="AW176">
+        <v>2.99</v>
+      </c>
+      <c r="AX176">
+        <v>6</v>
+      </c>
+      <c r="AY176">
+        <v>8</v>
+      </c>
+      <c r="AZ176">
+        <v>1.16</v>
+      </c>
+      <c r="BA176">
+        <v>1.35</v>
+      </c>
+      <c r="BB176">
+        <v>1.65</v>
+      </c>
+      <c r="BC176">
+        <v>2.12</v>
+      </c>
+      <c r="BD176">
+        <v>2.9</v>
+      </c>
+      <c r="BE176">
+        <v>3.5</v>
+      </c>
+      <c r="BF176">
+        <v>0</v>
+      </c>
+      <c r="BG176">
+        <v>2</v>
+      </c>
+      <c r="BH176">
+        <v>3</v>
+      </c>
+      <c r="BI176">
+        <v>9</v>
+      </c>
+      <c r="BJ176">
+        <v>3</v>
+      </c>
+      <c r="BK176">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,15 @@
     <t>['62', '84']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['26', '43', '58']</t>
+  </si>
+  <si>
+    <t>['21', '27']</t>
+  </si>
+  <si>
     <t>['27', '68', '90+9']</t>
   </si>
   <si>
@@ -800,6 +809,12 @@
   </si>
   <si>
     <t>['43', '49', '62']</t>
+  </si>
+  <si>
+    <t>['50', '53', '67']</t>
+  </si>
+  <si>
+    <t>['49', '63']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1420,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1492,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT2">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1683,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT3">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1787,7 +1802,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2447,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT7">
         <v>0.23</v>
@@ -2641,7 +2656,7 @@
         <v>2.31</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2829,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT9">
         <v>0.23</v>
@@ -2933,7 +2948,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3023,7 +3038,7 @@
         <v>1.15</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3124,7 +3139,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -3211,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AT11">
         <v>1.69</v>
@@ -3315,7 +3330,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3506,7 +3521,7 @@
         <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3596,7 +3611,7 @@
         <v>0.77</v>
       </c>
       <c r="AT13">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3978,7 +3993,7 @@
         <v>1.54</v>
       </c>
       <c r="AT15">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4169,7 +4184,7 @@
         <v>0.77</v>
       </c>
       <c r="AT16">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU16">
         <v>0.61</v>
@@ -4270,7 +4285,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4739,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT19">
         <v>1.23</v>
@@ -4843,7 +4858,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4930,10 +4945,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT20">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU20">
         <v>1.54</v>
@@ -5121,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5312,10 +5327,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT22">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU22">
         <v>1.55</v>
@@ -5416,7 +5431,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5798,7 +5813,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5885,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT25">
         <v>0.6899999999999999</v>
@@ -5989,7 +6004,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6180,7 +6195,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6371,7 +6386,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6652,7 +6667,7 @@
         <v>2.31</v>
       </c>
       <c r="AT29">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU29">
         <v>2.15</v>
@@ -6840,10 +6855,10 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT30">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU30">
         <v>1.39</v>
@@ -6944,7 +6959,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7225,7 +7240,7 @@
         <v>2.46</v>
       </c>
       <c r="AT32">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU32">
         <v>1.18</v>
@@ -7326,7 +7341,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7413,10 +7428,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT33">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7517,7 +7532,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7607,7 +7622,7 @@
         <v>0.77</v>
       </c>
       <c r="AT34">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU34">
         <v>0.96</v>
@@ -7708,7 +7723,7 @@
         <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7795,10 +7810,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT35">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU35">
         <v>1.46</v>
@@ -7986,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT36">
         <v>0.54</v>
@@ -8371,7 +8386,7 @@
         <v>1.54</v>
       </c>
       <c r="AT38">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU38">
         <v>1.24</v>
@@ -8750,7 +8765,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT40">
         <v>0.85</v>
@@ -8854,7 +8869,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8944,7 +8959,7 @@
         <v>2.31</v>
       </c>
       <c r="AT41">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU41">
         <v>1.96</v>
@@ -9045,7 +9060,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9323,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AT43">
         <v>0.54</v>
@@ -9427,7 +9442,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9618,7 +9633,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -9705,10 +9720,10 @@
         <v>0.67</v>
       </c>
       <c r="AS45">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT45">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU45">
         <v>1.62</v>
@@ -9809,7 +9824,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9899,7 +9914,7 @@
         <v>0.77</v>
       </c>
       <c r="AT46">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <v>1.05</v>
@@ -10000,7 +10015,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10087,10 +10102,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT47">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU47">
         <v>1.2</v>
@@ -10281,7 +10296,7 @@
         <v>2.46</v>
       </c>
       <c r="AT48">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU48">
         <v>1.12</v>
@@ -10382,7 +10397,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10469,7 +10484,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT49">
         <v>2</v>
@@ -10573,7 +10588,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10660,10 +10675,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT50">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU50">
         <v>1.34</v>
@@ -10764,7 +10779,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -10851,7 +10866,7 @@
         <v>0.2</v>
       </c>
       <c r="AS51">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT51">
         <v>0.23</v>
@@ -11042,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT52">
         <v>0.54</v>
@@ -11233,7 +11248,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AT53">
         <v>0.6899999999999999</v>
@@ -11337,7 +11352,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11427,7 +11442,7 @@
         <v>1.15</v>
       </c>
       <c r="AT54">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU54">
         <v>1.81</v>
@@ -11528,7 +11543,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11618,7 +11633,7 @@
         <v>0.77</v>
       </c>
       <c r="AT55">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU55">
         <v>1.21</v>
@@ -11910,7 +11925,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12000,7 +12015,7 @@
         <v>2.31</v>
       </c>
       <c r="AT57">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -12101,7 +12116,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12188,7 +12203,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT58">
         <v>1.69</v>
@@ -12292,7 +12307,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12382,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="AT59">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU59">
         <v>0.83</v>
@@ -12483,7 +12498,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12570,10 +12585,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT60">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU60">
         <v>1.83</v>
@@ -12865,7 +12880,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -12955,7 +12970,7 @@
         <v>2.31</v>
       </c>
       <c r="AT62">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU62">
         <v>1.84</v>
@@ -13056,7 +13071,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13143,7 +13158,7 @@
         <v>2.25</v>
       </c>
       <c r="AS63">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT63">
         <v>2</v>
@@ -13337,7 +13352,7 @@
         <v>0.77</v>
       </c>
       <c r="AT64">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU64">
         <v>1.07</v>
@@ -13438,7 +13453,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13525,7 +13540,7 @@
         <v>1.6</v>
       </c>
       <c r="AS65">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT65">
         <v>1.23</v>
@@ -13629,7 +13644,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13716,10 +13731,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT66">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13910,7 +13925,7 @@
         <v>2.31</v>
       </c>
       <c r="AT67">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU67">
         <v>1.76</v>
@@ -14011,7 +14026,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14098,7 +14113,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT68">
         <v>0.6899999999999999</v>
@@ -14289,10 +14304,10 @@
         <v>1.5</v>
       </c>
       <c r="AS69">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AT69">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU69">
         <v>2.5</v>
@@ -14393,7 +14408,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14480,10 +14495,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT70">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU70">
         <v>1.46</v>
@@ -14674,7 +14689,7 @@
         <v>1.15</v>
       </c>
       <c r="AT71">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU71">
         <v>1.71</v>
@@ -14775,7 +14790,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14966,7 +14981,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15244,7 +15259,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT74">
         <v>0.85</v>
@@ -15438,7 +15453,7 @@
         <v>2.31</v>
       </c>
       <c r="AT75">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU75">
         <v>1.94</v>
@@ -15820,7 +15835,7 @@
         <v>2.46</v>
       </c>
       <c r="AT77">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU77">
         <v>1.34</v>
@@ -16199,10 +16214,10 @@
         <v>0.67</v>
       </c>
       <c r="AS79">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT79">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU79">
         <v>1.58</v>
@@ -16303,7 +16318,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16393,7 +16408,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU80">
         <v>0.92</v>
@@ -16581,10 +16596,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT81">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU81">
         <v>1.28</v>
@@ -16772,10 +16787,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AT82">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU82">
         <v>2.41</v>
@@ -16963,10 +16978,10 @@
         <v>1.6</v>
       </c>
       <c r="AS83">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT83">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU83">
         <v>1.12</v>
@@ -17154,10 +17169,10 @@
         <v>0.17</v>
       </c>
       <c r="AS84">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT84">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU84">
         <v>1.34</v>
@@ -17258,7 +17273,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17345,10 +17360,10 @@
         <v>1.2</v>
       </c>
       <c r="AS85">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT85">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU85">
         <v>1.74</v>
@@ -17449,7 +17464,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17831,7 +17846,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18595,7 +18610,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18873,7 +18888,7 @@
         <v>1.17</v>
       </c>
       <c r="AS93">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT93">
         <v>0.85</v>
@@ -19064,10 +19079,10 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AT94">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU94">
         <v>2.39</v>
@@ -19359,7 +19374,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19449,7 +19464,7 @@
         <v>1.15</v>
       </c>
       <c r="AT96">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU96">
         <v>1.6</v>
@@ -19550,7 +19565,7 @@
         <v>126</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19637,10 +19652,10 @@
         <v>3</v>
       </c>
       <c r="AS97">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT97">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU97">
         <v>1.58</v>
@@ -19932,7 +19947,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20022,7 +20037,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU99">
         <v>0.89</v>
@@ -20210,7 +20225,7 @@
         <v>0.43</v>
       </c>
       <c r="AS100">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT100">
         <v>0.54</v>
@@ -20404,7 +20419,7 @@
         <v>2.31</v>
       </c>
       <c r="AT101">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU101">
         <v>1.65</v>
@@ -20505,7 +20520,7 @@
         <v>81</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20592,7 +20607,7 @@
         <v>2</v>
       </c>
       <c r="AS102">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT102">
         <v>2</v>
@@ -20696,7 +20711,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20783,10 +20798,10 @@
         <v>1.71</v>
       </c>
       <c r="AS103">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT103">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU103">
         <v>1.3</v>
@@ -20977,7 +20992,7 @@
         <v>2.46</v>
       </c>
       <c r="AT104">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU104">
         <v>1.47</v>
@@ -21165,7 +21180,7 @@
         <v>1.71</v>
       </c>
       <c r="AS105">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT105">
         <v>1.23</v>
@@ -21359,7 +21374,7 @@
         <v>0.77</v>
       </c>
       <c r="AT106">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU106">
         <v>1.25</v>
@@ -21651,7 +21666,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21738,10 +21753,10 @@
         <v>2.67</v>
       </c>
       <c r="AS108">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT108">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU108">
         <v>1.16</v>
@@ -22033,7 +22048,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22120,10 +22135,10 @@
         <v>1.71</v>
       </c>
       <c r="AS110">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT110">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU110">
         <v>1.5</v>
@@ -22314,7 +22329,7 @@
         <v>1.54</v>
       </c>
       <c r="AT111">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU111">
         <v>1.31</v>
@@ -22797,7 +22812,7 @@
         <v>155</v>
       </c>
       <c r="P114" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22884,10 +22899,10 @@
         <v>0.25</v>
       </c>
       <c r="AS114">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT114">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU114">
         <v>1.17</v>
@@ -22988,7 +23003,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23078,7 +23093,7 @@
         <v>0.77</v>
       </c>
       <c r="AT115">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU115">
         <v>1.22</v>
@@ -23179,7 +23194,7 @@
         <v>81</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23266,10 +23281,10 @@
         <v>1.88</v>
       </c>
       <c r="AS116">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT116">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU116">
         <v>1.31</v>
@@ -23457,7 +23472,7 @@
         <v>0.38</v>
       </c>
       <c r="AS117">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT117">
         <v>0.54</v>
@@ -23648,10 +23663,10 @@
         <v>0.5</v>
       </c>
       <c r="AS118">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT118">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU118">
         <v>1.78</v>
@@ -23839,10 +23854,10 @@
         <v>2.71</v>
       </c>
       <c r="AS119">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AT119">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU119">
         <v>2.36</v>
@@ -23943,7 +23958,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -24033,7 +24048,7 @@
         <v>1</v>
       </c>
       <c r="AT120">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU120">
         <v>1.05</v>
@@ -24134,7 +24149,7 @@
         <v>112</v>
       </c>
       <c r="P121" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24415,7 +24430,7 @@
         <v>2.31</v>
       </c>
       <c r="AT122">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU122">
         <v>1.85</v>
@@ -24603,7 +24618,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AT123">
         <v>1.23</v>
@@ -25179,7 +25194,7 @@
         <v>1.15</v>
       </c>
       <c r="AT126">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU126">
         <v>1.41</v>
@@ -25280,7 +25295,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25367,7 +25382,7 @@
         <v>1.63</v>
       </c>
       <c r="AS127">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT127">
         <v>1.69</v>
@@ -25471,7 +25486,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25561,7 +25576,7 @@
         <v>1</v>
       </c>
       <c r="AT128">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU128">
         <v>1</v>
@@ -25752,7 +25767,7 @@
         <v>0.77</v>
       </c>
       <c r="AT129">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU129">
         <v>1.49</v>
@@ -25940,7 +25955,7 @@
         <v>1.78</v>
       </c>
       <c r="AS130">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT130">
         <v>1.69</v>
@@ -26044,7 +26059,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -26131,7 +26146,7 @@
         <v>1.89</v>
       </c>
       <c r="AS131">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT131">
         <v>2</v>
@@ -26322,10 +26337,10 @@
         <v>0.44</v>
       </c>
       <c r="AS132">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT132">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU132">
         <v>1.18</v>
@@ -26426,7 +26441,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -26516,7 +26531,7 @@
         <v>2.46</v>
       </c>
       <c r="AT133">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU133">
         <v>1.57</v>
@@ -26617,7 +26632,7 @@
         <v>163</v>
       </c>
       <c r="P134" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26704,10 +26719,10 @@
         <v>2</v>
       </c>
       <c r="AS134">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT134">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU134">
         <v>1.33</v>
@@ -26808,7 +26823,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26895,7 +26910,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT135">
         <v>1.23</v>
@@ -27190,7 +27205,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27280,7 +27295,7 @@
         <v>2.31</v>
       </c>
       <c r="AT137">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU137">
         <v>1.69</v>
@@ -27468,7 +27483,7 @@
         <v>0.89</v>
       </c>
       <c r="AS138">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AT138">
         <v>0.85</v>
@@ -27572,7 +27587,7 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27763,7 +27778,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28044,7 +28059,7 @@
         <v>1.54</v>
       </c>
       <c r="AT141">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU141">
         <v>1.3</v>
@@ -28235,7 +28250,7 @@
         <v>0.77</v>
       </c>
       <c r="AT142">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU142">
         <v>1.47</v>
@@ -28423,7 +28438,7 @@
         <v>0.8</v>
       </c>
       <c r="AS143">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT143">
         <v>0.85</v>
@@ -28617,7 +28632,7 @@
         <v>2.46</v>
       </c>
       <c r="AT144">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU144">
         <v>1.51</v>
@@ -28808,7 +28823,7 @@
         <v>1</v>
       </c>
       <c r="AT145">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU145">
         <v>1.03</v>
@@ -28999,7 +29014,7 @@
         <v>2.31</v>
       </c>
       <c r="AT146">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU146">
         <v>1.96</v>
@@ -29100,7 +29115,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29187,7 +29202,7 @@
         <v>1.6</v>
       </c>
       <c r="AS147">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT147">
         <v>1.69</v>
@@ -29482,7 +29497,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29569,7 +29584,7 @@
         <v>0.8</v>
       </c>
       <c r="AS149">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT149">
         <v>0.6899999999999999</v>
@@ -29673,7 +29688,7 @@
         <v>171</v>
       </c>
       <c r="P150" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29760,10 +29775,10 @@
         <v>2.2</v>
       </c>
       <c r="AS150">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT150">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU150">
         <v>1.72</v>
@@ -29864,7 +29879,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -29954,7 +29969,7 @@
         <v>0.77</v>
       </c>
       <c r="AT151">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU151">
         <v>1.16</v>
@@ -30055,7 +30070,7 @@
         <v>173</v>
       </c>
       <c r="P152" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30145,7 +30160,7 @@
         <v>1.54</v>
       </c>
       <c r="AT152">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU152">
         <v>1.25</v>
@@ -30333,7 +30348,7 @@
         <v>0.3</v>
       </c>
       <c r="AS153">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AT153">
         <v>0.23</v>
@@ -30909,7 +30924,7 @@
         <v>1.54</v>
       </c>
       <c r="AT156">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU156">
         <v>1.25</v>
@@ -31010,7 +31025,7 @@
         <v>81</v>
       </c>
       <c r="P157" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q157">
         <v>5</v>
@@ -31100,7 +31115,7 @@
         <v>0.77</v>
       </c>
       <c r="AT157">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU157">
         <v>1.22</v>
@@ -31670,7 +31685,7 @@
         <v>0.27</v>
       </c>
       <c r="AS160">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT160">
         <v>0.23</v>
@@ -31774,7 +31789,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -32052,10 +32067,10 @@
         <v>0.45</v>
       </c>
       <c r="AS162">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT162">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU162">
         <v>1.29</v>
@@ -32243,10 +32258,10 @@
         <v>0.45</v>
       </c>
       <c r="AS163">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AT163">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU163">
         <v>2.31</v>
@@ -32437,7 +32452,7 @@
         <v>1.15</v>
       </c>
       <c r="AT164">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU164">
         <v>1.36</v>
@@ -32628,7 +32643,7 @@
         <v>2.31</v>
       </c>
       <c r="AT165">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU165">
         <v>1.79</v>
@@ -32729,7 +32744,7 @@
         <v>81</v>
       </c>
       <c r="P166" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -32816,10 +32831,10 @@
         <v>1.18</v>
       </c>
       <c r="AS166">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AT166">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU166">
         <v>1.3</v>
@@ -33007,7 +33022,7 @@
         <v>1.36</v>
       </c>
       <c r="AS167">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT167">
         <v>1.23</v>
@@ -33198,7 +33213,7 @@
         <v>0.73</v>
       </c>
       <c r="AS168">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT168">
         <v>0.6899999999999999</v>
@@ -33302,7 +33317,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33684,7 +33699,7 @@
         <v>81</v>
       </c>
       <c r="P171" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33875,7 +33890,7 @@
         <v>186</v>
       </c>
       <c r="P172" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34066,7 +34081,7 @@
         <v>81</v>
       </c>
       <c r="P173" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34726,7 +34741,7 @@
         <v>1.92</v>
       </c>
       <c r="AS176">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT176">
         <v>2</v>
@@ -34781,6 +34796,1343 @@
       </c>
       <c r="BK176">
         <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>3157464</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F177">
+        <v>26</v>
+      </c>
+      <c r="G177" t="s">
+        <v>74</v>
+      </c>
+      <c r="H177" t="s">
+        <v>71</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>3</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177" t="s">
+        <v>189</v>
+      </c>
+      <c r="P177" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q177">
+        <v>11</v>
+      </c>
+      <c r="R177">
+        <v>1</v>
+      </c>
+      <c r="S177">
+        <v>12</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>2.1</v>
+      </c>
+      <c r="V177">
+        <v>4.33</v>
+      </c>
+      <c r="W177">
+        <v>1.44</v>
+      </c>
+      <c r="X177">
+        <v>2.63</v>
+      </c>
+      <c r="Y177">
+        <v>3.25</v>
+      </c>
+      <c r="Z177">
+        <v>1.33</v>
+      </c>
+      <c r="AA177">
+        <v>9</v>
+      </c>
+      <c r="AB177">
+        <v>1.07</v>
+      </c>
+      <c r="AC177">
+        <v>2.21</v>
+      </c>
+      <c r="AD177">
+        <v>3.2</v>
+      </c>
+      <c r="AE177">
+        <v>3.1</v>
+      </c>
+      <c r="AF177">
+        <v>1.05</v>
+      </c>
+      <c r="AG177">
+        <v>8</v>
+      </c>
+      <c r="AH177">
+        <v>1.36</v>
+      </c>
+      <c r="AI177">
+        <v>2.9</v>
+      </c>
+      <c r="AJ177">
+        <v>2.06</v>
+      </c>
+      <c r="AK177">
+        <v>1.65</v>
+      </c>
+      <c r="AL177">
+        <v>1.91</v>
+      </c>
+      <c r="AM177">
+        <v>1.91</v>
+      </c>
+      <c r="AN177">
+        <v>1.3</v>
+      </c>
+      <c r="AO177">
+        <v>1.3</v>
+      </c>
+      <c r="AP177">
+        <v>1.78</v>
+      </c>
+      <c r="AQ177">
+        <v>2.75</v>
+      </c>
+      <c r="AR177">
+        <v>1.92</v>
+      </c>
+      <c r="AS177">
+        <v>2.54</v>
+      </c>
+      <c r="AT177">
+        <v>2</v>
+      </c>
+      <c r="AU177">
+        <v>2.4</v>
+      </c>
+      <c r="AV177">
+        <v>1.73</v>
+      </c>
+      <c r="AW177">
+        <v>4.13</v>
+      </c>
+      <c r="AX177">
+        <v>1.51</v>
+      </c>
+      <c r="AY177">
+        <v>8.5</v>
+      </c>
+      <c r="AZ177">
+        <v>3.16</v>
+      </c>
+      <c r="BA177">
+        <v>1.34</v>
+      </c>
+      <c r="BB177">
+        <v>1.64</v>
+      </c>
+      <c r="BC177">
+        <v>2.1</v>
+      </c>
+      <c r="BD177">
+        <v>2.85</v>
+      </c>
+      <c r="BE177">
+        <v>4</v>
+      </c>
+      <c r="BF177">
+        <v>7</v>
+      </c>
+      <c r="BG177">
+        <v>4</v>
+      </c>
+      <c r="BH177">
+        <v>8</v>
+      </c>
+      <c r="BI177">
+        <v>3</v>
+      </c>
+      <c r="BJ177">
+        <v>15</v>
+      </c>
+      <c r="BK177">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>3157465</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F178">
+        <v>26</v>
+      </c>
+      <c r="G178" t="s">
+        <v>70</v>
+      </c>
+      <c r="H178" t="s">
+        <v>73</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>3</v>
+      </c>
+      <c r="L178">
+        <v>3</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" t="s">
+        <v>190</v>
+      </c>
+      <c r="P178" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q178">
+        <v>9</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>11</v>
+      </c>
+      <c r="T178">
+        <v>2.05</v>
+      </c>
+      <c r="U178">
+        <v>2.2</v>
+      </c>
+      <c r="V178">
+        <v>7.5</v>
+      </c>
+      <c r="W178">
+        <v>1.44</v>
+      </c>
+      <c r="X178">
+        <v>2.63</v>
+      </c>
+      <c r="Y178">
+        <v>3.25</v>
+      </c>
+      <c r="Z178">
+        <v>1.33</v>
+      </c>
+      <c r="AA178">
+        <v>10</v>
+      </c>
+      <c r="AB178">
+        <v>1.06</v>
+      </c>
+      <c r="AC178">
+        <v>1.37</v>
+      </c>
+      <c r="AD178">
+        <v>4.15</v>
+      </c>
+      <c r="AE178">
+        <v>8.65</v>
+      </c>
+      <c r="AF178">
+        <v>1.06</v>
+      </c>
+      <c r="AG178">
+        <v>9.5</v>
+      </c>
+      <c r="AH178">
+        <v>1.38</v>
+      </c>
+      <c r="AI178">
+        <v>3</v>
+      </c>
+      <c r="AJ178">
+        <v>1.99</v>
+      </c>
+      <c r="AK178">
+        <v>1.7</v>
+      </c>
+      <c r="AL178">
+        <v>2.38</v>
+      </c>
+      <c r="AM178">
+        <v>1.53</v>
+      </c>
+      <c r="AN178">
+        <v>1.09</v>
+      </c>
+      <c r="AO178">
+        <v>1.17</v>
+      </c>
+      <c r="AP178">
+        <v>2.23</v>
+      </c>
+      <c r="AQ178">
+        <v>2.17</v>
+      </c>
+      <c r="AR178">
+        <v>0.67</v>
+      </c>
+      <c r="AS178">
+        <v>2.23</v>
+      </c>
+      <c r="AT178">
+        <v>0.62</v>
+      </c>
+      <c r="AU178">
+        <v>1.69</v>
+      </c>
+      <c r="AV178">
+        <v>0.97</v>
+      </c>
+      <c r="AW178">
+        <v>2.66</v>
+      </c>
+      <c r="AX178">
+        <v>1.19</v>
+      </c>
+      <c r="AY178">
+        <v>10</v>
+      </c>
+      <c r="AZ178">
+        <v>6.15</v>
+      </c>
+      <c r="BA178">
+        <v>1.44</v>
+      </c>
+      <c r="BB178">
+        <v>1.83</v>
+      </c>
+      <c r="BC178">
+        <v>2.38</v>
+      </c>
+      <c r="BD178">
+        <v>3.3</v>
+      </c>
+      <c r="BE178">
+        <v>4.4</v>
+      </c>
+      <c r="BF178">
+        <v>11</v>
+      </c>
+      <c r="BG178">
+        <v>3</v>
+      </c>
+      <c r="BH178">
+        <v>8</v>
+      </c>
+      <c r="BI178">
+        <v>2</v>
+      </c>
+      <c r="BJ178">
+        <v>19</v>
+      </c>
+      <c r="BK178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>3157466</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F179">
+        <v>26</v>
+      </c>
+      <c r="G179" t="s">
+        <v>66</v>
+      </c>
+      <c r="H179" t="s">
+        <v>69</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>81</v>
+      </c>
+      <c r="P179" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q179">
+        <v>5</v>
+      </c>
+      <c r="R179">
+        <v>8</v>
+      </c>
+      <c r="S179">
+        <v>13</v>
+      </c>
+      <c r="T179">
+        <v>7.6</v>
+      </c>
+      <c r="U179">
+        <v>2.06</v>
+      </c>
+      <c r="V179">
+        <v>2.09</v>
+      </c>
+      <c r="W179">
+        <v>1.5</v>
+      </c>
+      <c r="X179">
+        <v>2.48</v>
+      </c>
+      <c r="Y179">
+        <v>3.4</v>
+      </c>
+      <c r="Z179">
+        <v>1.29</v>
+      </c>
+      <c r="AA179">
+        <v>9.1</v>
+      </c>
+      <c r="AB179">
+        <v>1.04</v>
+      </c>
+      <c r="AC179">
+        <v>5.5</v>
+      </c>
+      <c r="AD179">
+        <v>3.15</v>
+      </c>
+      <c r="AE179">
+        <v>1.7</v>
+      </c>
+      <c r="AF179">
+        <v>1.08</v>
+      </c>
+      <c r="AG179">
+        <v>7.25</v>
+      </c>
+      <c r="AH179">
+        <v>1.43</v>
+      </c>
+      <c r="AI179">
+        <v>2.6</v>
+      </c>
+      <c r="AJ179">
+        <v>2.44</v>
+      </c>
+      <c r="AK179">
+        <v>1.47</v>
+      </c>
+      <c r="AL179">
+        <v>2.44</v>
+      </c>
+      <c r="AM179">
+        <v>1.53</v>
+      </c>
+      <c r="AN179">
+        <v>1.96</v>
+      </c>
+      <c r="AO179">
+        <v>1.24</v>
+      </c>
+      <c r="AP179">
+        <v>1.11</v>
+      </c>
+      <c r="AQ179">
+        <v>1.67</v>
+      </c>
+      <c r="AR179">
+        <v>2.17</v>
+      </c>
+      <c r="AS179">
+        <v>1.54</v>
+      </c>
+      <c r="AT179">
+        <v>2.23</v>
+      </c>
+      <c r="AU179">
+        <v>1.29</v>
+      </c>
+      <c r="AV179">
+        <v>1.23</v>
+      </c>
+      <c r="AW179">
+        <v>2.52</v>
+      </c>
+      <c r="AX179">
+        <v>3.84</v>
+      </c>
+      <c r="AY179">
+        <v>8.5</v>
+      </c>
+      <c r="AZ179">
+        <v>1.37</v>
+      </c>
+      <c r="BA179">
+        <v>1.47</v>
+      </c>
+      <c r="BB179">
+        <v>1.9</v>
+      </c>
+      <c r="BC179">
+        <v>2.48</v>
+      </c>
+      <c r="BD179">
+        <v>3.45</v>
+      </c>
+      <c r="BE179">
+        <v>4.5</v>
+      </c>
+      <c r="BF179">
+        <v>2</v>
+      </c>
+      <c r="BG179">
+        <v>7</v>
+      </c>
+      <c r="BH179">
+        <v>2</v>
+      </c>
+      <c r="BI179">
+        <v>6</v>
+      </c>
+      <c r="BJ179">
+        <v>4</v>
+      </c>
+      <c r="BK179">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>3157467</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F180">
+        <v>26</v>
+      </c>
+      <c r="G180" t="s">
+        <v>65</v>
+      </c>
+      <c r="H180" t="s">
+        <v>68</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>81</v>
+      </c>
+      <c r="P180" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q180">
+        <v>1</v>
+      </c>
+      <c r="R180">
+        <v>12</v>
+      </c>
+      <c r="S180">
+        <v>13</v>
+      </c>
+      <c r="T180">
+        <v>8</v>
+      </c>
+      <c r="U180">
+        <v>2.38</v>
+      </c>
+      <c r="V180">
+        <v>1.91</v>
+      </c>
+      <c r="W180">
+        <v>1.36</v>
+      </c>
+      <c r="X180">
+        <v>3</v>
+      </c>
+      <c r="Y180">
+        <v>2.75</v>
+      </c>
+      <c r="Z180">
+        <v>1.4</v>
+      </c>
+      <c r="AA180">
+        <v>7</v>
+      </c>
+      <c r="AB180">
+        <v>1.1</v>
+      </c>
+      <c r="AC180">
+        <v>11.7</v>
+      </c>
+      <c r="AD180">
+        <v>4.7</v>
+      </c>
+      <c r="AE180">
+        <v>1.26</v>
+      </c>
+      <c r="AF180">
+        <v>1.04</v>
+      </c>
+      <c r="AG180">
+        <v>10.5</v>
+      </c>
+      <c r="AH180">
+        <v>1.26</v>
+      </c>
+      <c r="AI180">
+        <v>3.5</v>
+      </c>
+      <c r="AJ180">
+        <v>1.7</v>
+      </c>
+      <c r="AK180">
+        <v>1.99</v>
+      </c>
+      <c r="AL180">
+        <v>2.2</v>
+      </c>
+      <c r="AM180">
+        <v>1.62</v>
+      </c>
+      <c r="AN180">
+        <v>2.47</v>
+      </c>
+      <c r="AO180">
+        <v>1.14</v>
+      </c>
+      <c r="AP180">
+        <v>1.07</v>
+      </c>
+      <c r="AQ180">
+        <v>1.42</v>
+      </c>
+      <c r="AR180">
+        <v>1.75</v>
+      </c>
+      <c r="AS180">
+        <v>1.31</v>
+      </c>
+      <c r="AT180">
+        <v>1.85</v>
+      </c>
+      <c r="AU180">
+        <v>1.29</v>
+      </c>
+      <c r="AV180">
+        <v>1.47</v>
+      </c>
+      <c r="AW180">
+        <v>2.76</v>
+      </c>
+      <c r="AX180">
+        <v>4.84</v>
+      </c>
+      <c r="AY180">
+        <v>10</v>
+      </c>
+      <c r="AZ180">
+        <v>1.26</v>
+      </c>
+      <c r="BA180">
+        <v>1.35</v>
+      </c>
+      <c r="BB180">
+        <v>1.65</v>
+      </c>
+      <c r="BC180">
+        <v>2.12</v>
+      </c>
+      <c r="BD180">
+        <v>2.88</v>
+      </c>
+      <c r="BE180">
+        <v>3.92</v>
+      </c>
+      <c r="BF180">
+        <v>0</v>
+      </c>
+      <c r="BG180">
+        <v>4</v>
+      </c>
+      <c r="BH180">
+        <v>3</v>
+      </c>
+      <c r="BI180">
+        <v>8</v>
+      </c>
+      <c r="BJ180">
+        <v>3</v>
+      </c>
+      <c r="BK180">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>3157468</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F181">
+        <v>26</v>
+      </c>
+      <c r="G181" t="s">
+        <v>72</v>
+      </c>
+      <c r="H181" t="s">
+        <v>77</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>82</v>
+      </c>
+      <c r="P181" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q181">
+        <v>2</v>
+      </c>
+      <c r="R181">
+        <v>3</v>
+      </c>
+      <c r="S181">
+        <v>5</v>
+      </c>
+      <c r="T181">
+        <v>3</v>
+      </c>
+      <c r="U181">
+        <v>1.91</v>
+      </c>
+      <c r="V181">
+        <v>4.33</v>
+      </c>
+      <c r="W181">
+        <v>1.57</v>
+      </c>
+      <c r="X181">
+        <v>2.25</v>
+      </c>
+      <c r="Y181">
+        <v>3.75</v>
+      </c>
+      <c r="Z181">
+        <v>1.25</v>
+      </c>
+      <c r="AA181">
+        <v>13</v>
+      </c>
+      <c r="AB181">
+        <v>1.04</v>
+      </c>
+      <c r="AC181">
+        <v>1.74</v>
+      </c>
+      <c r="AD181">
+        <v>3.15</v>
+      </c>
+      <c r="AE181">
+        <v>5.1</v>
+      </c>
+      <c r="AF181">
+        <v>1.1</v>
+      </c>
+      <c r="AG181">
+        <v>7</v>
+      </c>
+      <c r="AH181">
+        <v>1.44</v>
+      </c>
+      <c r="AI181">
+        <v>2.37</v>
+      </c>
+      <c r="AJ181">
+        <v>2.44</v>
+      </c>
+      <c r="AK181">
+        <v>1.47</v>
+      </c>
+      <c r="AL181">
+        <v>2.1</v>
+      </c>
+      <c r="AM181">
+        <v>1.67</v>
+      </c>
+      <c r="AN181">
+        <v>1.28</v>
+      </c>
+      <c r="AO181">
+        <v>1.35</v>
+      </c>
+      <c r="AP181">
+        <v>1.66</v>
+      </c>
+      <c r="AQ181">
+        <v>0.67</v>
+      </c>
+      <c r="AR181">
+        <v>0.42</v>
+      </c>
+      <c r="AS181">
+        <v>0.85</v>
+      </c>
+      <c r="AT181">
+        <v>0.38</v>
+      </c>
+      <c r="AU181">
+        <v>1.32</v>
+      </c>
+      <c r="AV181">
+        <v>1.05</v>
+      </c>
+      <c r="AW181">
+        <v>2.37</v>
+      </c>
+      <c r="AX181">
+        <v>1.75</v>
+      </c>
+      <c r="AY181">
+        <v>7.5</v>
+      </c>
+      <c r="AZ181">
+        <v>2.53</v>
+      </c>
+      <c r="BA181">
+        <v>1.56</v>
+      </c>
+      <c r="BB181">
+        <v>2</v>
+      </c>
+      <c r="BC181">
+        <v>2.75</v>
+      </c>
+      <c r="BD181">
+        <v>3.9</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>5</v>
+      </c>
+      <c r="BG181">
+        <v>0</v>
+      </c>
+      <c r="BH181">
+        <v>3</v>
+      </c>
+      <c r="BI181">
+        <v>2</v>
+      </c>
+      <c r="BJ181">
+        <v>8</v>
+      </c>
+      <c r="BK181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>3157469</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F182">
+        <v>26</v>
+      </c>
+      <c r="G182" t="s">
+        <v>78</v>
+      </c>
+      <c r="H182" t="s">
+        <v>76</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>191</v>
+      </c>
+      <c r="P182" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q182">
+        <v>3</v>
+      </c>
+      <c r="R182">
+        <v>3</v>
+      </c>
+      <c r="S182">
+        <v>6</v>
+      </c>
+      <c r="T182">
+        <v>3.6</v>
+      </c>
+      <c r="U182">
+        <v>1.95</v>
+      </c>
+      <c r="V182">
+        <v>3.5</v>
+      </c>
+      <c r="W182">
+        <v>1.54</v>
+      </c>
+      <c r="X182">
+        <v>2.35</v>
+      </c>
+      <c r="Y182">
+        <v>3.71</v>
+      </c>
+      <c r="Z182">
+        <v>1.24</v>
+      </c>
+      <c r="AA182">
+        <v>11</v>
+      </c>
+      <c r="AB182">
+        <v>1.03</v>
+      </c>
+      <c r="AC182">
+        <v>2.66</v>
+      </c>
+      <c r="AD182">
+        <v>3.1</v>
+      </c>
+      <c r="AE182">
+        <v>2.56</v>
+      </c>
+      <c r="AF182">
+        <v>1.1</v>
+      </c>
+      <c r="AG182">
+        <v>7</v>
+      </c>
+      <c r="AH182">
+        <v>1.5</v>
+      </c>
+      <c r="AI182">
+        <v>2.35</v>
+      </c>
+      <c r="AJ182">
+        <v>2.33</v>
+      </c>
+      <c r="AK182">
+        <v>1.51</v>
+      </c>
+      <c r="AL182">
+        <v>2.15</v>
+      </c>
+      <c r="AM182">
+        <v>1.66</v>
+      </c>
+      <c r="AN182">
+        <v>1.47</v>
+      </c>
+      <c r="AO182">
+        <v>1.3</v>
+      </c>
+      <c r="AP182">
+        <v>1.47</v>
+      </c>
+      <c r="AQ182">
+        <v>0.92</v>
+      </c>
+      <c r="AR182">
+        <v>1.33</v>
+      </c>
+      <c r="AS182">
+        <v>1.08</v>
+      </c>
+      <c r="AT182">
+        <v>1.23</v>
+      </c>
+      <c r="AU182">
+        <v>1.2</v>
+      </c>
+      <c r="AV182">
+        <v>1.1</v>
+      </c>
+      <c r="AW182">
+        <v>2.3</v>
+      </c>
+      <c r="AX182">
+        <v>1.91</v>
+      </c>
+      <c r="AY182">
+        <v>7.5</v>
+      </c>
+      <c r="AZ182">
+        <v>2.25</v>
+      </c>
+      <c r="BA182">
+        <v>1.47</v>
+      </c>
+      <c r="BB182">
+        <v>1.88</v>
+      </c>
+      <c r="BC182">
+        <v>2.48</v>
+      </c>
+      <c r="BD182">
+        <v>3.45</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>7</v>
+      </c>
+      <c r="BG182">
+        <v>3</v>
+      </c>
+      <c r="BH182">
+        <v>6</v>
+      </c>
+      <c r="BI182">
+        <v>3</v>
+      </c>
+      <c r="BJ182">
+        <v>13</v>
+      </c>
+      <c r="BK182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>3157470</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F183">
+        <v>26</v>
+      </c>
+      <c r="G183" t="s">
+        <v>75</v>
+      </c>
+      <c r="H183" t="s">
+        <v>67</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>184</v>
+      </c>
+      <c r="P183" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q183">
+        <v>3</v>
+      </c>
+      <c r="R183">
+        <v>3</v>
+      </c>
+      <c r="S183">
+        <v>6</v>
+      </c>
+      <c r="T183">
+        <v>3</v>
+      </c>
+      <c r="U183">
+        <v>1.95</v>
+      </c>
+      <c r="V183">
+        <v>4.33</v>
+      </c>
+      <c r="W183">
+        <v>1.53</v>
+      </c>
+      <c r="X183">
+        <v>2.38</v>
+      </c>
+      <c r="Y183">
+        <v>3.75</v>
+      </c>
+      <c r="Z183">
+        <v>1.25</v>
+      </c>
+      <c r="AA183">
+        <v>11</v>
+      </c>
+      <c r="AB183">
+        <v>1.05</v>
+      </c>
+      <c r="AC183">
+        <v>2.22</v>
+      </c>
+      <c r="AD183">
+        <v>2.99</v>
+      </c>
+      <c r="AE183">
+        <v>3.3</v>
+      </c>
+      <c r="AF183">
+        <v>1.08</v>
+      </c>
+      <c r="AG183">
+        <v>7.5</v>
+      </c>
+      <c r="AH183">
+        <v>1.5</v>
+      </c>
+      <c r="AI183">
+        <v>2.55</v>
+      </c>
+      <c r="AJ183">
+        <v>2.29</v>
+      </c>
+      <c r="AK183">
+        <v>1.53</v>
+      </c>
+      <c r="AL183">
+        <v>2.05</v>
+      </c>
+      <c r="AM183">
+        <v>1.7</v>
+      </c>
+      <c r="AN183">
+        <v>1.3</v>
+      </c>
+      <c r="AO183">
+        <v>1.35</v>
+      </c>
+      <c r="AP183">
+        <v>1.66</v>
+      </c>
+      <c r="AQ183">
+        <v>1</v>
+      </c>
+      <c r="AR183">
+        <v>0.5</v>
+      </c>
+      <c r="AS183">
+        <v>1</v>
+      </c>
+      <c r="AT183">
+        <v>0.54</v>
+      </c>
+      <c r="AU183">
+        <v>1.02</v>
+      </c>
+      <c r="AV183">
+        <v>1.07</v>
+      </c>
+      <c r="AW183">
+        <v>2.09</v>
+      </c>
+      <c r="AX183">
+        <v>1.82</v>
+      </c>
+      <c r="AY183">
+        <v>7.5</v>
+      </c>
+      <c r="AZ183">
+        <v>2.4</v>
+      </c>
+      <c r="BA183">
+        <v>1.5</v>
+      </c>
+      <c r="BB183">
+        <v>2</v>
+      </c>
+      <c r="BC183">
+        <v>2.55</v>
+      </c>
+      <c r="BD183">
+        <v>3.6</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>5</v>
+      </c>
+      <c r="BG183">
+        <v>2</v>
+      </c>
+      <c r="BH183">
+        <v>4</v>
+      </c>
+      <c r="BI183">
+        <v>5</v>
+      </c>
+      <c r="BJ183">
+        <v>9</v>
+      </c>
+      <c r="BK183">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -385,10 +385,10 @@
     <t>['26', '31']</t>
   </si>
   <si>
-    <t>['90+2']</t>
+    <t>['81', '90+7']</t>
   </si>
   <si>
-    <t>['81', '90+7']</t>
+    <t>['90+2']</t>
   </si>
   <si>
     <t>['6']</t>
@@ -583,13 +583,13 @@
     <t>['62', '84']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['21', '27']</t>
   </si>
   <si>
     <t>['26', '43', '58']</t>
   </si>
   <si>
-    <t>['21', '27']</t>
+    <t>['81']</t>
   </si>
   <si>
     <t>['27', '68', '90+9']</t>
@@ -625,10 +625,10 @@
     <t>['29']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['20', '60']</t>
   </si>
   <si>
-    <t>['20', '60']</t>
+    <t>['36']</t>
   </si>
   <si>
     <t>['48', '75']</t>
@@ -811,10 +811,10 @@
     <t>['43', '49', '62']</t>
   </si>
   <si>
-    <t>['50', '53', '67']</t>
+    <t>['49', '63']</t>
   </si>
   <si>
-    <t>['49', '63']</t>
+    <t>['50', '53', '67']</t>
   </si>
 </sst>
 </file>
@@ -3712,7 +3712,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -6153,7 +6153,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3157263</v>
+        <v>3157247</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -6168,175 +6168,175 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="P27" t="s">
         <v>203</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T27">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="U27">
         <v>1.95</v>
       </c>
       <c r="V27">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="W27">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="X27">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Y27">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Z27">
         <v>1.29</v>
       </c>
       <c r="AA27">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="AB27">
         <v>1.05</v>
       </c>
       <c r="AC27">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="AD27">
-        <v>3.13</v>
+        <v>3.08</v>
       </c>
       <c r="AE27">
-        <v>3.26</v>
+        <v>2.72</v>
       </c>
       <c r="AF27">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AG27">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="AH27">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AI27">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="AJ27">
-        <v>2.36</v>
+        <v>2.41</v>
       </c>
       <c r="AK27">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AL27">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AM27">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AN27">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="AO27">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AP27">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="AQ27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.46</v>
+        <v>1.54</v>
       </c>
       <c r="AT27">
-        <v>2</v>
+        <v>0.85</v>
       </c>
       <c r="AU27">
-        <v>1.22</v>
+        <v>0.66</v>
       </c>
       <c r="AV27">
-        <v>1.08</v>
+        <v>1.82</v>
       </c>
       <c r="AW27">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="AX27">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AY27">
         <v>7.5</v>
       </c>
       <c r="AZ27">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="BA27">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BB27">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="BC27">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="BD27">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="BE27">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="BF27">
         <v>3</v>
       </c>
       <c r="BG27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH27">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BI27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ27">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BK27">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:63">
@@ -6344,7 +6344,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3157247</v>
+        <v>3157263</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -6359,175 +6359,175 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="P28" t="s">
         <v>204</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="U28">
         <v>1.95</v>
       </c>
       <c r="V28">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="W28">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="X28">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Y28">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z28">
         <v>1.29</v>
       </c>
       <c r="AA28">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AB28">
         <v>1.05</v>
       </c>
       <c r="AC28">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="AD28">
-        <v>3.08</v>
+        <v>3.13</v>
       </c>
       <c r="AE28">
-        <v>2.72</v>
+        <v>3.26</v>
       </c>
       <c r="AF28">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AG28">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="AH28">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AI28">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AJ28">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="AK28">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AL28">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AM28">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AN28">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AO28">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AP28">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.54</v>
+        <v>2.46</v>
       </c>
       <c r="AT28">
-        <v>0.85</v>
+        <v>2</v>
       </c>
       <c r="AU28">
-        <v>0.66</v>
+        <v>1.22</v>
       </c>
       <c r="AV28">
-        <v>1.82</v>
+        <v>1.08</v>
       </c>
       <c r="AW28">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="AX28">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AY28">
         <v>7.5</v>
       </c>
       <c r="AZ28">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="BA28">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="BB28">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="BC28">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="BD28">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="BE28">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="BF28">
         <v>3</v>
       </c>
       <c r="BG28">
+        <v>4</v>
+      </c>
+      <c r="BH28">
+        <v>8</v>
+      </c>
+      <c r="BI28">
         <v>5</v>
       </c>
-      <c r="BH28">
-        <v>17</v>
-      </c>
-      <c r="BI28">
-        <v>2</v>
-      </c>
       <c r="BJ28">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="BK28">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:63">
@@ -6726,7 +6726,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3157281</v>
+        <v>3157299</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -6741,10 +6741,10 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -6759,79 +6759,79 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" t="s">
         <v>81</v>
       </c>
       <c r="P30" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S30">
         <v>7</v>
       </c>
       <c r="T30">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="U30">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="W30">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X30">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Y30">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z30">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA30">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AB30">
         <v>1.06</v>
       </c>
       <c r="AC30">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="AD30">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="AE30">
-        <v>4.1</v>
+        <v>1.64</v>
       </c>
       <c r="AF30">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG30">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AH30">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AI30">
-        <v>2.66</v>
+        <v>3.1</v>
       </c>
       <c r="AJ30">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="AK30">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AL30">
         <v>2</v>
@@ -6840,76 +6840,76 @@
         <v>1.7</v>
       </c>
       <c r="AN30">
-        <v>1.23</v>
+        <v>2.05</v>
       </c>
       <c r="AO30">
+        <v>1.29</v>
+      </c>
+      <c r="AP30">
+        <v>1.16</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>1.5</v>
+      </c>
+      <c r="AS30">
+        <v>1</v>
+      </c>
+      <c r="AT30">
+        <v>2</v>
+      </c>
+      <c r="AU30">
+        <v>1.01</v>
+      </c>
+      <c r="AV30">
+        <v>1.09</v>
+      </c>
+      <c r="AW30">
+        <v>2.1</v>
+      </c>
+      <c r="AX30">
+        <v>4.06</v>
+      </c>
+      <c r="AY30">
+        <v>7.7</v>
+      </c>
+      <c r="AZ30">
+        <v>1.4</v>
+      </c>
+      <c r="BA30">
         <v>1.31</v>
       </c>
-      <c r="AP30">
-        <v>1.83</v>
-      </c>
-      <c r="AQ30">
-        <v>2</v>
-      </c>
-      <c r="AR30">
-        <v>0.5</v>
-      </c>
-      <c r="AS30">
+      <c r="BB30">
         <v>1.54</v>
       </c>
-      <c r="AT30">
-        <v>0.54</v>
-      </c>
-      <c r="AU30">
-        <v>1.39</v>
-      </c>
-      <c r="AV30">
-        <v>1.24</v>
-      </c>
-      <c r="AW30">
-        <v>2.63</v>
-      </c>
-      <c r="AX30">
-        <v>1.59</v>
-      </c>
-      <c r="AY30">
-        <v>8.5</v>
-      </c>
-      <c r="AZ30">
-        <v>2.78</v>
-      </c>
-      <c r="BA30">
-        <v>1.34</v>
-      </c>
-      <c r="BB30">
-        <v>1.33</v>
-      </c>
       <c r="BC30">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="BD30">
-        <v>2.07</v>
+        <v>2.47</v>
       </c>
       <c r="BE30">
-        <v>2.73</v>
+        <v>3.3</v>
       </c>
       <c r="BF30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BI30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BK30">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6917,7 +6917,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3157299</v>
+        <v>3157281</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -6932,10 +6932,10 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -6950,79 +6950,79 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>7</v>
       </c>
       <c r="T31">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V31">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="W31">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X31">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z31">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA31">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AB31">
         <v>1.06</v>
       </c>
       <c r="AC31">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="AD31">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="AE31">
-        <v>1.64</v>
+        <v>4.1</v>
       </c>
       <c r="AF31">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG31">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AH31">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AI31">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="AJ31">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="AK31">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AL31">
         <v>2</v>
@@ -7031,76 +7031,76 @@
         <v>1.7</v>
       </c>
       <c r="AN31">
-        <v>2.05</v>
+        <v>1.23</v>
       </c>
       <c r="AO31">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AP31">
-        <v>1.16</v>
+        <v>1.83</v>
       </c>
       <c r="AQ31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>0.54</v>
       </c>
       <c r="AU31">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="AV31">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AW31">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="AX31">
-        <v>4.06</v>
+        <v>1.59</v>
       </c>
       <c r="AY31">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AZ31">
-        <v>1.4</v>
+        <v>2.78</v>
       </c>
       <c r="BA31">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="BB31">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="BC31">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="BD31">
-        <v>2.47</v>
+        <v>2.07</v>
       </c>
       <c r="BE31">
-        <v>3.3</v>
+        <v>2.73</v>
       </c>
       <c r="BF31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BJ31">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BK31">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:63">
@@ -12647,7 +12647,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3157348</v>
+        <v>3157350</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
@@ -12662,175 +12662,175 @@
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H61" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O61" t="s">
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="Q61">
+        <v>6</v>
+      </c>
+      <c r="R61">
         <v>3</v>
       </c>
-      <c r="R61">
-        <v>2</v>
-      </c>
       <c r="S61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V61">
-        <v>4.5</v>
+        <v>6.25</v>
       </c>
       <c r="W61">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X61">
         <v>2.5</v>
       </c>
       <c r="Y61">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Z61">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AA61">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AB61">
         <v>1.06</v>
       </c>
       <c r="AC61">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="AD61">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AE61">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="AF61">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AG61">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="AH61">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AI61">
         <v>2.75</v>
       </c>
       <c r="AJ61">
+        <v>2.1</v>
+      </c>
+      <c r="AK61">
+        <v>1.69</v>
+      </c>
+      <c r="AL61">
         <v>2.3</v>
       </c>
-      <c r="AK61">
-        <v>1.57</v>
-      </c>
-      <c r="AL61">
-        <v>2</v>
-      </c>
       <c r="AM61">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AN61">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AO61">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AP61">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AQ61">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR61">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AS61">
-        <v>2.46</v>
+        <v>2.31</v>
       </c>
       <c r="AT61">
-        <v>0.85</v>
+        <v>0.38</v>
       </c>
       <c r="AU61">
-        <v>1.3</v>
+        <v>1.84</v>
       </c>
       <c r="AV61">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="AW61">
-        <v>2.84</v>
+        <v>3.08</v>
       </c>
       <c r="AX61">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AY61">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ61">
-        <v>2.78</v>
+        <v>5.3</v>
       </c>
       <c r="BA61">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BB61">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="BC61">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="BD61">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
       <c r="BE61">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="BF61">
         <v>6</v>
       </c>
       <c r="BG61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH61">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BI61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BJ61">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BK61">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:63">
@@ -12838,7 +12838,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>3157350</v>
+        <v>3157348</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -12853,175 +12853,175 @@
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O62" t="s">
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="Q62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T62">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V62">
-        <v>6.25</v>
+        <v>4.5</v>
       </c>
       <c r="W62">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X62">
         <v>2.5</v>
       </c>
       <c r="Y62">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Z62">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AA62">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB62">
         <v>1.06</v>
       </c>
       <c r="AC62">
+        <v>1.95</v>
+      </c>
+      <c r="AD62">
+        <v>3.25</v>
+      </c>
+      <c r="AE62">
+        <v>4</v>
+      </c>
+      <c r="AF62">
+        <v>1.09</v>
+      </c>
+      <c r="AG62">
+        <v>8</v>
+      </c>
+      <c r="AH62">
         <v>1.44</v>
-      </c>
-      <c r="AD62">
-        <v>4</v>
-      </c>
-      <c r="AE62">
-        <v>7.5</v>
-      </c>
-      <c r="AF62">
-        <v>1.07</v>
-      </c>
-      <c r="AG62">
-        <v>7.75</v>
-      </c>
-      <c r="AH62">
-        <v>1.38</v>
       </c>
       <c r="AI62">
         <v>2.75</v>
       </c>
       <c r="AJ62">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AK62">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AL62">
+        <v>2</v>
+      </c>
+      <c r="AM62">
+        <v>1.75</v>
+      </c>
+      <c r="AN62">
+        <v>1.2</v>
+      </c>
+      <c r="AO62">
+        <v>1.31</v>
+      </c>
+      <c r="AP62">
+        <v>1.9</v>
+      </c>
+      <c r="AQ62">
+        <v>3</v>
+      </c>
+      <c r="AR62">
+        <v>1</v>
+      </c>
+      <c r="AS62">
+        <v>2.46</v>
+      </c>
+      <c r="AT62">
+        <v>0.85</v>
+      </c>
+      <c r="AU62">
+        <v>1.3</v>
+      </c>
+      <c r="AV62">
+        <v>1.54</v>
+      </c>
+      <c r="AW62">
+        <v>2.84</v>
+      </c>
+      <c r="AX62">
+        <v>1.64</v>
+      </c>
+      <c r="AY62">
+        <v>7.5</v>
+      </c>
+      <c r="AZ62">
+        <v>2.78</v>
+      </c>
+      <c r="BA62">
+        <v>1.4</v>
+      </c>
+      <c r="BB62">
+        <v>1.93</v>
+      </c>
+      <c r="BC62">
         <v>2.3</v>
       </c>
-      <c r="AM62">
-        <v>1.53</v>
-      </c>
-      <c r="AN62">
-        <v>1.1</v>
-      </c>
-      <c r="AO62">
-        <v>1.24</v>
-      </c>
-      <c r="AP62">
-        <v>2.5</v>
-      </c>
-      <c r="AQ62">
-        <v>2.25</v>
-      </c>
-      <c r="AR62">
-        <v>0.75</v>
-      </c>
-      <c r="AS62">
-        <v>2.31</v>
-      </c>
-      <c r="AT62">
-        <v>0.38</v>
-      </c>
-      <c r="AU62">
-        <v>1.84</v>
-      </c>
-      <c r="AV62">
-        <v>1.24</v>
-      </c>
-      <c r="AW62">
-        <v>3.08</v>
-      </c>
-      <c r="AX62">
-        <v>1.27</v>
-      </c>
-      <c r="AY62">
-        <v>9.5</v>
-      </c>
-      <c r="AZ62">
-        <v>5.3</v>
-      </c>
-      <c r="BA62">
-        <v>1.48</v>
-      </c>
-      <c r="BB62">
-        <v>1.88</v>
-      </c>
-      <c r="BC62">
-        <v>2.47</v>
-      </c>
       <c r="BD62">
-        <v>3.42</v>
+        <v>3.2</v>
       </c>
       <c r="BE62">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="BF62">
         <v>6</v>
       </c>
       <c r="BG62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH62">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BI62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ62">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BK62">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:63">
@@ -32702,7 +32702,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>3157453</v>
+        <v>3157454</v>
       </c>
       <c r="C166" t="s">
         <v>63</v>
@@ -32717,10 +32717,10 @@
         <v>24</v>
       </c>
       <c r="G166" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H166" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -32735,58 +32735,58 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O166" t="s">
         <v>81</v>
       </c>
       <c r="P166" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="Q166">
+        <v>4</v>
+      </c>
+      <c r="R166">
         <v>3</v>
       </c>
-      <c r="R166">
-        <v>5</v>
-      </c>
       <c r="S166">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T166">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="W166">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X166">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y166">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Z166">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AA166">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB166">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC166">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AD166">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AE166">
         <v>2.75</v>
@@ -32795,70 +32795,70 @@
         <v>1.08</v>
       </c>
       <c r="AG166">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AH166">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AI166">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AJ166">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AK166">
         <v>1.58</v>
       </c>
       <c r="AL166">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AM166">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AN166">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AO166">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AP166">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="AQ166">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR166">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AS166">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AT166">
         <v>1.23</v>
       </c>
       <c r="AU166">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AV166">
-        <v>1.08</v>
+        <v>0.87</v>
       </c>
       <c r="AW166">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="AX166">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AY166">
         <v>7.5</v>
       </c>
       <c r="AZ166">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="BA166">
         <v>1.46</v>
       </c>
       <c r="BB166">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="BC166">
         <v>2.45</v>
@@ -32873,19 +32873,19 @@
         <v>5</v>
       </c>
       <c r="BG166">
+        <v>2</v>
+      </c>
+      <c r="BH166">
+        <v>4</v>
+      </c>
+      <c r="BI166">
+        <v>3</v>
+      </c>
+      <c r="BJ166">
+        <v>9</v>
+      </c>
+      <c r="BK166">
         <v>5</v>
-      </c>
-      <c r="BH166">
-        <v>8</v>
-      </c>
-      <c r="BI166">
-        <v>6</v>
-      </c>
-      <c r="BJ166">
-        <v>13</v>
-      </c>
-      <c r="BK166">
-        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:63">
@@ -32893,7 +32893,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>3157454</v>
+        <v>3157453</v>
       </c>
       <c r="C167" t="s">
         <v>63</v>
@@ -32908,10 +32908,10 @@
         <v>24</v>
       </c>
       <c r="G167" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H167" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -32926,58 +32926,58 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O167" t="s">
         <v>81</v>
       </c>
       <c r="P167" t="s">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="Q167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R167">
+        <v>5</v>
+      </c>
+      <c r="S167">
+        <v>8</v>
+      </c>
+      <c r="T167">
+        <v>3.6</v>
+      </c>
+      <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
+        <v>3.25</v>
+      </c>
+      <c r="W167">
+        <v>1.5</v>
+      </c>
+      <c r="X167">
+        <v>2.5</v>
+      </c>
+      <c r="Y167">
+        <v>3.4</v>
+      </c>
+      <c r="Z167">
+        <v>1.3</v>
+      </c>
+      <c r="AA167">
+        <v>10</v>
+      </c>
+      <c r="AB167">
+        <v>1.06</v>
+      </c>
+      <c r="AC167">
+        <v>2.7</v>
+      </c>
+      <c r="AD167">
         <v>3</v>
-      </c>
-      <c r="S167">
-        <v>7</v>
-      </c>
-      <c r="T167">
-        <v>3.1</v>
-      </c>
-      <c r="U167">
-        <v>1.95</v>
-      </c>
-      <c r="V167">
-        <v>4</v>
-      </c>
-      <c r="W167">
-        <v>1.53</v>
-      </c>
-      <c r="X167">
-        <v>2.38</v>
-      </c>
-      <c r="Y167">
-        <v>3.75</v>
-      </c>
-      <c r="Z167">
-        <v>1.25</v>
-      </c>
-      <c r="AA167">
-        <v>11</v>
-      </c>
-      <c r="AB167">
-        <v>1.05</v>
-      </c>
-      <c r="AC167">
-        <v>2.55</v>
-      </c>
-      <c r="AD167">
-        <v>3.1</v>
       </c>
       <c r="AE167">
         <v>2.75</v>
@@ -32986,70 +32986,70 @@
         <v>1.08</v>
       </c>
       <c r="AG167">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AH167">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AI167">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AJ167">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AK167">
         <v>1.58</v>
       </c>
       <c r="AL167">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AM167">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AN167">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AO167">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AP167">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ167">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AR167">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AS167">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="AT167">
         <v>1.23</v>
       </c>
       <c r="AU167">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AV167">
-        <v>0.87</v>
+        <v>1.08</v>
       </c>
       <c r="AW167">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="AX167">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AY167">
         <v>7.5</v>
       </c>
       <c r="AZ167">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="BA167">
         <v>1.46</v>
       </c>
       <c r="BB167">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="BC167">
         <v>2.45</v>
@@ -33064,19 +33064,19 @@
         <v>5</v>
       </c>
       <c r="BG167">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH167">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI167">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ167">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK167">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:63">
@@ -34803,7 +34803,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>3157464</v>
+        <v>3157470</v>
       </c>
       <c r="C177" t="s">
         <v>63</v>
@@ -34818,10 +34818,10 @@
         <v>26</v>
       </c>
       <c r="G177" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H177" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -34836,157 +34836,157 @@
         <v>1</v>
       </c>
       <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>184</v>
+      </c>
+      <c r="P177" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q177">
         <v>3</v>
       </c>
-      <c r="N177">
-        <v>4</v>
-      </c>
-      <c r="O177" t="s">
-        <v>189</v>
-      </c>
-      <c r="P177" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q177">
-        <v>11</v>
-      </c>
       <c r="R177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S177">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U177">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
         <v>4.33</v>
       </c>
       <c r="W177">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X177">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Y177">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Z177">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AA177">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB177">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AC177">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="AD177">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="AE177">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AF177">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AG177">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH177">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AI177">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="AJ177">
-        <v>2.06</v>
+        <v>2.29</v>
       </c>
       <c r="AK177">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AL177">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AM177">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AN177">
         <v>1.3</v>
       </c>
       <c r="AO177">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AP177">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="AQ177">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="AR177">
-        <v>1.92</v>
+        <v>0.5</v>
       </c>
       <c r="AS177">
-        <v>2.54</v>
+        <v>1</v>
       </c>
       <c r="AT177">
-        <v>2</v>
+        <v>0.54</v>
       </c>
       <c r="AU177">
+        <v>1.02</v>
+      </c>
+      <c r="AV177">
+        <v>1.07</v>
+      </c>
+      <c r="AW177">
+        <v>2.09</v>
+      </c>
+      <c r="AX177">
+        <v>1.82</v>
+      </c>
+      <c r="AY177">
+        <v>7.5</v>
+      </c>
+      <c r="AZ177">
         <v>2.4</v>
       </c>
-      <c r="AV177">
-        <v>1.73</v>
-      </c>
-      <c r="AW177">
-        <v>4.13</v>
-      </c>
-      <c r="AX177">
-        <v>1.51</v>
-      </c>
-      <c r="AY177">
-        <v>8.5</v>
-      </c>
-      <c r="AZ177">
-        <v>3.16</v>
-      </c>
       <c r="BA177">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BB177">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="BC177">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="BD177">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="BE177">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BF177">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG177">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH177">
+        <v>3</v>
+      </c>
+      <c r="BI177">
+        <v>5</v>
+      </c>
+      <c r="BJ177">
         <v>8</v>
       </c>
-      <c r="BI177">
-        <v>3</v>
-      </c>
-      <c r="BJ177">
-        <v>15</v>
-      </c>
       <c r="BK177">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:63">
@@ -34994,7 +34994,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>3157465</v>
+        <v>3157468</v>
       </c>
       <c r="C178" t="s">
         <v>63</v>
@@ -35009,175 +35009,175 @@
         <v>26</v>
       </c>
       <c r="G178" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H178" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>82</v>
+      </c>
+      <c r="P178" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q178">
+        <v>2</v>
+      </c>
+      <c r="R178">
         <v>3</v>
       </c>
-      <c r="L178">
+      <c r="S178">
+        <v>5</v>
+      </c>
+      <c r="T178">
         <v>3</v>
       </c>
-      <c r="M178">
-        <v>1</v>
-      </c>
-      <c r="N178">
-        <v>4</v>
-      </c>
-      <c r="O178" t="s">
-        <v>190</v>
-      </c>
-      <c r="P178" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q178">
-        <v>9</v>
-      </c>
-      <c r="R178">
-        <v>2</v>
-      </c>
-      <c r="S178">
-        <v>11</v>
-      </c>
-      <c r="T178">
-        <v>2.05</v>
-      </c>
       <c r="U178">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="V178">
+        <v>4.33</v>
+      </c>
+      <c r="W178">
+        <v>1.57</v>
+      </c>
+      <c r="X178">
+        <v>2.25</v>
+      </c>
+      <c r="Y178">
+        <v>3.75</v>
+      </c>
+      <c r="Z178">
+        <v>1.25</v>
+      </c>
+      <c r="AA178">
+        <v>13</v>
+      </c>
+      <c r="AB178">
+        <v>1.04</v>
+      </c>
+      <c r="AC178">
+        <v>1.74</v>
+      </c>
+      <c r="AD178">
+        <v>3.15</v>
+      </c>
+      <c r="AE178">
+        <v>5.1</v>
+      </c>
+      <c r="AF178">
+        <v>1.1</v>
+      </c>
+      <c r="AG178">
+        <v>7</v>
+      </c>
+      <c r="AH178">
+        <v>1.44</v>
+      </c>
+      <c r="AI178">
+        <v>2.37</v>
+      </c>
+      <c r="AJ178">
+        <v>2.44</v>
+      </c>
+      <c r="AK178">
+        <v>1.47</v>
+      </c>
+      <c r="AL178">
+        <v>2.1</v>
+      </c>
+      <c r="AM178">
+        <v>1.67</v>
+      </c>
+      <c r="AN178">
+        <v>1.28</v>
+      </c>
+      <c r="AO178">
+        <v>1.35</v>
+      </c>
+      <c r="AP178">
+        <v>1.66</v>
+      </c>
+      <c r="AQ178">
+        <v>0.67</v>
+      </c>
+      <c r="AR178">
+        <v>0.42</v>
+      </c>
+      <c r="AS178">
+        <v>0.85</v>
+      </c>
+      <c r="AT178">
+        <v>0.38</v>
+      </c>
+      <c r="AU178">
+        <v>1.32</v>
+      </c>
+      <c r="AV178">
+        <v>1.05</v>
+      </c>
+      <c r="AW178">
+        <v>2.37</v>
+      </c>
+      <c r="AX178">
+        <v>1.75</v>
+      </c>
+      <c r="AY178">
         <v>7.5</v>
       </c>
-      <c r="W178">
-        <v>1.44</v>
-      </c>
-      <c r="X178">
-        <v>2.63</v>
-      </c>
-      <c r="Y178">
-        <v>3.25</v>
-      </c>
-      <c r="Z178">
-        <v>1.33</v>
-      </c>
-      <c r="AA178">
-        <v>10</v>
-      </c>
-      <c r="AB178">
-        <v>1.06</v>
-      </c>
-      <c r="AC178">
-        <v>1.37</v>
-      </c>
-      <c r="AD178">
-        <v>4.15</v>
-      </c>
-      <c r="AE178">
-        <v>8.65</v>
-      </c>
-      <c r="AF178">
-        <v>1.06</v>
-      </c>
-      <c r="AG178">
-        <v>9.5</v>
-      </c>
-      <c r="AH178">
-        <v>1.38</v>
-      </c>
-      <c r="AI178">
+      <c r="AZ178">
+        <v>2.53</v>
+      </c>
+      <c r="BA178">
+        <v>1.56</v>
+      </c>
+      <c r="BB178">
+        <v>2</v>
+      </c>
+      <c r="BC178">
+        <v>2.75</v>
+      </c>
+      <c r="BD178">
+        <v>3.9</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>5</v>
+      </c>
+      <c r="BG178">
+        <v>0</v>
+      </c>
+      <c r="BH178">
         <v>3</v>
       </c>
-      <c r="AJ178">
-        <v>1.99</v>
-      </c>
-      <c r="AK178">
-        <v>1.7</v>
-      </c>
-      <c r="AL178">
-        <v>2.38</v>
-      </c>
-      <c r="AM178">
-        <v>1.53</v>
-      </c>
-      <c r="AN178">
-        <v>1.09</v>
-      </c>
-      <c r="AO178">
-        <v>1.17</v>
-      </c>
-      <c r="AP178">
-        <v>2.23</v>
-      </c>
-      <c r="AQ178">
-        <v>2.17</v>
-      </c>
-      <c r="AR178">
-        <v>0.67</v>
-      </c>
-      <c r="AS178">
-        <v>2.23</v>
-      </c>
-      <c r="AT178">
-        <v>0.62</v>
-      </c>
-      <c r="AU178">
-        <v>1.69</v>
-      </c>
-      <c r="AV178">
-        <v>0.97</v>
-      </c>
-      <c r="AW178">
-        <v>2.66</v>
-      </c>
-      <c r="AX178">
-        <v>1.19</v>
-      </c>
-      <c r="AY178">
-        <v>10</v>
-      </c>
-      <c r="AZ178">
-        <v>6.15</v>
-      </c>
-      <c r="BA178">
-        <v>1.44</v>
-      </c>
-      <c r="BB178">
-        <v>1.83</v>
-      </c>
-      <c r="BC178">
-        <v>2.38</v>
-      </c>
-      <c r="BD178">
-        <v>3.3</v>
-      </c>
-      <c r="BE178">
-        <v>4.4</v>
-      </c>
-      <c r="BF178">
-        <v>11</v>
-      </c>
-      <c r="BG178">
-        <v>3</v>
-      </c>
-      <c r="BH178">
+      <c r="BI178">
+        <v>2</v>
+      </c>
+      <c r="BJ178">
         <v>8</v>
       </c>
-      <c r="BI178">
-        <v>2</v>
-      </c>
-      <c r="BJ178">
-        <v>19</v>
-      </c>
       <c r="BK178">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:63">
@@ -35185,7 +35185,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>3157466</v>
+        <v>3157467</v>
       </c>
       <c r="C179" t="s">
         <v>63</v>
@@ -35200,175 +35200,175 @@
         <v>26</v>
       </c>
       <c r="G179" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H179" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L179">
         <v>0</v>
       </c>
       <c r="M179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O179" t="s">
         <v>81</v>
       </c>
       <c r="P179" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="Q179">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R179">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S179">
         <v>13</v>
       </c>
       <c r="T179">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="U179">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="V179">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="W179">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X179">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="Y179">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z179">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AA179">
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="AB179">
+        <v>1.1</v>
+      </c>
+      <c r="AC179">
+        <v>11.7</v>
+      </c>
+      <c r="AD179">
+        <v>4.7</v>
+      </c>
+      <c r="AE179">
+        <v>1.26</v>
+      </c>
+      <c r="AF179">
         <v>1.04</v>
       </c>
-      <c r="AC179">
-        <v>5.5</v>
-      </c>
-      <c r="AD179">
-        <v>3.15</v>
-      </c>
-      <c r="AE179">
+      <c r="AG179">
+        <v>10.5</v>
+      </c>
+      <c r="AH179">
+        <v>1.26</v>
+      </c>
+      <c r="AI179">
+        <v>3.5</v>
+      </c>
+      <c r="AJ179">
         <v>1.7</v>
       </c>
-      <c r="AF179">
-        <v>1.08</v>
-      </c>
-      <c r="AG179">
-        <v>7.25</v>
-      </c>
-      <c r="AH179">
-        <v>1.43</v>
-      </c>
-      <c r="AI179">
-        <v>2.6</v>
-      </c>
-      <c r="AJ179">
-        <v>2.44</v>
-      </c>
       <c r="AK179">
-        <v>1.47</v>
+        <v>1.99</v>
       </c>
       <c r="AL179">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AM179">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AN179">
-        <v>1.96</v>
+        <v>2.47</v>
       </c>
       <c r="AO179">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AP179">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ179">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AR179">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AS179">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AT179">
-        <v>2.23</v>
+        <v>1.85</v>
       </c>
       <c r="AU179">
         <v>1.29</v>
       </c>
       <c r="AV179">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AW179">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="AX179">
-        <v>3.84</v>
+        <v>4.84</v>
       </c>
       <c r="AY179">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AZ179">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="BA179">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="BB179">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="BC179">
-        <v>2.48</v>
+        <v>2.12</v>
       </c>
       <c r="BD179">
-        <v>3.45</v>
+        <v>2.88</v>
       </c>
       <c r="BE179">
-        <v>4.5</v>
+        <v>3.92</v>
       </c>
       <c r="BF179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG179">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI179">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK179">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:63">
@@ -35376,7 +35376,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>3157467</v>
+        <v>3157469</v>
       </c>
       <c r="C180" t="s">
         <v>63</v>
@@ -35391,175 +35391,175 @@
         <v>26</v>
       </c>
       <c r="G180" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H180" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O180" t="s">
+        <v>189</v>
+      </c>
+      <c r="P180" t="s">
         <v>81</v>
       </c>
-      <c r="P180" t="s">
-        <v>225</v>
-      </c>
       <c r="Q180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R180">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S180">
+        <v>6</v>
+      </c>
+      <c r="T180">
+        <v>3.6</v>
+      </c>
+      <c r="U180">
+        <v>1.95</v>
+      </c>
+      <c r="V180">
+        <v>3.5</v>
+      </c>
+      <c r="W180">
+        <v>1.54</v>
+      </c>
+      <c r="X180">
+        <v>2.35</v>
+      </c>
+      <c r="Y180">
+        <v>3.71</v>
+      </c>
+      <c r="Z180">
+        <v>1.24</v>
+      </c>
+      <c r="AA180">
+        <v>11</v>
+      </c>
+      <c r="AB180">
+        <v>1.03</v>
+      </c>
+      <c r="AC180">
+        <v>2.66</v>
+      </c>
+      <c r="AD180">
+        <v>3.1</v>
+      </c>
+      <c r="AE180">
+        <v>2.56</v>
+      </c>
+      <c r="AF180">
+        <v>1.1</v>
+      </c>
+      <c r="AG180">
+        <v>7</v>
+      </c>
+      <c r="AH180">
+        <v>1.5</v>
+      </c>
+      <c r="AI180">
+        <v>2.35</v>
+      </c>
+      <c r="AJ180">
+        <v>2.33</v>
+      </c>
+      <c r="AK180">
+        <v>1.51</v>
+      </c>
+      <c r="AL180">
+        <v>2.15</v>
+      </c>
+      <c r="AM180">
+        <v>1.66</v>
+      </c>
+      <c r="AN180">
+        <v>1.47</v>
+      </c>
+      <c r="AO180">
+        <v>1.3</v>
+      </c>
+      <c r="AP180">
+        <v>1.47</v>
+      </c>
+      <c r="AQ180">
+        <v>0.92</v>
+      </c>
+      <c r="AR180">
+        <v>1.33</v>
+      </c>
+      <c r="AS180">
+        <v>1.08</v>
+      </c>
+      <c r="AT180">
+        <v>1.23</v>
+      </c>
+      <c r="AU180">
+        <v>1.2</v>
+      </c>
+      <c r="AV180">
+        <v>1.1</v>
+      </c>
+      <c r="AW180">
+        <v>2.3</v>
+      </c>
+      <c r="AX180">
+        <v>1.91</v>
+      </c>
+      <c r="AY180">
+        <v>7.5</v>
+      </c>
+      <c r="AZ180">
+        <v>2.25</v>
+      </c>
+      <c r="BA180">
+        <v>1.47</v>
+      </c>
+      <c r="BB180">
+        <v>1.88</v>
+      </c>
+      <c r="BC180">
+        <v>2.48</v>
+      </c>
+      <c r="BD180">
+        <v>3.45</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>7</v>
+      </c>
+      <c r="BG180">
+        <v>3</v>
+      </c>
+      <c r="BH180">
+        <v>6</v>
+      </c>
+      <c r="BI180">
+        <v>3</v>
+      </c>
+      <c r="BJ180">
         <v>13</v>
       </c>
-      <c r="T180">
-        <v>8</v>
-      </c>
-      <c r="U180">
-        <v>2.38</v>
-      </c>
-      <c r="V180">
-        <v>1.91</v>
-      </c>
-      <c r="W180">
-        <v>1.36</v>
-      </c>
-      <c r="X180">
-        <v>3</v>
-      </c>
-      <c r="Y180">
-        <v>2.75</v>
-      </c>
-      <c r="Z180">
-        <v>1.4</v>
-      </c>
-      <c r="AA180">
-        <v>7</v>
-      </c>
-      <c r="AB180">
-        <v>1.1</v>
-      </c>
-      <c r="AC180">
-        <v>11.7</v>
-      </c>
-      <c r="AD180">
-        <v>4.7</v>
-      </c>
-      <c r="AE180">
-        <v>1.26</v>
-      </c>
-      <c r="AF180">
-        <v>1.04</v>
-      </c>
-      <c r="AG180">
-        <v>10.5</v>
-      </c>
-      <c r="AH180">
-        <v>1.26</v>
-      </c>
-      <c r="AI180">
-        <v>3.5</v>
-      </c>
-      <c r="AJ180">
-        <v>1.7</v>
-      </c>
-      <c r="AK180">
-        <v>1.99</v>
-      </c>
-      <c r="AL180">
-        <v>2.2</v>
-      </c>
-      <c r="AM180">
-        <v>1.62</v>
-      </c>
-      <c r="AN180">
-        <v>2.47</v>
-      </c>
-      <c r="AO180">
-        <v>1.14</v>
-      </c>
-      <c r="AP180">
-        <v>1.07</v>
-      </c>
-      <c r="AQ180">
-        <v>1.42</v>
-      </c>
-      <c r="AR180">
-        <v>1.75</v>
-      </c>
-      <c r="AS180">
-        <v>1.31</v>
-      </c>
-      <c r="AT180">
-        <v>1.85</v>
-      </c>
-      <c r="AU180">
-        <v>1.29</v>
-      </c>
-      <c r="AV180">
-        <v>1.47</v>
-      </c>
-      <c r="AW180">
-        <v>2.76</v>
-      </c>
-      <c r="AX180">
-        <v>4.84</v>
-      </c>
-      <c r="AY180">
-        <v>10</v>
-      </c>
-      <c r="AZ180">
-        <v>1.26</v>
-      </c>
-      <c r="BA180">
-        <v>1.35</v>
-      </c>
-      <c r="BB180">
-        <v>1.65</v>
-      </c>
-      <c r="BC180">
-        <v>2.12</v>
-      </c>
-      <c r="BD180">
-        <v>2.88</v>
-      </c>
-      <c r="BE180">
-        <v>3.92</v>
-      </c>
-      <c r="BF180">
-        <v>0</v>
-      </c>
-      <c r="BG180">
-        <v>4</v>
-      </c>
-      <c r="BH180">
-        <v>3</v>
-      </c>
-      <c r="BI180">
-        <v>8</v>
-      </c>
-      <c r="BJ180">
-        <v>3</v>
-      </c>
       <c r="BK180">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:63">
@@ -35567,7 +35567,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>3157468</v>
+        <v>3157465</v>
       </c>
       <c r="C181" t="s">
         <v>63</v>
@@ -35582,175 +35582,175 @@
         <v>26</v>
       </c>
       <c r="G181" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H181" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N181">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O181" t="s">
+        <v>190</v>
+      </c>
+      <c r="P181" t="s">
         <v>82</v>
       </c>
-      <c r="P181" t="s">
-        <v>81</v>
-      </c>
       <c r="Q181">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>11</v>
+      </c>
+      <c r="T181">
+        <v>2.05</v>
+      </c>
+      <c r="U181">
+        <v>2.2</v>
+      </c>
+      <c r="V181">
+        <v>7.5</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>2.63</v>
+      </c>
+      <c r="Y181">
+        <v>3.25</v>
+      </c>
+      <c r="Z181">
+        <v>1.33</v>
+      </c>
+      <c r="AA181">
+        <v>10</v>
+      </c>
+      <c r="AB181">
+        <v>1.06</v>
+      </c>
+      <c r="AC181">
+        <v>1.37</v>
+      </c>
+      <c r="AD181">
+        <v>4.15</v>
+      </c>
+      <c r="AE181">
+        <v>8.65</v>
+      </c>
+      <c r="AF181">
+        <v>1.06</v>
+      </c>
+      <c r="AG181">
+        <v>9.5</v>
+      </c>
+      <c r="AH181">
+        <v>1.38</v>
+      </c>
+      <c r="AI181">
         <v>3</v>
       </c>
-      <c r="S181">
+      <c r="AJ181">
+        <v>1.99</v>
+      </c>
+      <c r="AK181">
+        <v>1.7</v>
+      </c>
+      <c r="AL181">
+        <v>2.38</v>
+      </c>
+      <c r="AM181">
+        <v>1.53</v>
+      </c>
+      <c r="AN181">
+        <v>1.09</v>
+      </c>
+      <c r="AO181">
+        <v>1.17</v>
+      </c>
+      <c r="AP181">
+        <v>2.23</v>
+      </c>
+      <c r="AQ181">
+        <v>2.17</v>
+      </c>
+      <c r="AR181">
+        <v>0.67</v>
+      </c>
+      <c r="AS181">
+        <v>2.23</v>
+      </c>
+      <c r="AT181">
+        <v>0.62</v>
+      </c>
+      <c r="AU181">
+        <v>1.69</v>
+      </c>
+      <c r="AV181">
+        <v>0.97</v>
+      </c>
+      <c r="AW181">
+        <v>2.66</v>
+      </c>
+      <c r="AX181">
+        <v>1.19</v>
+      </c>
+      <c r="AY181">
+        <v>10</v>
+      </c>
+      <c r="AZ181">
+        <v>6.15</v>
+      </c>
+      <c r="BA181">
+        <v>1.44</v>
+      </c>
+      <c r="BB181">
+        <v>1.83</v>
+      </c>
+      <c r="BC181">
+        <v>2.38</v>
+      </c>
+      <c r="BD181">
+        <v>3.3</v>
+      </c>
+      <c r="BE181">
+        <v>4.4</v>
+      </c>
+      <c r="BF181">
+        <v>11</v>
+      </c>
+      <c r="BG181">
+        <v>3</v>
+      </c>
+      <c r="BH181">
+        <v>8</v>
+      </c>
+      <c r="BI181">
+        <v>2</v>
+      </c>
+      <c r="BJ181">
+        <v>19</v>
+      </c>
+      <c r="BK181">
         <v>5</v>
-      </c>
-      <c r="T181">
-        <v>3</v>
-      </c>
-      <c r="U181">
-        <v>1.91</v>
-      </c>
-      <c r="V181">
-        <v>4.33</v>
-      </c>
-      <c r="W181">
-        <v>1.57</v>
-      </c>
-      <c r="X181">
-        <v>2.25</v>
-      </c>
-      <c r="Y181">
-        <v>3.75</v>
-      </c>
-      <c r="Z181">
-        <v>1.25</v>
-      </c>
-      <c r="AA181">
-        <v>13</v>
-      </c>
-      <c r="AB181">
-        <v>1.04</v>
-      </c>
-      <c r="AC181">
-        <v>1.74</v>
-      </c>
-      <c r="AD181">
-        <v>3.15</v>
-      </c>
-      <c r="AE181">
-        <v>5.1</v>
-      </c>
-      <c r="AF181">
-        <v>1.1</v>
-      </c>
-      <c r="AG181">
-        <v>7</v>
-      </c>
-      <c r="AH181">
-        <v>1.44</v>
-      </c>
-      <c r="AI181">
-        <v>2.37</v>
-      </c>
-      <c r="AJ181">
-        <v>2.44</v>
-      </c>
-      <c r="AK181">
-        <v>1.47</v>
-      </c>
-      <c r="AL181">
-        <v>2.1</v>
-      </c>
-      <c r="AM181">
-        <v>1.67</v>
-      </c>
-      <c r="AN181">
-        <v>1.28</v>
-      </c>
-      <c r="AO181">
-        <v>1.35</v>
-      </c>
-      <c r="AP181">
-        <v>1.66</v>
-      </c>
-      <c r="AQ181">
-        <v>0.67</v>
-      </c>
-      <c r="AR181">
-        <v>0.42</v>
-      </c>
-      <c r="AS181">
-        <v>0.85</v>
-      </c>
-      <c r="AT181">
-        <v>0.38</v>
-      </c>
-      <c r="AU181">
-        <v>1.32</v>
-      </c>
-      <c r="AV181">
-        <v>1.05</v>
-      </c>
-      <c r="AW181">
-        <v>2.37</v>
-      </c>
-      <c r="AX181">
-        <v>1.75</v>
-      </c>
-      <c r="AY181">
-        <v>7.5</v>
-      </c>
-      <c r="AZ181">
-        <v>2.53</v>
-      </c>
-      <c r="BA181">
-        <v>1.56</v>
-      </c>
-      <c r="BB181">
-        <v>2</v>
-      </c>
-      <c r="BC181">
-        <v>2.75</v>
-      </c>
-      <c r="BD181">
-        <v>3.9</v>
-      </c>
-      <c r="BE181">
-        <v>0</v>
-      </c>
-      <c r="BF181">
-        <v>5</v>
-      </c>
-      <c r="BG181">
-        <v>0</v>
-      </c>
-      <c r="BH181">
-        <v>3</v>
-      </c>
-      <c r="BI181">
-        <v>2</v>
-      </c>
-      <c r="BJ181">
-        <v>8</v>
-      </c>
-      <c r="BK181">
-        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:63">
@@ -35758,7 +35758,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>3157469</v>
+        <v>3157466</v>
       </c>
       <c r="C182" t="s">
         <v>63</v>
@@ -35773,148 +35773,148 @@
         <v>26</v>
       </c>
       <c r="G182" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H182" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N182">
         <v>2</v>
       </c>
       <c r="O182" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="P182" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Q182">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R182">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S182">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T182">
-        <v>3.6</v>
+        <v>7.6</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="V182">
-        <v>3.5</v>
+        <v>2.09</v>
       </c>
       <c r="W182">
+        <v>1.5</v>
+      </c>
+      <c r="X182">
+        <v>2.48</v>
+      </c>
+      <c r="Y182">
+        <v>3.4</v>
+      </c>
+      <c r="Z182">
+        <v>1.29</v>
+      </c>
+      <c r="AA182">
+        <v>9.1</v>
+      </c>
+      <c r="AB182">
+        <v>1.04</v>
+      </c>
+      <c r="AC182">
+        <v>5.5</v>
+      </c>
+      <c r="AD182">
+        <v>3.15</v>
+      </c>
+      <c r="AE182">
+        <v>1.7</v>
+      </c>
+      <c r="AF182">
+        <v>1.08</v>
+      </c>
+      <c r="AG182">
+        <v>7.25</v>
+      </c>
+      <c r="AH182">
+        <v>1.43</v>
+      </c>
+      <c r="AI182">
+        <v>2.6</v>
+      </c>
+      <c r="AJ182">
+        <v>2.44</v>
+      </c>
+      <c r="AK182">
+        <v>1.47</v>
+      </c>
+      <c r="AL182">
+        <v>2.44</v>
+      </c>
+      <c r="AM182">
+        <v>1.53</v>
+      </c>
+      <c r="AN182">
+        <v>1.96</v>
+      </c>
+      <c r="AO182">
+        <v>1.24</v>
+      </c>
+      <c r="AP182">
+        <v>1.11</v>
+      </c>
+      <c r="AQ182">
+        <v>1.67</v>
+      </c>
+      <c r="AR182">
+        <v>2.17</v>
+      </c>
+      <c r="AS182">
         <v>1.54</v>
       </c>
-      <c r="X182">
-        <v>2.35</v>
-      </c>
-      <c r="Y182">
-        <v>3.71</v>
-      </c>
-      <c r="Z182">
-        <v>1.24</v>
-      </c>
-      <c r="AA182">
-        <v>11</v>
-      </c>
-      <c r="AB182">
-        <v>1.03</v>
-      </c>
-      <c r="AC182">
-        <v>2.66</v>
-      </c>
-      <c r="AD182">
-        <v>3.1</v>
-      </c>
-      <c r="AE182">
-        <v>2.56</v>
-      </c>
-      <c r="AF182">
-        <v>1.1</v>
-      </c>
-      <c r="AG182">
-        <v>7</v>
-      </c>
-      <c r="AH182">
-        <v>1.5</v>
-      </c>
-      <c r="AI182">
-        <v>2.35</v>
-      </c>
-      <c r="AJ182">
-        <v>2.33</v>
-      </c>
-      <c r="AK182">
-        <v>1.51</v>
-      </c>
-      <c r="AL182">
-        <v>2.15</v>
-      </c>
-      <c r="AM182">
-        <v>1.66</v>
-      </c>
-      <c r="AN182">
-        <v>1.47</v>
-      </c>
-      <c r="AO182">
-        <v>1.3</v>
-      </c>
-      <c r="AP182">
-        <v>1.47</v>
-      </c>
-      <c r="AQ182">
-        <v>0.92</v>
-      </c>
-      <c r="AR182">
-        <v>1.33</v>
-      </c>
-      <c r="AS182">
-        <v>1.08</v>
-      </c>
       <c r="AT182">
+        <v>2.23</v>
+      </c>
+      <c r="AU182">
+        <v>1.29</v>
+      </c>
+      <c r="AV182">
         <v>1.23</v>
       </c>
-      <c r="AU182">
-        <v>1.2</v>
-      </c>
-      <c r="AV182">
-        <v>1.1</v>
-      </c>
       <c r="AW182">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="AX182">
-        <v>1.91</v>
+        <v>3.84</v>
       </c>
       <c r="AY182">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ182">
-        <v>2.25</v>
+        <v>1.37</v>
       </c>
       <c r="BA182">
         <v>1.47</v>
       </c>
       <c r="BB182">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="BC182">
         <v>2.48</v>
@@ -35923,25 +35923,25 @@
         <v>3.45</v>
       </c>
       <c r="BE182">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BF182">
+        <v>2</v>
+      </c>
+      <c r="BG182">
         <v>7</v>
       </c>
-      <c r="BG182">
-        <v>3</v>
-      </c>
       <c r="BH182">
+        <v>2</v>
+      </c>
+      <c r="BI182">
         <v>6</v>
       </c>
-      <c r="BI182">
-        <v>3</v>
-      </c>
       <c r="BJ182">
+        <v>4</v>
+      </c>
+      <c r="BK182">
         <v>13</v>
-      </c>
-      <c r="BK182">
-        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:63">
@@ -35949,7 +35949,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>3157470</v>
+        <v>3157464</v>
       </c>
       <c r="C183" t="s">
         <v>63</v>
@@ -35964,10 +35964,10 @@
         <v>26</v>
       </c>
       <c r="G183" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H183" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -35982,154 +35982,154 @@
         <v>1</v>
       </c>
       <c r="M183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O183" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P183" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="Q183">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S183">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V183">
         <v>4.33</v>
       </c>
       <c r="W183">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X183">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="Y183">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Z183">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AA183">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB183">
+        <v>1.07</v>
+      </c>
+      <c r="AC183">
+        <v>2.21</v>
+      </c>
+      <c r="AD183">
+        <v>3.2</v>
+      </c>
+      <c r="AE183">
+        <v>3.1</v>
+      </c>
+      <c r="AF183">
         <v>1.05</v>
       </c>
-      <c r="AC183">
-        <v>2.22</v>
-      </c>
-      <c r="AD183">
-        <v>2.99</v>
-      </c>
-      <c r="AE183">
-        <v>3.3</v>
-      </c>
-      <c r="AF183">
-        <v>1.08</v>
-      </c>
       <c r="AG183">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH183">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AI183">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="AJ183">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AK183">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AL183">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AM183">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AN183">
         <v>1.3</v>
       </c>
       <c r="AO183">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AP183">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="AR183">
-        <v>0.5</v>
+        <v>1.92</v>
       </c>
       <c r="AS183">
-        <v>1</v>
+        <v>2.54</v>
       </c>
       <c r="AT183">
-        <v>0.54</v>
+        <v>2</v>
       </c>
       <c r="AU183">
-        <v>1.02</v>
+        <v>2.4</v>
       </c>
       <c r="AV183">
-        <v>1.07</v>
+        <v>1.73</v>
       </c>
       <c r="AW183">
-        <v>2.09</v>
+        <v>4.13</v>
       </c>
       <c r="AX183">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="AY183">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ183">
-        <v>2.4</v>
+        <v>3.16</v>
       </c>
       <c r="BA183">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="BB183">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="BC183">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="BD183">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="BE183">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF183">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH183">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI183">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ183">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BK183">
         <v>7</v>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT3" t="n">
         <v>1.23</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT4" t="n">
         <v>2</v>
@@ -1512,7 +1512,7 @@
         <v>2.31</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.46</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.23</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.31</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0.85</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT13" t="n">
         <v>2.23</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT15" t="n">
         <v>2</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT16" t="n">
         <v>0.38</v>
@@ -3948,7 +3948,7 @@
         <v>2.31</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>1.85</v>
@@ -4151,7 +4151,7 @@
         <v>2.46</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU18" t="n">
         <v>1.27</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU19" t="n">
         <v>1.3</v>
@@ -4760,7 +4760,7 @@
         <v>2.54</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -5163,10 +5163,10 @@
         <v>0.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -5369,7 +5369,7 @@
         <v>1.15</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU24" t="n">
         <v>1.46</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT27" t="n">
         <v>0.85</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT31" t="n">
         <v>0.54</v>
@@ -6993,7 +6993,7 @@
         <v>2.46</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT34" t="n">
         <v>1.85</v>
@@ -7805,7 +7805,7 @@
         <v>1.31</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.45</v>
@@ -8005,10 +8005,10 @@
         <v>0.25</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU37" t="n">
         <v>0.61</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT38" t="n">
         <v>1.23</v>
@@ -9023,7 +9023,7 @@
         <v>1.15</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU42" t="n">
         <v>1.73</v>
@@ -9226,7 +9226,7 @@
         <v>2.54</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.82</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT46" t="n">
         <v>2</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU50" t="n">
         <v>1.34</v>
@@ -10850,7 +10850,7 @@
         <v>1.31</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU51" t="n">
         <v>1.3</v>
@@ -11053,7 +11053,7 @@
         <v>2.23</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11659,7 +11659,7 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT55" t="n">
         <v>2.23</v>
@@ -11862,10 +11862,10 @@
         <v>1.75</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU56" t="n">
         <v>1.22</v>
@@ -12268,7 +12268,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT58" t="n">
         <v>1.69</v>
@@ -12677,7 +12677,7 @@
         <v>0.85</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU60" t="n">
         <v>1.83</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT64" t="n">
         <v>0.54</v>
@@ -13692,7 +13692,7 @@
         <v>0.85</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU65" t="n">
         <v>1.71</v>
@@ -15110,7 +15110,7 @@
         <v>2.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT72" t="n">
         <v>1.69</v>
@@ -15313,10 +15313,10 @@
         <v>0</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.13</v>
@@ -15516,7 +15516,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT74" t="n">
         <v>0.85</v>
@@ -15722,7 +15722,7 @@
         <v>2.31</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU75" t="n">
         <v>1.94</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU76" t="n">
         <v>0.8100000000000001</v>
@@ -16328,7 +16328,7 @@
         <v>2.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT78" t="n">
         <v>2</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT81" t="n">
         <v>0.38</v>
@@ -17549,7 +17549,7 @@
         <v>1.31</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU84" t="n">
         <v>1.34</v>
@@ -18358,10 +18358,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU88" t="n">
         <v>1.25</v>
@@ -18967,10 +18967,10 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU91" t="n">
         <v>1.13</v>
@@ -19170,10 +19170,10 @@
         <v>0.29</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU92" t="n">
         <v>1.23</v>
@@ -19779,7 +19779,7 @@
         <v>1.83</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT95" t="n">
         <v>1.69</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT98" t="n">
         <v>0.6899999999999999</v>
@@ -20797,7 +20797,7 @@
         <v>1.08</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.09</v>
@@ -21403,7 +21403,7 @@
         <v>1.71</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT103" t="n">
         <v>1.85</v>
@@ -21812,7 +21812,7 @@
         <v>2.23</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU105" t="n">
         <v>1.67</v>
@@ -22012,10 +22012,10 @@
         <v>0.14</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU106" t="n">
         <v>1.25</v>
@@ -22215,7 +22215,7 @@
         <v>1.71</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT107" t="n">
         <v>1.69</v>
@@ -23027,7 +23027,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT111" t="n">
         <v>0.54</v>
@@ -23639,7 +23639,7 @@
         <v>1.08</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU114" t="n">
         <v>1.17</v>
@@ -23839,7 +23839,7 @@
         <v>1.63</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT115" t="n">
         <v>1.85</v>
@@ -24245,10 +24245,10 @@
         <v>0.38</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU117" t="n">
         <v>1.26</v>
@@ -25057,7 +25057,7 @@
         <v>0.75</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT121" t="n">
         <v>0.6899999999999999</v>
@@ -25466,7 +25466,7 @@
         <v>2.54</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU123" t="n">
         <v>2.27</v>
@@ -25666,10 +25666,10 @@
         <v>0.25</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU124" t="n">
         <v>1.33</v>
@@ -26481,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU128" t="n">
         <v>1</v>
@@ -26681,7 +26681,7 @@
         <v>0.44</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT129" t="n">
         <v>0.38</v>
@@ -27696,7 +27696,7 @@
         <v>2</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT134" t="n">
         <v>2</v>
@@ -27902,7 +27902,7 @@
         <v>1.31</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU135" t="n">
         <v>1.3</v>
@@ -28714,7 +28714,7 @@
         <v>2.31</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU139" t="n">
         <v>1.98</v>
@@ -28914,10 +28914,10 @@
         <v>0.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU140" t="n">
         <v>1.13</v>
@@ -29117,7 +29117,7 @@
         <v>2.44</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT141" t="n">
         <v>2.23</v>
@@ -29320,10 +29320,10 @@
         <v>0.6</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU142" t="n">
         <v>1.47</v>
@@ -30541,7 +30541,7 @@
         <v>1.15</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU148" t="n">
         <v>1.34</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT151" t="n">
         <v>1.23</v>
@@ -31350,7 +31350,7 @@
         <v>1.9</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT152" t="n">
         <v>1.85</v>
@@ -31556,7 +31556,7 @@
         <v>2.54</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU153" t="n">
         <v>2.31</v>
@@ -31759,7 +31759,7 @@
         <v>2.31</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU154" t="n">
         <v>1.8</v>
@@ -32162,10 +32162,10 @@
         <v>0.64</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU156" t="n">
         <v>1.25</v>
@@ -32365,7 +32365,7 @@
         <v>1.82</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT157" t="n">
         <v>2</v>
@@ -32571,7 +32571,7 @@
         <v>1</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU158" t="n">
         <v>1.01</v>
@@ -32974,10 +32974,10 @@
         <v>0.27</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU160" t="n">
         <v>1.32</v>
@@ -33177,7 +33177,7 @@
         <v>0.73</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT161" t="n">
         <v>0.85</v>
@@ -34195,7 +34195,7 @@
         <v>1.08</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU166" t="n">
         <v>1.2</v>
@@ -34801,7 +34801,7 @@
         <v>0.67</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT169" t="n">
         <v>0.6899999999999999</v>
@@ -35007,7 +35007,7 @@
         <v>2.31</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AU170" t="n">
         <v>1.82</v>
@@ -35410,7 +35410,7 @@
         <v>0.92</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT172" t="n">
         <v>0.85</v>
@@ -35613,7 +35613,7 @@
         <v>1.82</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT173" t="n">
         <v>2</v>
@@ -35819,7 +35819,7 @@
         <v>2.31</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU174" t="n">
         <v>1.89</v>
@@ -36022,7 +36022,7 @@
         <v>2.46</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU175" t="n">
         <v>1.67</v>
@@ -36222,7 +36222,7 @@
         <v>1.92</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT176" t="n">
         <v>2</v>
@@ -37240,7 +37240,7 @@
         <v>2.23</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU181" t="n">
         <v>1.69</v>
@@ -37440,7 +37440,7 @@
         <v>2.17</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT182" t="n">
         <v>2.23</v>
@@ -37698,6 +37698,818 @@
       </c>
       <c r="BK183" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5619045</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>2</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['34', '90']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>2</v>
+      </c>
+      <c r="R184" t="n">
+        <v>1</v>
+      </c>
+      <c r="S184" t="n">
+        <v>3</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2</v>
+      </c>
+      <c r="V184" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5619047</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45003.52083333334</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>6</v>
+      </c>
+      <c r="R185" t="n">
+        <v>5</v>
+      </c>
+      <c r="S185" t="n">
+        <v>11</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V185" t="n">
+        <v>5</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5619046</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45003.60416666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>2</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['19', '90']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>3</v>
+      </c>
+      <c r="R186" t="n">
+        <v>8</v>
+      </c>
+      <c r="S186" t="n">
+        <v>11</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V186" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5619048</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45003.66666666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>2</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['12', '45+1']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="n">
+        <v>3</v>
+      </c>
+      <c r="S187" t="n">
+        <v>3</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U187" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.21</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.64</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.93</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT5" t="n">
         <v>1.14</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT8" t="n">
         <v>0.57</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>0.29</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.43</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU14" t="n">
         <v>2.32</v>
@@ -3745,7 +3745,7 @@
         <v>0.93</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU16" t="n">
         <v>0.61</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT17" t="n">
         <v>0.5</v>
@@ -4148,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT18" t="n">
         <v>0.29</v>
@@ -4557,7 +4557,7 @@
         <v>1.21</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU20" t="n">
         <v>1.54</v>
@@ -5366,7 +5366,7 @@
         <v>0.33</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT24" t="n">
         <v>0.29</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU25" t="n">
         <v>1.79</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU26" t="n">
         <v>1.66</v>
@@ -5978,7 +5978,7 @@
         <v>1.64</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU27" t="n">
         <v>0.66</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU28" t="n">
         <v>1.22</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6584,10 +6584,10 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU30" t="n">
         <v>1.01</v>
@@ -6790,7 +6790,7 @@
         <v>1.64</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU31" t="n">
         <v>1.39</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT32" t="n">
         <v>0.57</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>1.64</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU38" t="n">
         <v>1.24</v>
@@ -8411,10 +8411,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU39" t="n">
         <v>1.84</v>
@@ -8617,7 +8617,7 @@
         <v>1.21</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT41" t="n">
         <v>2.14</v>
@@ -9020,7 +9020,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT42" t="n">
         <v>1.14</v>
@@ -9426,10 +9426,10 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU44" t="n">
         <v>0.77</v>
@@ -9629,10 +9629,10 @@
         <v>0.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU45" t="n">
         <v>1.62</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT47" t="n">
         <v>1.93</v>
@@ -10238,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU48" t="n">
         <v>1.12</v>
@@ -10444,7 +10444,7 @@
         <v>2.07</v>
       </c>
       <c r="AT49" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU49" t="n">
         <v>1.5</v>
@@ -11256,7 +11256,7 @@
         <v>2.43</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU53" t="n">
         <v>2.19</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT57" t="n">
         <v>1.93</v>
@@ -12271,7 +12271,7 @@
         <v>1.64</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU58" t="n">
         <v>1.42</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT59" t="n">
         <v>2.07</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT60" t="n">
         <v>0.57</v>
@@ -12877,10 +12877,10 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU61" t="n">
         <v>1.84</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU62" t="n">
         <v>1.3</v>
@@ -13283,10 +13283,10 @@
         <v>2.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT63" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU63" t="n">
         <v>1.08</v>
@@ -13489,7 +13489,7 @@
         <v>0.79</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU64" t="n">
         <v>1.07</v>
@@ -13689,7 +13689,7 @@
         <v>1.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
         <v>1.14</v>
@@ -14095,10 +14095,10 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -14298,10 +14298,10 @@
         <v>0.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU68" t="n">
         <v>1.03</v>
@@ -14707,7 +14707,7 @@
         <v>2.07</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU70" t="n">
         <v>1.46</v>
@@ -14907,10 +14907,10 @@
         <v>0.8</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU71" t="n">
         <v>1.71</v>
@@ -15113,7 +15113,7 @@
         <v>0.93</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU72" t="n">
         <v>1.03</v>
@@ -15519,7 +15519,7 @@
         <v>1.64</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU74" t="n">
         <v>1.36</v>
@@ -15719,7 +15719,7 @@
         <v>0.2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT75" t="n">
         <v>0.57</v>
@@ -15922,7 +15922,7 @@
         <v>0.17</v>
       </c>
       <c r="AS76" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT76" t="n">
         <v>0.29</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT77" t="n">
         <v>2.07</v>
@@ -16331,7 +16331,7 @@
         <v>1.64</v>
       </c>
       <c r="AT78" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16534,7 +16534,7 @@
         <v>2.07</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT80" t="n">
         <v>2.14</v>
@@ -16940,7 +16940,7 @@
         <v>1.64</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU81" t="n">
         <v>1.28</v>
@@ -17143,7 +17143,7 @@
         <v>2.43</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU82" t="n">
         <v>2.41</v>
@@ -17343,7 +17343,7 @@
         <v>1.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT83" t="n">
         <v>2.07</v>
@@ -17749,7 +17749,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
         <v>1.93</v>
@@ -17952,10 +17952,10 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18155,10 +18155,10 @@
         <v>0.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU87" t="n">
         <v>1.32</v>
@@ -18561,10 +18561,10 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT89" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU89" t="n">
         <v>1.75</v>
@@ -18764,10 +18764,10 @@
         <v>2.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU90" t="n">
         <v>1.91</v>
@@ -19373,10 +19373,10 @@
         <v>1.17</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU93" t="n">
         <v>1.08</v>
@@ -19579,7 +19579,7 @@
         <v>2.43</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU94" t="n">
         <v>2.39</v>
@@ -19782,7 +19782,7 @@
         <v>1.64</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU95" t="n">
         <v>1.21</v>
@@ -19982,7 +19982,7 @@
         <v>1.83</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT96" t="n">
         <v>2.07</v>
@@ -20185,7 +20185,7 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT97" t="n">
         <v>2.14</v>
@@ -20391,7 +20391,7 @@
         <v>0.79</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU98" t="n">
         <v>1.21</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT99" t="n">
         <v>1.93</v>
@@ -20794,7 +20794,7 @@
         <v>0.43</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT100" t="n">
         <v>0.5</v>
@@ -20997,10 +20997,10 @@
         <v>0.57</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -21203,7 +21203,7 @@
         <v>1.21</v>
       </c>
       <c r="AT102" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21606,10 +21606,10 @@
         <v>0.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -22218,7 +22218,7 @@
         <v>0.79</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU107" t="n">
         <v>1.4</v>
@@ -22418,7 +22418,7 @@
         <v>2.67</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT108" t="n">
         <v>2.14</v>
@@ -22621,10 +22621,10 @@
         <v>2.13</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT109" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU109" t="n">
         <v>1.54</v>
@@ -22824,7 +22824,7 @@
         <v>1.71</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT110" t="n">
         <v>2.07</v>
@@ -23030,7 +23030,7 @@
         <v>1.64</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU111" t="n">
         <v>1.31</v>
@@ -23230,10 +23230,10 @@
         <v>0.86</v>
       </c>
       <c r="AS112" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU112" t="n">
         <v>0.91</v>
@@ -23433,10 +23433,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU113" t="n">
         <v>1.91</v>
@@ -23636,7 +23636,7 @@
         <v>0.25</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT114" t="n">
         <v>0.57</v>
@@ -24451,7 +24451,7 @@
         <v>2.07</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU118" t="n">
         <v>1.78</v>
@@ -24854,10 +24854,10 @@
         <v>0.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU120" t="n">
         <v>1.05</v>
@@ -25060,7 +25060,7 @@
         <v>0.93</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU121" t="n">
         <v>1.12</v>
@@ -25260,10 +25260,10 @@
         <v>1.13</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU122" t="n">
         <v>1.85</v>
@@ -25869,10 +25869,10 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU125" t="n">
         <v>1.68</v>
@@ -26072,7 +26072,7 @@
         <v>2.38</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT126" t="n">
         <v>2.14</v>
@@ -26275,10 +26275,10 @@
         <v>1.63</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26478,7 +26478,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS128" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT128" t="n">
         <v>0.57</v>
@@ -26684,7 +26684,7 @@
         <v>0.79</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU129" t="n">
         <v>1.49</v>
@@ -26887,7 +26887,7 @@
         <v>2.07</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU130" t="n">
         <v>1.71</v>
@@ -27087,10 +27087,10 @@
         <v>1.89</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT131" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU131" t="n">
         <v>1.37</v>
@@ -27290,10 +27290,10 @@
         <v>0.44</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU132" t="n">
         <v>1.18</v>
@@ -27493,7 +27493,7 @@
         <v>1.78</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT133" t="n">
         <v>1.93</v>
@@ -28102,10 +28102,10 @@
         <v>0.78</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU136" t="n">
         <v>1.34</v>
@@ -28305,10 +28305,10 @@
         <v>1.11</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU137" t="n">
         <v>1.69</v>
@@ -28511,7 +28511,7 @@
         <v>2.43</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU138" t="n">
         <v>2.35</v>
@@ -28711,7 +28711,7 @@
         <v>0.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT139" t="n">
         <v>0.29</v>
@@ -29523,10 +29523,10 @@
         <v>0.8</v>
       </c>
       <c r="AS143" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU143" t="n">
         <v>1.34</v>
@@ -29726,10 +29726,10 @@
         <v>0.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU144" t="n">
         <v>1.51</v>
@@ -29929,10 +29929,10 @@
         <v>0.4</v>
       </c>
       <c r="AS145" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU145" t="n">
         <v>1.03</v>
@@ -30132,7 +30132,7 @@
         <v>1.9</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT146" t="n">
         <v>2.07</v>
@@ -30335,10 +30335,10 @@
         <v>1.6</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU147" t="n">
         <v>1.21</v>
@@ -30538,7 +30538,7 @@
         <v>0.6</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT148" t="n">
         <v>0.5</v>
@@ -30744,7 +30744,7 @@
         <v>1.21</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU149" t="n">
         <v>1.3</v>
@@ -31150,7 +31150,7 @@
         <v>0.93</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU151" t="n">
         <v>1.16</v>
@@ -31756,7 +31756,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT154" t="n">
         <v>1.14</v>
@@ -31959,10 +31959,10 @@
         <v>1.73</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU155" t="n">
         <v>1.57</v>
@@ -32568,7 +32568,7 @@
         <v>0.64</v>
       </c>
       <c r="AS158" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT158" t="n">
         <v>0.5</v>
@@ -32771,10 +32771,10 @@
         <v>2</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT159" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU159" t="n">
         <v>2</v>
@@ -33180,7 +33180,7 @@
         <v>0.79</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU161" t="n">
         <v>1.53</v>
@@ -33383,7 +33383,7 @@
         <v>1.21</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU162" t="n">
         <v>1.29</v>
@@ -33586,7 +33586,7 @@
         <v>2.43</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU163" t="n">
         <v>2.31</v>
@@ -33786,7 +33786,7 @@
         <v>1.82</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT164" t="n">
         <v>1.93</v>
@@ -33989,7 +33989,7 @@
         <v>2.27</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT165" t="n">
         <v>2.14</v>
@@ -34192,7 +34192,7 @@
         <v>1.36</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT166" t="n">
         <v>1.14</v>
@@ -34395,10 +34395,10 @@
         <v>1.18</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU167" t="n">
         <v>1.3</v>
@@ -34601,7 +34601,7 @@
         <v>2.07</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU168" t="n">
         <v>1.65</v>
@@ -34804,7 +34804,7 @@
         <v>1.64</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU169" t="n">
         <v>1.22</v>
@@ -35004,7 +35004,7 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT170" t="n">
         <v>0.29</v>
@@ -35207,10 +35207,10 @@
         <v>1.58</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU171" t="n">
         <v>1.31</v>
@@ -35413,7 +35413,7 @@
         <v>0.93</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU172" t="n">
         <v>1.19</v>
@@ -35616,7 +35616,7 @@
         <v>0.79</v>
       </c>
       <c r="AT173" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU173" t="n">
         <v>1.51</v>
@@ -35816,7 +35816,7 @@
         <v>0.58</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT174" t="n">
         <v>0.5</v>
@@ -36019,7 +36019,7 @@
         <v>1.33</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT175" t="n">
         <v>1.14</v>
@@ -36225,7 +36225,7 @@
         <v>1.64</v>
       </c>
       <c r="AT176" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU176" t="n">
         <v>1.37</v>
@@ -36425,10 +36425,10 @@
         <v>0.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU177" t="n">
         <v>1.02</v>
@@ -36628,10 +36628,10 @@
         <v>0.42</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU178" t="n">
         <v>1.32</v>
@@ -37034,10 +37034,10 @@
         <v>1.33</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU180" t="n">
         <v>1.2</v>
@@ -39118,6 +39118,1427 @@
         <v>13</v>
       </c>
       <c r="BK190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5619053</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>2</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>13</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2</v>
+      </c>
+      <c r="S191" t="n">
+        <v>15</v>
+      </c>
+      <c r="T191" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V191" t="n">
+        <v>4</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5619054</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45017.47916666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="n">
+        <v>3</v>
+      </c>
+      <c r="N192" t="n">
+        <v>4</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['66', '67', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>3</v>
+      </c>
+      <c r="R192" t="n">
+        <v>3</v>
+      </c>
+      <c r="S192" t="n">
+        <v>6</v>
+      </c>
+      <c r="T192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U192" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V192" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5619055</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45017.5625</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>6</v>
+      </c>
+      <c r="R193" t="n">
+        <v>3</v>
+      </c>
+      <c r="S193" t="n">
+        <v>9</v>
+      </c>
+      <c r="T193" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V193" t="n">
+        <v>4</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5619052</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45017.625</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>9</v>
+      </c>
+      <c r="R194" t="n">
+        <v>4</v>
+      </c>
+      <c r="S194" t="n">
+        <v>13</v>
+      </c>
+      <c r="T194" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U194" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5619050</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45018.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>6</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
+      <c r="S195" t="n">
+        <v>6</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V195" t="n">
+        <v>15</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5619051</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45018.5625</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>5</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2</v>
+      </c>
+      <c r="S196" t="n">
+        <v>7</v>
+      </c>
+      <c r="T196" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U196" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5619049</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45018.625</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2</v>
+      </c>
+      <c r="M197" t="n">
+        <v>2</v>
+      </c>
+      <c r="N197" t="n">
+        <v>4</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['36', '53']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['70', '81']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>11</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2</v>
+      </c>
+      <c r="S197" t="n">
+        <v>13</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V197" t="n">
+        <v>12</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK197" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT2" t="n">
         <v>0.36</v>
@@ -1309,7 +1309,7 @@
         <v>0.93</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT7" t="n">
         <v>0.29</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT8" t="n">
         <v>0.57</v>
@@ -3136,7 +3136,7 @@
         <v>0.79</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT17" t="n">
         <v>0.5</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT20" t="n">
         <v>1.36</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU22" t="n">
         <v>1.55</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT26" t="n">
         <v>1.64</v>
@@ -6181,7 +6181,7 @@
         <v>2.36</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU28" t="n">
         <v>1.22</v>
@@ -6587,7 +6587,7 @@
         <v>0.93</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU30" t="n">
         <v>1.01</v>
@@ -7399,7 +7399,7 @@
         <v>0.79</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU34" t="n">
         <v>0.96</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT35" t="n">
         <v>2.07</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT36" t="n">
         <v>0.5</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT39" t="n">
         <v>0.71</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT40" t="n">
         <v>0.86</v>
@@ -8820,7 +8820,7 @@
         <v>2.14</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU41" t="n">
         <v>1.96</v>
@@ -10038,7 +10038,7 @@
         <v>1.07</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU47" t="n">
         <v>1.2</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU49" t="n">
         <v>1.5</v>
@@ -10847,7 +10847,7 @@
         <v>0.2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT51" t="n">
         <v>0.29</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT52" t="n">
         <v>0.5</v>
@@ -11662,7 +11662,7 @@
         <v>0.93</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU55" t="n">
         <v>1.21</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -13286,7 +13286,7 @@
         <v>1.07</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU63" t="n">
         <v>1.08</v>
@@ -13892,10 +13892,10 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU66" t="n">
         <v>1.41</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT67" t="n">
         <v>0.71</v>
@@ -14504,7 +14504,7 @@
         <v>2.43</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT70" t="n">
         <v>1.36</v>
@@ -16331,7 +16331,7 @@
         <v>1.64</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT79" t="n">
         <v>0.71</v>
@@ -16737,7 +16737,7 @@
         <v>0.93</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU80" t="n">
         <v>0.92</v>
@@ -17546,7 +17546,7 @@
         <v>0.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT84" t="n">
         <v>0.57</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -18561,10 +18561,10 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU89" t="n">
         <v>1.75</v>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU97" t="n">
         <v>1.58</v>
@@ -20594,7 +20594,7 @@
         <v>0.93</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU99" t="n">
         <v>0.89</v>
@@ -20997,7 +20997,7 @@
         <v>0.57</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT101" t="n">
         <v>0.36</v>
@@ -21200,10 +21200,10 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU102" t="n">
         <v>1.38</v>
@@ -21406,7 +21406,7 @@
         <v>1.64</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU103" t="n">
         <v>1.3</v>
@@ -21809,7 +21809,7 @@
         <v>1.71</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT105" t="n">
         <v>1.14</v>
@@ -22421,7 +22421,7 @@
         <v>1.07</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU108" t="n">
         <v>1.16</v>
@@ -22624,7 +22624,7 @@
         <v>1.07</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU109" t="n">
         <v>1.54</v>
@@ -23842,7 +23842,7 @@
         <v>0.93</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU115" t="n">
         <v>1.22</v>
@@ -24042,7 +24042,7 @@
         <v>1.88</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT116" t="n">
         <v>2.07</v>
@@ -24448,7 +24448,7 @@
         <v>0.5</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT118" t="n">
         <v>0.36</v>
@@ -24654,7 +24654,7 @@
         <v>2.43</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU119" t="n">
         <v>2.36</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT125" t="n">
         <v>0.86</v>
@@ -26075,7 +26075,7 @@
         <v>1.07</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU126" t="n">
         <v>1.41</v>
@@ -26884,7 +26884,7 @@
         <v>1.78</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT130" t="n">
         <v>1.64</v>
@@ -27090,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU131" t="n">
         <v>1.37</v>
@@ -27496,7 +27496,7 @@
         <v>2.36</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU133" t="n">
         <v>1.57</v>
@@ -27899,7 +27899,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT135" t="n">
         <v>1.14</v>
@@ -28305,7 +28305,7 @@
         <v>1.11</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT137" t="n">
         <v>1.36</v>
@@ -29120,7 +29120,7 @@
         <v>1.64</v>
       </c>
       <c r="AT141" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU141" t="n">
         <v>1.3</v>
@@ -30741,7 +30741,7 @@
         <v>0.8</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT149" t="n">
         <v>0.71</v>
@@ -30944,10 +30944,10 @@
         <v>2.2</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU150" t="n">
         <v>1.72</v>
@@ -31353,7 +31353,7 @@
         <v>1.64</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU152" t="n">
         <v>1.25</v>
@@ -31756,7 +31756,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT154" t="n">
         <v>1.14</v>
@@ -32774,7 +32774,7 @@
         <v>2.14</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU159" t="n">
         <v>2</v>
@@ -33380,7 +33380,7 @@
         <v>0.45</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT162" t="n">
         <v>0.71</v>
@@ -33789,7 +33789,7 @@
         <v>1.07</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU164" t="n">
         <v>1.36</v>
@@ -33989,10 +33989,10 @@
         <v>2.27</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU165" t="n">
         <v>1.79</v>
@@ -34598,7 +34598,7 @@
         <v>0.73</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT168" t="n">
         <v>0.71</v>
@@ -35004,7 +35004,7 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT170" t="n">
         <v>0.29</v>
@@ -35616,7 +35616,7 @@
         <v>0.79</v>
       </c>
       <c r="AT173" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU173" t="n">
         <v>1.51</v>
@@ -36225,7 +36225,7 @@
         <v>1.64</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU176" t="n">
         <v>1.37</v>
@@ -36831,10 +36831,10 @@
         <v>1.75</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU179" t="n">
         <v>1.29</v>
@@ -37237,7 +37237,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT181" t="n">
         <v>0.57</v>
@@ -37443,7 +37443,7 @@
         <v>1.64</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU182" t="n">
         <v>1.29</v>
@@ -38658,7 +38658,7 @@
         <v>2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT188" t="n">
         <v>2.07</v>
@@ -38861,10 +38861,10 @@
         <v>1.85</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU189" t="n">
         <v>1.75</v>
@@ -39067,7 +39067,7 @@
         <v>2.43</v>
       </c>
       <c r="AT190" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU190" t="n">
         <v>2.37</v>
@@ -40285,7 +40285,7 @@
         <v>2.14</v>
       </c>
       <c r="AT196" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU196" t="n">
         <v>1.88</v>
@@ -40485,7 +40485,7 @@
         <v>0.85</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT197" t="n">
         <v>0.86</v>
@@ -40540,6 +40540,615 @@
       </c>
       <c r="BK197" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5619057</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45021.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>2</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2</v>
+      </c>
+      <c r="S198" t="n">
+        <v>4</v>
+      </c>
+      <c r="T198" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V198" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X198" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5619056</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45021.5625</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>5</v>
+      </c>
+      <c r="R199" t="n">
+        <v>4</v>
+      </c>
+      <c r="S199" t="n">
+        <v>9</v>
+      </c>
+      <c r="T199" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5619058</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45021.625</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>3</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>4</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['59', '78', '87']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>4</v>
+      </c>
+      <c r="R200" t="n">
+        <v>3</v>
+      </c>
+      <c r="S200" t="n">
+        <v>7</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V200" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT3" t="n">
         <v>1.36</v>
@@ -1715,7 +1715,7 @@
         <v>2.36</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.93</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.27</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.07</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT12" t="n">
         <v>0.86</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT13" t="n">
         <v>2.2</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT15" t="n">
         <v>2.07</v>
@@ -3948,7 +3948,7 @@
         <v>2.27</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU17" t="n">
         <v>1.85</v>
@@ -4151,7 +4151,7 @@
         <v>2.36</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU18" t="n">
         <v>1.27</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT19" t="n">
         <v>1.14</v>
@@ -4760,7 +4760,7 @@
         <v>2.43</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -5163,7 +5163,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT23" t="n">
         <v>1.14</v>
@@ -5369,7 +5369,7 @@
         <v>1.07</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU24" t="n">
         <v>1.46</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT27" t="n">
         <v>0.86</v>
@@ -6384,7 +6384,7 @@
         <v>2.14</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU29" t="n">
         <v>2.15</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT30" t="n">
         <v>2.13</v>
@@ -6787,10 +6787,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU31" t="n">
         <v>1.39</v>
@@ -6993,7 +6993,7 @@
         <v>2.36</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT34" t="n">
         <v>1.8</v>
@@ -7805,7 +7805,7 @@
         <v>1.13</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU36" t="n">
         <v>1.45</v>
@@ -8008,7 +8008,7 @@
         <v>0.93</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU37" t="n">
         <v>0.61</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT38" t="n">
         <v>1.36</v>
@@ -9226,7 +9226,7 @@
         <v>2.43</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU43" t="n">
         <v>1.82</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT44" t="n">
         <v>1.64</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.62</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT46" t="n">
         <v>2.07</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU50" t="n">
         <v>1.34</v>
@@ -10850,7 +10850,7 @@
         <v>1.13</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU51" t="n">
         <v>1.3</v>
@@ -11053,7 +11053,7 @@
         <v>1.93</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11862,7 +11862,7 @@
         <v>1.75</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT56" t="n">
         <v>1.14</v>
@@ -12268,7 +12268,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT58" t="n">
         <v>1.64</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT59" t="n">
         <v>2.07</v>
@@ -12677,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU60" t="n">
         <v>1.83</v>
@@ -13486,10 +13486,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU64" t="n">
         <v>1.07</v>
@@ -14098,7 +14098,7 @@
         <v>2.27</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -15313,10 +15313,10 @@
         <v>0</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU73" t="n">
         <v>1.13</v>
@@ -15516,7 +15516,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT74" t="n">
         <v>0.86</v>
@@ -15722,7 +15722,7 @@
         <v>2.14</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU75" t="n">
         <v>1.94</v>
@@ -15922,10 +15922,10 @@
         <v>0.17</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU76" t="n">
         <v>0.8100000000000001</v>
@@ -16328,7 +16328,7 @@
         <v>2.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT78" t="n">
         <v>2.13</v>
@@ -16534,7 +16534,7 @@
         <v>1.93</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT80" t="n">
         <v>2.2</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT81" t="n">
         <v>0.36</v>
@@ -17549,7 +17549,7 @@
         <v>1.13</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU84" t="n">
         <v>1.34</v>
@@ -18967,10 +18967,10 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU91" t="n">
         <v>1.13</v>
@@ -19170,10 +19170,10 @@
         <v>0.29</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU92" t="n">
         <v>1.23</v>
@@ -19579,7 +19579,7 @@
         <v>2.43</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU94" t="n">
         <v>2.39</v>
@@ -19779,7 +19779,7 @@
         <v>1.83</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT95" t="n">
         <v>1.64</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT98" t="n">
         <v>0.71</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT99" t="n">
         <v>1.8</v>
@@ -20797,7 +20797,7 @@
         <v>1.07</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU100" t="n">
         <v>1.09</v>
@@ -21403,7 +21403,7 @@
         <v>1.71</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT103" t="n">
         <v>1.8</v>
@@ -22015,7 +22015,7 @@
         <v>0.93</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU106" t="n">
         <v>1.25</v>
@@ -22215,7 +22215,7 @@
         <v>1.71</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT107" t="n">
         <v>1.64</v>
@@ -23027,10 +23027,10 @@
         <v>0.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU111" t="n">
         <v>1.31</v>
@@ -23230,7 +23230,7 @@
         <v>0.86</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT112" t="n">
         <v>0.71</v>
@@ -23639,7 +23639,7 @@
         <v>1.07</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU114" t="n">
         <v>1.17</v>
@@ -24245,10 +24245,10 @@
         <v>0.38</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU117" t="n">
         <v>1.26</v>
@@ -24854,7 +24854,7 @@
         <v>0.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT120" t="n">
         <v>1.36</v>
@@ -25666,10 +25666,10 @@
         <v>0.25</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU124" t="n">
         <v>1.33</v>
@@ -26478,10 +26478,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU128" t="n">
         <v>1</v>
@@ -26681,7 +26681,7 @@
         <v>0.44</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT129" t="n">
         <v>0.36</v>
@@ -27293,7 +27293,7 @@
         <v>1.07</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU132" t="n">
         <v>1.18</v>
@@ -27696,7 +27696,7 @@
         <v>2</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT134" t="n">
         <v>2.07</v>
@@ -28714,7 +28714,7 @@
         <v>2.14</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU139" t="n">
         <v>1.98</v>
@@ -28917,7 +28917,7 @@
         <v>0.93</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU140" t="n">
         <v>1.13</v>
@@ -29117,7 +29117,7 @@
         <v>2.44</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT141" t="n">
         <v>2.2</v>
@@ -29320,10 +29320,10 @@
         <v>0.6</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU142" t="n">
         <v>1.47</v>
@@ -29729,7 +29729,7 @@
         <v>2.36</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU144" t="n">
         <v>1.51</v>
@@ -29929,7 +29929,7 @@
         <v>0.4</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT145" t="n">
         <v>0.36</v>
@@ -30541,7 +30541,7 @@
         <v>1.07</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU148" t="n">
         <v>1.34</v>
@@ -31350,7 +31350,7 @@
         <v>1.9</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT152" t="n">
         <v>1.8</v>
@@ -31556,7 +31556,7 @@
         <v>2.43</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU153" t="n">
         <v>2.31</v>
@@ -32162,10 +32162,10 @@
         <v>0.64</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU156" t="n">
         <v>1.25</v>
@@ -32568,10 +32568,10 @@
         <v>0.64</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU158" t="n">
         <v>1.01</v>
@@ -32974,10 +32974,10 @@
         <v>0.27</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU160" t="n">
         <v>1.32</v>
@@ -33177,7 +33177,7 @@
         <v>0.73</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT161" t="n">
         <v>0.86</v>
@@ -33383,7 +33383,7 @@
         <v>1.13</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU162" t="n">
         <v>1.29</v>
@@ -34801,7 +34801,7 @@
         <v>0.67</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT169" t="n">
         <v>0.71</v>
@@ -35007,7 +35007,7 @@
         <v>2.27</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU170" t="n">
         <v>1.82</v>
@@ -35613,7 +35613,7 @@
         <v>1.82</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT173" t="n">
         <v>2.13</v>
@@ -35819,7 +35819,7 @@
         <v>2.14</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU174" t="n">
         <v>1.89</v>
@@ -36222,7 +36222,7 @@
         <v>1.92</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT176" t="n">
         <v>2.13</v>
@@ -36425,10 +36425,10 @@
         <v>0.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU177" t="n">
         <v>1.02</v>
@@ -37240,7 +37240,7 @@
         <v>1.93</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU181" t="n">
         <v>1.69</v>
@@ -37440,7 +37440,7 @@
         <v>2.17</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT182" t="n">
         <v>2.2</v>
@@ -37846,7 +37846,7 @@
         <v>1.23</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT184" t="n">
         <v>1.14</v>
@@ -38049,10 +38049,10 @@
         <v>0.23</v>
       </c>
       <c r="AS185" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU185" t="n">
         <v>1.49</v>
@@ -38252,10 +38252,10 @@
         <v>0.54</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU186" t="n">
         <v>1.23</v>
@@ -38458,7 +38458,7 @@
         <v>0.93</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AU187" t="n">
         <v>1.16</v>
@@ -39470,10 +39470,10 @@
         <v>0.54</v>
       </c>
       <c r="AS192" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU192" t="n">
         <v>1.02</v>
@@ -41136,7 +41136,7 @@
         <v>9</v>
       </c>
       <c r="BG200" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH200" t="n">
         <v>7</v>
@@ -41148,7 +41148,819 @@
         <v>16</v>
       </c>
       <c r="BK200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5619063</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>PAS Giannina</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>9</v>
+      </c>
+      <c r="R201" t="n">
+        <v>3</v>
+      </c>
+      <c r="S201" t="n">
+        <v>12</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V201" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5619064</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45024.47916666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>3</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>2</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>3</v>
+      </c>
+      <c r="L202" t="n">
+        <v>4</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
         <v>5</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['42', '45', '78', '82']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>4</v>
+      </c>
+      <c r="R202" t="n">
+        <v>5</v>
+      </c>
+      <c r="S202" t="n">
+        <v>9</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U202" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5619065</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45024.5625</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Panaitolikos</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>4</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2</v>
+      </c>
+      <c r="S203" t="n">
+        <v>6</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5619062</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45024.5625</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>2</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2</v>
+      </c>
+      <c r="S204" t="n">
+        <v>4</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V204" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK204"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT5" t="n">
         <v>1.14</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT6" t="n">
         <v>0.67</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.87</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT14" t="n">
         <v>0.71</v>
@@ -3542,7 +3542,7 @@
         <v>1.53</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT18" t="n">
         <v>0.47</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT21" t="n">
         <v>0.6</v>
@@ -5775,7 +5775,7 @@
         <v>2.27</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU26" t="n">
         <v>1.66</v>
@@ -5978,7 +5978,7 @@
         <v>1.53</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU27" t="n">
         <v>0.66</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT28" t="n">
         <v>2.13</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT29" t="n">
         <v>0.67</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT32" t="n">
         <v>0.6</v>
@@ -7602,7 +7602,7 @@
         <v>1.93</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -8617,7 +8617,7 @@
         <v>1.13</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU40" t="n">
         <v>1.35</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT41" t="n">
         <v>2.2</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT43" t="n">
         <v>0.67</v>
@@ -9429,7 +9429,7 @@
         <v>0.87</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU44" t="n">
         <v>0.77</v>
@@ -9835,7 +9835,7 @@
         <v>0.93</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU46" t="n">
         <v>1.05</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT48" t="n">
         <v>0.36</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT53" t="n">
         <v>0.71</v>
@@ -12271,7 +12271,7 @@
         <v>1.6</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU58" t="n">
         <v>1.42</v>
@@ -12474,7 +12474,7 @@
         <v>0.87</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU59" t="n">
         <v>0.83</v>
@@ -12877,7 +12877,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT61" t="n">
         <v>0.36</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU62" t="n">
         <v>1.3</v>
@@ -14501,7 +14501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT69" t="n">
         <v>1.8</v>
@@ -15113,7 +15113,7 @@
         <v>0.93</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU72" t="n">
         <v>1.03</v>
@@ -15519,7 +15519,7 @@
         <v>1.6</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU74" t="n">
         <v>1.36</v>
@@ -15719,7 +15719,7 @@
         <v>0.2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT75" t="n">
         <v>0.6</v>
@@ -16125,10 +16125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU77" t="n">
         <v>1.34</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT82" t="n">
         <v>1.36</v>
@@ -17346,7 +17346,7 @@
         <v>1.07</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU83" t="n">
         <v>1.12</v>
@@ -17955,7 +17955,7 @@
         <v>1.07</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18155,7 +18155,7 @@
         <v>0.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT87" t="n">
         <v>0.71</v>
@@ -18764,10 +18764,10 @@
         <v>2.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU90" t="n">
         <v>1.91</v>
@@ -19376,7 +19376,7 @@
         <v>1.07</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU93" t="n">
         <v>1.08</v>
@@ -19576,7 +19576,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT94" t="n">
         <v>0.67</v>
@@ -19782,7 +19782,7 @@
         <v>1.53</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU95" t="n">
         <v>1.21</v>
@@ -19985,7 +19985,7 @@
         <v>1.07</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU96" t="n">
         <v>1.6</v>
@@ -21606,7 +21606,7 @@
         <v>0.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT104" t="n">
         <v>1.36</v>
@@ -22218,7 +22218,7 @@
         <v>0.93</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU107" t="n">
         <v>1.4</v>
@@ -22827,7 +22827,7 @@
         <v>1</v>
       </c>
       <c r="AT110" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -23433,10 +23433,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU113" t="n">
         <v>1.91</v>
@@ -24045,7 +24045,7 @@
         <v>1.13</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU116" t="n">
         <v>1.31</v>
@@ -24651,7 +24651,7 @@
         <v>2.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT119" t="n">
         <v>2.2</v>
@@ -25260,7 +25260,7 @@
         <v>1.13</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT122" t="n">
         <v>1.36</v>
@@ -25463,7 +25463,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT123" t="n">
         <v>1.14</v>
@@ -25872,7 +25872,7 @@
         <v>2.27</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU125" t="n">
         <v>1.68</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26887,7 +26887,7 @@
         <v>1.93</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU130" t="n">
         <v>1.71</v>
@@ -27493,7 +27493,7 @@
         <v>1.78</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT133" t="n">
         <v>1.8</v>
@@ -27699,7 +27699,7 @@
         <v>1.6</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU134" t="n">
         <v>1.33</v>
@@ -28508,10 +28508,10 @@
         <v>0.89</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU138" t="n">
         <v>2.35</v>
@@ -28711,7 +28711,7 @@
         <v>0.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT139" t="n">
         <v>0.47</v>
@@ -29526,7 +29526,7 @@
         <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU143" t="n">
         <v>1.34</v>
@@ -29726,7 +29726,7 @@
         <v>0.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT144" t="n">
         <v>0.67</v>
@@ -30132,10 +30132,10 @@
         <v>1.9</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT146" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU146" t="n">
         <v>1.96</v>
@@ -30338,7 +30338,7 @@
         <v>1.07</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU147" t="n">
         <v>1.21</v>
@@ -31553,7 +31553,7 @@
         <v>0.3</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT153" t="n">
         <v>0.47</v>
@@ -31959,10 +31959,10 @@
         <v>1.73</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU155" t="n">
         <v>1.57</v>
@@ -32368,7 +32368,7 @@
         <v>0.93</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU157" t="n">
         <v>1.22</v>
@@ -32771,7 +32771,7 @@
         <v>2</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT159" t="n">
         <v>2.13</v>
@@ -33180,7 +33180,7 @@
         <v>0.93</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU161" t="n">
         <v>1.53</v>
@@ -33583,7 +33583,7 @@
         <v>0.45</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT163" t="n">
         <v>0.36</v>
@@ -35210,7 +35210,7 @@
         <v>1.07</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU171" t="n">
         <v>1.31</v>
@@ -35413,7 +35413,7 @@
         <v>0.93</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU172" t="n">
         <v>1.19</v>
@@ -35816,7 +35816,7 @@
         <v>0.58</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT174" t="n">
         <v>0.67</v>
@@ -36019,7 +36019,7 @@
         <v>1.33</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT175" t="n">
         <v>1.14</v>
@@ -37643,10 +37643,10 @@
         <v>1.92</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT183" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU183" t="n">
         <v>2.4</v>
@@ -38661,7 +38661,7 @@
         <v>1.13</v>
       </c>
       <c r="AT188" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU188" t="n">
         <v>1.22</v>
@@ -39064,7 +39064,7 @@
         <v>2.23</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT190" t="n">
         <v>2.2</v>
@@ -40079,10 +40079,10 @@
         <v>1.69</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU195" t="n">
         <v>1.72</v>
@@ -40282,7 +40282,7 @@
         <v>2</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT196" t="n">
         <v>2.13</v>
@@ -40488,7 +40488,7 @@
         <v>2.27</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU197" t="n">
         <v>1.83</v>
@@ -41213,13 +41213,13 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R201" t="n">
         <v>3</v>
       </c>
       <c r="S201" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T201" t="n">
         <v>2.77</v>
@@ -41961,6 +41961,615 @@
       </c>
       <c r="BK204" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5619059</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45025.5</v>
+      </c>
+      <c r="F205" t="n">
+        <v>4</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="n">
+        <v>2</v>
+      </c>
+      <c r="L205" t="n">
+        <v>3</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>4</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['36', '82', '90+5']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>4</v>
+      </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
+      <c r="S205" t="n">
+        <v>4</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V205" t="n">
+        <v>9</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5619061</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45025.60416666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>4</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>4</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>4</v>
+      </c>
+      <c r="L206" t="n">
+        <v>4</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2</v>
+      </c>
+      <c r="N206" t="n">
+        <v>6</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['6', '16', '27', '45+4']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['58', '88']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>8</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2</v>
+      </c>
+      <c r="S206" t="n">
+        <v>10</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V206" t="n">
+        <v>13</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5619060</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Greece Super League</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45025.625</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['28', '36']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>5</v>
+      </c>
+      <c r="R207" t="n">
+        <v>1</v>
+      </c>
+      <c r="S207" t="n">
+        <v>6</v>
+      </c>
+      <c r="T207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
